--- a/2024/links.xlsx
+++ b/2024/links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jadair/dev/other/openelections/openelections-sources-tx/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185F90A8-2C5F-974A-9E23-8D1C6D485710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABEB691-FFC8-B141-B321-C91EDC8B45CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37140" yWindow="2940" windowWidth="13700" windowHeight="17440" xr2:uid="{0A3A9BE1-0345-1F43-83BB-DD4724CDBC33}"/>
+    <workbookView xWindow="37100" yWindow="2920" windowWidth="13700" windowHeight="17440" xr2:uid="{0A3A9BE1-0345-1F43-83BB-DD4724CDBC33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2327" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2343" uniqueCount="271">
   <si>
     <t>link</t>
   </si>
@@ -857,13 +857,22 @@
   </si>
   <si>
     <t>2024 prc</t>
+  </si>
+  <si>
+    <t>pir</t>
+  </si>
+  <si>
+    <t>received</t>
+  </si>
+  <si>
+    <t>pending</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -892,12 +901,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1270,10 +1273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F4D006-1FEF-0643-93A7-2547EF91B854}">
-  <dimension ref="A1:J255"/>
+  <dimension ref="A1:K255"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="D182" sqref="D182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1290,7 +1293,7 @@
     <col min="10" max="10" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>258</v>
       </c>
@@ -1321,8 +1324,11 @@
       <c r="J1" s="6" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1352,7 +1358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1382,7 +1388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1412,7 +1418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1442,7 +1448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1472,7 +1478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1502,7 +1508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1532,7 +1538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1562,7 +1568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1592,7 +1598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1622,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -1654,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1684,7 +1690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1714,7 +1720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1746,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1778,7 +1784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -1808,7 +1814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1838,7 +1844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -1868,7 +1874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -1898,7 +1904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -1928,7 +1934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -1957,8 +1963,11 @@
       <c r="J22" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K22" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -1988,7 +1997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -2018,7 +2027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -2048,7 +2057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -2078,7 +2087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -2108,7 +2117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
@@ -2138,7 +2147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
@@ -2168,7 +2177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -2198,7 +2207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,7 +2237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
@@ -2742,7 +2751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>51</v>
       </c>
@@ -2772,7 +2781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>52</v>
       </c>
@@ -2802,7 +2811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>53</v>
       </c>
@@ -2832,7 +2841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>54</v>
       </c>
@@ -2862,7 +2871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>55</v>
       </c>
@@ -2892,7 +2901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
@@ -2922,7 +2931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>57</v>
       </c>
@@ -2952,7 +2961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>58</v>
       </c>
@@ -2982,7 +2991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>59</v>
       </c>
@@ -3012,7 +3021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>60</v>
       </c>
@@ -3043,8 +3052,11 @@
       <c r="J58" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K58" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>61</v>
       </c>
@@ -3074,7 +3086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>62</v>
       </c>
@@ -3104,7 +3116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>63</v>
       </c>
@@ -3134,7 +3146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>64</v>
       </c>
@@ -3156,17 +3168,17 @@
       <c r="G62" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3" t="s">
+      <c r="H62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>65</v>
       </c>
@@ -3196,7 +3208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>66</v>
       </c>
@@ -3838,7 +3850,7 @@
       <c r="C85" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E85" s="1" t="s">
@@ -3847,7 +3859,7 @@
       <c r="F85" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="G85" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H85" s="1" t="s">
@@ -3856,7 +3868,7 @@
       <c r="I85" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J85" s="3" t="s">
+      <c r="J85" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4194,7 +4206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>99</v>
       </c>
@@ -4224,7 +4236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>100</v>
       </c>
@@ -4254,7 +4266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>101</v>
       </c>
@@ -4284,7 +4296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>102</v>
       </c>
@@ -4314,7 +4326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>103</v>
       </c>
@@ -4323,13 +4335,13 @@
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1" t="s">
-        <v>1</v>
+        <v>268</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>1</v>
+        <v>268</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>1</v>
+        <v>268</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>1</v>
@@ -4343,8 +4355,11 @@
       <c r="J101" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K101" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>104</v>
       </c>
@@ -4374,7 +4389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>105</v>
       </c>
@@ -4404,7 +4419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>106</v>
       </c>
@@ -4434,7 +4449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>107</v>
       </c>
@@ -4464,7 +4479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>108</v>
       </c>
@@ -4494,7 +4509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>109</v>
       </c>
@@ -4524,7 +4539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>110</v>
       </c>
@@ -4554,7 +4569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>111</v>
       </c>
@@ -4567,17 +4582,17 @@
       <c r="D109" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>1</v>
+      <c r="E109" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H109" s="1" t="s">
-        <v>1</v>
+      <c r="H109" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>1</v>
@@ -4586,7 +4601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>112</v>
       </c>
@@ -4616,7 +4631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>113</v>
       </c>
@@ -4646,7 +4661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>114</v>
       </c>
@@ -4677,8 +4692,11 @@
       <c r="J112" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K112" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>115</v>
       </c>
@@ -4708,7 +4726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>116</v>
       </c>
@@ -4738,7 +4756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>117</v>
       </c>
@@ -4768,7 +4786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>118</v>
       </c>
@@ -4798,18 +4816,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C117" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>0</v>
+      <c r="C117" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>1</v>
@@ -4817,8 +4835,8 @@
       <c r="F117" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G117" s="2" t="s">
-        <v>0</v>
+      <c r="G117" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>1</v>
@@ -4827,10 +4845,13 @@
         <v>1</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>120</v>
       </c>
@@ -4860,7 +4881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>121</v>
       </c>
@@ -4890,7 +4911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>122</v>
       </c>
@@ -4920,7 +4941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>123</v>
       </c>
@@ -4950,7 +4971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>124</v>
       </c>
@@ -4980,7 +5001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>125</v>
       </c>
@@ -5010,7 +5031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>126</v>
       </c>
@@ -5042,7 +5063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>127</v>
       </c>
@@ -5072,7 +5093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>128</v>
       </c>
@@ -5102,7 +5123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>129</v>
       </c>
@@ -5132,7 +5153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>130</v>
       </c>
@@ -5162,7 +5183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>131</v>
       </c>
@@ -5192,7 +5213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>132</v>
       </c>
@@ -5224,7 +5245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>133</v>
       </c>
@@ -5255,8 +5276,11 @@
       <c r="J131" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K131" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>134</v>
       </c>
@@ -5286,7 +5310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>135</v>
       </c>
@@ -5316,7 +5340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>136</v>
       </c>
@@ -5346,7 +5370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>137</v>
       </c>
@@ -5376,7 +5400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>138</v>
       </c>
@@ -5406,7 +5430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>139</v>
       </c>
@@ -5436,7 +5460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>140</v>
       </c>
@@ -5466,7 +5490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>141</v>
       </c>
@@ -5496,7 +5520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>142</v>
       </c>
@@ -5528,7 +5552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>143</v>
       </c>
@@ -5558,7 +5582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>144</v>
       </c>
@@ -5588,7 +5612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>145</v>
       </c>
@@ -5618,7 +5642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>146</v>
       </c>
@@ -6130,7 +6154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>163</v>
       </c>
@@ -6160,7 +6184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>164</v>
       </c>
@@ -6190,7 +6214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>165</v>
       </c>
@@ -6220,7 +6244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>166</v>
       </c>
@@ -6228,8 +6252,8 @@
         <v>0</v>
       </c>
       <c r="C164" s="1"/>
-      <c r="D164" s="1" t="s">
-        <v>1</v>
+      <c r="D164" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>1</v>
@@ -6246,11 +6270,14 @@
       <c r="I164" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J164" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J164" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K164" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>167</v>
       </c>
@@ -6280,7 +6307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>168</v>
       </c>
@@ -6312,7 +6339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>169</v>
       </c>
@@ -6342,7 +6369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>170</v>
       </c>
@@ -6372,7 +6399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>171</v>
       </c>
@@ -6402,7 +6429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>172</v>
       </c>
@@ -6434,7 +6461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>173</v>
       </c>
@@ -6464,7 +6491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>174</v>
       </c>
@@ -6494,7 +6521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>175</v>
       </c>
@@ -6524,7 +6551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>176</v>
       </c>
@@ -6554,7 +6581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>177</v>
       </c>
@@ -6584,7 +6611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>178</v>
       </c>
@@ -6614,7 +6641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>179</v>
       </c>
@@ -6644,7 +6671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>180</v>
       </c>
@@ -6674,7 +6701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>181</v>
       </c>
@@ -6706,7 +6733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>182</v>
       </c>
@@ -6736,7 +6763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>183</v>
       </c>
@@ -6766,7 +6793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>184</v>
       </c>
@@ -6775,7 +6802,7 @@
       </c>
       <c r="C182" s="1"/>
       <c r="D182" s="1" t="s">
-        <v>1</v>
+        <v>268</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>1</v>
@@ -6784,7 +6811,7 @@
         <v>1</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>1</v>
+        <v>268</v>
       </c>
       <c r="H182" s="1" t="s">
         <v>1</v>
@@ -6793,10 +6820,13 @@
         <v>1</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+      <c r="K182" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>185</v>
       </c>
@@ -6826,7 +6856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>186</v>
       </c>
@@ -6856,7 +6886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>187</v>
       </c>
@@ -6888,7 +6918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>188</v>
       </c>
@@ -6918,7 +6948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>189</v>
       </c>
@@ -6948,7 +6978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>190</v>
       </c>
@@ -6977,8 +7007,11 @@
       <c r="J188" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K188" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>191</v>
       </c>
@@ -7008,7 +7041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>192</v>
       </c>
@@ -7038,7 +7071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>193</v>
       </c>
@@ -7068,7 +7101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>194</v>
       </c>
@@ -7584,7 +7617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>211</v>
       </c>
@@ -7614,7 +7647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>212</v>
       </c>
@@ -7644,7 +7677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>213</v>
       </c>
@@ -7674,7 +7707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>214</v>
       </c>
@@ -7704,7 +7737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>215</v>
       </c>
@@ -7734,7 +7767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>216</v>
       </c>
@@ -7764,7 +7797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>217</v>
       </c>
@@ -7794,7 +7827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>218</v>
       </c>
@@ -7824,7 +7857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>219</v>
       </c>
@@ -7854,7 +7887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>220</v>
       </c>
@@ -7884,7 +7917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>221</v>
       </c>
@@ -7914,7 +7947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>222</v>
       </c>
@@ -7944,7 +7977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>223</v>
       </c>
@@ -7976,7 +8009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>224</v>
       </c>
@@ -7985,13 +8018,13 @@
       </c>
       <c r="C222" s="1"/>
       <c r="D222" s="1" t="s">
-        <v>1</v>
+        <v>268</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>1</v>
+        <v>268</v>
       </c>
       <c r="F222" s="1" t="s">
-        <v>1</v>
+        <v>268</v>
       </c>
       <c r="G222" s="1" t="s">
         <v>1</v>
@@ -8005,8 +8038,11 @@
       <c r="J222" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K222" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>225</v>
       </c>
@@ -8036,7 +8072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>226</v>
       </c>
@@ -8066,7 +8102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>227</v>
       </c>
@@ -8096,7 +8132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>228</v>
       </c>
@@ -8126,7 +8162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>229</v>
       </c>
@@ -8156,7 +8192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>230</v>
       </c>
@@ -8188,7 +8224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>231</v>
       </c>
@@ -8218,7 +8254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>232</v>
       </c>
@@ -8248,7 +8284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>233</v>
       </c>
@@ -8278,7 +8314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>234</v>
       </c>
@@ -8308,7 +8344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>235</v>
       </c>
@@ -8338,7 +8374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>236</v>
       </c>
@@ -8368,7 +8404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>237</v>
       </c>
@@ -8397,8 +8433,11 @@
       <c r="J235" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K235" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>238</v>
       </c>
@@ -8430,7 +8469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>239</v>
       </c>
@@ -8460,7 +8499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>240</v>
       </c>
@@ -8489,8 +8528,11 @@
       <c r="J238" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K238" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>241</v>
       </c>
@@ -8520,7 +8562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>242</v>
       </c>
@@ -8550,7 +8592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>243</v>
       </c>
@@ -8558,8 +8600,8 @@
         <v>0</v>
       </c>
       <c r="C241" s="1"/>
-      <c r="D241" s="3" t="s">
-        <v>0</v>
+      <c r="D241" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="E241" s="1" t="s">
         <v>1</v>
@@ -8568,7 +8610,7 @@
         <v>1</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>1</v>
+        <v>268</v>
       </c>
       <c r="H241" s="1" t="s">
         <v>1</v>
@@ -8577,10 +8619,13 @@
         <v>1</v>
       </c>
       <c r="J241" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+      <c r="K241" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>244</v>
       </c>
@@ -8610,7 +8655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>245</v>
       </c>
@@ -8640,7 +8685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>246</v>
       </c>
@@ -8670,7 +8715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>247</v>
       </c>
@@ -8700,7 +8745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>248</v>
       </c>
@@ -8730,7 +8775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>249</v>
       </c>
@@ -8740,7 +8785,7 @@
       <c r="C247" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D247" s="3" t="s">
+      <c r="D247" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E247" s="1" t="s">
@@ -8750,7 +8795,7 @@
         <v>1</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H247" s="1" t="s">
         <v>1</v>
@@ -8758,11 +8803,14 @@
       <c r="I247" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J247" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J247" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K247" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>250</v>
       </c>
@@ -8791,8 +8839,11 @@
       <c r="J248" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K248" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>251</v>
       </c>
@@ -8822,7 +8873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>252</v>
       </c>
@@ -8852,7 +8903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>253</v>
       </c>
@@ -8884,7 +8935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>254</v>
       </c>
@@ -8914,7 +8965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>255</v>
       </c>
@@ -8944,7 +8995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>256</v>
       </c>
@@ -8974,7 +9025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>257</v>
       </c>
@@ -9172,486 +9223,488 @@
     <hyperlink ref="B60" r:id="rId164" display="https://www.co.deaf-smith.tx.us/page/deafsmith.County.Clerk" xr:uid="{13A14621-B4E7-C843-9693-775EB873AE96}"/>
     <hyperlink ref="B61" r:id="rId165" display="https://www.deltacountytx.com/elections/page/election-results" xr:uid="{CFB9E99D-FB5F-EF40-9BCE-0FA8B7DBC404}"/>
     <hyperlink ref="I61" r:id="rId166" display="https://www.deltacountytx.com/media/3051" xr:uid="{9DAA4457-5FFC-2643-B7F3-52A4432DA7BC}"/>
-    <hyperlink ref="B62" r:id="rId167" location="PastElections" display="https://www.votedenton.gov/election-results-and-maps/election-results/ - PastElections" xr:uid="{58A1FCCB-2F40-3843-A4E0-E4BBC1C89E92}"/>
-    <hyperlink ref="C62" r:id="rId168" display="https://results.enr.clarityelections.com/TX/Denton/" xr:uid="{C32E261F-BEFA-0E49-B6EF-1A1B026D21FB}"/>
-    <hyperlink ref="D62" r:id="rId169" display="https://results.enr.clarityelections.com/TX/Denton/122426/355989/reports/detailxls.zip" xr:uid="{2274F7D0-B92E-1B4F-839D-C82A9FBDDC9B}"/>
-    <hyperlink ref="E62" r:id="rId170" display="https://results.enr.clarityelections.com/TX/Denton/120183/334619/reports/detailxls.zip" xr:uid="{D284C5CE-B3D2-4541-8B3E-0CA0B2C88F9B}"/>
-    <hyperlink ref="F62" r:id="rId171" display="https://results.enr.clarityelections.com/TX/Denton/120184/334618/reports/detailxls.zip" xr:uid="{C8993416-9892-5D4A-BE4B-0C34AC45D41F}"/>
-    <hyperlink ref="H62" r:id="rId172" display="https://results.enr.clarityelections.com/TX/Denton/121671/340633/reports/detailxls.zip" xr:uid="{DF52079B-1F2D-1443-988E-264B3AF97FBC}"/>
-    <hyperlink ref="I62" r:id="rId173" display="https://results.enr.clarityelections.com/TX/Denton/121672/340634/reports/detailxls.zip" xr:uid="{0184982D-B3B0-7441-A0EE-9EF1F3404967}"/>
-    <hyperlink ref="B63" r:id="rId174" display="https://www.co.dewitt.tx.us/page/dewitt.Elections" xr:uid="{14D93EE7-49B2-9A4E-BD74-A23570FD53F1}"/>
-    <hyperlink ref="D63" r:id="rId175" display="https://www.co.dewitt.tx.us/upload/page/1634/November 5, 2024 General Election/November 5 2024 General Election Precinct Report.pdf" xr:uid="{03279F42-150D-6143-B761-5E37304F5CDC}"/>
-    <hyperlink ref="E63" r:id="rId176" display="https://www.co.dewitt.tx.us/upload/page/1634/March 5 2024 Primary/Precinct Result Report Democratic 3.5.24.pdf" xr:uid="{4C198867-046B-5347-8C60-3B73E7A2CD16}"/>
-    <hyperlink ref="F63" r:id="rId177" display="https://www.co.dewitt.tx.us/upload/page/1634/March 5 2024 Primary/Precinct Result Report Republican 3.5.24.pdf" xr:uid="{8F83F598-EF81-534A-986A-7EF26F1EEC1C}"/>
-    <hyperlink ref="I63" r:id="rId178" display="https://www.co.dewitt.tx.us/upload/page/1634/May 28 2024 Primary Run off/May 28 2024 Republican Primary Runoff Precinct Report.pdf" xr:uid="{44F7F034-E199-8740-B83C-B5A6F3123998}"/>
-    <hyperlink ref="B64" r:id="rId179" display="https://www.co.dickens.tx.us/page/dickens.Elections" xr:uid="{2903BB19-D9C2-934D-A51F-FBCD87452908}"/>
-    <hyperlink ref="B65" r:id="rId180" display="https://www.dimmitcounty.org/government/departments/elections/index.php" xr:uid="{C4D67318-7BD4-C54E-B0B9-9D0F9F62C187}"/>
-    <hyperlink ref="B66" r:id="rId181" display="https://www.co.donley.tx.us/page/donley.Elections" xr:uid="{E74D8A7B-BFD2-CD4B-92F6-4E316B42A1E4}"/>
-    <hyperlink ref="B67" r:id="rId182" display="https://www.co.duval.tx.us/page/duval.ElectionArchives" xr:uid="{C055840E-A7E9-F849-A45C-345FC34D1EC0}"/>
-    <hyperlink ref="D67" r:id="rId183" display="https://www.co.duval.tx.us/upload/page/11353/Precinct Results-11-6-2024 08-30-08 AM.pdf" xr:uid="{84867572-45C1-0948-8EA9-4402870E54BF}"/>
-    <hyperlink ref="G67" r:id="rId184" display="https://www.co.duval.tx.us/upload/page/11353/20240305_Precinct Results.pdf" xr:uid="{C2197F41-5274-4E4B-8C16-7D428CBE05D1}"/>
-    <hyperlink ref="J67" r:id="rId185" display="https://www.co.duval.tx.us/upload/page/11353/20240528_ElectionResults.pdf" xr:uid="{03D1FD86-801B-7541-B948-314BA3C5BDED}"/>
-    <hyperlink ref="B68" r:id="rId186" display="https://www.eastlandcountytexas.com/page/eastland.Joint.Elections.Administrator" xr:uid="{90ADC578-09F6-E34F-A2F4-456AA883F5CB}"/>
-    <hyperlink ref="B69" r:id="rId187" display="https://www.co.ector.tx.us/page/ector.elections" xr:uid="{0E58110B-DD29-F945-8CD6-94D1764119B6}"/>
-    <hyperlink ref="D69" r:id="rId188" display="https://www.co.ector.tx.us/upload/page/7873/docs/Elections/November 5, 2024 Election/Precinct Results-11-13-2024 01-08-05 PM.pdf" xr:uid="{96217584-5D4E-8C42-967F-5AF996100F24}"/>
-    <hyperlink ref="B70" r:id="rId189" display="https://www.co.edwards.tx.us/page/edwards.electionsnew" xr:uid="{F0E8A48F-89E2-3141-B40A-07671BA30F89}"/>
-    <hyperlink ref="B71" r:id="rId190" display="https://www.co.ellis.tx.us/403/Prior-Election-Results" xr:uid="{654FA57D-503D-F04D-8A69-8F3E04401D56}"/>
-    <hyperlink ref="D71" r:id="rId191" display="https://www.co.ellis.tx.us/DocumentCenter/View/19538/241105-General-Precinct-by-Race-Report-Whole-Precincts" xr:uid="{4E2FBFC9-AEC8-DB46-BB23-CF0F311236C0}"/>
-    <hyperlink ref="E71" r:id="rId192" display="https://www.co.ellis.tx.us/DocumentCenter/View/18461/DEM-Pct-by-Race-Results-Election-Night" xr:uid="{B528702F-9438-1941-AFC4-D2082B315ADD}"/>
-    <hyperlink ref="F71" r:id="rId193" display="https://www.co.ellis.tx.us/DocumentCenter/View/18460/REP-Pct-by-Race-Results-Election-Night" xr:uid="{95C6B782-8DBF-9745-B753-ED74B313D307}"/>
-    <hyperlink ref="I71" r:id="rId194" display="https://www.co.ellis.tx.us/DocumentCenter/View/18989/240528-Pct-by-Race-Totals" xr:uid="{B11D346D-97D8-C14B-B76B-D170BEE26D38}"/>
-    <hyperlink ref="B72" r:id="rId195" display="https://epcountyvotes.com/election-archives" xr:uid="{98FEFBB1-E72D-144A-9B3A-A36F76052AB6}"/>
-    <hyperlink ref="C72" r:id="rId196" display="https://results.enr.clarityelections.com/TX/El_Paso/" xr:uid="{56778833-CDD9-9C4D-B2E3-759495C7058C}"/>
-    <hyperlink ref="D72" r:id="rId197" display="https://results.enr.clarityelections.com/TX/Denton/120184/334618/reports/detailxls.zip" xr:uid="{37BBCD14-6A67-A542-BE9F-20436676D22E}"/>
-    <hyperlink ref="G72" r:id="rId198" display="https://results.enr.clarityelections.com/TX/El_Paso/120338/334441/reports/detailxls.zip" xr:uid="{BF7A7BD9-98C4-544E-86EC-5C06EC8735D6}"/>
-    <hyperlink ref="J72" r:id="rId199" display="https://results.enr.clarityelections.com/TX/El_Paso/121722/344586/reports/detailxls.zip" xr:uid="{5B2DB7FE-6BB4-974C-A8F3-A388BAC8B275}"/>
-    <hyperlink ref="B73" r:id="rId200" display="https://www.co.erath.tx.us/184/Elections-Administration" xr:uid="{196800BB-E5EE-8243-B257-1EFE3AEB6D94}"/>
-    <hyperlink ref="B74" r:id="rId201" display="https://www.co.falls.tx.us/page/falls.Elections" xr:uid="{E3BDBE23-92F7-564E-9115-F3B684C476BF}"/>
-    <hyperlink ref="B75" r:id="rId202" display="https://www.co.fannin.tx.us/page/fannin.Elections" xr:uid="{38C1FA48-B6CA-E441-B97B-A198AF15E463}"/>
-    <hyperlink ref="B76" r:id="rId203" display="https://newtools.cira.state.tx.us/page/fayette.Elections.PastResults" xr:uid="{0C77A2C2-A1BB-B349-9809-800A24684F66}"/>
-    <hyperlink ref="D76" r:id="rId204" display="https://newtools.cira.state.tx.us/upload/page/1737/2024 Elections/pctxpct_report_11052024.pdf" xr:uid="{78F6469B-A244-B84B-A66C-2FEDFCF0CD34}"/>
-    <hyperlink ref="G76" r:id="rId205" display="https://newtools.cira.state.tx.us/upload/page/1737/2024/official_precinct_report_march_5_2024_election_results.pdf" xr:uid="{D0486D12-31CF-8949-8B0D-603BD2DF4481}"/>
-    <hyperlink ref="B77" r:id="rId206" display="https://www.fishercounty.org/page/fisher.ElectionPage" xr:uid="{9025A024-B951-A84E-9EB6-B8D104627FA6}"/>
-    <hyperlink ref="B78" r:id="rId207" display="https://www.co.floyd.tx.us/page/floyd.Elections" xr:uid="{70A5596A-EB93-E548-97A4-BD01CAF25E35}"/>
-    <hyperlink ref="B79" r:id="rId208" display="https://www.foardcounty.texas.gov/page/foard.County.Clerk" xr:uid="{D49C3D8B-A064-934E-9759-36241A675DFD}"/>
-    <hyperlink ref="B80" r:id="rId209" display="https://www.fortbendcountytx.gov/government/departments/elections-voter-registration/2024-election-results" xr:uid="{E181E2AC-34A9-7E4D-92EC-062FF5C0CB8E}"/>
-    <hyperlink ref="D80" r:id="rId210" display="https://www.fortbendcountytx.gov/sites/default/files/document-central/document-central/elections-documents/elections-results/2024/FBC-Precinct-Reports3.pdf" xr:uid="{051080AE-C2A6-6949-B23C-1B6C8E566E6B}"/>
-    <hyperlink ref="G80" r:id="rId211" display="https://www.fortbendcountytx.gov/sites/default/files/document-central/document-central/elections-documents/elections-results/2024/March-5%2C-2024-Precinct-results.pdf" xr:uid="{9D8B58D4-E6D5-7C4D-9765-64DF304ED549}"/>
-    <hyperlink ref="J80" r:id="rId212" display="https://results.enr.clarityelections.com/TX/Fort_Bend/121705/340722/reports/detailxls.zip" xr:uid="{305557E7-0957-CA48-934F-17E1042236FF}"/>
-    <hyperlink ref="B81" r:id="rId213" display="https://www.co.franklin.tx.us/page/franklin.elections" xr:uid="{72E1F410-8253-B040-92C6-8EFF31287391}"/>
-    <hyperlink ref="D81" r:id="rId214" display="https://www.co.franklin.tx.us/upload/page/1844/2024 Elections/nov_2024__official_results.pdf" xr:uid="{13A3CDDD-0343-F040-AE26-7ED2B36FC74A}"/>
-    <hyperlink ref="E81" r:id="rId215" display="https://www.co.franklin.tx.us/upload/page/1844/2024/03052024__democrat_official__precinct_by_precinct.pdf" xr:uid="{2375A97C-0DEF-3145-AD3D-9569B9846A87}"/>
-    <hyperlink ref="F81" r:id="rId216" display="https://www.co.franklin.tx.us/upload/page/1844/2024/03052024__republican_official__precinct_by_precinct.pdf" xr:uid="{C6BDE3B6-CB10-3C48-9EE9-FB0DFDE53FB9}"/>
-    <hyperlink ref="B82" r:id="rId217" display="https://www.co.freestone.tx.us/page/freestone.Elections" xr:uid="{A121C6D2-EA3A-BB42-A5B3-E8FA7B28813D}"/>
-    <hyperlink ref="B83" r:id="rId218" display="https://www.co.frio.tx.us/page/elect.home" xr:uid="{B276F588-DCCB-334F-A8F5-E0DF7D433901}"/>
-    <hyperlink ref="B84" r:id="rId219" display="https://www.co.gaines.tx.us/page/gaines.Elections.Archive" xr:uid="{2F85266D-7283-B94F-90FB-59608FF0B57F}"/>
-    <hyperlink ref="B85" r:id="rId220" display="https://galvestonvotes.org/election-information/historical-elections/" xr:uid="{9A876E31-ED2F-344E-9854-ADEDB1110F0D}"/>
-    <hyperlink ref="C85" r:id="rId221" display="https://results.enr.clarityelections.com/TX/Galveston/" xr:uid="{4CA29577-04AF-4A4C-8279-AF2D75A7A691}"/>
-    <hyperlink ref="D85" r:id="rId222" display="https://results.enr.clarityelections.com/TX/Galveston/122842/356002/reports/detailxls.zip" xr:uid="{C9B3B740-2584-6446-8391-C5018F987D6E}"/>
-    <hyperlink ref="G85" r:id="rId223" display="https://results.enr.clarityelections.com/TX/Galveston/120369/334584/reports/detailxls.zip" xr:uid="{A9F7CF1B-0CCE-5F48-A0D2-B002BEC4C8A7}"/>
-    <hyperlink ref="J85" r:id="rId224" display="https://results.enr.clarityelections.com/TX/Galveston/121793/341338/reports/detailxls.zip" xr:uid="{B65934A4-EDBE-C44E-8F3E-4E73494317ED}"/>
-    <hyperlink ref="B86" r:id="rId225" display="https://www.garzacounty.net/page/elections" xr:uid="{AC67FEB7-87CF-724F-B777-D3ECE55D731F}"/>
-    <hyperlink ref="B87" r:id="rId226" display="https://www.gillespiecounty.org/page/election_results" xr:uid="{F9C77767-5F77-3948-BD0D-BDB6869F26F4}"/>
-    <hyperlink ref="D87" r:id="rId227" display="https://www.gillespiecounty.org/upload/page/0170/docs/elections/2024-11-15  OFFICIAL Precinct Results Report.pdf" xr:uid="{571B71F0-4682-B647-8808-1B8E537F7F72}"/>
-    <hyperlink ref="E87" r:id="rId228" display="https://www.gillespiecounty.org/upload/page/0170/docs/elections/GILLESPIE COUNTY March 5 2024 DEMOCRAT PRIMARY.pdf" xr:uid="{578D149F-2071-7D48-84C5-0B99BB2B96F0}"/>
-    <hyperlink ref="F87" r:id="rId229" display="https://www.gillespiecounty.org/upload/page/0170/docs/elections/TOTAL-Canvass of March 5 2024 Gillespie County Republican Primary.pdf" xr:uid="{C53F3232-DF2F-EE45-91E2-E2897C7DFAAF}"/>
-    <hyperlink ref="I87" r:id="rId230" display="https://www.gillespiecounty.org/upload/page/0170/docs/elections/Canvass_Official Results of May 28 2024 Gillespie County Republican Primary Runoff.pdf" xr:uid="{9AD3C9E0-9A2E-6042-92E7-2489C4E0B49B}"/>
-    <hyperlink ref="B88" r:id="rId231" display="https://www.co.glasscock.tx.us/page/glasscock.Elections" xr:uid="{6A4A196E-7B86-0844-B531-3E309AE59B37}"/>
-    <hyperlink ref="D88" r:id="rId232" display="https://newtools.cira.state.tx.us/upload/page/0767/2024/TALLY TOTALS for 11-5-24 General Election 1124 24.xlsx" xr:uid="{E4E47465-B0B2-3D43-BD67-659FE2D9D76E}"/>
-    <hyperlink ref="B89" r:id="rId233" display="https://www.co.goliad.tx.us/page/goliad.Elections" xr:uid="{DE3D7928-DA39-F74E-AB39-989ECBC14B9D}"/>
-    <hyperlink ref="B90" r:id="rId234" display="https://www.co.gonzales.tx.us/page/gonzales.Elections.Admin" xr:uid="{182FEF74-7EE9-424B-8485-8BB4F55D2653}"/>
-    <hyperlink ref="D90" r:id="rId235" display="https://www.co.gonzales.tx.us/upload/page/10685/110524 General Election/Pct by Pct Official Results 110524.pdf" xr:uid="{84D6641C-0668-104B-8056-4E3750469277}"/>
-    <hyperlink ref="E90" r:id="rId236" display="https://www.co.gonzales.tx.us/upload/page/10685/030524 Primary/Democratic Official Pct by Pct 030524.pdf" xr:uid="{F76CC579-1630-3D4A-8693-E0445DF0B1FB}"/>
-    <hyperlink ref="F90" r:id="rId237" display="https://www.co.gonzales.tx.us/upload/page/10685/030524 Primary/Republican Official Pct by Pct 030524.pdf" xr:uid="{86B35131-75B4-854F-9C20-9F8B11E48606}"/>
-    <hyperlink ref="I90" r:id="rId238" display="https://www.co.gonzales.tx.us/upload/page/10685/052824 Primary Runoff/Pct by Pct Results 052824.pdf" xr:uid="{E5C5E704-81F7-7146-BA22-FD26AA4CB752}"/>
-    <hyperlink ref="B91" r:id="rId239" display="https://www.co.gray.tx.us/page/gray.Elections" xr:uid="{9A8988BA-15FD-5B4E-A88C-688DC0A4AB1B}"/>
-    <hyperlink ref="B92" r:id="rId240" display="https://www.co.grayson.tx.us/page/elec.history" xr:uid="{4A6B15FC-7075-4047-AB61-E130255899E0}"/>
-    <hyperlink ref="D92" r:id="rId241" display="https://www.co.grayson.tx.us/page/open/3389/0/Official Pct. by Pct. Summary Results General 11.5.24 Election" xr:uid="{CEA5F515-836A-264C-8BDF-DE49F960581D}"/>
-    <hyperlink ref="G92" r:id="rId242" display="https://www.co.grayson.tx.us/page/open/3389/0/March 5 2024 Precinct Results Report" xr:uid="{247E8230-4AA0-4C43-8EBE-7D96AFDE0B8D}"/>
-    <hyperlink ref="J92" r:id="rId243" display="https://www.co.grayson.tx.us/page/open/3389/0/May 28th RunOff Official Precinct By Precinct Report" xr:uid="{F8285D47-603E-7144-9B0C-6CBC00BD7A16}"/>
-    <hyperlink ref="B93" r:id="rId244" display="https://www.greggcountyvotes.com/" xr:uid="{9F40E5DB-DB94-464E-B6B1-E5BEDDDF3FB4}"/>
-    <hyperlink ref="C93" r:id="rId245" display="https://results.enr.clarityelections.com/TX/Gregg/" xr:uid="{4D11C2BB-EDB0-AB4D-ABA1-0448CFF77EC9}"/>
-    <hyperlink ref="D93" r:id="rId246" display="https://results.enr.clarityelections.com/TX/Gregg/122313/355603/reports/detailxls.zip" xr:uid="{E8A00D18-BE92-FE4F-A8F8-0ED793DCAB2A}"/>
-    <hyperlink ref="G93" r:id="rId247" display="https://results.enr.clarityelections.com/TX/Gregg/120010/333176/reports/detailxls.zip" xr:uid="{06CA62DA-2D1D-C04F-A260-E3FDEE9E6ADE}"/>
-    <hyperlink ref="B94" r:id="rId248" display="https://grimescountytexas.gov/index.asp?SEC=%7B916A9ACA-66FE-481D-BE2B-84C6C590431D%7D" xr:uid="{B162D2B5-CAC8-FB46-8113-DC395C936114}"/>
-    <hyperlink ref="D94" r:id="rId249" display="https://grimescountytexas.gov/vertical/sites/%7B958238D0-27E6-4F6C-919E-F1D98542C5FD%7D/uploads/11.05.2024_OFFICIAL_Canvass_Results(1).pdf" xr:uid="{0CA463EE-2152-8A4B-A79D-A9150C5B9AEF}"/>
-    <hyperlink ref="G94" r:id="rId250" display="https://grimescountytexas.gov/vertical/sites/%7B958238D0-27E6-4F6C-919E-F1D98542C5FD%7D/uploads/OFFICIAL_CANVASS_RESULTS(1).pdf" xr:uid="{1762A895-AC82-2D4E-9ED5-E18724FFCDDA}"/>
-    <hyperlink ref="J94" r:id="rId251" display="https://grimescountytexas.gov/vertical/sites/%7B958238D0-27E6-4F6C-919E-F1D98542C5FD%7D/uploads/5.28.2024_PRIMARY_RUNOFF_OFFICIAL_CANVASS_RESULTS(1).pdf" xr:uid="{0C6C0DEB-6598-F341-984E-8ED3FE55B716}"/>
-    <hyperlink ref="B95" r:id="rId252" display="https://www.guadalupetx.gov/page/elections.history" xr:uid="{6BA9A041-C37A-F34D-8641-F0A21E4773FE}"/>
-    <hyperlink ref="C95" r:id="rId253" display="https://results.enr.clarityelections.com/TX/Guadalupe/" xr:uid="{4FA6B1B9-8F11-5E49-9D17-310DACE87CA5}"/>
-    <hyperlink ref="D95" r:id="rId254" display="https://www.guadalupetx.gov/upload/page/0210/docs/2024/11-5-24-GC_General-PrctbyPrct.pdf" xr:uid="{BA069584-02A0-2F44-9DB6-0CAB628047C1}"/>
-    <hyperlink ref="E95" r:id="rId255" display="https://www.guadalupetx.gov/upload/page/0210/Dem_Primary_Official_Results_PrctbyPrct.pdf" xr:uid="{B6821E41-A64E-744E-B931-9BE14A9626BF}"/>
-    <hyperlink ref="F95" r:id="rId256" display="https://www.guadalupetx.gov/upload/page/0210/Rep_Primary_Official_Results_PrctbyPrct.pdf" xr:uid="{0ABDD25F-4675-F447-A991-769D846DA21B}"/>
-    <hyperlink ref="B96" r:id="rId257" display="https://www.halecounty.org/county_offices/election_information.php" xr:uid="{1809D0FD-FD9D-104F-8CC7-6D7A2AED4DDC}"/>
-    <hyperlink ref="D96" r:id="rId258" display="https://cms2.revize.com/revize/halecountynew/Precinct Results-11-13-2024 01-27-08 PM.pdf" xr:uid="{58CBE8A1-800D-9C4B-BA47-171CCBD57938}"/>
-    <hyperlink ref="B97" r:id="rId259" display="https://www.co.hall.tx.us/page/hall.County.Elections" xr:uid="{CE155D1B-7356-B04D-B822-8B1EFF02EF88}"/>
-    <hyperlink ref="B98" r:id="rId260" display="https://www.co.hamilton.tx.us/page/hamilton.elections" xr:uid="{59EB1083-333E-4D45-9BCE-B1DC7E364A1C}"/>
-    <hyperlink ref="D98" r:id="rId261" display="https://www.hamiltoncountytx.gov/upload/page/8825/Official Results Nov 5 General Pct x Pct.pdf" xr:uid="{A3847638-A671-7D4B-9B42-EC155C5DA02E}"/>
-    <hyperlink ref="G98" r:id="rId262" display="https://www.hamiltoncountytx.gov/upload/page/8825/2024 Primary Elections/Unofficial Results for PCT. by PCT.pdf" xr:uid="{33E56BF5-A668-F145-8A44-D5C9434A4E20}"/>
-    <hyperlink ref="H98" r:id="rId263" display="https://www.hamiltoncountytx.gov/upload/page/8825/Democratic Primary Runoff Pct. x Pct. Official Results.pdf" xr:uid="{87FB6553-011C-2049-B112-2C018E4AE0C8}"/>
-    <hyperlink ref="B99" r:id="rId264" display="https://www.co.hansford.tx.us/page/hansford.Elections" xr:uid="{ADDE4774-679E-2C4D-ABD5-34035A5D0124}"/>
-    <hyperlink ref="B100" r:id="rId265" display="https://www.co.hardeman.tx.us/page/hardeman.Elections" xr:uid="{A9EEEACB-413C-B84A-BCBD-6DB4D9CCF909}"/>
-    <hyperlink ref="B101" r:id="rId266" display="https://www.co.hardin.tx.us/page/ElectionsDepartment" xr:uid="{11AFE886-A2D2-6445-B286-D176B38D919A}"/>
-    <hyperlink ref="B102" r:id="rId267" display="https://www.harrisvotes.com/Election-Results/Archives" xr:uid="{B4BF3921-F700-8543-917C-F73469EEF0BD}"/>
-    <hyperlink ref="D102" r:id="rId268" display="https://hctxdnnstg.blob.core.windows.net/harrisvotes/prd/docs/Reports/FINAL Official Canvass Results-11-14-2024 03-12-57 PM.pdf" xr:uid="{48DF9E47-51B7-E441-AF33-CE9FFC029037}"/>
-    <hyperlink ref="E102" r:id="rId269" display="https://hctxdnnstg.blob.core.windows.net/harrisvotes/prd/docs/Official Dem Canvass Results-3-13-2024 11-57-16 AM.pdf" xr:uid="{C267D9A6-F938-7245-8B89-EF4F9F74FFFE}"/>
-    <hyperlink ref="F102" r:id="rId270" display="https://hctxdnnstg.blob.core.windows.net/harrisvotes/prd/docs/Official Rep Canvass Results-3-13-2024 11-50-05 AM.pdf" xr:uid="{FD718572-66F7-4A40-82E5-C75B319D702D}"/>
-    <hyperlink ref="H102" r:id="rId271" display="https://files.harrisvotes.com/harrisvotes/prd/docs/Reports/Official DEM Canvass Results-6-5-2024 11-13-02 AM.pdf" xr:uid="{0DCAEA35-FA57-EC4C-8E2C-1F7536818C6F}"/>
-    <hyperlink ref="I102" r:id="rId272" display="https://files.harrisvotes.com/harrisvotes/prd/docs/Reports/Official REP Canvass Results-6-5-2024 11-12-28 AM.pdf" xr:uid="{594A1E66-1015-8C47-A325-7FB295D6E23E}"/>
-    <hyperlink ref="B103" r:id="rId273" display="https://www.harrisoncountytexas.gov/page/harrison.Elections" xr:uid="{C610C450-D2DA-C94E-9F6B-10E096CE9518}"/>
-    <hyperlink ref="D103" r:id="rId274" display="https://www.harrisoncountytexas.gov/upload/page/12077/NOV 5, 2024/Precinct Results-11-18-2024 01-03-20 PM.pdf" xr:uid="{0CDCD350-A9A4-3E48-B54B-132CCD1285F5}"/>
-    <hyperlink ref="G103" r:id="rId275" display="https://www.harrisoncountytexas.gov/upload/page/12077/MARCH PRIMARY 2024/PrecinctResultsReport.pdf" xr:uid="{3DFF2286-61E2-9B48-8A01-DEA195E626C1}"/>
-    <hyperlink ref="B104" r:id="rId276" display="https://www.co.hartley.tx.us/page/hartley.Voter.Information" xr:uid="{ACE2A9C1-3F12-6C4D-BA9B-EB9584487733}"/>
-    <hyperlink ref="B105" r:id="rId277" display="https://www.haskellcountytx.gov/page/haskell.County.Clerk" xr:uid="{5D9FCC24-F558-5E4C-8EBE-97611F2820B4}"/>
-    <hyperlink ref="B106" r:id="rId278" display="https://www.hayscountytx.gov/election-results" xr:uid="{427643E8-367F-F949-B8D2-182B4B671818}"/>
-    <hyperlink ref="B107" r:id="rId279" display="https://www.co.hemphill.tx.us/page/hemphill.ElectionInformation" xr:uid="{C3DE06C4-11E8-1F40-81A8-0F43692E3270}"/>
-    <hyperlink ref="D107" r:id="rId280" display="https://www.co.hemphill.tx.us/upload/page/7666/nov 2024 general election by precinct report.pdf" xr:uid="{A7CC4BD8-F914-D445-89C0-BA574602BCB8}"/>
-    <hyperlink ref="B108" r:id="rId281" display="https://www.henderson-county.com/departments/elections-voter-registration/election-results" xr:uid="{45103907-82F1-C14E-9AE9-74C068012F4F}"/>
-    <hyperlink ref="D108" r:id="rId282" display="https://www.henderson-county.com/home/showpublisheddocument/23397/638676954817730000" xr:uid="{60DE66F7-5B95-B242-BB6F-FD34C09BDFB7}"/>
-    <hyperlink ref="B109" r:id="rId283" display="https://www.hidalgocounty.us/539/Archived-Election-Results" xr:uid="{F7B2EC8A-EFA7-FD40-835D-3BC71394910C}"/>
-    <hyperlink ref="C109" r:id="rId284" display="https://results.enr.clarityelections.com/TX/Hidalgo/" xr:uid="{D83D6385-8F99-DA48-B14A-61C6BE03A7D7}"/>
-    <hyperlink ref="D109" r:id="rId285" display="https://results.enr.clarityelections.com/TX/Hidalgo/122498/355530/reports/detailxls.zip" xr:uid="{E98A6E3D-0E5C-FF4D-9224-90AC8E3E4F1F}"/>
-    <hyperlink ref="J109" r:id="rId286" display="https://results.enr.clarityelections.com/TX/Hidalgo/121012/341500/reports/detailxls.zip" xr:uid="{E0953475-AB3C-0247-A05B-4646500C6FCE}"/>
-    <hyperlink ref="B110" r:id="rId287" display="https://www.co.hill.tx.us/page/hill.Elections" xr:uid="{AF786827-F399-7D4A-BD55-8710670A31F1}"/>
-    <hyperlink ref="B111" r:id="rId288" display="https://www.co.hockley.tx.us/page/hockley.electionshome" xr:uid="{0D3ED57B-8E06-9943-9B48-D1DF7BBD97A4}"/>
-    <hyperlink ref="B112" r:id="rId289" display="https://hoodcounty.texas.gov/departments/elections_administration/index.php" xr:uid="{B43B87DD-6DAB-DB41-9B8F-D0028A0F101A}"/>
-    <hyperlink ref="C112" r:id="rId290" display="https://results.enr.clarityelections.com/TX/Hood/" xr:uid="{3F8FF554-FDCD-2C45-8D1C-73B3888B654E}"/>
-    <hyperlink ref="D112" r:id="rId291" display="https://results.enr.clarityelections.com/TX/Hood/122858/355543/reports/detailxls.zip" xr:uid="{94F275DF-F906-5D45-BD9D-286F095DD060}"/>
-    <hyperlink ref="G112" r:id="rId292" display="https://results.enr.clarityelections.com/TX/Hood/120386/332333/reports/detailxls.zip" xr:uid="{8E38B469-F491-A84B-8863-30771F5E8354}"/>
-    <hyperlink ref="I112" r:id="rId293" display="https://results.enr.clarityelections.com/TX/Hood/121707/340726/reports/detailxls.zip" xr:uid="{33E44A05-3A64-5B4F-8E21-90A4190C4DB1}"/>
-    <hyperlink ref="B113" r:id="rId294" display="https://www.hopkinscountytx.org/page/hopkins.Elections" xr:uid="{35237D54-7422-D846-8CA4-27A831C16E2F}"/>
-    <hyperlink ref="B114" r:id="rId295" display="https://www.co.houston.tx.us/page/houston.Elections" xr:uid="{E3EEC786-8552-7644-8374-CAFF1BC74F09}"/>
-    <hyperlink ref="D114" r:id="rId296" display="https://www.co.houston.tx.us/upload/page/2956/2024 Nov/Pct X Pct Official Results - 11-5-24.pdf" xr:uid="{EE3454A9-2E25-764F-A14A-8B5E81B98FAC}"/>
-    <hyperlink ref="G114" r:id="rId297" display="https://www.co.houston.tx.us/upload/page/2956/2024 Primary/Official PCT x PCT.pdf" xr:uid="{4B45F481-B3F8-D244-8D3D-606D4C4870EC}"/>
-    <hyperlink ref="B115" r:id="rId298" display="https://www.co.howard.tx.us/page/howard.Election.Information" xr:uid="{3DE00081-0891-6741-8EEE-8FFCFC089DAD}"/>
-    <hyperlink ref="B116" r:id="rId299" display="https://www.co.hudspeth.tx.us/page/hudspeth.Elections" xr:uid="{99D4C890-0B3B-104C-9A13-615768014E8A}"/>
-    <hyperlink ref="G116" r:id="rId300" display="https://www.co.hudspeth.tx.us/upload/page/10211/2024/precinct_results362024_121555_pm.pdf" xr:uid="{5617EF73-C72F-B342-ABF8-8C2D63F425E5}"/>
-    <hyperlink ref="B117" r:id="rId301" display="https://www.huntcounty.net/page/hunt.election" xr:uid="{F10B6420-7806-E245-8F28-E021B85558FF}"/>
-    <hyperlink ref="C117" r:id="rId302" display="https://results.enr.clarityelections.com/TX/Hunt/" xr:uid="{C0F921CC-C647-8F4B-BEB8-BA9CF252C6FE}"/>
-    <hyperlink ref="D117" r:id="rId303" location="/summary" display="https://results.enr.clarityelections.com/TX/Hunt/122429/web.345435/ - /summary" xr:uid="{76AE082D-0D41-FE48-8ACC-AB5E79B9127B}"/>
-    <hyperlink ref="G117" r:id="rId304" display="https://results.enr.clarityelections.com/TX/Hunt/120185/331652/reports/detailxls.zip" xr:uid="{CED9B374-E5DD-0B40-B726-FB56319009B7}"/>
-    <hyperlink ref="B118" r:id="rId305" display="https://www.co.hutchinson.tx.us/page/hutchinson.ElectionInformation" xr:uid="{B343CE57-1B9D-6B43-86C9-05C665E2FBB0}"/>
-    <hyperlink ref="D118" r:id="rId306" display="https://newtools.cira.state.tx.us/upload/page/10714/docs/2024/2024 General Precinct by Precinct Official Results.pdf" xr:uid="{2691AB42-1F9B-EB47-8ACE-4ED2BAD9506B}"/>
-    <hyperlink ref="E118" r:id="rId307" display="https://newtools.cira.state.tx.us/upload/page/10714/docs/2024/Democratic Official Results.pdf" xr:uid="{96D5E9B0-7D8C-A247-AC08-5B744A6AE4CF}"/>
-    <hyperlink ref="F118" r:id="rId308" display="https://newtools.cira.state.tx.us/upload/page/10714/docs/2024/Republican Official Results.pdf" xr:uid="{2F8906BF-E870-604A-9BBF-75C17ADBFB09}"/>
-    <hyperlink ref="B119" r:id="rId309" display="https://www.co.irion.tx.us/page/irion.cityschoolelection" xr:uid="{FA093231-05B6-5346-B34D-6F372150706F}"/>
-    <hyperlink ref="B120" r:id="rId310" display="https://www.jackcounty.org/pages/elections.html" xr:uid="{FDC531B5-3075-6D43-B04B-F50C37098C38}"/>
-    <hyperlink ref="B121" r:id="rId311" display="https://www.co.jackson.tx.us/page/jackson.VotingElectionInformation" xr:uid="{574C43EA-4D3D-7541-8E53-6B30DC1E423F}"/>
-    <hyperlink ref="B122" r:id="rId312" display="https://www.co.jasper.tx.us/page/jasper.Elections" xr:uid="{1D6A049F-F649-1F4F-A25B-28245E886A22}"/>
-    <hyperlink ref="D122" r:id="rId313" display="https://www.co.jasper.tx.us/upload/page/1130/11-5-24 Official Pct by Pct Results.pdf" xr:uid="{20E1CFE6-C964-2B48-906A-2447192ED2FA}"/>
-    <hyperlink ref="G122" r:id="rId314" display="https://www.co.jasper.tx.us/upload/page/1130/2024 Elections/Official Result Summary 030524.pdf" xr:uid="{49A87D10-11D0-1843-B8B5-334ABD76620D}"/>
-    <hyperlink ref="J122" r:id="rId315" display="https://www.co.jasper.tx.us/upload/page/1130/2024 Elections/Official Pct by Pct 52824 Results.pdf" xr:uid="{00962D2C-91EA-F745-94C0-A6C260AC53C9}"/>
-    <hyperlink ref="B123" r:id="rId316" display="https://www.jeffdaviscounty.texas.gov/page/jeffdavis.Elections" xr:uid="{BAE2CB88-2979-1542-BC4A-FF14471512A1}"/>
-    <hyperlink ref="D123" r:id="rId317" display="https://www.jeffdaviscounty.texas.gov/upload/page/6574/2024/general_election__by_precinct__official.pdf" xr:uid="{A7E2A8B1-C602-6C41-9778-06AB1CE8E0C3}"/>
-    <hyperlink ref="G123" r:id="rId318" display="https://www.jeffdaviscounty.texas.gov/upload/page/6574/2024/summarybyprecinct_ev_abs_ed_1.pdf" xr:uid="{14623B00-48DB-0448-99F8-A7784E128670}"/>
-    <hyperlink ref="I123" r:id="rId319" display="https://www.jeffdaviscounty.texas.gov/upload/page/6574/2024/unofficial_results_by_precinct__early_absentee__election_day.pdf" xr:uid="{CA3352F1-E63D-A247-B03A-733FC1C6F81E}"/>
-    <hyperlink ref="B124" r:id="rId320" location="PastElections" display="https://www.jeffersonelections.com/voter-information/previous-election-results/ - PastElections" xr:uid="{466AE088-D501-C444-B98F-2D135A3262C7}"/>
-    <hyperlink ref="C124" r:id="rId321" location="PastElections" display="https://www.jeffersonelections.com/voter-information/previous-election-results/ - PastElections" xr:uid="{DAA6A4AF-EF3E-454C-A4DD-3FC46E60348F}"/>
-    <hyperlink ref="D124" r:id="rId322" display="https://results.enr.clarityelections.com/TX/Jefferson/122828/355360/reports/detailxls.zip" xr:uid="{B13F8FF2-7E14-BD45-834C-F58C08324292}"/>
-    <hyperlink ref="G124" r:id="rId323" display="https://results.enr.clarityelections.com/TX/Jefferson/120285/333410/reports/detailxls.zip" xr:uid="{7DB7BB57-0388-3A44-A792-7C5F07FA0572}"/>
-    <hyperlink ref="I124" r:id="rId324" display="https://results.enr.clarityelections.com/TX/Jefferson/121079/341343/reports/detailxls.zip" xr:uid="{3EF926BE-A936-A449-9498-069246FB8D97}"/>
-    <hyperlink ref="B125" r:id="rId325" display="https://www.co.jim-hogg.tx.us/page/jim-hogg.Elections" xr:uid="{78EDA14F-6F0D-0042-A8B6-5583A57CCA78}"/>
-    <hyperlink ref="D125" r:id="rId326" display="https://www.co.jim-hogg.tx.us/upload/page/9530/2024/11-5-24 Official Precinct Results.pdf" xr:uid="{DBE986B4-CE52-F643-8532-160BA85EEE2D}"/>
-    <hyperlink ref="G125" r:id="rId327" display="https://www.co.jim-hogg.tx.us/upload/page/9530/2024/Official Precinct Results-3-5-2024.pdf" xr:uid="{2FA61619-EE6E-F544-9B38-682C8D65C4C9}"/>
-    <hyperlink ref="B126" r:id="rId328" display="https://jimwellscountyelections.gov/all-official-notices/" xr:uid="{E5435305-D065-1740-ABC2-6D021315B282}"/>
-    <hyperlink ref="D126" r:id="rId329" display="https://jimwellscountyelections.gov/wp-content/uploads/2024/11/FINAL-OFFICIAL-RESULTS-2024-GENERAL-ELECTION-CUMULATIVE-AND-PCT-BY-PCT.pdf" xr:uid="{BBF0D44A-FBEF-7142-8AFF-C7A220E9ABC8}"/>
-    <hyperlink ref="B127" r:id="rId330" display="https://www.johnsoncountytx.org/departments/elections-office/election-results/elections-archive" xr:uid="{12E4CCCE-7277-454E-965F-CB9F9D19A87D}"/>
-    <hyperlink ref="D127" r:id="rId331" display="https://www.johnsoncountytx.org/home/showpublisheddocument/17697/638717692756030000" xr:uid="{8A526039-A9AD-BB43-AA97-EC09BE10C297}"/>
-    <hyperlink ref="E127" r:id="rId332" display="https://www.johnsoncountytx.org/home/showpublisheddocument/16543/638461081406670000" xr:uid="{C77C391C-3DC3-CD49-AD76-E09E98CD0AF1}"/>
-    <hyperlink ref="F127" r:id="rId333" display="https://www.johnsoncountytx.org/home/showpublisheddocument/16545/638461081415400000" xr:uid="{1E1A129F-11C1-8842-847D-06EEC987B001}"/>
-    <hyperlink ref="I127" r:id="rId334" display="https://www.johnsoncountytx.org/home/showpublisheddocument/16839/638536157872270000" xr:uid="{33CAAD8D-790B-EE47-A0BD-3D5AC423E054}"/>
-    <hyperlink ref="B128" r:id="rId335" display="https://www.co.jones.tx.us/page/jones.Elections" xr:uid="{636BD06B-2370-8A47-BC9F-19E6913722A0}"/>
-    <hyperlink ref="D128" r:id="rId336" display="https://www.co.jones.tx.us/upload/page/1293/2024/Results - Precinct by Precinct - November 5_ 2024 General Election.pdf" xr:uid="{C3A70772-A197-9B40-B04E-F398136D820B}"/>
-    <hyperlink ref="G128" r:id="rId337" display="https://www.co.jones.tx.us/upload/page/1293/2024/Results - Precinct by Precinct - March 5_ 2024 Primary Election.pdf" xr:uid="{FB0D285C-DB85-6D45-AA5B-389C99889EC8}"/>
-    <hyperlink ref="J128" r:id="rId338" display="https://www.co.jones.tx.us/upload/page/1293/2024/Results - Precint by Precint - March 28_ 2024.pdf" xr:uid="{40C91ADA-0359-A94A-AE53-07CF28D81666}"/>
-    <hyperlink ref="B129" r:id="rId339" display="https://www.co.karnes.tx.us/page/karnes.Elections" xr:uid="{D77F53F3-7A00-984A-83F0-37536E89AB39}"/>
-    <hyperlink ref="B130" r:id="rId340" display="https://www.kaufmancounty.net/436/ELECTION-RESULTS" xr:uid="{12936B49-82E7-A24E-AAFA-18261B0FE941}"/>
-    <hyperlink ref="C130" r:id="rId341" display="https://results.enr.clarityelections.com/TX/Kaufman/" xr:uid="{4988722E-3734-F448-8FF8-765A57F7F95D}"/>
-    <hyperlink ref="D130" r:id="rId342" display="https://results.enr.clarityelections.com/TX/Kaufman/122824/355375/reports/detailxls.zip" xr:uid="{2CC4AD56-7C06-6841-8781-0382D4FD2B48}"/>
-    <hyperlink ref="G130" r:id="rId343" display="https://results.enr.clarityelections.com/TX/Kaufman/120253/332318/reports/detailxls.zip" xr:uid="{D498EF18-71E3-7741-A0E6-8F2BF4DB7EF7}"/>
-    <hyperlink ref="I130" r:id="rId344" display="https://results.enr.clarityelections.com/TX/Kaufman/121710/340489/reports/detailxls.zip" xr:uid="{5A2F0740-1EB9-424F-BF2E-642B8A665587}"/>
-    <hyperlink ref="B131" r:id="rId345" display="https://www.kendallcountytx.gov/220/Election-Results-Past-Present" xr:uid="{8F893F1B-CACB-304C-835A-92F3BAC15C2B}"/>
-    <hyperlink ref="C131" r:id="rId346" display="https://results.enr.clarityelections.com/TX/Kendall/" xr:uid="{0696F391-38B5-5B42-BA59-B07E0A12910A}"/>
-    <hyperlink ref="D131" r:id="rId347" display="https://results.enr.clarityelections.com/TX/Kendall/122829/351989/reports/detailxls.zip" xr:uid="{80FC4270-7188-3D44-988C-3AD6E9634304}"/>
-    <hyperlink ref="G131" r:id="rId348" display="https://results.enr.clarityelections.com/TX/Kendall/120248/334534/reports/detailxls.zip" xr:uid="{C6F921A0-27C8-F749-BABA-AF2A27E648F7}"/>
-    <hyperlink ref="I131" r:id="rId349" display="https://results.enr.clarityelections.com/TX/Kendall/121795/342412/reports/detailxls.zip" xr:uid="{6AD575CF-7546-404D-BA05-2F4A8B04C122}"/>
-    <hyperlink ref="B132" r:id="rId350" display="https://kenedycountyelections.com/results/" xr:uid="{2ED14C87-DEEC-7347-BCBF-2CC23CB726F6}"/>
-    <hyperlink ref="D132" r:id="rId351" display="https://kenedycountyelections.com/wp-content/uploads/simple-file-list/Pct_-by-Pct_-Report-11-5-24.pdf" xr:uid="{6EDE9C25-EA52-0F4E-91AF-F0AE605FADC9}"/>
-    <hyperlink ref="B133" r:id="rId352" display="https://www.co.kent.tx.us/page/kent.Elections" xr:uid="{28CC573D-C673-534A-ACDF-D15BD04FA0D2}"/>
-    <hyperlink ref="B134" r:id="rId353" location="gsc.tab=0" display="https://www.kerrcountytx.gov/voting-in-kerr-county/kerr-county-elections - gsc.tab=0" xr:uid="{ABB436CC-727F-6D45-9355-E5743FC77EF7}"/>
-    <hyperlink ref="D134" r:id="rId354" display="https://legacy.co.kerr.tx.us/elections/docs/2024-11-05/Official_General_Election_November_5_2024_ Precinct_Results.pdf" xr:uid="{DB69F3C3-6C73-D14C-BD18-60C8761579D4}"/>
-    <hyperlink ref="E134" r:id="rId355" display="https://legacy.co.kerr.tx.us/elections/results/2024-03-05/Democratic_March_5_2024-Official_Precinct_Results.pdf" xr:uid="{1F8E98D4-9A83-904E-80EF-E15E69D318F5}"/>
-    <hyperlink ref="F134" r:id="rId356" display="https://legacy.co.kerr.tx.us/elections/results/2024-03-05/Republican_March_5_2024-Official_Precinct_Results.pdf" xr:uid="{3752A09D-1A82-6F4A-B04D-E864448E95FB}"/>
-    <hyperlink ref="I134" r:id="rId357" display="https://legacy.co.kerr.tx.us/elections/results/2024-05-28/Official Republican Primary Runoff May 28,2024 Precinct by Precinct  Results-6-4-2024 11-08-13 AM.pdf" xr:uid="{FC64756B-47DA-C94D-840F-5297859A95EC}"/>
-    <hyperlink ref="B135" r:id="rId358" display="https://www.co.kimble.tx.us/page/kimble.Elections" xr:uid="{07954E55-E38F-0748-B3E9-19450554F7C7}"/>
-    <hyperlink ref="B136" r:id="rId359" display="https://www.co.king.tx.us/page/king.County.Clerk" xr:uid="{685A6312-0C99-4447-9688-9BDD347454DA}"/>
-    <hyperlink ref="B137" r:id="rId360" display="https://www.co.kinney.tx.us/page/kinney.Elections" xr:uid="{0799F66C-BE3D-BA4D-A046-2E8E09F9345F}"/>
-    <hyperlink ref="B138" r:id="rId361" display="https://www.co.kleberg.tx.us/page/kleberg.elections" xr:uid="{715C821B-47F6-B444-BFAE-F160F25CBFD3}"/>
-    <hyperlink ref="B139" r:id="rId362" display="https://www.knoxcountytexas.org/page/knox.elections" xr:uid="{F2846DD6-A36D-B34F-805B-6D08C9076381}"/>
-    <hyperlink ref="B140" r:id="rId363" display="https://www.co.lamar.tx.us/page/lamar.elections" xr:uid="{ECCBF35A-C2BE-0B4D-B3C0-D3F83C94FC9A}"/>
-    <hyperlink ref="C140" r:id="rId364" display="https://results.enr.clarityelections.com/TX/Lamar/" xr:uid="{6E9DD0AC-522F-954D-BBFD-D80ECC060EE7}"/>
-    <hyperlink ref="D140" r:id="rId365" display="https://results.enr.clarityelections.com/TX/Lamar/122497/351606/reports/detailxls.zip" xr:uid="{CC836A22-5865-3840-886D-842B225F1276}"/>
-    <hyperlink ref="G140" r:id="rId366" display="https://results.enr.clarityelections.com/TX/Lamar/119865/334231/reports/detailxls.zip" xr:uid="{0A1F0941-49DB-7D40-99B4-12001288EC5A}"/>
-    <hyperlink ref="I140" r:id="rId367" display="https://results.enr.clarityelections.com/TX/Lamar/121669/340131/reports/detailxls.zip" xr:uid="{A69A5950-056F-7144-85AA-B710BCBEDB19}"/>
-    <hyperlink ref="B141" r:id="rId368" display="https://www.co.lamb.tx.us/page/lamb.ElectionsHome" xr:uid="{EFD05BE7-1CD6-754B-8EDF-C9D8887255D1}"/>
-    <hyperlink ref="B142" r:id="rId369" display="https://www.co.lampasas.tx.us/page/lampasas.testpage2" xr:uid="{0B1BE707-A8E7-554F-B278-BBD1755795B0}"/>
-    <hyperlink ref="B143" r:id="rId370" display="https://www.co.la-salle.tx.us/index.php/offices/election-board" xr:uid="{B17C6838-2DA4-2C41-9869-7F300C558494}"/>
-    <hyperlink ref="D143" r:id="rId371" display="https://www.co.la-salle.tx.us/images/pdfs/2024_Elections/Nov2024/OFFICIAL_CANVASS_GENERAL_ELECTION.pdf" xr:uid="{17319B27-BF1D-094B-9597-C2D45094CCFB}"/>
-    <hyperlink ref="B144" r:id="rId372" display="https://www.co.lavaca.tx.us/page/Elections" xr:uid="{F6C95ECE-5E29-FF41-9B43-0D86C6B5F907}"/>
-    <hyperlink ref="G144" r:id="rId373" display="https://www.co.lavaca.tx.us/upload/page/0122/2024 update PRECINCT REPORT UNOFFICAL.pdf" xr:uid="{D00CABB8-DABB-384D-95DF-C9FF80A95D8E}"/>
-    <hyperlink ref="I144" r:id="rId374" display="https://www.co.lavaca.tx.us/upload/page/0122/052824PRECINCT SUMMARY REPORT.pdf" xr:uid="{8C11B06D-1F19-8E4C-8C71-023BD4CAB53A}"/>
-    <hyperlink ref="B145" r:id="rId375" display="https://www.co.lee.tx.us/page/lee.Elections" xr:uid="{0A345A28-10FB-604D-9A37-1F4C68D4ACF9}"/>
-    <hyperlink ref="D145" r:id="rId376" display="https://www.co.lee.tx.us/upload/page/11450/updated pct by pct 110524.pdf" xr:uid="{0227BB02-D6C1-8045-9B3B-363658C6AFAF}"/>
-    <hyperlink ref="J145" r:id="rId377" display="https://www.co.lee.tx.us/upload/page/11450/pct by pct 5-28-24.pdf" xr:uid="{AF64D303-AC13-7243-B169-9DEC2515EEBF}"/>
-    <hyperlink ref="B146" r:id="rId378" display="https://www.co.leon.tx.us/page/leon.elections" xr:uid="{029046E6-0E76-8C4A-96C2-3BC866D6E97F}"/>
-    <hyperlink ref="D146" r:id="rId379" display="https://www.co.leon.tx.us/upload/page/4964/docs/110524 GENERAL/110524 GENERAL OFFICIAL PCT BY PCT.pdf" xr:uid="{F34585FF-9947-AE46-A835-C7CAEAF3647D}"/>
-    <hyperlink ref="G146" r:id="rId380" display="https://www.co.leon.tx.us/upload/page/4964/030524 OFFICIAL PCT BY PCT TO WEB.pdf" xr:uid="{8D21AB5F-74AA-8C49-A6E4-327EB5FF2005}"/>
-    <hyperlink ref="I146" r:id="rId381" display="https://www.co.leon.tx.us/upload/page/4964/052824 OFFICIAL PCT BY PCT.pdf" xr:uid="{0595D265-40C4-A244-80CA-5F8ABEF4446E}"/>
-    <hyperlink ref="B147" r:id="rId382" display="https://www.co.liberty.tx.us/page/liberty.elections.past.historical" xr:uid="{A2063B85-0FDB-874C-841F-DAA0B8D0589B}"/>
-    <hyperlink ref="D147" r:id="rId383" display="https://www.co.liberty.tx.us/upload/page/11966/Precinct Results-11-14-2024 08-18-41 AM.pdf" xr:uid="{F3AF7E3B-D6BC-D646-B547-4A62D1166739}"/>
-    <hyperlink ref="G147" r:id="rId384" display="https://www.co.liberty.tx.us/upload/page/11197/Final Precinct Results-3-8-2024 02-28-35 PM.pdf" xr:uid="{B46ED577-0B8F-DE44-98AD-CD6D41C3188F}"/>
-    <hyperlink ref="B148" r:id="rId385" display="https://www.co.limestone.tx.us/page/limestone.elections" xr:uid="{C8268A0D-8122-F04E-9976-58740B2AC1E9}"/>
-    <hyperlink ref="D148" r:id="rId386" display="https://newtools.cira.state.tx.us/upload/page/5631/241105 Precinct.pdf" xr:uid="{97CD7739-9B17-9C48-BBDB-6C5CFF8A61DB}"/>
-    <hyperlink ref="G148" r:id="rId387" display="https://newtools.cira.state.tx.us/upload/page/5631/240305 Final Unofficial box x box.pdf" xr:uid="{2B97C62B-DD19-904A-B311-55BF1ECE2A15}"/>
-    <hyperlink ref="J148" r:id="rId388" display="https://newtools.cira.state.tx.us/upload/page/5631/240528 Precinct Results.pdf" xr:uid="{C2724A1F-B5B4-D142-A38A-9E2058CCD11D}"/>
-    <hyperlink ref="B149" r:id="rId389" display="https://www.co.lipscomb.tx.us/page/lipscomb.ElectionInformation" xr:uid="{ABE259D6-9DD5-6B47-8ABC-249AA077D3EC}"/>
-    <hyperlink ref="B150" r:id="rId390" display="https://www.co.live-oak.tx.us/page/liveoak.Elections" xr:uid="{45F7CB13-13B6-8249-AE00-68A994A49BBB}"/>
-    <hyperlink ref="G150" r:id="rId391" display="https://www.co.live-oak.tx.us/upload/page/11665/Becca add/Official Precinct Resultsv D   R 3 15 2024.pdf" xr:uid="{BE961500-0D3A-8D49-930B-2564D36BDDB6}"/>
-    <hyperlink ref="B151" r:id="rId392" display="https://www.co.llano.tx.us/page/llano.Archived.Elections" xr:uid="{16284672-7881-404F-AE6A-24326421EA3E}"/>
-    <hyperlink ref="D151" r:id="rId393" display="https://newtools.cira.state.tx.us/upload/page/0979/2024/November 2024/Official Election Results Precinct-11-15-2024 08-15-19 AM.pdf" xr:uid="{1A7DB868-A13F-EC4B-AF15-CC04C741EE34}"/>
-    <hyperlink ref="E151" r:id="rId394" display="https://newtools.cira.state.tx.us/upload/page/0979/2024/Primary/Democratic Precinct Results-3-12-2024 09-48-54 AM.pdf" xr:uid="{6D66EA98-54D5-DB4F-AF03-0F4679712D62}"/>
-    <hyperlink ref="F151" r:id="rId395" display="https://newtools.cira.state.tx.us/upload/page/0979/2024/Primary/Republican Precinct Results-3-12-2024 09-51-18 AM.pdf" xr:uid="{67804772-AB59-5040-9CEF-D76220A75A83}"/>
-    <hyperlink ref="B152" r:id="rId396" display="https://lovingcountyanddistrictclerk.com/elections" xr:uid="{BF942921-44F4-D242-A6FF-A423FFD2B9AA}"/>
-    <hyperlink ref="B153" r:id="rId397" display="https://www.votelubbock.org/election-information/historical-election-results/" xr:uid="{BBA566DE-381D-7943-AC69-1115107F4E34}"/>
-    <hyperlink ref="C153" r:id="rId398" display="https://results.enr.clarityelections.com/TX/Lubbock/" xr:uid="{5748D835-C232-AD46-8AA4-4CA5C17FC2EA}"/>
-    <hyperlink ref="D153" r:id="rId399" display="https://www.votelubbock.org/wp-content/uploads/Verity-Count-Precinct-Results-All-Entities-1.pdf" xr:uid="{C12A2FDC-09C6-7845-B4BB-1680F59C735E}"/>
-    <hyperlink ref="E153" r:id="rId400" display="https://results.enr.clarityelections.com/TX/Lubbock/120383/333400/reports/detailxls.zip" xr:uid="{A3820519-BDF6-2547-99C6-2B2A75538D0E}"/>
-    <hyperlink ref="F153" r:id="rId401" display="https://results.enr.clarityelections.com/TX/Lubbock/120382/333397/reports/detailxls.zip" xr:uid="{26EEBB4F-73C4-C041-8795-F91B77EC2A25}"/>
-    <hyperlink ref="B154" r:id="rId402" display="https://www.co.lynn.tx.us/page/lynn.Elections" xr:uid="{95A0D4D6-D30B-3140-8A55-2EA9C04716BD}"/>
-    <hyperlink ref="B155" r:id="rId403" display="https://www.co.mcculloch.tx.us/page/mcculloch.ElectionInfo" xr:uid="{5A4907DB-9324-2446-A756-3B5A61526E48}"/>
-    <hyperlink ref="B156" r:id="rId404" display="https://www.mclennan.gov/406/Past-Elections-Results" xr:uid="{EA489032-C6B8-6248-84C7-5F149F1FA359}"/>
-    <hyperlink ref="D156" r:id="rId405" display="https://tx-mclennancounty.civicplus.com/DocumentCenter/View/16714/Precinct-Results-11-13-2024-04-07-51-PM" xr:uid="{19F6A6B1-51BB-2240-B458-8CD6DE964E92}"/>
-    <hyperlink ref="E156" r:id="rId406" display="https://tx-mclennancounty.civicplus.com/DocumentCenter/View/15811/Democratic-Primary-Election-Canvass" xr:uid="{E97D786A-CDF8-CF45-97FD-33B3BA63D832}"/>
-    <hyperlink ref="F156" r:id="rId407" display="https://tx-mclennancounty.civicplus.com/DocumentCenter/View/15814/Republican-Primary-Election-Canvass" xr:uid="{99B7EA4C-90DC-B24D-9750-04789E1B80A7}"/>
-    <hyperlink ref="B157" r:id="rId408" display="https://mcmullencounty.org/elections/" xr:uid="{7DF1DF05-02F5-B243-949F-4008FB7ED398}"/>
-    <hyperlink ref="B158" r:id="rId409" display="https://www.co.madison.tx.us/page/madison.elections" xr:uid="{4428996E-C232-F148-8802-F27D47A3D1B0}"/>
-    <hyperlink ref="D158" r:id="rId410" display="https://www.co.madison.tx.us/upload/page/0407/nov 5 2024 precinct by precinct.pdf" xr:uid="{8DBD275F-D4F3-BA4E-96CA-AE3A3825C091}"/>
-    <hyperlink ref="G158" r:id="rId411" display="https://www.co.madison.tx.us/upload/page/0407/March 5 2024 Pct by Pct report.pdf" xr:uid="{D9585F78-F1E8-4A4C-902D-82638D3FA498}"/>
-    <hyperlink ref="B159" r:id="rId412" display="https://marioncountytaxoffice.com/elections/" xr:uid="{93E4050C-E8E0-2C47-A683-3F68EB54528C}"/>
-    <hyperlink ref="B160" r:id="rId413" display="http://www.co.martin.tx.us/158/Elections-Administration-Office/" xr:uid="{3F101964-577A-6F4C-B2B5-FAFD20804F48}"/>
-    <hyperlink ref="D160" r:id="rId414" display="http://www.co.martin.tx.us/DocumentCenter/View/1450/Precinct-to-Precinct-Report" xr:uid="{9C9EEE9E-43DB-4948-B4C5-489C190DAB90}"/>
-    <hyperlink ref="G160" r:id="rId415" display="http://www.co.martin.tx.us/DocumentCenter/View/1324/OFFICIAL-ALL-Precinct-Results-3-14-2024-10-43-34-PM" xr:uid="{D18D8ACA-DC21-FD44-9375-826AEAA683CF}"/>
-    <hyperlink ref="B161" r:id="rId416" display="https://www.co.mason.tx.us/page/mason.Elections" xr:uid="{EA9C1A9A-F28A-9C4F-896A-545381160B00}"/>
-    <hyperlink ref="B162" r:id="rId417" display="https://www.co.matagorda.tx.us/page/matagorda.elections" xr:uid="{EEA562FE-AA99-8E48-AEFD-99F9103AA138}"/>
-    <hyperlink ref="D162" r:id="rId418" display="https://www.co.matagorda.tx.us/upload/page/5686/Precinct Results-11-15-2024 04-33-31 PM.pdf" xr:uid="{FB0FBE6F-43B5-0B40-9A3F-FF188225E08B}"/>
-    <hyperlink ref="G162" r:id="rId419" display="https://www.co.matagorda.tx.us/upload/page/5686/Precinct Results-3-5-2024 09-12-25 PM.pdf" xr:uid="{6FE1FE3C-406D-BC48-95E9-1A66C06B4F25}"/>
-    <hyperlink ref="B163" r:id="rId420" display="https://co.maverick.tx.us/" xr:uid="{405EDAE1-0ACE-D841-88FB-B9B04A404F1B}"/>
-    <hyperlink ref="B164" r:id="rId421" display="https://www.medinacountytexas.org/page/medina.elections" xr:uid="{7129AEF0-6CB2-524D-9E50-58CE5B3C6FD5}"/>
-    <hyperlink ref="G164" r:id="rId422" display="https://www.medinacountytexas.org/upload/page/6805/2024 March Primary Election/Results/Official Precinct Results-3-12-2024 01-22-17 PM.pdf" xr:uid="{ABB44124-8CBA-C549-9113-E933FA539236}"/>
-    <hyperlink ref="B165" r:id="rId423" display="https://www.co.menard.tx.us/page/menard.Elections" xr:uid="{11B9150D-E28E-5147-A5B1-81192CA94B01}"/>
-    <hyperlink ref="B166" r:id="rId424" display="https://www.co.midland.tx.us/328/Elections-Office" xr:uid="{F6BEC035-12F3-6B49-9808-39F1F37A5BB3}"/>
-    <hyperlink ref="C166" r:id="rId425" display="https://results.enr.clarityelections.com/TX/Midland/" xr:uid="{374E9CD3-69AC-C942-ADA5-BB66E760BA8C}"/>
-    <hyperlink ref="D166" r:id="rId426" display="https://www.co.midland.tx.us/DocumentCenter/View/8563/Official-Final-Pct-x-Pct-Report" xr:uid="{0B543DBC-02A3-0643-B2A4-D7BEA0B142EA}"/>
-    <hyperlink ref="G166" r:id="rId427" display="https://results.enr.clarityelections.com/TX/Midland/120180/345906/reports/detailxls.zip" xr:uid="{8A2A67F7-5ADB-3042-8489-AB724EC5680D}"/>
-    <hyperlink ref="B167" r:id="rId428" display="https://www.milamcounty.net/page/milam.elections" xr:uid="{3651A43F-115D-CF46-B67A-55413C97216D}"/>
-    <hyperlink ref="D167" r:id="rId429" display="https://www.milamcounty.net/upload/page/8929/11.05.2024 GENERAL.pdf" xr:uid="{AA4E2565-7A9D-2F48-8FD3-D4D7ED0FC307}"/>
-    <hyperlink ref="G167" r:id="rId430" display="https://www.milamcounty.net/upload/page/8929/2024 PRIMARY.pdf" xr:uid="{CCA93639-341C-5949-8E2A-B2E6CB49E4A0}"/>
-    <hyperlink ref="B168" r:id="rId431" display="https://www.millscountytx.gov/page/mills.Elections" xr:uid="{4EF9D192-DB98-C644-A7AC-CDEA5252365F}"/>
-    <hyperlink ref="D168" r:id="rId432" display="https://www.millscountytx.gov/upload/page/5755/Nov Canvas Report.pdf" xr:uid="{22ADF536-CFCE-AA43-96E3-D6C4D7E07C96}"/>
-    <hyperlink ref="E168" r:id="rId433" display="https://newtools.cira.state.tx.us/upload/page/5755/24 Democratic Offical Canvass Results.pdf" xr:uid="{8CA4DA03-D15E-4C47-9387-1AC8F74BF750}"/>
-    <hyperlink ref="F168" r:id="rId434" display="https://newtools.cira.state.tx.us/upload/page/5755/24 Republican Offical Canvass Results.pdf" xr:uid="{58F3E21A-E9C1-4C47-AEA1-7F8373EB0F6E}"/>
-    <hyperlink ref="B169" r:id="rId435" display="https://www.co.mitchell.tx.us/page/mitchell.Elections" xr:uid="{11DEE046-FC91-3F47-AF63-411A77C7CBC8}"/>
-    <hyperlink ref="D169" r:id="rId436" display="https://www.co.mitchell.tx.us/upload/page/9645/docs/20241105/11.5.2024 precinct official results.pdf" xr:uid="{D766F0BA-66B5-2A48-AC75-0E559D536DC8}"/>
-    <hyperlink ref="G169" r:id="rId437" display="https://www.co.mitchell.tx.us/upload/page/9645/docs/20240305/03.05.2024 Joint Primary Pct by Pct.pdf" xr:uid="{B892D1AD-EEE3-B148-8542-2FF6BD9203D0}"/>
-    <hyperlink ref="B170" r:id="rId438" display="https://www.co.montague.tx.us/page/montague.electionresults" xr:uid="{CFCCC797-74CC-4447-A344-657401DE4CFF}"/>
-    <hyperlink ref="C170" r:id="rId439" display="https://results.enr.clarityelections.com/TX/Montague/" xr:uid="{C88D2DC9-6118-0C44-883F-DB172A61B0A2}"/>
-    <hyperlink ref="D170" r:id="rId440" display="https://results.enr.clarityelections.com/TX/Montague/122664/351720/reports/detailxls.zip" xr:uid="{5710DE19-B57F-244E-ACED-49116CC6AE52}"/>
-    <hyperlink ref="G170" r:id="rId441" display="https://results.enr.clarityelections.com/TX/Montague/119864/331281/reports/detailxls.zip" xr:uid="{5A743529-8498-944C-B080-E0FAAA029489}"/>
-    <hyperlink ref="J170" r:id="rId442" display="https://results.enr.clarityelections.com/TX/Montague/121714/340012/reports/detailxls.zip" xr:uid="{C6DC96C2-45AD-F049-AE9A-C39092324FE9}"/>
-    <hyperlink ref="B171" r:id="rId443" display="https://elections.mctx.org/ElectionResults.asp" xr:uid="{BD97799C-D839-D24B-86ED-D1755493480E}"/>
-    <hyperlink ref="D171" r:id="rId444" display="https://elections.mctx.org/results/2024_November_Precinct_Report.pdf" xr:uid="{D738744D-5925-AB4A-8455-D1801F10847E}"/>
-    <hyperlink ref="E171" r:id="rId445" display="https://elections.mctx.org/results/2024_March_Democratic_Precinct_Report.pdf" xr:uid="{B4EAFF5D-9C52-414E-9888-ABB6AE239CF3}"/>
-    <hyperlink ref="F171" r:id="rId446" display="https://elections.mctx.org/results/2024_March_Republican_Precinct_Report.pdf" xr:uid="{7A1DF545-FBCB-2046-B617-A7C86AE8FAC4}"/>
-    <hyperlink ref="B172" r:id="rId447" display="https://www.co.moore.tx.us/page/moore.Elections" xr:uid="{C7E3101E-6C44-2242-B86D-63E5994FAED3}"/>
-    <hyperlink ref="D172" r:id="rId448" display="https://www.co.moore.tx.us/upload/page/4507/2024 Cont/official_results_by_precinct_november_5_2024.pdf" xr:uid="{B6305D68-BF87-1345-B2A6-18C25864B2F9}"/>
-    <hyperlink ref="G172" r:id="rId449" display="https://www.co.moore.tx.us/upload/page/4507/2024/official_totals_precinct_joint_primary_3524.pdf" xr:uid="{672380BC-5EC3-8842-971D-A87DF1756368}"/>
-    <hyperlink ref="B173" r:id="rId450" display="https://www.co.morris.tx.us/page/morris.COUNTY Election Information" xr:uid="{548F1520-2304-FC40-970C-3A426ED9F2B9}"/>
-    <hyperlink ref="B174" r:id="rId451" display="https://www.co.motley.tx.us/page/motley.Elections" xr:uid="{2F863D13-B573-8643-87DA-EF6BC95F782D}"/>
-    <hyperlink ref="D174" r:id="rId452" display="https://www.co.motley.tx.us/upload/page/9607/Precinct Results-11-14-2024.pdf" xr:uid="{A4572B81-6A48-3A4B-B078-D4C030BDB795}"/>
-    <hyperlink ref="F174" r:id="rId453" display="https://www.co.motley.tx.us/upload/page/9607/Republican Official Canvass.pdf" xr:uid="{2E827268-DB6C-0949-BBF9-7B9645DE6416}"/>
-    <hyperlink ref="B175" r:id="rId454" display="https://www.co.nacogdoches.tx.us/ElectionInformation/ElectionResultsArchive.asp" xr:uid="{A6BE7425-F858-6849-806B-46DEDC9CCB54}"/>
-    <hyperlink ref="D175" r:id="rId455" display="https://www.co.nacogdoches.tx.us/ElectionInformation/ElectionsResultsArchive/2024-11-05 - Nacogdoches County - General Election - Precinct Results.pdf?v20241115132128" xr:uid="{58188988-B38A-F149-BA10-79F66694D82A}"/>
-    <hyperlink ref="E175" r:id="rId456" display="https://www.co.nacogdoches.tx.us/ElectionInformation/ElectionsResultsArchive/2024-03-05 - Nacogdoches County Democratic Party - Primary Election - Precinct Results.pdf?v20240504192612" xr:uid="{56E61DC8-484E-BF44-88FA-6A800B079F86}"/>
-    <hyperlink ref="F175" r:id="rId457" display="https://www.co.nacogdoches.tx.us/ElectionInformation/ElectionsResultsArchive/2024-03-05 - Nacogdoches County Republican Party - Primary Election - Precinct Results.pdf?v20240504192630" xr:uid="{A5B9D57D-2CE5-4C4E-8EF5-14F33DC06639}"/>
-    <hyperlink ref="I175" r:id="rId458" display="https://www.co.nacogdoches.tx.us/ElectionInformation/ElectionsResultsArchive/2024-05-28 - Nacogdoches County Republican Party - Primary Runoff - Precinct Results.pdf?v20240603154649" xr:uid="{A035B489-AF2B-7E45-8CE5-44DC0114FED1}"/>
-    <hyperlink ref="B176" r:id="rId459" display="https://www.co.navarro.tx.us/page/navarro.elections" xr:uid="{C9B96562-0DA8-2B4F-ACB2-F4D5853B2D37}"/>
-    <hyperlink ref="B177" r:id="rId460" display="https://www.co.newton.tx.us/page/newton.Elections" xr:uid="{8B01A891-3DB9-6342-AF68-A7ED0FF0727D}"/>
-    <hyperlink ref="G177" r:id="rId461" display="https://www.co.newton.tx.us/upload/page/3518/docs/2024 Primary/2024 Primaries Combined Canvass.pdf" xr:uid="{8A4700F3-734E-8646-854E-E9C3217C5BFD}"/>
-    <hyperlink ref="B178" r:id="rId462" display="https://www.co.nolan.tx.us/page/nolan.Elections" xr:uid="{D5849643-91D0-BC44-A35E-332EBB136DEE}"/>
-    <hyperlink ref="D178" r:id="rId463" display="https://www.co.nolan.tx.us/upload/page/0503/NC Official Precinct Summary Results 11052024.pdf" xr:uid="{93F0BE4B-BA45-4242-B930-14C39671432D}"/>
-    <hyperlink ref="G178" r:id="rId464" display="https://www.co.nolan.tx.us/upload/page/0503/03052024 PRECINCT SUMMARY RESULTS.pdf" xr:uid="{264065C7-0611-154B-A4E4-33E9CE503F9B}"/>
-    <hyperlink ref="B179" r:id="rId465" location="docfold_535_1126_960_126" display="https://www.nuecesco.com/county-services/county-clerk/elections-department/election-history/-folder-126 - docfold_535_1126_960_126" xr:uid="{45654D8A-E0BF-9E4E-A2EF-E6E0D725D2E7}"/>
-    <hyperlink ref="C179" r:id="rId466" display="https://results.enr.clarityelections.com/TX/Nueces/" xr:uid="{46E1A34B-4F83-CE41-8E89-08C055123C4B}"/>
-    <hyperlink ref="D179" r:id="rId467" display="https://www.nuecesco.com/home/showpublisheddocument/32074/638676080353730000" xr:uid="{F15DC417-A1AD-0B42-B962-3DE234674F27}"/>
-    <hyperlink ref="E179" r:id="rId468" display="https://www.nuecesco.com/home/showpublisheddocument/31213/638470726364130000" xr:uid="{12E7156D-9A02-3A4C-88E0-E0F20FB46DC6}"/>
-    <hyperlink ref="F179" r:id="rId469" display="https://www.nuecesco.com/home/showpublisheddocument/31215/638470727049170000" xr:uid="{9460C2ED-99E1-D343-B0EB-A6E61D55305C}"/>
-    <hyperlink ref="H179" r:id="rId470" display="https://www.nuecesco.com/home/showpublisheddocument/31413/638531032029200000" xr:uid="{CA3C93FF-BCE2-8247-BCAD-2ED3DEC55EF7}"/>
-    <hyperlink ref="I179" r:id="rId471" display="https://www.nuecesco.com/home/showpublisheddocument/31415/638531032438530000" xr:uid="{8CF4D0C7-F17C-A148-878C-D14835DD44F4}"/>
-    <hyperlink ref="B180" r:id="rId472" display="https://www.co.ochiltree.tx.us/page/ochiltree.Elections" xr:uid="{E191B187-60A8-6448-9132-D2230D679EA4}"/>
-    <hyperlink ref="D180" r:id="rId473" display="https://www.co.ochiltree.tx.us/upload/page/7514/11.5.24 Updated Unofficial Results plus Provisional count.pdf" xr:uid="{90143E32-523A-904B-8A83-9C523B97F7E4}"/>
-    <hyperlink ref="B181" r:id="rId474" display="https://www.co.oldham.tx.us/page/oldham.ElectionsResults" xr:uid="{5BFDCCAA-A27D-234B-BC69-8D27DA0D14B7}"/>
-    <hyperlink ref="D181" r:id="rId475" display="https://www.co.oldham.tx.us/upload/page/12142/2025/11.05.2024 Oldham County - General Election Totals by Precinct.pdf" xr:uid="{2F9F4CB7-68B8-F24F-8DF2-2F29EF4C00B7}"/>
-    <hyperlink ref="B182" r:id="rId476" display="https://www.co.orange.tx.us/departments/ElectionsAdministration/ElectionResults" xr:uid="{097DBEFC-4960-1442-A25C-77BB3D70EFB5}"/>
-    <hyperlink ref="B183" r:id="rId477" display="https://www.co.palo-pinto.tx.us/page/Elections" xr:uid="{18DFA0DF-28F7-3748-9E0F-3E30388FE20D}"/>
-    <hyperlink ref="B184" r:id="rId478" display="https://www.co.panola.tx.us/page/panola.Elections" xr:uid="{7FA9B4CD-EBAC-8249-A4C7-393896BF19D0}"/>
-    <hyperlink ref="B185" r:id="rId479" display="https://www.parkercountytx.gov/441/Past-Election-Results" xr:uid="{1241AB3C-DF89-844F-8953-7A73C4A4C483}"/>
-    <hyperlink ref="C185" r:id="rId480" display="https://results.enr.clarityelections.com/TX/Parker/" xr:uid="{1F406F09-554A-4245-BD1D-C8C8477DC82C}"/>
-    <hyperlink ref="D185" r:id="rId481" display="https://www.parkercountytx.gov/DocumentCenter/View/11593/Precinct-Results-11-13-2024-02-52-09-PM" xr:uid="{F2236BEF-CF09-E54D-8AF3-41B0F1CE717D}"/>
-    <hyperlink ref="G185" r:id="rId482" display="https://www.parkercountytx.gov/DocumentCenter/View/10806/Precicnt-by-Precicnt-Results-March-2024" xr:uid="{79C2DBCB-8B0F-1B42-9630-8A7F28D09043}"/>
-    <hyperlink ref="J185" r:id="rId483" display="https://www.parkercountytx.gov/DocumentCenter/View/11053/Precinct-Results-6-4-2024-10-19-59-AM-pdf" xr:uid="{4AF2FD7D-460B-1B46-AFA5-EE4F82B9AE52}"/>
-    <hyperlink ref="B186" r:id="rId484" display="https://parmercounty.texas.gov/?page_id=334" xr:uid="{A54579BB-93F2-0942-A94A-1CC99F0249C9}"/>
-    <hyperlink ref="D186" r:id="rId485" display="https://parmercounty.texas.gov/wp-content/uploads/2025/01/11524-General-Election-Official-Results.pdf" xr:uid="{1F8A6B4E-9E76-A548-9BEA-47C30FBBE4E8}"/>
-    <hyperlink ref="B187" r:id="rId486" display="https://www.co.pecos.tx.us/election-information/" xr:uid="{89CEA2B8-AF9F-314D-97D4-D5B72A7D9C83}"/>
-    <hyperlink ref="B188" r:id="rId487" display="https://www.co.polk.tx.us/page/polk.co.clerk.election" xr:uid="{D679FDD4-0EC8-644B-8228-1EF5B7CDA01E}"/>
-    <hyperlink ref="G188" r:id="rId488" display="https://newtools.cira.state.tx.us/upload/page/9241/MAY 2024/MARCH 5TH OFFICIAL RESULTS.pdf" xr:uid="{0CFDE3BC-7B18-E64B-BFB0-02E0EBE5D8F7}"/>
-    <hyperlink ref="B189" r:id="rId489" display="https://www.pottercountytexasvotes.gov/copy-of-website-connections" xr:uid="{2E680B13-836C-B240-B5EC-4C591FE35A1A}"/>
-    <hyperlink ref="D189" r:id="rId490" display="https://www.pottercountytexasvotes.gov/_files/ugd/abcbbe_3e5bc692f87a4a6ba3fc2b8ea841f47e.pdf" xr:uid="{6EAEAF14-4D0B-AD4E-8422-84B1133FD104}"/>
-    <hyperlink ref="E189" r:id="rId491" display="https://www.pottercountytexasvotes.gov/_files/ugd/abcbbe_f73000d8079d4cc9b7df4347be5922f9.pdf" xr:uid="{8FC66A38-1449-6243-8F09-43A7B80F57C3}"/>
-    <hyperlink ref="F189" r:id="rId492" display="https://www.pottercountytexasvotes.gov/_files/ugd/abcbbe_e6281b94f18b439093c69f09f35d6f92.pdf" xr:uid="{B4FD093D-EADA-6144-918D-BA9FF054100B}"/>
-    <hyperlink ref="I189" r:id="rId493" display="https://www.pottercountytexasvotes.gov/_files/ugd/abcbbe_9a21a61b97154b208e9914ebf660511f.pdf" xr:uid="{1391DACB-7D14-794A-8F1B-C7A877964786}"/>
-    <hyperlink ref="B190" r:id="rId494" display="https://www.co.presidio.tx.us/page/presidio.Voting.Elections" xr:uid="{4DF34A9E-C0F3-B948-80B1-C6E50254551B}"/>
-    <hyperlink ref="B191" r:id="rId495" display="https://www.co.rains.tx.us/page/rains.elections" xr:uid="{F5E4C3B4-07BB-8644-BB2C-7FAC9C61FB47}"/>
-    <hyperlink ref="B192" r:id="rId496" display="https://www.randallcounty.gov/183/Election-Results" xr:uid="{65E7BD47-F19A-A648-9798-B50FC65B554F}"/>
-    <hyperlink ref="D192" r:id="rId497" display="https://www.randallcounty.gov/DocumentCenter/View/3711/Official-Canvass-Results" xr:uid="{D4BC9E5C-4852-3D42-AA4E-D93EBB433211}"/>
-    <hyperlink ref="E192" r:id="rId498" display="https://www.randallcounty.gov/DocumentCenter/View/3408/Official-Democratic-Canvass-Results" xr:uid="{572B4E07-B924-4A49-9073-5B95CF77E5A7}"/>
-    <hyperlink ref="F192" r:id="rId499" display="https://www.randallcounty.gov/DocumentCenter/View/3412/Official-Republican-Cumulative-Results" xr:uid="{A18E1579-0318-DD4E-B72B-F07CAB4D75AC}"/>
-    <hyperlink ref="B193" r:id="rId500" display="https://www.co.reagan.tx.us/page/reagan.Elections" xr:uid="{76E5E024-BEB8-F44A-B698-8F42E2C42662}"/>
-    <hyperlink ref="D193" r:id="rId501" display="https://www.co.reagan.tx.us/upload/page/9496/2024/precinct_results11182024_075528_am.pdf" xr:uid="{63937D86-C2CC-9E40-9BCF-C1A1BDD33305}"/>
-    <hyperlink ref="B194" r:id="rId502" display="https://www.co.real.tx.us/page/real.Elections" xr:uid="{2FB362FA-9008-5041-8C4A-13749F629310}"/>
-    <hyperlink ref="B195" r:id="rId503" display="https://www.co.red-river.tx.us/page/redriver.ElectionsCountyClerk" xr:uid="{59A80137-3BF3-644B-8875-59C1F60687F7}"/>
-    <hyperlink ref="E195" r:id="rId504" display="https://www.co.red-river.tx.us/upload/page/10703/Democratic Official Precinct Results Primary Election March 5 2024.pdf" xr:uid="{469BE52E-9C0E-934E-97F2-BB6B0FD48AC5}"/>
-    <hyperlink ref="F195" r:id="rId505" display="https://www.co.red-river.tx.us/upload/page/10703/Republican Official Precinct Results Primary Election March 5 2024.pdf" xr:uid="{1E72191A-6AA0-0C47-9772-CDEC953ADA22}"/>
-    <hyperlink ref="I195" r:id="rId506" display="https://www.co.red-river.tx.us/upload/page/10703/Official Precinct Results for Primary Runoff.pdf" xr:uid="{652FDBFF-F799-1145-A136-71EB80D42752}"/>
-    <hyperlink ref="B196" r:id="rId507" display="https://www.reevescounty.org/departments/elections/election-results-archive" xr:uid="{04243F86-DE67-044C-A468-434813044122}"/>
-    <hyperlink ref="D196" r:id="rId508" display="https://www.reevescounty.org/home/showpublisheddocument/3613/638672595751530000" xr:uid="{50657F89-AB51-2C44-82F8-E72CEB0BC79D}"/>
-    <hyperlink ref="G196" r:id="rId509" display="https://www.reevescounty.org/home/showpublisheddocument/2888/638471384895900000" xr:uid="{0173A76A-1B23-884D-962F-D261B8A6BCFD}"/>
-    <hyperlink ref="J196" r:id="rId510" display="https://www.reevescounty.org/home/showpublisheddocument/3119/638531916491970000" xr:uid="{0C85C840-C837-2E46-8DEA-5C1D78ADA93A}"/>
-    <hyperlink ref="B197" r:id="rId511" display="https://www.co.refugio.tx.us/page/refugio.elections" xr:uid="{ED101072-A3D9-974C-ADF7-06BD3A7C6E60}"/>
-    <hyperlink ref="D197" r:id="rId512" display="https://www.co.refugio.tx.us/upload/page/11597/docs/2024 - NOVEMBER 5/NOTICES/2024 - NOVEMBER 5 - OFFICIAL - PRECINCT RESULTS - TOTAL.pdf" xr:uid="{B0C5A9B7-1F48-BB46-A1EB-13B5D60AA287}"/>
-    <hyperlink ref="E197" r:id="rId513" display="https://www.co.refugio.tx.us/upload/page/11577/docs/2023 - MARCH 5 - PRIMARY/2024 - MARCH 5 - PRECINCT RESULTS - ALL - DEM.pdf" xr:uid="{842833E1-4236-D44E-8753-9B593A3E0B5C}"/>
-    <hyperlink ref="F197" r:id="rId514" display="https://www.co.refugio.tx.us/upload/page/11577/docs/2023 - MARCH 5 - PRIMARY/2024 - MARCH 5 - PRECINCT RESULTS - ALL - REP.pdf" xr:uid="{64117017-5848-3849-B614-78C782306604}"/>
-    <hyperlink ref="B198" r:id="rId515" display="https://www.co.roberts.tx.us/page/roberts.elections" xr:uid="{DFA305A2-75AF-724B-B7A2-0A2C9C81D08F}"/>
-    <hyperlink ref="B199" r:id="rId516" display="https://www.co.robertson.tx.us/page/robertson.Elections" xr:uid="{285E5433-E800-DE4E-8D63-A63D28E03D4E}"/>
-    <hyperlink ref="C199" r:id="rId517" display="https://results.enr.clarityelections.com/TX/Robertson/" xr:uid="{4DFCC38E-47F6-9546-9BBD-5D957F510F63}"/>
-    <hyperlink ref="B200" r:id="rId518" display="https://www.rockwallvotes.com/election-information/election-results-in-progress/" xr:uid="{1FC5053C-5F67-C34C-A144-902EBD5DB520}"/>
-    <hyperlink ref="C200" r:id="rId519" display="https://results.enr.clarityelections.com/TX/Rockwall/" xr:uid="{F1D3A5A2-6CE3-D748-A124-28DECA805FE7}"/>
-    <hyperlink ref="D200" r:id="rId520" display="https://results.enr.clarityelections.com/TX/Rockwall/122491/355310/reports/detailxls.zip" xr:uid="{88299967-795B-C041-ACB6-F28C755CF215}"/>
-    <hyperlink ref="G200" r:id="rId521" display="https://results.enr.clarityelections.com/TX/Rockwall/120244/333319/reports/detailxls.zip" xr:uid="{387FF0E9-590F-4943-B1EA-23E369374551}"/>
-    <hyperlink ref="I200" r:id="rId522" display="https://results.enr.clarityelections.com/TX/Rockwall/121703/341759/reports/detailxls.zip" xr:uid="{4A22B1FE-A230-6C40-8838-E6BF7FCD6672}"/>
-    <hyperlink ref="B201" r:id="rId523" display="https://www.runnelscounty.org/page/runnels.Elections" xr:uid="{65CEEDCB-6ECD-2246-99E3-290F48A438FB}"/>
-    <hyperlink ref="B202" r:id="rId524" display="https://www.ruskcountytx.gov/page/rusk.Elections" xr:uid="{96A3202E-14B9-A346-903F-4382D9871F20}"/>
-    <hyperlink ref="C202" r:id="rId525" display="https://results.enr.clarityelections.com/TX/Rusk/" xr:uid="{05F6BBDC-F5C3-534A-B326-85B5599A9CB7}"/>
-    <hyperlink ref="D202" r:id="rId526" display="https://results.enr.clarityelections.com/TX/Rusk/122760/355999/reports/detailxls.zip" xr:uid="{31F5E703-4654-7F47-97D2-AB3BEC07957F}"/>
-    <hyperlink ref="G202" r:id="rId527" display="https://results.enr.clarityelections.com/TX/Rusk/120252/331977/reports/detailxls.zip" xr:uid="{2CC01EE1-F2D7-A842-A036-215438808A34}"/>
-    <hyperlink ref="B203" r:id="rId528" display="https://www.co.sabine.tx.us/page/sabine.Election Results" xr:uid="{C49BB270-F621-2547-9990-AE0DF91DBBA2}"/>
-    <hyperlink ref="B204" r:id="rId529" display="https://www.co.san-augustine.tx.us/page/sanaugustine.Elections" xr:uid="{FB456E0A-A32B-3D40-A9EE-8C3895D706CC}"/>
-    <hyperlink ref="B205" r:id="rId530" display="https://www.co.san-jacinto.tx.us/page/sanjacinto.Elections" xr:uid="{B5334ABD-924C-D146-9EAA-540F10068753}"/>
-    <hyperlink ref="B206" r:id="rId531" display="https://www.sanpatriciocountytx.gov/page/elections.results.archive.16" xr:uid="{9BFB5C64-B6DB-6D48-81A6-E2370E3FC6B5}"/>
-    <hyperlink ref="D206" r:id="rId532" display="https://www.sanpatriciocountytx.gov/upload/page/0124/docs/2024 Elections Official Results/2024 November Precinct Results.pdf" xr:uid="{64CB6053-FDDE-7447-B780-D382B0AC6A49}"/>
-    <hyperlink ref="E206" r:id="rId533" display="https://www.sanpatriciocountytx.gov/upload/page/0124/docs/2024 Elections Official Results/2024 March Official Precinct Results- Dem.pdf" xr:uid="{FD29E368-123C-6046-A265-D479DD5C8D66}"/>
-    <hyperlink ref="F206" r:id="rId534" display="https://www.sanpatriciocountytx.gov/upload/page/0124/docs/2024 Elections Official Results/2024 March Official Precinct Results- Rep.pdf" xr:uid="{30CDBD42-D82D-A640-8853-DCD56F6B8F27}"/>
-    <hyperlink ref="I206" r:id="rId535" display="https://www.sanpatriciocountytx.gov/upload/page/0124/docs/2024 Elections Official Results/2024 May Runoff Precinct Results.pdf" xr:uid="{FD9FFD8B-2D88-ED4F-A0F0-A538B09C429F}"/>
-    <hyperlink ref="B207" r:id="rId536" display="https://www.co.san-saba.tx.us/page/sansaba.Elections" xr:uid="{2E09C32D-B2DC-B442-AECF-37E5448F1A01}"/>
-    <hyperlink ref="D207" r:id="rId537" display="https://www.co.san-saba.tx.us/upload/page/6028/docs/ElectionResultsbyPrecintUnofficial2024.pdf" xr:uid="{10E8C88E-5D11-5C45-B24A-CF3D72DD705C}"/>
-    <hyperlink ref="B208" r:id="rId538" display="https://www.schleichercounty.gov/page/schleicher.Elections" xr:uid="{0BBDBC58-BBFB-3341-A97F-BC6D3FA4D1BE}"/>
-    <hyperlink ref="B209" r:id="rId539" display="https://www.co.scurry.tx.us/page/elections.previous.elections" xr:uid="{CF456A97-1988-E948-BAF8-1EF5E3391758}"/>
-    <hyperlink ref="B210" r:id="rId540" display="https://www.shackelfordcounty.org/page/shackelford.Elections" xr:uid="{5586E938-15CC-2B42-998F-9CE6B406B7AC}"/>
-    <hyperlink ref="B211" r:id="rId541" display="https://www.co.shelby.tx.us/page/shelby.Elections" xr:uid="{5632DE6B-AAD9-EA45-9BDA-2169360697EB}"/>
-    <hyperlink ref="B212" r:id="rId542" display="https://www.co.sherman.tx.us/page/sherman.Elections" xr:uid="{CCB5AB0C-23D4-FF46-9A2D-05C188DE89C8}"/>
-    <hyperlink ref="B213" r:id="rId543" display="https://www.smith-county.com/government/departments/elections/election-archive/election-archive-results" xr:uid="{7A8AB676-0403-D741-9F07-D5CA5C831642}"/>
-    <hyperlink ref="D213" r:id="rId544" display="https://www.smith-county.com/home/showpublisheddocument/20228/638676299142530000" xr:uid="{FA52DA3C-A2D1-FD45-A068-9857D78A1110}"/>
-    <hyperlink ref="G213" r:id="rId545" display="https://www.smith-county.com/home/showpublisheddocument/19558/638464315859400000" xr:uid="{F5A3B3DE-5D8B-994D-8A90-85EC01C9FF95}"/>
-    <hyperlink ref="J213" r:id="rId546" display="https://www.smith-county.com/home/showpublisheddocument/19826/638537177437970000" xr:uid="{F232EBE4-B1B8-6A47-BAA6-2E5C632BEF34}"/>
-    <hyperlink ref="B214" r:id="rId547" display="https://www.somervell.co/160/Elections" xr:uid="{6F946595-4FD4-B74A-A9C0-B8BE23000680}"/>
-    <hyperlink ref="B215" r:id="rId548" display="https://www.co.starr.tx.us/page/starr.Elections" xr:uid="{7B54F4D5-D73C-E340-8367-D5FCDD6127F4}"/>
-    <hyperlink ref="D215" r:id="rId549" display="https://www.co.starr.tx.us/upload/page/6487/docs/Starr 2024/Starr-OfficialResultsbyPct Nov52024.pdf" xr:uid="{DF61BA0D-47D2-6B4C-B6B6-9D6C76CA3F6B}"/>
-    <hyperlink ref="E215" r:id="rId550" display="https://newtools.cira.state.tx.us/upload/page/6487/docs/March2024/DEM official results by PCT.pdf" xr:uid="{076F930E-8CCE-EE4E-9820-A4A67A39374F}"/>
-    <hyperlink ref="F215" r:id="rId551" display="https://newtools.cira.state.tx.us/upload/page/6487/docs/March2024/REP offial results by PCT.pdf" xr:uid="{6598826F-60C2-C64F-83DC-CD932D2E4AD2}"/>
-    <hyperlink ref="I215" r:id="rId552" display="https://newtools.cira.state.tx.us/upload/page/6487/docs/May2024/Official runoff  Pct report.pdf" xr:uid="{AF0A7D85-CA95-F841-83D4-42EDE1706743}"/>
-    <hyperlink ref="B216" r:id="rId553" display="https://www.co.stephens.tx.us/page/stephens.Elections" xr:uid="{99658AE6-B403-DF45-923D-B7D28DD8D9E8}"/>
-    <hyperlink ref="D216" r:id="rId554" display="https://www.co.stephens.tx.us/upload/page/2592/2024/Precinct Report 11-5-2024 General.pdf" xr:uid="{E0317F78-C787-B544-A066-3019112AEFB2}"/>
-    <hyperlink ref="B217" r:id="rId555" display="https://www.co.sterling.tx.us/page/sterling.Elections" xr:uid="{FFC785E7-B8AB-F34E-A8C5-809AE97C60B1}"/>
-    <hyperlink ref="B218" r:id="rId556" display="https://www.stonewallcounty.org/page/stonewall.Elections" xr:uid="{04935E45-798E-6D44-902B-C54539D6A2F0}"/>
-    <hyperlink ref="B219" r:id="rId557" display="https://www.co.sutton.tx.us/page/sutton.Elections" xr:uid="{8B202A99-4332-2549-B5EA-575D2E5F77DC}"/>
-    <hyperlink ref="B220" r:id="rId558" display="https://www.co.swisher.tx.us/page/swisher.Elections" xr:uid="{7DAA50D5-1B1F-9043-B7ED-10CF82F43A15}"/>
-    <hyperlink ref="D220" r:id="rId559" display="https://www.co.swisher.tx.us/upload/page/7290/2024 November 5 General Election Official Summary and Precinct Combined.pdf" xr:uid="{743B7BD9-98E3-1046-8C3E-7B5D274CECBE}"/>
-    <hyperlink ref="I220" r:id="rId560" display="https://newtools.cira.state.tx.us/upload/page/7290/Official Results 06.03.2024.pdf" xr:uid="{13600240-11CA-2A4D-B5DC-FCB99B21E6D0}"/>
-    <hyperlink ref="B221" r:id="rId561" display="https://www.tarrantcountytx.gov/en/elections/past-election-information.html" xr:uid="{855F3794-F545-B048-B347-0C43B4B96122}"/>
-    <hyperlink ref="C221" r:id="rId562" display="https://results.enr.clarityelections.com/TX/Tarrant/" xr:uid="{4B62E9BE-156B-DE43-9DF3-09BD2B7A17B1}"/>
-    <hyperlink ref="D221" r:id="rId563" display="https://www.tarrantcountytx.gov/content/dam/main/elections/2024/1124/reports/precinct.pdf" xr:uid="{67F3CFF1-F59E-F34D-BEC9-5E88A1CBBF5C}"/>
-    <hyperlink ref="E221" r:id="rId564" display="https://www.tarrantcountytx.gov/content/dam/main/elections/2024/pm24/reports/precinct_dem.pdf" xr:uid="{4338B352-4F02-0847-814F-0ADEB235699A}"/>
-    <hyperlink ref="F221" r:id="rId565" display="https://www.tarrantcountytx.gov/content/dam/main/elections/2024/pm24/reports/precinct_rep.pdf" xr:uid="{D19E8733-580A-F940-910B-2C4A33656A77}"/>
-    <hyperlink ref="G221" r:id="rId566" display="https://results.enr.clarityelections.com/TX/Tarrant/119492/333413/reports/detailxls.zip" xr:uid="{30933034-4721-0349-86BA-51FCF565BAE6}"/>
-    <hyperlink ref="H221" r:id="rId567" display="https://www.tarrantcountytx.gov/content/dam/main/elections/2024/pr24/reports/precinct_dem.pdf" xr:uid="{6423025D-0E08-DC46-8F7E-0E19FC93C200}"/>
-    <hyperlink ref="I221" r:id="rId568" display="https://www.tarrantcountytx.gov/content/dam/main/elections/2024/pr24/reports/precinct_rep.pdf" xr:uid="{2D39DF50-CDE6-5440-AD32-D85A22AED1EF}"/>
-    <hyperlink ref="J221" r:id="rId569" display="https://results.enr.clarityelections.com/TX/Tarrant/121069/341703/reports/detailxls.zip" xr:uid="{7E447E5A-E164-3D4C-A064-6A97BF6BAA1D}"/>
-    <hyperlink ref="B222" r:id="rId570" display="https://www.taylorcounty.texas.gov/212/Elections" xr:uid="{48DD8E80-9A6A-E24C-88CE-9F27F020EEA0}"/>
-    <hyperlink ref="B223" r:id="rId571" display="https://www.co.terrell.tx.us/page/terrell.Elections" xr:uid="{37D8CF3D-4262-5340-A2C5-97713630BF2E}"/>
-    <hyperlink ref="B224" r:id="rId572" display="https://www.co.terry.tx.us/page/terry.Elections" xr:uid="{F068305F-1016-5A4C-82F9-76BB52B7D06B}"/>
-    <hyperlink ref="D224" r:id="rId573" display="https://www.co.terry.tx.us/upload/page/12074/docs/Official Totals 11-5-24.pdf" xr:uid="{B2520CAC-488C-AA4B-B01C-DE97F883EFE2}"/>
-    <hyperlink ref="B225" r:id="rId574" display="https://www.throckmortoncounty.org/page/throckmorton.electionsposting" xr:uid="{CFFA817C-CF8B-404E-8723-F904EBE16895}"/>
-    <hyperlink ref="G225" r:id="rId575" display="https://www.throckmortoncounty.org/upload/page/11531/Official Results-2024I.pdf" xr:uid="{BDF874C6-6D48-B94C-95AF-CB881B280075}"/>
-    <hyperlink ref="B226" r:id="rId576" display="https://www.co.titus.tx.us/page/elections.home" xr:uid="{B60CE6C5-61F1-7F42-900E-0937BCAA140B}"/>
-    <hyperlink ref="D226" r:id="rId577" display="https://www.co.titus.tx.us/upload/page/0098/Whole Canvass Report.pdf" xr:uid="{A69CD5C6-8ADD-E447-9537-8FA80305B451}"/>
-    <hyperlink ref="B227" r:id="rId578" display="https://www.tomgreencountytx.gov/page/ele.ElectionsResults" xr:uid="{A7873218-AF36-F046-898E-99E540460538}"/>
-    <hyperlink ref="D227" r:id="rId579" display="https://www.tomgreencountytx.gov/upload/page/0091/docs/2024/20241105/110524FinalOfficPrecResu.pdf" xr:uid="{9EE1B026-5060-FA4B-BE34-F5DE8BFD4CEC}"/>
-    <hyperlink ref="G227" r:id="rId580" display="https://www.tomgreencountytx.gov/upload/page/0091/docs/2024/20240305OPResults.pdf" xr:uid="{95991E88-AF53-1C4F-8B30-200989EFCCEA}"/>
-    <hyperlink ref="B228" r:id="rId581" display="https://results.enr.clarityelections.com/TX/Travis/" xr:uid="{E4A96818-D44F-BC41-AA42-1193D922B132}"/>
-    <hyperlink ref="C228" r:id="rId582" display="https://results.enr.clarityelections.com/TX/Travis/" xr:uid="{8A9F049B-CE6B-D047-9310-51F1B41D5344}"/>
-    <hyperlink ref="D228" r:id="rId583" display="https://results.enr.clarityelections.com/TX/Travis/122432/355984/reports/detailxls.zip" xr:uid="{C6F98ED7-DB1E-DD43-BEFE-0A23DE6CEABE}"/>
-    <hyperlink ref="G228" r:id="rId584" display="https://results.enr.clarityelections.com/TX/Travis/119440/333462/reports/detailxls.zip" xr:uid="{8C494B30-A555-3147-A6CE-6A74CCFC102C}"/>
-    <hyperlink ref="J228" r:id="rId585" display="https://results.enr.clarityelections.com/TX/Travis/121702/340735/reports/detailxls.zip" xr:uid="{B35587B9-BCBF-4D44-B090-126F42D8D3D1}"/>
-    <hyperlink ref="B229" r:id="rId586" display="https://www.co.trinity.tx.us/page/trinity.Elections2" xr:uid="{7E97D45B-AAC0-1F41-B18B-EF378C1B111B}"/>
-    <hyperlink ref="B230" r:id="rId587" display="https://www.co.tyler.tx.us/page/tyler.ElectionInformation" xr:uid="{D58EDC96-02D6-D442-975E-8F20D75120A8}"/>
-    <hyperlink ref="D230" r:id="rId588" display="https://www.co.tyler.tx.us/page/tyler.ElectionInformation" xr:uid="{06145CE7-C4AF-F047-800F-3999932EF144}"/>
-    <hyperlink ref="G230" r:id="rId589" display="https://www.co.tyler.tx.us/upload/page/3316/March 5 2024 Official Election Results0001.pdf" xr:uid="{32ED2C8D-EC9E-2F4A-B31B-6B530D606D16}"/>
-    <hyperlink ref="B231" r:id="rId590" display="https://www.countyofupshur.com/page/elections" xr:uid="{ED7DF8E7-99F0-2D44-9316-210EA87B597A}"/>
-    <hyperlink ref="D231" r:id="rId591" display="https://www.countyofupshur.com/page/open/1355/0/November 5 2024 Precinct Report.pdf" xr:uid="{A4F8FFC9-A794-7645-90C3-63E7EAE5229E}"/>
-    <hyperlink ref="E231" r:id="rId592" display="https://www.countyofupshur.com/page/open/1355/0/March 5 2024 Democratic Primary Precinct by Precinct Report.pdf" xr:uid="{CC1B7C18-0EE1-0C46-AD6E-F8A6F1E52D2F}"/>
-    <hyperlink ref="F231" r:id="rId593" display="https://www.countyofupshur.com/page/open/1355/0/March 5 2024 Republican Primary Precinct by Precinct Report.pdf" xr:uid="{FEE3A6D4-351B-2446-AC23-AFE461DB891C}"/>
-    <hyperlink ref="B232" r:id="rId594" display="https://www.co.upton.tx.us/page/upton.elections" xr:uid="{F26C0CD9-1C97-1F48-9B19-3EE68F540AB5}"/>
-    <hyperlink ref="B233" r:id="rId595" display="https://www.uvaldecountyelections.com/" xr:uid="{371499A8-31A3-8D4B-B611-C7491600556B}"/>
-    <hyperlink ref="G233" r:id="rId596" display="https://drive.google.com/file/d/1OJajAPDZaEkQnpM3rLY00vniOR6Ssmgc/view" xr:uid="{476EBC20-6046-B449-9BC6-4449364FCF02}"/>
-    <hyperlink ref="B234" r:id="rId597" display="https://valverdecounty.texas.gov/270/Elections" xr:uid="{AFC5264E-F345-C144-B57F-BEDBB46A7B51}"/>
-    <hyperlink ref="D234" r:id="rId598" display="https://valverdecounty.texas.gov/DocumentCenter/View/8425/General-Election-2024-Official-Precinct-by-Precinct-" xr:uid="{E5C4C210-816F-2844-B642-D34675D77053}"/>
-    <hyperlink ref="B235" r:id="rId599" display="https://www.vanzandtcounty.org/page/vanzandt.Elections" xr:uid="{24D714E7-9050-A044-A9EA-2BB283F7F512}"/>
-    <hyperlink ref="G235" r:id="rId600" display="https://www.vanzandtcounty.org/upload/page/2707/2024/finalcanvass_results3142024_014516_pm.pdf" xr:uid="{84763EC7-15D3-7249-8F14-526FF34292B2}"/>
-    <hyperlink ref="J235" r:id="rId601" display="https://www.vanzandtcounty.org/upload/page/2707/2024/canvass_results642024_025517_pm.pdf" xr:uid="{D86D7567-1974-454F-94BF-C6388DEF02C6}"/>
-    <hyperlink ref="B236" r:id="rId602" display="https://www.vctx.org/page/elections.results" xr:uid="{196A5341-7FE0-3A42-B395-AB491CBF7C89}"/>
-    <hyperlink ref="C236" r:id="rId603" display="https://results.enr.clarityelections.com/TX/Victoria/" xr:uid="{2D86DEFA-9C93-0148-A679-768CA7D1260F}"/>
-    <hyperlink ref="D236" r:id="rId604" display="https://results.enr.clarityelections.com/TX/Victoria/122848/355288/reports/detailxls.zip" xr:uid="{516FD9B7-C2E6-3F4E-8F35-358B0CC37921}"/>
-    <hyperlink ref="G236" r:id="rId605" display="https://results.enr.clarityelections.com/TX/Victoria/120384/333962/reports/detailxls.zip" xr:uid="{29DAD030-160A-B84E-9423-80A33F598FB1}"/>
-    <hyperlink ref="J236" r:id="rId606" display="https://results.enr.clarityelections.com/TX/Victoria/121796/341555/reports/detailxls.zip" xr:uid="{15B2324A-AFB5-4342-8401-71A75C1F333F}"/>
-    <hyperlink ref="B237" r:id="rId607" display="https://www.co.walker.tx.us/department/division.php?structureid=141" xr:uid="{74C65E5A-B484-F442-9EE9-EDD3B42AD428}"/>
-    <hyperlink ref="B238" r:id="rId608" display="https://www.co.waller.tx.us/page/Elections.current" xr:uid="{FA2AECDB-D42C-6E44-ACD0-37F27663303C}"/>
-    <hyperlink ref="B239" r:id="rId609" display="https://www.co.ward.tx.us/page/ward.Elections" xr:uid="{D0EF1CE0-3C1D-A645-855A-6D7D88A0CD55}"/>
-    <hyperlink ref="B240" r:id="rId610" display="https://www.co.washington.tx.us/page/washington.elections.information" xr:uid="{E4B2F9BC-CDE1-FF45-8CF3-139BF96BCC7F}"/>
-    <hyperlink ref="D240" r:id="rId611" display="https://www.co.washington.tx.us/upload/page/10698/010101a23456 Official Results.pdf" xr:uid="{957130EC-D820-514E-9F6D-9BF54D55D70C}"/>
-    <hyperlink ref="G240" r:id="rId612" display="https://www.co.washington.tx.us/upload/page/10698/1a joint prec by prec report.pdf" xr:uid="{EE616327-C49C-C14C-B502-23A0CA770008}"/>
-    <hyperlink ref="H240" r:id="rId613" display="https://www.co.washington.tx.us/upload/page/10698/DEM PBP.pdf" xr:uid="{B98E0EDB-E893-5D4D-96A7-BDAB7CB5F7E2}"/>
-    <hyperlink ref="I240" r:id="rId614" display="https://www.co.washington.tx.us/upload/page/10698/REP PBP.pdf" xr:uid="{67AFACC2-1A19-B743-955C-5AC5CBBAB3B7}"/>
-    <hyperlink ref="B241" r:id="rId615" display="https://www.webbcountytx.gov/ElectionsAdministration/ArchivedResults/" xr:uid="{1133ED9C-4BCA-4148-A131-85C3727D2D6C}"/>
-    <hyperlink ref="D241" r:id="rId616" display="https://www.webbcountytx.gov/electionsadministration/PctByPctResults/Combined Pct by Pct Report.pdf" xr:uid="{D10272E9-0345-B343-B455-332031191E21}"/>
-    <hyperlink ref="B242" r:id="rId617" display="https://www.co.wharton.tx.us/page/wharton.Elections" xr:uid="{2BDB1D11-E0A5-B141-83F4-5A4F5481976A}"/>
-    <hyperlink ref="D242" r:id="rId618" display="https://www.co.wharton.tx.us/upload/page/7010/docs/Reports/2024 November/11.12.24 PCT-PCT.pdf" xr:uid="{3E52A589-80C8-1F43-AC77-8C3665530ED5}"/>
-    <hyperlink ref="B243" r:id="rId619" display="https://www.wheelercounty.texas.gov/page/wheeler.Elections" xr:uid="{593103FA-315E-9649-A71B-A8F7447189B7}"/>
-    <hyperlink ref="B244" r:id="rId620" display="https://wichitacountytx.com/election_info/election-results-archive/" xr:uid="{5F41934A-5896-CE48-9DD4-5FE2B5EB1AC9}"/>
-    <hyperlink ref="D244" r:id="rId621" display="https://wichitacountytx.com/wp-content/uploads/2023/10/11.5.2024-Precinct-Results.pdf" xr:uid="{1C78B593-D6CE-2A42-92E6-420BDEB7525B}"/>
-    <hyperlink ref="E244" r:id="rId622" display="https://wichitacountytx.com/wp-content/uploads/2023/10/3.5.2024-Democratic-Precinct-Results.pdf" xr:uid="{EDDB953E-7B4C-D146-8979-297B4E87167A}"/>
-    <hyperlink ref="F244" r:id="rId623" display="https://wichitacountytx.com/wp-content/uploads/2023/10/3.5.2024-Republican-Precinct-Results.pdf" xr:uid="{F0FE8896-DE8B-BD4E-AE50-DC1E75912DA9}"/>
-    <hyperlink ref="H244" r:id="rId624" display="https://wichitacountytx.com/wp-content/uploads/2018/10/Democratic-Primary-Runoff-Precinct-Results.pdf" xr:uid="{63BEC4C0-5EE4-6F40-8C9B-CEA0DFD4D0B2}"/>
-    <hyperlink ref="I244" r:id="rId625" display="https://wichitacountytx.com/wp-content/uploads/2023/10/3.5.2024-Republican-Precinct-Results.pdf" xr:uid="{3FCDD7A2-9913-174C-951C-53C3EA8BABB6}"/>
-    <hyperlink ref="B245" r:id="rId626" display="https://www.co.wilbarger.tx.us/page/wilbarger.elections" xr:uid="{EF8F3C66-4680-CF4E-9217-64EF9CE60783}"/>
-    <hyperlink ref="B246" r:id="rId627" display="https://www.co.willacy.tx.us/page/willacy.Elections" xr:uid="{484370C9-879A-A044-B213-F99FE21C0B6E}"/>
-    <hyperlink ref="B247" r:id="rId628" display="https://www.wilcotx.gov/292/Results-Archive" xr:uid="{67EE741E-D02A-5747-A150-139FA2898728}"/>
-    <hyperlink ref="C247" r:id="rId629" display="https://results.enr.clarityelections.com/TX/Williamson/" xr:uid="{38B94C57-AB69-4E4E-8337-6BA70C2061AC}"/>
-    <hyperlink ref="D247" r:id="rId630" display="https://www.wilcotx.gov/DocumentCenter/View/13240/202411NOVEMBER---Final-Unofficial---Precinct-Results-Report" xr:uid="{630B5541-AFEA-C64A-A01A-BF8CF4F40D26}"/>
-    <hyperlink ref="J247" r:id="rId631" display="https://www.wilcotx.gov/DocumentCenter/View/10657/May-28-2024-Democratic-and-Republican-Precinct-Results" xr:uid="{AD426AA2-5865-ED41-BABE-98484589B7C6}"/>
-    <hyperlink ref="B248" r:id="rId632" display="https://www.co.wilson.tx.us/page/wilson.Elections" xr:uid="{C6B7CB8D-AAEC-0843-A586-B86F3A9228C8}"/>
-    <hyperlink ref="B249" r:id="rId633" display="https://www.co.winkler.tx.us/213/Elections" xr:uid="{F2E817DB-EC3C-BC49-8274-C2DE4C002F39}"/>
-    <hyperlink ref="B250" r:id="rId634" display="https://www.co.wise.tx.us/315/Elections" xr:uid="{ADCA751B-D9BB-0D4E-8B3C-7234BED84FB6}"/>
-    <hyperlink ref="D250" r:id="rId635" display="https://www.co.wise.tx.us/DocumentCenter/View/6011/November-5-2024-General-and-Special-Election---Official-Precinct-Results-Report" xr:uid="{48A172D8-F8C3-874B-8B52-A7A0C8017F3E}"/>
-    <hyperlink ref="B251" r:id="rId636" display="https://elections.mywoodcounty.com/election-information/election-results/" xr:uid="{D524CE59-4A9B-364A-B80D-6E3C65D359EC}"/>
-    <hyperlink ref="C251" r:id="rId637" display="https://results.enr.clarityelections.com/TX/Wood/" xr:uid="{7B04DECC-27D6-0B41-931A-FB72D962F771}"/>
-    <hyperlink ref="D251" r:id="rId638" display="https://results.enr.clarityelections.com/TX/Wood/122311/353543/reports/detailxls.zip" xr:uid="{E697E87A-01A7-7444-B921-8D2493A18135}"/>
-    <hyperlink ref="G251" r:id="rId639" display="https://results.enr.clarityelections.com/TX/Wood/120255/332259/reports/detailxls.zip" xr:uid="{83250DEA-C70A-6543-8407-336AD93C6ACE}"/>
-    <hyperlink ref="J251" r:id="rId640" display="https://results.enr.clarityelections.com/TX/Wood/121704/340133/reports/detailxls.zip" xr:uid="{AE53F45B-859C-AC44-9C53-C450946016F3}"/>
-    <hyperlink ref="B252" r:id="rId641" display="https://www.co.yoakum.tx.us/page/yoakum.Elections" xr:uid="{957F174E-A71A-7C48-857E-96959B5A82C0}"/>
-    <hyperlink ref="B253" r:id="rId642" display="https://www.co.young.tx.us/page/young.Elections" xr:uid="{8410CACA-DB25-F54D-844C-AAE0DA1F8806}"/>
-    <hyperlink ref="B254" r:id="rId643" display="https://www.co.zapata.tx.us/page/zapata.Elections" xr:uid="{4D023147-C6FA-E642-A87F-27BB07CCD935}"/>
-    <hyperlink ref="B255" r:id="rId644" display="https://www.co.zavala.tx.us/page/Elections" xr:uid="{044A9297-DC96-E54E-988C-0F3AA4D657E4}"/>
+    <hyperlink ref="B63" r:id="rId167" display="https://www.co.dewitt.tx.us/page/dewitt.Elections" xr:uid="{14D93EE7-49B2-9A4E-BD74-A23570FD53F1}"/>
+    <hyperlink ref="D63" r:id="rId168" display="https://www.co.dewitt.tx.us/upload/page/1634/November 5, 2024 General Election/November 5 2024 General Election Precinct Report.pdf" xr:uid="{03279F42-150D-6143-B761-5E37304F5CDC}"/>
+    <hyperlink ref="E63" r:id="rId169" display="https://www.co.dewitt.tx.us/upload/page/1634/March 5 2024 Primary/Precinct Result Report Democratic 3.5.24.pdf" xr:uid="{4C198867-046B-5347-8C60-3B73E7A2CD16}"/>
+    <hyperlink ref="F63" r:id="rId170" display="https://www.co.dewitt.tx.us/upload/page/1634/March 5 2024 Primary/Precinct Result Report Republican 3.5.24.pdf" xr:uid="{8F83F598-EF81-534A-986A-7EF26F1EEC1C}"/>
+    <hyperlink ref="I63" r:id="rId171" display="https://www.co.dewitt.tx.us/upload/page/1634/May 28 2024 Primary Run off/May 28 2024 Republican Primary Runoff Precinct Report.pdf" xr:uid="{44F7F034-E199-8740-B83C-B5A6F3123998}"/>
+    <hyperlink ref="B64" r:id="rId172" display="https://www.co.dickens.tx.us/page/dickens.Elections" xr:uid="{2903BB19-D9C2-934D-A51F-FBCD87452908}"/>
+    <hyperlink ref="B65" r:id="rId173" display="https://www.dimmitcounty.org/government/departments/elections/index.php" xr:uid="{C4D67318-7BD4-C54E-B0B9-9D0F9F62C187}"/>
+    <hyperlink ref="B66" r:id="rId174" display="https://www.co.donley.tx.us/page/donley.Elections" xr:uid="{E74D8A7B-BFD2-CD4B-92F6-4E316B42A1E4}"/>
+    <hyperlink ref="B67" r:id="rId175" display="https://www.co.duval.tx.us/page/duval.ElectionArchives" xr:uid="{C055840E-A7E9-F849-A45C-345FC34D1EC0}"/>
+    <hyperlink ref="D67" r:id="rId176" display="https://www.co.duval.tx.us/upload/page/11353/Precinct Results-11-6-2024 08-30-08 AM.pdf" xr:uid="{84867572-45C1-0948-8EA9-4402870E54BF}"/>
+    <hyperlink ref="G67" r:id="rId177" display="https://www.co.duval.tx.us/upload/page/11353/20240305_Precinct Results.pdf" xr:uid="{C2197F41-5274-4E4B-8C16-7D428CBE05D1}"/>
+    <hyperlink ref="J67" r:id="rId178" display="https://www.co.duval.tx.us/upload/page/11353/20240528_ElectionResults.pdf" xr:uid="{03D1FD86-801B-7541-B948-314BA3C5BDED}"/>
+    <hyperlink ref="B68" r:id="rId179" display="https://www.eastlandcountytexas.com/page/eastland.Joint.Elections.Administrator" xr:uid="{90ADC578-09F6-E34F-A2F4-456AA883F5CB}"/>
+    <hyperlink ref="B69" r:id="rId180" display="https://www.co.ector.tx.us/page/ector.elections" xr:uid="{0E58110B-DD29-F945-8CD6-94D1764119B6}"/>
+    <hyperlink ref="D69" r:id="rId181" display="https://www.co.ector.tx.us/upload/page/7873/docs/Elections/November 5, 2024 Election/Precinct Results-11-13-2024 01-08-05 PM.pdf" xr:uid="{96217584-5D4E-8C42-967F-5AF996100F24}"/>
+    <hyperlink ref="B70" r:id="rId182" display="https://www.co.edwards.tx.us/page/edwards.electionsnew" xr:uid="{F0E8A48F-89E2-3141-B40A-07671BA30F89}"/>
+    <hyperlink ref="B71" r:id="rId183" display="https://www.co.ellis.tx.us/403/Prior-Election-Results" xr:uid="{654FA57D-503D-F04D-8A69-8F3E04401D56}"/>
+    <hyperlink ref="D71" r:id="rId184" display="https://www.co.ellis.tx.us/DocumentCenter/View/19538/241105-General-Precinct-by-Race-Report-Whole-Precincts" xr:uid="{4E2FBFC9-AEC8-DB46-BB23-CF0F311236C0}"/>
+    <hyperlink ref="E71" r:id="rId185" display="https://www.co.ellis.tx.us/DocumentCenter/View/18461/DEM-Pct-by-Race-Results-Election-Night" xr:uid="{B528702F-9438-1941-AFC4-D2082B315ADD}"/>
+    <hyperlink ref="F71" r:id="rId186" display="https://www.co.ellis.tx.us/DocumentCenter/View/18460/REP-Pct-by-Race-Results-Election-Night" xr:uid="{95C6B782-8DBF-9745-B753-ED74B313D307}"/>
+    <hyperlink ref="I71" r:id="rId187" display="https://www.co.ellis.tx.us/DocumentCenter/View/18989/240528-Pct-by-Race-Totals" xr:uid="{B11D346D-97D8-C14B-B76B-D170BEE26D38}"/>
+    <hyperlink ref="B72" r:id="rId188" display="https://epcountyvotes.com/election-archives" xr:uid="{98FEFBB1-E72D-144A-9B3A-A36F76052AB6}"/>
+    <hyperlink ref="C72" r:id="rId189" display="https://results.enr.clarityelections.com/TX/El_Paso/" xr:uid="{56778833-CDD9-9C4D-B2E3-759495C7058C}"/>
+    <hyperlink ref="D72" r:id="rId190" display="https://results.enr.clarityelections.com/TX/Denton/120184/334618/reports/detailxls.zip" xr:uid="{37BBCD14-6A67-A542-BE9F-20436676D22E}"/>
+    <hyperlink ref="G72" r:id="rId191" display="https://results.enr.clarityelections.com/TX/El_Paso/120338/334441/reports/detailxls.zip" xr:uid="{BF7A7BD9-98C4-544E-86EC-5C06EC8735D6}"/>
+    <hyperlink ref="J72" r:id="rId192" display="https://results.enr.clarityelections.com/TX/El_Paso/121722/344586/reports/detailxls.zip" xr:uid="{5B2DB7FE-6BB4-974C-A8F3-A388BAC8B275}"/>
+    <hyperlink ref="B73" r:id="rId193" display="https://www.co.erath.tx.us/184/Elections-Administration" xr:uid="{196800BB-E5EE-8243-B257-1EFE3AEB6D94}"/>
+    <hyperlink ref="B74" r:id="rId194" display="https://www.co.falls.tx.us/page/falls.Elections" xr:uid="{E3BDBE23-92F7-564E-9115-F3B684C476BF}"/>
+    <hyperlink ref="B75" r:id="rId195" display="https://www.co.fannin.tx.us/page/fannin.Elections" xr:uid="{38C1FA48-B6CA-E441-B97B-A198AF15E463}"/>
+    <hyperlink ref="B76" r:id="rId196" display="https://newtools.cira.state.tx.us/page/fayette.Elections.PastResults" xr:uid="{0C77A2C2-A1BB-B349-9809-800A24684F66}"/>
+    <hyperlink ref="D76" r:id="rId197" display="https://newtools.cira.state.tx.us/upload/page/1737/2024 Elections/pctxpct_report_11052024.pdf" xr:uid="{78F6469B-A244-B84B-A66C-2FEDFCF0CD34}"/>
+    <hyperlink ref="G76" r:id="rId198" display="https://newtools.cira.state.tx.us/upload/page/1737/2024/official_precinct_report_march_5_2024_election_results.pdf" xr:uid="{D0486D12-31CF-8949-8B0D-603BD2DF4481}"/>
+    <hyperlink ref="B77" r:id="rId199" display="https://www.fishercounty.org/page/fisher.ElectionPage" xr:uid="{9025A024-B951-A84E-9EB6-B8D104627FA6}"/>
+    <hyperlink ref="B78" r:id="rId200" display="https://www.co.floyd.tx.us/page/floyd.Elections" xr:uid="{70A5596A-EB93-E548-97A4-BD01CAF25E35}"/>
+    <hyperlink ref="B79" r:id="rId201" display="https://www.foardcounty.texas.gov/page/foard.County.Clerk" xr:uid="{D49C3D8B-A064-934E-9759-36241A675DFD}"/>
+    <hyperlink ref="B80" r:id="rId202" display="https://www.fortbendcountytx.gov/government/departments/elections-voter-registration/2024-election-results" xr:uid="{E181E2AC-34A9-7E4D-92EC-062FF5C0CB8E}"/>
+    <hyperlink ref="D80" r:id="rId203" display="https://www.fortbendcountytx.gov/sites/default/files/document-central/document-central/elections-documents/elections-results/2024/FBC-Precinct-Reports3.pdf" xr:uid="{051080AE-C2A6-6949-B23C-1B6C8E566E6B}"/>
+    <hyperlink ref="G80" r:id="rId204" display="https://www.fortbendcountytx.gov/sites/default/files/document-central/document-central/elections-documents/elections-results/2024/March-5%2C-2024-Precinct-results.pdf" xr:uid="{9D8B58D4-E6D5-7C4D-9765-64DF304ED549}"/>
+    <hyperlink ref="J80" r:id="rId205" display="https://results.enr.clarityelections.com/TX/Fort_Bend/121705/340722/reports/detailxls.zip" xr:uid="{305557E7-0957-CA48-934F-17E1042236FF}"/>
+    <hyperlink ref="B81" r:id="rId206" display="https://www.co.franklin.tx.us/page/franklin.elections" xr:uid="{72E1F410-8253-B040-92C6-8EFF31287391}"/>
+    <hyperlink ref="D81" r:id="rId207" display="https://www.co.franklin.tx.us/upload/page/1844/2024 Elections/nov_2024__official_results.pdf" xr:uid="{13A3CDDD-0343-F040-AE26-7ED2B36FC74A}"/>
+    <hyperlink ref="E81" r:id="rId208" display="https://www.co.franklin.tx.us/upload/page/1844/2024/03052024__democrat_official__precinct_by_precinct.pdf" xr:uid="{2375A97C-0DEF-3145-AD3D-9569B9846A87}"/>
+    <hyperlink ref="F81" r:id="rId209" display="https://www.co.franklin.tx.us/upload/page/1844/2024/03052024__republican_official__precinct_by_precinct.pdf" xr:uid="{C6BDE3B6-CB10-3C48-9EE9-FB0DFDE53FB9}"/>
+    <hyperlink ref="B82" r:id="rId210" display="https://www.co.freestone.tx.us/page/freestone.Elections" xr:uid="{A121C6D2-EA3A-BB42-A5B3-E8FA7B28813D}"/>
+    <hyperlink ref="B83" r:id="rId211" display="https://www.co.frio.tx.us/page/elect.home" xr:uid="{B276F588-DCCB-334F-A8F5-E0DF7D433901}"/>
+    <hyperlink ref="B84" r:id="rId212" display="https://www.co.gaines.tx.us/page/gaines.Elections.Archive" xr:uid="{2F85266D-7283-B94F-90FB-59608FF0B57F}"/>
+    <hyperlink ref="B86" r:id="rId213" display="https://www.garzacounty.net/page/elections" xr:uid="{AC67FEB7-87CF-724F-B777-D3ECE55D731F}"/>
+    <hyperlink ref="B87" r:id="rId214" display="https://www.gillespiecounty.org/page/election_results" xr:uid="{F9C77767-5F77-3948-BD0D-BDB6869F26F4}"/>
+    <hyperlink ref="D87" r:id="rId215" display="https://www.gillespiecounty.org/upload/page/0170/docs/elections/2024-11-15  OFFICIAL Precinct Results Report.pdf" xr:uid="{571B71F0-4682-B647-8808-1B8E537F7F72}"/>
+    <hyperlink ref="E87" r:id="rId216" display="https://www.gillespiecounty.org/upload/page/0170/docs/elections/GILLESPIE COUNTY March 5 2024 DEMOCRAT PRIMARY.pdf" xr:uid="{578D149F-2071-7D48-84C5-0B99BB2B96F0}"/>
+    <hyperlink ref="F87" r:id="rId217" display="https://www.gillespiecounty.org/upload/page/0170/docs/elections/TOTAL-Canvass of March 5 2024 Gillespie County Republican Primary.pdf" xr:uid="{C53F3232-DF2F-EE45-91E2-E2897C7DFAAF}"/>
+    <hyperlink ref="I87" r:id="rId218" display="https://www.gillespiecounty.org/upload/page/0170/docs/elections/Canvass_Official Results of May 28 2024 Gillespie County Republican Primary Runoff.pdf" xr:uid="{9AD3C9E0-9A2E-6042-92E7-2489C4E0B49B}"/>
+    <hyperlink ref="B88" r:id="rId219" display="https://www.co.glasscock.tx.us/page/glasscock.Elections" xr:uid="{6A4A196E-7B86-0844-B531-3E309AE59B37}"/>
+    <hyperlink ref="D88" r:id="rId220" display="https://newtools.cira.state.tx.us/upload/page/0767/2024/TALLY TOTALS for 11-5-24 General Election 1124 24.xlsx" xr:uid="{E4E47465-B0B2-3D43-BD67-659FE2D9D76E}"/>
+    <hyperlink ref="B89" r:id="rId221" display="https://www.co.goliad.tx.us/page/goliad.Elections" xr:uid="{DE3D7928-DA39-F74E-AB39-989ECBC14B9D}"/>
+    <hyperlink ref="B90" r:id="rId222" display="https://www.co.gonzales.tx.us/page/gonzales.Elections.Admin" xr:uid="{182FEF74-7EE9-424B-8485-8BB4F55D2653}"/>
+    <hyperlink ref="D90" r:id="rId223" display="https://www.co.gonzales.tx.us/upload/page/10685/110524 General Election/Pct by Pct Official Results 110524.pdf" xr:uid="{84D6641C-0668-104B-8056-4E3750469277}"/>
+    <hyperlink ref="E90" r:id="rId224" display="https://www.co.gonzales.tx.us/upload/page/10685/030524 Primary/Democratic Official Pct by Pct 030524.pdf" xr:uid="{F76CC579-1630-3D4A-8693-E0445DF0B1FB}"/>
+    <hyperlink ref="F90" r:id="rId225" display="https://www.co.gonzales.tx.us/upload/page/10685/030524 Primary/Republican Official Pct by Pct 030524.pdf" xr:uid="{86B35131-75B4-854F-9C20-9F8B11E48606}"/>
+    <hyperlink ref="I90" r:id="rId226" display="https://www.co.gonzales.tx.us/upload/page/10685/052824 Primary Runoff/Pct by Pct Results 052824.pdf" xr:uid="{E5C5E704-81F7-7146-BA22-FD26AA4CB752}"/>
+    <hyperlink ref="B91" r:id="rId227" display="https://www.co.gray.tx.us/page/gray.Elections" xr:uid="{9A8988BA-15FD-5B4E-A88C-688DC0A4AB1B}"/>
+    <hyperlink ref="B92" r:id="rId228" display="https://www.co.grayson.tx.us/page/elec.history" xr:uid="{4A6B15FC-7075-4047-AB61-E130255899E0}"/>
+    <hyperlink ref="D92" r:id="rId229" display="https://www.co.grayson.tx.us/page/open/3389/0/Official Pct. by Pct. Summary Results General 11.5.24 Election" xr:uid="{CEA5F515-836A-264C-8BDF-DE49F960581D}"/>
+    <hyperlink ref="G92" r:id="rId230" display="https://www.co.grayson.tx.us/page/open/3389/0/March 5 2024 Precinct Results Report" xr:uid="{247E8230-4AA0-4C43-8EBE-7D96AFDE0B8D}"/>
+    <hyperlink ref="J92" r:id="rId231" display="https://www.co.grayson.tx.us/page/open/3389/0/May 28th RunOff Official Precinct By Precinct Report" xr:uid="{F8285D47-603E-7144-9B0C-6CBC00BD7A16}"/>
+    <hyperlink ref="B93" r:id="rId232" display="https://www.greggcountyvotes.com/" xr:uid="{9F40E5DB-DB94-464E-B6B1-E5BEDDDF3FB4}"/>
+    <hyperlink ref="C93" r:id="rId233" display="https://results.enr.clarityelections.com/TX/Gregg/" xr:uid="{4D11C2BB-EDB0-AB4D-ABA1-0448CFF77EC9}"/>
+    <hyperlink ref="D93" r:id="rId234" display="https://results.enr.clarityelections.com/TX/Gregg/122313/355603/reports/detailxls.zip" xr:uid="{E8A00D18-BE92-FE4F-A8F8-0ED793DCAB2A}"/>
+    <hyperlink ref="G93" r:id="rId235" display="https://results.enr.clarityelections.com/TX/Gregg/120010/333176/reports/detailxls.zip" xr:uid="{06CA62DA-2D1D-C04F-A260-E3FDEE9E6ADE}"/>
+    <hyperlink ref="B94" r:id="rId236" display="https://grimescountytexas.gov/index.asp?SEC=%7B916A9ACA-66FE-481D-BE2B-84C6C590431D%7D" xr:uid="{B162D2B5-CAC8-FB46-8113-DC395C936114}"/>
+    <hyperlink ref="D94" r:id="rId237" display="https://grimescountytexas.gov/vertical/sites/%7B958238D0-27E6-4F6C-919E-F1D98542C5FD%7D/uploads/11.05.2024_OFFICIAL_Canvass_Results(1).pdf" xr:uid="{0CA463EE-2152-8A4B-A79D-A9150C5B9AEF}"/>
+    <hyperlink ref="G94" r:id="rId238" display="https://grimescountytexas.gov/vertical/sites/%7B958238D0-27E6-4F6C-919E-F1D98542C5FD%7D/uploads/OFFICIAL_CANVASS_RESULTS(1).pdf" xr:uid="{1762A895-AC82-2D4E-9ED5-E18724FFCDDA}"/>
+    <hyperlink ref="J94" r:id="rId239" display="https://grimescountytexas.gov/vertical/sites/%7B958238D0-27E6-4F6C-919E-F1D98542C5FD%7D/uploads/5.28.2024_PRIMARY_RUNOFF_OFFICIAL_CANVASS_RESULTS(1).pdf" xr:uid="{0C6C0DEB-6598-F341-984E-8ED3FE55B716}"/>
+    <hyperlink ref="B95" r:id="rId240" display="https://www.guadalupetx.gov/page/elections.history" xr:uid="{6BA9A041-C37A-F34D-8641-F0A21E4773FE}"/>
+    <hyperlink ref="C95" r:id="rId241" display="https://results.enr.clarityelections.com/TX/Guadalupe/" xr:uid="{4FA6B1B9-8F11-5E49-9D17-310DACE87CA5}"/>
+    <hyperlink ref="D95" r:id="rId242" display="https://www.guadalupetx.gov/upload/page/0210/docs/2024/11-5-24-GC_General-PrctbyPrct.pdf" xr:uid="{BA069584-02A0-2F44-9DB6-0CAB628047C1}"/>
+    <hyperlink ref="E95" r:id="rId243" display="https://www.guadalupetx.gov/upload/page/0210/Dem_Primary_Official_Results_PrctbyPrct.pdf" xr:uid="{B6821E41-A64E-744E-B931-9BE14A9626BF}"/>
+    <hyperlink ref="F95" r:id="rId244" display="https://www.guadalupetx.gov/upload/page/0210/Rep_Primary_Official_Results_PrctbyPrct.pdf" xr:uid="{0ABDD25F-4675-F447-A991-769D846DA21B}"/>
+    <hyperlink ref="B96" r:id="rId245" display="https://www.halecounty.org/county_offices/election_information.php" xr:uid="{1809D0FD-FD9D-104F-8CC7-6D7A2AED4DDC}"/>
+    <hyperlink ref="D96" r:id="rId246" display="https://cms2.revize.com/revize/halecountynew/Precinct Results-11-13-2024 01-27-08 PM.pdf" xr:uid="{58CBE8A1-800D-9C4B-BA47-171CCBD57938}"/>
+    <hyperlink ref="B97" r:id="rId247" display="https://www.co.hall.tx.us/page/hall.County.Elections" xr:uid="{CE155D1B-7356-B04D-B822-8B1EFF02EF88}"/>
+    <hyperlink ref="B98" r:id="rId248" display="https://www.co.hamilton.tx.us/page/hamilton.elections" xr:uid="{59EB1083-333E-4D45-9BCE-B1DC7E364A1C}"/>
+    <hyperlink ref="D98" r:id="rId249" display="https://www.hamiltoncountytx.gov/upload/page/8825/Official Results Nov 5 General Pct x Pct.pdf" xr:uid="{A3847638-A671-7D4B-9B42-EC155C5DA02E}"/>
+    <hyperlink ref="G98" r:id="rId250" display="https://www.hamiltoncountytx.gov/upload/page/8825/2024 Primary Elections/Unofficial Results for PCT. by PCT.pdf" xr:uid="{33E56BF5-A668-F145-8A44-D5C9434A4E20}"/>
+    <hyperlink ref="H98" r:id="rId251" display="https://www.hamiltoncountytx.gov/upload/page/8825/Democratic Primary Runoff Pct. x Pct. Official Results.pdf" xr:uid="{87FB6553-011C-2049-B112-2C018E4AE0C8}"/>
+    <hyperlink ref="B99" r:id="rId252" display="https://www.co.hansford.tx.us/page/hansford.Elections" xr:uid="{ADDE4774-679E-2C4D-ABD5-34035A5D0124}"/>
+    <hyperlink ref="B100" r:id="rId253" display="https://www.co.hardeman.tx.us/page/hardeman.Elections" xr:uid="{A9EEEACB-413C-B84A-BCBD-6DB4D9CCF909}"/>
+    <hyperlink ref="B102" r:id="rId254" display="https://www.harrisvotes.com/Election-Results/Archives" xr:uid="{B4BF3921-F700-8543-917C-F73469EEF0BD}"/>
+    <hyperlink ref="D102" r:id="rId255" display="https://hctxdnnstg.blob.core.windows.net/harrisvotes/prd/docs/Reports/FINAL Official Canvass Results-11-14-2024 03-12-57 PM.pdf" xr:uid="{48DF9E47-51B7-E441-AF33-CE9FFC029037}"/>
+    <hyperlink ref="E102" r:id="rId256" display="https://hctxdnnstg.blob.core.windows.net/harrisvotes/prd/docs/Official Dem Canvass Results-3-13-2024 11-57-16 AM.pdf" xr:uid="{C267D9A6-F938-7245-8B89-EF4F9F74FFFE}"/>
+    <hyperlink ref="F102" r:id="rId257" display="https://hctxdnnstg.blob.core.windows.net/harrisvotes/prd/docs/Official Rep Canvass Results-3-13-2024 11-50-05 AM.pdf" xr:uid="{FD718572-66F7-4A40-82E5-C75B319D702D}"/>
+    <hyperlink ref="H102" r:id="rId258" display="https://files.harrisvotes.com/harrisvotes/prd/docs/Reports/Official DEM Canvass Results-6-5-2024 11-13-02 AM.pdf" xr:uid="{0DCAEA35-FA57-EC4C-8E2C-1F7536818C6F}"/>
+    <hyperlink ref="I102" r:id="rId259" display="https://files.harrisvotes.com/harrisvotes/prd/docs/Reports/Official REP Canvass Results-6-5-2024 11-12-28 AM.pdf" xr:uid="{594A1E66-1015-8C47-A325-7FB295D6E23E}"/>
+    <hyperlink ref="B103" r:id="rId260" display="https://www.harrisoncountytexas.gov/page/harrison.Elections" xr:uid="{C610C450-D2DA-C94E-9F6B-10E096CE9518}"/>
+    <hyperlink ref="D103" r:id="rId261" display="https://www.harrisoncountytexas.gov/upload/page/12077/NOV 5, 2024/Precinct Results-11-18-2024 01-03-20 PM.pdf" xr:uid="{0CDCD350-A9A4-3E48-B54B-132CCD1285F5}"/>
+    <hyperlink ref="G103" r:id="rId262" display="https://www.harrisoncountytexas.gov/upload/page/12077/MARCH PRIMARY 2024/PrecinctResultsReport.pdf" xr:uid="{3DFF2286-61E2-9B48-8A01-DEA195E626C1}"/>
+    <hyperlink ref="B104" r:id="rId263" display="https://www.co.hartley.tx.us/page/hartley.Voter.Information" xr:uid="{ACE2A9C1-3F12-6C4D-BA9B-EB9584487733}"/>
+    <hyperlink ref="B105" r:id="rId264" display="https://www.haskellcountytx.gov/page/haskell.County.Clerk" xr:uid="{5D9FCC24-F558-5E4C-8EBE-97611F2820B4}"/>
+    <hyperlink ref="B106" r:id="rId265" display="https://www.hayscountytx.gov/election-results" xr:uid="{427643E8-367F-F949-B8D2-182B4B671818}"/>
+    <hyperlink ref="B107" r:id="rId266" display="https://www.co.hemphill.tx.us/page/hemphill.ElectionInformation" xr:uid="{C3DE06C4-11E8-1F40-81A8-0F43692E3270}"/>
+    <hyperlink ref="D107" r:id="rId267" display="https://www.co.hemphill.tx.us/upload/page/7666/nov 2024 general election by precinct report.pdf" xr:uid="{A7CC4BD8-F914-D445-89C0-BA574602BCB8}"/>
+    <hyperlink ref="B108" r:id="rId268" display="https://www.henderson-county.com/departments/elections-voter-registration/election-results" xr:uid="{45103907-82F1-C14E-9AE9-74C068012F4F}"/>
+    <hyperlink ref="D108" r:id="rId269" display="https://www.henderson-county.com/home/showpublisheddocument/23397/638676954817730000" xr:uid="{60DE66F7-5B95-B242-BB6F-FD34C09BDFB7}"/>
+    <hyperlink ref="B110" r:id="rId270" display="https://www.co.hill.tx.us/page/hill.Elections" xr:uid="{AF786827-F399-7D4A-BD55-8710670A31F1}"/>
+    <hyperlink ref="B111" r:id="rId271" display="https://www.co.hockley.tx.us/page/hockley.electionshome" xr:uid="{0D3ED57B-8E06-9943-9B48-D1DF7BBD97A4}"/>
+    <hyperlink ref="B112" r:id="rId272" display="https://hoodcounty.texas.gov/departments/elections_administration/index.php" xr:uid="{B43B87DD-6DAB-DB41-9B8F-D0028A0F101A}"/>
+    <hyperlink ref="C112" r:id="rId273" display="https://results.enr.clarityelections.com/TX/Hood/" xr:uid="{3F8FF554-FDCD-2C45-8D1C-73B3888B654E}"/>
+    <hyperlink ref="D112" r:id="rId274" display="https://results.enr.clarityelections.com/TX/Hood/122858/355543/reports/detailxls.zip" xr:uid="{94F275DF-F906-5D45-BD9D-286F095DD060}"/>
+    <hyperlink ref="G112" r:id="rId275" display="https://results.enr.clarityelections.com/TX/Hood/120386/332333/reports/detailxls.zip" xr:uid="{8E38B469-F491-A84B-8863-30771F5E8354}"/>
+    <hyperlink ref="I112" r:id="rId276" display="https://results.enr.clarityelections.com/TX/Hood/121707/340726/reports/detailxls.zip" xr:uid="{33E44A05-3A64-5B4F-8E21-90A4190C4DB1}"/>
+    <hyperlink ref="B113" r:id="rId277" display="https://www.hopkinscountytx.org/page/hopkins.Elections" xr:uid="{35237D54-7422-D846-8CA4-27A831C16E2F}"/>
+    <hyperlink ref="B114" r:id="rId278" display="https://www.co.houston.tx.us/page/houston.Elections" xr:uid="{E3EEC786-8552-7644-8374-CAFF1BC74F09}"/>
+    <hyperlink ref="D114" r:id="rId279" display="https://www.co.houston.tx.us/upload/page/2956/2024 Nov/Pct X Pct Official Results - 11-5-24.pdf" xr:uid="{EE3454A9-2E25-764F-A14A-8B5E81B98FAC}"/>
+    <hyperlink ref="G114" r:id="rId280" display="https://www.co.houston.tx.us/upload/page/2956/2024 Primary/Official PCT x PCT.pdf" xr:uid="{4B45F481-B3F8-D244-8D3D-606D4C4870EC}"/>
+    <hyperlink ref="B115" r:id="rId281" display="https://www.co.howard.tx.us/page/howard.Election.Information" xr:uid="{3DE00081-0891-6741-8EEE-8FFCFC089DAD}"/>
+    <hyperlink ref="B116" r:id="rId282" display="https://www.co.hudspeth.tx.us/page/hudspeth.Elections" xr:uid="{99D4C890-0B3B-104C-9A13-615768014E8A}"/>
+    <hyperlink ref="G116" r:id="rId283" display="https://www.co.hudspeth.tx.us/upload/page/10211/2024/precinct_results362024_121555_pm.pdf" xr:uid="{5617EF73-C72F-B342-ABF8-8C2D63F425E5}"/>
+    <hyperlink ref="B118" r:id="rId284" display="https://www.co.hutchinson.tx.us/page/hutchinson.ElectionInformation" xr:uid="{B343CE57-1B9D-6B43-86C9-05C665E2FBB0}"/>
+    <hyperlink ref="D118" r:id="rId285" display="https://newtools.cira.state.tx.us/upload/page/10714/docs/2024/2024 General Precinct by Precinct Official Results.pdf" xr:uid="{2691AB42-1F9B-EB47-8ACE-4ED2BAD9506B}"/>
+    <hyperlink ref="E118" r:id="rId286" display="https://newtools.cira.state.tx.us/upload/page/10714/docs/2024/Democratic Official Results.pdf" xr:uid="{96D5E9B0-7D8C-A247-AC08-5B744A6AE4CF}"/>
+    <hyperlink ref="F118" r:id="rId287" display="https://newtools.cira.state.tx.us/upload/page/10714/docs/2024/Republican Official Results.pdf" xr:uid="{2F8906BF-E870-604A-9BBF-75C17ADBFB09}"/>
+    <hyperlink ref="B119" r:id="rId288" display="https://www.co.irion.tx.us/page/irion.cityschoolelection" xr:uid="{FA093231-05B6-5346-B34D-6F372150706F}"/>
+    <hyperlink ref="B120" r:id="rId289" display="https://www.jackcounty.org/pages/elections.html" xr:uid="{FDC531B5-3075-6D43-B04B-F50C37098C38}"/>
+    <hyperlink ref="B121" r:id="rId290" display="https://www.co.jackson.tx.us/page/jackson.VotingElectionInformation" xr:uid="{574C43EA-4D3D-7541-8E53-6B30DC1E423F}"/>
+    <hyperlink ref="B122" r:id="rId291" display="https://www.co.jasper.tx.us/page/jasper.Elections" xr:uid="{1D6A049F-F649-1F4F-A25B-28245E886A22}"/>
+    <hyperlink ref="D122" r:id="rId292" display="https://www.co.jasper.tx.us/upload/page/1130/11-5-24 Official Pct by Pct Results.pdf" xr:uid="{20E1CFE6-C964-2B48-906A-2447192ED2FA}"/>
+    <hyperlink ref="G122" r:id="rId293" display="https://www.co.jasper.tx.us/upload/page/1130/2024 Elections/Official Result Summary 030524.pdf" xr:uid="{49A87D10-11D0-1843-B8B5-334ABD76620D}"/>
+    <hyperlink ref="J122" r:id="rId294" display="https://www.co.jasper.tx.us/upload/page/1130/2024 Elections/Official Pct by Pct 52824 Results.pdf" xr:uid="{00962D2C-91EA-F745-94C0-A6C260AC53C9}"/>
+    <hyperlink ref="B123" r:id="rId295" display="https://www.jeffdaviscounty.texas.gov/page/jeffdavis.Elections" xr:uid="{BAE2CB88-2979-1542-BC4A-FF14471512A1}"/>
+    <hyperlink ref="D123" r:id="rId296" display="https://www.jeffdaviscounty.texas.gov/upload/page/6574/2024/general_election__by_precinct__official.pdf" xr:uid="{A7E2A8B1-C602-6C41-9778-06AB1CE8E0C3}"/>
+    <hyperlink ref="G123" r:id="rId297" display="https://www.jeffdaviscounty.texas.gov/upload/page/6574/2024/summarybyprecinct_ev_abs_ed_1.pdf" xr:uid="{14623B00-48DB-0448-99F8-A7784E128670}"/>
+    <hyperlink ref="I123" r:id="rId298" display="https://www.jeffdaviscounty.texas.gov/upload/page/6574/2024/unofficial_results_by_precinct__early_absentee__election_day.pdf" xr:uid="{CA3352F1-E63D-A247-B03A-733FC1C6F81E}"/>
+    <hyperlink ref="B124" r:id="rId299" location="PastElections" display="https://www.jeffersonelections.com/voter-information/previous-election-results/ - PastElections" xr:uid="{466AE088-D501-C444-B98F-2D135A3262C7}"/>
+    <hyperlink ref="C124" r:id="rId300" location="PastElections" display="https://www.jeffersonelections.com/voter-information/previous-election-results/ - PastElections" xr:uid="{DAA6A4AF-EF3E-454C-A4DD-3FC46E60348F}"/>
+    <hyperlink ref="D124" r:id="rId301" display="https://results.enr.clarityelections.com/TX/Jefferson/122828/355360/reports/detailxls.zip" xr:uid="{B13F8FF2-7E14-BD45-834C-F58C08324292}"/>
+    <hyperlink ref="G124" r:id="rId302" display="https://results.enr.clarityelections.com/TX/Jefferson/120285/333410/reports/detailxls.zip" xr:uid="{7DB7BB57-0388-3A44-A792-7C5F07FA0572}"/>
+    <hyperlink ref="I124" r:id="rId303" display="https://results.enr.clarityelections.com/TX/Jefferson/121079/341343/reports/detailxls.zip" xr:uid="{3EF926BE-A936-A449-9498-069246FB8D97}"/>
+    <hyperlink ref="B125" r:id="rId304" display="https://www.co.jim-hogg.tx.us/page/jim-hogg.Elections" xr:uid="{78EDA14F-6F0D-0042-A8B6-5583A57CCA78}"/>
+    <hyperlink ref="D125" r:id="rId305" display="https://www.co.jim-hogg.tx.us/upload/page/9530/2024/11-5-24 Official Precinct Results.pdf" xr:uid="{DBE986B4-CE52-F643-8532-160BA85EEE2D}"/>
+    <hyperlink ref="G125" r:id="rId306" display="https://www.co.jim-hogg.tx.us/upload/page/9530/2024/Official Precinct Results-3-5-2024.pdf" xr:uid="{2FA61619-EE6E-F544-9B38-682C8D65C4C9}"/>
+    <hyperlink ref="B126" r:id="rId307" display="https://jimwellscountyelections.gov/all-official-notices/" xr:uid="{E5435305-D065-1740-ABC2-6D021315B282}"/>
+    <hyperlink ref="D126" r:id="rId308" display="https://jimwellscountyelections.gov/wp-content/uploads/2024/11/FINAL-OFFICIAL-RESULTS-2024-GENERAL-ELECTION-CUMULATIVE-AND-PCT-BY-PCT.pdf" xr:uid="{BBF0D44A-FBEF-7142-8AFF-C7A220E9ABC8}"/>
+    <hyperlink ref="B127" r:id="rId309" display="https://www.johnsoncountytx.org/departments/elections-office/election-results/elections-archive" xr:uid="{12E4CCCE-7277-454E-965F-CB9F9D19A87D}"/>
+    <hyperlink ref="D127" r:id="rId310" display="https://www.johnsoncountytx.org/home/showpublisheddocument/17697/638717692756030000" xr:uid="{8A526039-A9AD-BB43-AA97-EC09BE10C297}"/>
+    <hyperlink ref="E127" r:id="rId311" display="https://www.johnsoncountytx.org/home/showpublisheddocument/16543/638461081406670000" xr:uid="{C77C391C-3DC3-CD49-AD76-E09E98CD0AF1}"/>
+    <hyperlink ref="F127" r:id="rId312" display="https://www.johnsoncountytx.org/home/showpublisheddocument/16545/638461081415400000" xr:uid="{1E1A129F-11C1-8842-847D-06EEC987B001}"/>
+    <hyperlink ref="I127" r:id="rId313" display="https://www.johnsoncountytx.org/home/showpublisheddocument/16839/638536157872270000" xr:uid="{33CAAD8D-790B-EE47-A0BD-3D5AC423E054}"/>
+    <hyperlink ref="B128" r:id="rId314" display="https://www.co.jones.tx.us/page/jones.Elections" xr:uid="{636BD06B-2370-8A47-BC9F-19E6913722A0}"/>
+    <hyperlink ref="D128" r:id="rId315" display="https://www.co.jones.tx.us/upload/page/1293/2024/Results - Precinct by Precinct - November 5_ 2024 General Election.pdf" xr:uid="{C3A70772-A197-9B40-B04E-F398136D820B}"/>
+    <hyperlink ref="G128" r:id="rId316" display="https://www.co.jones.tx.us/upload/page/1293/2024/Results - Precinct by Precinct - March 5_ 2024 Primary Election.pdf" xr:uid="{FB0D285C-DB85-6D45-AA5B-389C99889EC8}"/>
+    <hyperlink ref="J128" r:id="rId317" display="https://www.co.jones.tx.us/upload/page/1293/2024/Results - Precint by Precint - March 28_ 2024.pdf" xr:uid="{40C91ADA-0359-A94A-AE53-07CF28D81666}"/>
+    <hyperlink ref="B129" r:id="rId318" display="https://www.co.karnes.tx.us/page/karnes.Elections" xr:uid="{D77F53F3-7A00-984A-83F0-37536E89AB39}"/>
+    <hyperlink ref="B130" r:id="rId319" display="https://www.kaufmancounty.net/436/ELECTION-RESULTS" xr:uid="{12936B49-82E7-A24E-AAFA-18261B0FE941}"/>
+    <hyperlink ref="C130" r:id="rId320" display="https://results.enr.clarityelections.com/TX/Kaufman/" xr:uid="{4988722E-3734-F448-8FF8-765A57F7F95D}"/>
+    <hyperlink ref="D130" r:id="rId321" display="https://results.enr.clarityelections.com/TX/Kaufman/122824/355375/reports/detailxls.zip" xr:uid="{2CC4AD56-7C06-6841-8781-0382D4FD2B48}"/>
+    <hyperlink ref="G130" r:id="rId322" display="https://results.enr.clarityelections.com/TX/Kaufman/120253/332318/reports/detailxls.zip" xr:uid="{D498EF18-71E3-7741-A0E6-8F2BF4DB7EF7}"/>
+    <hyperlink ref="I130" r:id="rId323" display="https://results.enr.clarityelections.com/TX/Kaufman/121710/340489/reports/detailxls.zip" xr:uid="{5A2F0740-1EB9-424F-BF2E-642B8A665587}"/>
+    <hyperlink ref="B131" r:id="rId324" display="https://www.kendallcountytx.gov/220/Election-Results-Past-Present" xr:uid="{8F893F1B-CACB-304C-835A-92F3BAC15C2B}"/>
+    <hyperlink ref="C131" r:id="rId325" display="https://results.enr.clarityelections.com/TX/Kendall/" xr:uid="{0696F391-38B5-5B42-BA59-B07E0A12910A}"/>
+    <hyperlink ref="D131" r:id="rId326" display="https://results.enr.clarityelections.com/TX/Kendall/122829/351989/reports/detailxls.zip" xr:uid="{80FC4270-7188-3D44-988C-3AD6E9634304}"/>
+    <hyperlink ref="G131" r:id="rId327" display="https://results.enr.clarityelections.com/TX/Kendall/120248/334534/reports/detailxls.zip" xr:uid="{C6F921A0-27C8-F749-BABA-AF2A27E648F7}"/>
+    <hyperlink ref="I131" r:id="rId328" display="https://results.enr.clarityelections.com/TX/Kendall/121795/342412/reports/detailxls.zip" xr:uid="{6AD575CF-7546-404D-BA05-2F4A8B04C122}"/>
+    <hyperlink ref="B132" r:id="rId329" display="https://kenedycountyelections.com/results/" xr:uid="{2ED14C87-DEEC-7347-BCBF-2CC23CB726F6}"/>
+    <hyperlink ref="D132" r:id="rId330" display="https://kenedycountyelections.com/wp-content/uploads/simple-file-list/Pct_-by-Pct_-Report-11-5-24.pdf" xr:uid="{6EDE9C25-EA52-0F4E-91AF-F0AE605FADC9}"/>
+    <hyperlink ref="B133" r:id="rId331" display="https://www.co.kent.tx.us/page/kent.Elections" xr:uid="{28CC573D-C673-534A-ACDF-D15BD04FA0D2}"/>
+    <hyperlink ref="B134" r:id="rId332" location="gsc.tab=0" display="https://www.kerrcountytx.gov/voting-in-kerr-county/kerr-county-elections - gsc.tab=0" xr:uid="{ABB436CC-727F-6D45-9355-E5743FC77EF7}"/>
+    <hyperlink ref="D134" r:id="rId333" display="https://legacy.co.kerr.tx.us/elections/docs/2024-11-05/Official_General_Election_November_5_2024_ Precinct_Results.pdf" xr:uid="{DB69F3C3-6C73-D14C-BD18-60C8761579D4}"/>
+    <hyperlink ref="E134" r:id="rId334" display="https://legacy.co.kerr.tx.us/elections/results/2024-03-05/Democratic_March_5_2024-Official_Precinct_Results.pdf" xr:uid="{1F8E98D4-9A83-904E-80EF-E15E69D318F5}"/>
+    <hyperlink ref="F134" r:id="rId335" display="https://legacy.co.kerr.tx.us/elections/results/2024-03-05/Republican_March_5_2024-Official_Precinct_Results.pdf" xr:uid="{3752A09D-1A82-6F4A-B04D-E864448E95FB}"/>
+    <hyperlink ref="I134" r:id="rId336" display="https://legacy.co.kerr.tx.us/elections/results/2024-05-28/Official Republican Primary Runoff May 28,2024 Precinct by Precinct  Results-6-4-2024 11-08-13 AM.pdf" xr:uid="{FC64756B-47DA-C94D-840F-5297859A95EC}"/>
+    <hyperlink ref="B135" r:id="rId337" display="https://www.co.kimble.tx.us/page/kimble.Elections" xr:uid="{07954E55-E38F-0748-B3E9-19450554F7C7}"/>
+    <hyperlink ref="B136" r:id="rId338" display="https://www.co.king.tx.us/page/king.County.Clerk" xr:uid="{685A6312-0C99-4447-9688-9BDD347454DA}"/>
+    <hyperlink ref="B137" r:id="rId339" display="https://www.co.kinney.tx.us/page/kinney.Elections" xr:uid="{0799F66C-BE3D-BA4D-A046-2E8E09F9345F}"/>
+    <hyperlink ref="B138" r:id="rId340" display="https://www.co.kleberg.tx.us/page/kleberg.elections" xr:uid="{715C821B-47F6-B444-BFAE-F160F25CBFD3}"/>
+    <hyperlink ref="B139" r:id="rId341" display="https://www.knoxcountytexas.org/page/knox.elections" xr:uid="{F2846DD6-A36D-B34F-805B-6D08C9076381}"/>
+    <hyperlink ref="B140" r:id="rId342" display="https://www.co.lamar.tx.us/page/lamar.elections" xr:uid="{ECCBF35A-C2BE-0B4D-B3C0-D3F83C94FC9A}"/>
+    <hyperlink ref="C140" r:id="rId343" display="https://results.enr.clarityelections.com/TX/Lamar/" xr:uid="{6E9DD0AC-522F-954D-BBFD-D80ECC060EE7}"/>
+    <hyperlink ref="D140" r:id="rId344" display="https://results.enr.clarityelections.com/TX/Lamar/122497/351606/reports/detailxls.zip" xr:uid="{CC836A22-5865-3840-886D-842B225F1276}"/>
+    <hyperlink ref="G140" r:id="rId345" display="https://results.enr.clarityelections.com/TX/Lamar/119865/334231/reports/detailxls.zip" xr:uid="{0A1F0941-49DB-7D40-99B4-12001288EC5A}"/>
+    <hyperlink ref="I140" r:id="rId346" display="https://results.enr.clarityelections.com/TX/Lamar/121669/340131/reports/detailxls.zip" xr:uid="{A69A5950-056F-7144-85AA-B710BCBEDB19}"/>
+    <hyperlink ref="B141" r:id="rId347" display="https://www.co.lamb.tx.us/page/lamb.ElectionsHome" xr:uid="{EFD05BE7-1CD6-754B-8EDF-C9D8887255D1}"/>
+    <hyperlink ref="B142" r:id="rId348" display="https://www.co.lampasas.tx.us/page/lampasas.testpage2" xr:uid="{0B1BE707-A8E7-554F-B278-BBD1755795B0}"/>
+    <hyperlink ref="B143" r:id="rId349" display="https://www.co.la-salle.tx.us/index.php/offices/election-board" xr:uid="{B17C6838-2DA4-2C41-9869-7F300C558494}"/>
+    <hyperlink ref="D143" r:id="rId350" display="https://www.co.la-salle.tx.us/images/pdfs/2024_Elections/Nov2024/OFFICIAL_CANVASS_GENERAL_ELECTION.pdf" xr:uid="{17319B27-BF1D-094B-9597-C2D45094CCFB}"/>
+    <hyperlink ref="B144" r:id="rId351" display="https://www.co.lavaca.tx.us/page/Elections" xr:uid="{F6C95ECE-5E29-FF41-9B43-0D86C6B5F907}"/>
+    <hyperlink ref="G144" r:id="rId352" display="https://www.co.lavaca.tx.us/upload/page/0122/2024 update PRECINCT REPORT UNOFFICAL.pdf" xr:uid="{D00CABB8-DABB-384D-95DF-C9FF80A95D8E}"/>
+    <hyperlink ref="I144" r:id="rId353" display="https://www.co.lavaca.tx.us/upload/page/0122/052824PRECINCT SUMMARY REPORT.pdf" xr:uid="{8C11B06D-1F19-8E4C-8C71-023BD4CAB53A}"/>
+    <hyperlink ref="B145" r:id="rId354" display="https://www.co.lee.tx.us/page/lee.Elections" xr:uid="{0A345A28-10FB-604D-9A37-1F4C68D4ACF9}"/>
+    <hyperlink ref="D145" r:id="rId355" display="https://www.co.lee.tx.us/upload/page/11450/updated pct by pct 110524.pdf" xr:uid="{0227BB02-D6C1-8045-9B3B-363658C6AFAF}"/>
+    <hyperlink ref="J145" r:id="rId356" display="https://www.co.lee.tx.us/upload/page/11450/pct by pct 5-28-24.pdf" xr:uid="{AF64D303-AC13-7243-B169-9DEC2515EEBF}"/>
+    <hyperlink ref="B146" r:id="rId357" display="https://www.co.leon.tx.us/page/leon.elections" xr:uid="{029046E6-0E76-8C4A-96C2-3BC866D6E97F}"/>
+    <hyperlink ref="D146" r:id="rId358" display="https://www.co.leon.tx.us/upload/page/4964/docs/110524 GENERAL/110524 GENERAL OFFICIAL PCT BY PCT.pdf" xr:uid="{F34585FF-9947-AE46-A835-C7CAEAF3647D}"/>
+    <hyperlink ref="G146" r:id="rId359" display="https://www.co.leon.tx.us/upload/page/4964/030524 OFFICIAL PCT BY PCT TO WEB.pdf" xr:uid="{8D21AB5F-74AA-8C49-A6E4-327EB5FF2005}"/>
+    <hyperlink ref="I146" r:id="rId360" display="https://www.co.leon.tx.us/upload/page/4964/052824 OFFICIAL PCT BY PCT.pdf" xr:uid="{0595D265-40C4-A244-80CA-5F8ABEF4446E}"/>
+    <hyperlink ref="B147" r:id="rId361" display="https://www.co.liberty.tx.us/page/liberty.elections.past.historical" xr:uid="{A2063B85-0FDB-874C-841F-DAA0B8D0589B}"/>
+    <hyperlink ref="D147" r:id="rId362" display="https://www.co.liberty.tx.us/upload/page/11966/Precinct Results-11-14-2024 08-18-41 AM.pdf" xr:uid="{F3AF7E3B-D6BC-D646-B547-4A62D1166739}"/>
+    <hyperlink ref="G147" r:id="rId363" display="https://www.co.liberty.tx.us/upload/page/11197/Final Precinct Results-3-8-2024 02-28-35 PM.pdf" xr:uid="{B46ED577-0B8F-DE44-98AD-CD6D41C3188F}"/>
+    <hyperlink ref="B148" r:id="rId364" display="https://www.co.limestone.tx.us/page/limestone.elections" xr:uid="{C8268A0D-8122-F04E-9976-58740B2AC1E9}"/>
+    <hyperlink ref="D148" r:id="rId365" display="https://newtools.cira.state.tx.us/upload/page/5631/241105 Precinct.pdf" xr:uid="{97CD7739-9B17-9C48-BBDB-6C5CFF8A61DB}"/>
+    <hyperlink ref="G148" r:id="rId366" display="https://newtools.cira.state.tx.us/upload/page/5631/240305 Final Unofficial box x box.pdf" xr:uid="{2B97C62B-DD19-904A-B311-55BF1ECE2A15}"/>
+    <hyperlink ref="J148" r:id="rId367" display="https://newtools.cira.state.tx.us/upload/page/5631/240528 Precinct Results.pdf" xr:uid="{C2724A1F-B5B4-D142-A38A-9E2058CCD11D}"/>
+    <hyperlink ref="B149" r:id="rId368" display="https://www.co.lipscomb.tx.us/page/lipscomb.ElectionInformation" xr:uid="{ABE259D6-9DD5-6B47-8ABC-249AA077D3EC}"/>
+    <hyperlink ref="B150" r:id="rId369" display="https://www.co.live-oak.tx.us/page/liveoak.Elections" xr:uid="{45F7CB13-13B6-8249-AE00-68A994A49BBB}"/>
+    <hyperlink ref="G150" r:id="rId370" display="https://www.co.live-oak.tx.us/upload/page/11665/Becca add/Official Precinct Resultsv D   R 3 15 2024.pdf" xr:uid="{BE961500-0D3A-8D49-930B-2564D36BDDB6}"/>
+    <hyperlink ref="B151" r:id="rId371" display="https://www.co.llano.tx.us/page/llano.Archived.Elections" xr:uid="{16284672-7881-404F-AE6A-24326421EA3E}"/>
+    <hyperlink ref="D151" r:id="rId372" display="https://newtools.cira.state.tx.us/upload/page/0979/2024/November 2024/Official Election Results Precinct-11-15-2024 08-15-19 AM.pdf" xr:uid="{1A7DB868-A13F-EC4B-AF15-CC04C741EE34}"/>
+    <hyperlink ref="E151" r:id="rId373" display="https://newtools.cira.state.tx.us/upload/page/0979/2024/Primary/Democratic Precinct Results-3-12-2024 09-48-54 AM.pdf" xr:uid="{6D66EA98-54D5-DB4F-AF03-0F4679712D62}"/>
+    <hyperlink ref="F151" r:id="rId374" display="https://newtools.cira.state.tx.us/upload/page/0979/2024/Primary/Republican Precinct Results-3-12-2024 09-51-18 AM.pdf" xr:uid="{67804772-AB59-5040-9CEF-D76220A75A83}"/>
+    <hyperlink ref="B152" r:id="rId375" display="https://lovingcountyanddistrictclerk.com/elections" xr:uid="{BF942921-44F4-D242-A6FF-A423FFD2B9AA}"/>
+    <hyperlink ref="B153" r:id="rId376" display="https://www.votelubbock.org/election-information/historical-election-results/" xr:uid="{BBA566DE-381D-7943-AC69-1115107F4E34}"/>
+    <hyperlink ref="C153" r:id="rId377" display="https://results.enr.clarityelections.com/TX/Lubbock/" xr:uid="{5748D835-C232-AD46-8AA4-4CA5C17FC2EA}"/>
+    <hyperlink ref="D153" r:id="rId378" display="https://www.votelubbock.org/wp-content/uploads/Verity-Count-Precinct-Results-All-Entities-1.pdf" xr:uid="{C12A2FDC-09C6-7845-B4BB-1680F59C735E}"/>
+    <hyperlink ref="E153" r:id="rId379" display="https://results.enr.clarityelections.com/TX/Lubbock/120383/333400/reports/detailxls.zip" xr:uid="{A3820519-BDF6-2547-99C6-2B2A75538D0E}"/>
+    <hyperlink ref="F153" r:id="rId380" display="https://results.enr.clarityelections.com/TX/Lubbock/120382/333397/reports/detailxls.zip" xr:uid="{26EEBB4F-73C4-C041-8795-F91B77EC2A25}"/>
+    <hyperlink ref="B154" r:id="rId381" display="https://www.co.lynn.tx.us/page/lynn.Elections" xr:uid="{95A0D4D6-D30B-3140-8A55-2EA9C04716BD}"/>
+    <hyperlink ref="B155" r:id="rId382" display="https://www.co.mcculloch.tx.us/page/mcculloch.ElectionInfo" xr:uid="{5A4907DB-9324-2446-A756-3B5A61526E48}"/>
+    <hyperlink ref="B156" r:id="rId383" display="https://www.mclennan.gov/406/Past-Elections-Results" xr:uid="{EA489032-C6B8-6248-84C7-5F149F1FA359}"/>
+    <hyperlink ref="D156" r:id="rId384" display="https://tx-mclennancounty.civicplus.com/DocumentCenter/View/16714/Precinct-Results-11-13-2024-04-07-51-PM" xr:uid="{19F6A6B1-51BB-2240-B458-8CD6DE964E92}"/>
+    <hyperlink ref="E156" r:id="rId385" display="https://tx-mclennancounty.civicplus.com/DocumentCenter/View/15811/Democratic-Primary-Election-Canvass" xr:uid="{E97D786A-CDF8-CF45-97FD-33B3BA63D832}"/>
+    <hyperlink ref="F156" r:id="rId386" display="https://tx-mclennancounty.civicplus.com/DocumentCenter/View/15814/Republican-Primary-Election-Canvass" xr:uid="{99B7EA4C-90DC-B24D-9750-04789E1B80A7}"/>
+    <hyperlink ref="B157" r:id="rId387" display="https://mcmullencounty.org/elections/" xr:uid="{7DF1DF05-02F5-B243-949F-4008FB7ED398}"/>
+    <hyperlink ref="B158" r:id="rId388" display="https://www.co.madison.tx.us/page/madison.elections" xr:uid="{4428996E-C232-F148-8802-F27D47A3D1B0}"/>
+    <hyperlink ref="D158" r:id="rId389" display="https://www.co.madison.tx.us/upload/page/0407/nov 5 2024 precinct by precinct.pdf" xr:uid="{8DBD275F-D4F3-BA4E-96CA-AE3A3825C091}"/>
+    <hyperlink ref="G158" r:id="rId390" display="https://www.co.madison.tx.us/upload/page/0407/March 5 2024 Pct by Pct report.pdf" xr:uid="{D9585F78-F1E8-4A4C-902D-82638D3FA498}"/>
+    <hyperlink ref="B159" r:id="rId391" display="https://marioncountytaxoffice.com/elections/" xr:uid="{93E4050C-E8E0-2C47-A683-3F68EB54528C}"/>
+    <hyperlink ref="B160" r:id="rId392" display="http://www.co.martin.tx.us/158/Elections-Administration-Office/" xr:uid="{3F101964-577A-6F4C-B2B5-FAFD20804F48}"/>
+    <hyperlink ref="D160" r:id="rId393" display="http://www.co.martin.tx.us/DocumentCenter/View/1450/Precinct-to-Precinct-Report" xr:uid="{9C9EEE9E-43DB-4948-B4C5-489C190DAB90}"/>
+    <hyperlink ref="G160" r:id="rId394" display="http://www.co.martin.tx.us/DocumentCenter/View/1324/OFFICIAL-ALL-Precinct-Results-3-14-2024-10-43-34-PM" xr:uid="{D18D8ACA-DC21-FD44-9375-826AEAA683CF}"/>
+    <hyperlink ref="B161" r:id="rId395" display="https://www.co.mason.tx.us/page/mason.Elections" xr:uid="{EA9C1A9A-F28A-9C4F-896A-545381160B00}"/>
+    <hyperlink ref="B162" r:id="rId396" display="https://www.co.matagorda.tx.us/page/matagorda.elections" xr:uid="{EEA562FE-AA99-8E48-AEFD-99F9103AA138}"/>
+    <hyperlink ref="D162" r:id="rId397" display="https://www.co.matagorda.tx.us/upload/page/5686/Precinct Results-11-15-2024 04-33-31 PM.pdf" xr:uid="{FB0FBE6F-43B5-0B40-9A3F-FF188225E08B}"/>
+    <hyperlink ref="G162" r:id="rId398" display="https://www.co.matagorda.tx.us/upload/page/5686/Precinct Results-3-5-2024 09-12-25 PM.pdf" xr:uid="{6FE1FE3C-406D-BC48-95E9-1A66C06B4F25}"/>
+    <hyperlink ref="B163" r:id="rId399" display="https://co.maverick.tx.us/" xr:uid="{405EDAE1-0ACE-D841-88FB-B9B04A404F1B}"/>
+    <hyperlink ref="B165" r:id="rId400" display="https://www.co.menard.tx.us/page/menard.Elections" xr:uid="{11B9150D-E28E-5147-A5B1-81192CA94B01}"/>
+    <hyperlink ref="B166" r:id="rId401" display="https://www.co.midland.tx.us/328/Elections-Office" xr:uid="{F6BEC035-12F3-6B49-9808-39F1F37A5BB3}"/>
+    <hyperlink ref="C166" r:id="rId402" display="https://results.enr.clarityelections.com/TX/Midland/" xr:uid="{374E9CD3-69AC-C942-ADA5-BB66E760BA8C}"/>
+    <hyperlink ref="D166" r:id="rId403" display="https://www.co.midland.tx.us/DocumentCenter/View/8563/Official-Final-Pct-x-Pct-Report" xr:uid="{0B543DBC-02A3-0643-B2A4-D7BEA0B142EA}"/>
+    <hyperlink ref="G166" r:id="rId404" display="https://results.enr.clarityelections.com/TX/Midland/120180/345906/reports/detailxls.zip" xr:uid="{8A2A67F7-5ADB-3042-8489-AB724EC5680D}"/>
+    <hyperlink ref="B167" r:id="rId405" display="https://www.milamcounty.net/page/milam.elections" xr:uid="{3651A43F-115D-CF46-B67A-55413C97216D}"/>
+    <hyperlink ref="D167" r:id="rId406" display="https://www.milamcounty.net/upload/page/8929/11.05.2024 GENERAL.pdf" xr:uid="{AA4E2565-7A9D-2F48-8FD3-D4D7ED0FC307}"/>
+    <hyperlink ref="G167" r:id="rId407" display="https://www.milamcounty.net/upload/page/8929/2024 PRIMARY.pdf" xr:uid="{CCA93639-341C-5949-8E2A-B2E6CB49E4A0}"/>
+    <hyperlink ref="B168" r:id="rId408" display="https://www.millscountytx.gov/page/mills.Elections" xr:uid="{4EF9D192-DB98-C644-A7AC-CDEA5252365F}"/>
+    <hyperlink ref="D168" r:id="rId409" display="https://www.millscountytx.gov/upload/page/5755/Nov Canvas Report.pdf" xr:uid="{22ADF536-CFCE-AA43-96E3-D6C4D7E07C96}"/>
+    <hyperlink ref="E168" r:id="rId410" display="https://newtools.cira.state.tx.us/upload/page/5755/24 Democratic Offical Canvass Results.pdf" xr:uid="{8CA4DA03-D15E-4C47-9387-1AC8F74BF750}"/>
+    <hyperlink ref="F168" r:id="rId411" display="https://newtools.cira.state.tx.us/upload/page/5755/24 Republican Offical Canvass Results.pdf" xr:uid="{58F3E21A-E9C1-4C47-AEA1-7F8373EB0F6E}"/>
+    <hyperlink ref="B169" r:id="rId412" display="https://www.co.mitchell.tx.us/page/mitchell.Elections" xr:uid="{11DEE046-FC91-3F47-AF63-411A77C7CBC8}"/>
+    <hyperlink ref="D169" r:id="rId413" display="https://www.co.mitchell.tx.us/upload/page/9645/docs/20241105/11.5.2024 precinct official results.pdf" xr:uid="{D766F0BA-66B5-2A48-AC75-0E559D536DC8}"/>
+    <hyperlink ref="G169" r:id="rId414" display="https://www.co.mitchell.tx.us/upload/page/9645/docs/20240305/03.05.2024 Joint Primary Pct by Pct.pdf" xr:uid="{B892D1AD-EEE3-B148-8542-2FF6BD9203D0}"/>
+    <hyperlink ref="B170" r:id="rId415" display="https://www.co.montague.tx.us/page/montague.electionresults" xr:uid="{CFCCC797-74CC-4447-A344-657401DE4CFF}"/>
+    <hyperlink ref="C170" r:id="rId416" display="https://results.enr.clarityelections.com/TX/Montague/" xr:uid="{C88D2DC9-6118-0C44-883F-DB172A61B0A2}"/>
+    <hyperlink ref="D170" r:id="rId417" display="https://results.enr.clarityelections.com/TX/Montague/122664/351720/reports/detailxls.zip" xr:uid="{5710DE19-B57F-244E-ACED-49116CC6AE52}"/>
+    <hyperlink ref="G170" r:id="rId418" display="https://results.enr.clarityelections.com/TX/Montague/119864/331281/reports/detailxls.zip" xr:uid="{5A743529-8498-944C-B080-E0FAAA029489}"/>
+    <hyperlink ref="J170" r:id="rId419" display="https://results.enr.clarityelections.com/TX/Montague/121714/340012/reports/detailxls.zip" xr:uid="{C6DC96C2-45AD-F049-AE9A-C39092324FE9}"/>
+    <hyperlink ref="B171" r:id="rId420" display="https://elections.mctx.org/ElectionResults.asp" xr:uid="{BD97799C-D839-D24B-86ED-D1755493480E}"/>
+    <hyperlink ref="D171" r:id="rId421" display="https://elections.mctx.org/results/2024_November_Precinct_Report.pdf" xr:uid="{D738744D-5925-AB4A-8455-D1801F10847E}"/>
+    <hyperlink ref="E171" r:id="rId422" display="https://elections.mctx.org/results/2024_March_Democratic_Precinct_Report.pdf" xr:uid="{B4EAFF5D-9C52-414E-9888-ABB6AE239CF3}"/>
+    <hyperlink ref="F171" r:id="rId423" display="https://elections.mctx.org/results/2024_March_Republican_Precinct_Report.pdf" xr:uid="{7A1DF545-FBCB-2046-B617-A7C86AE8FAC4}"/>
+    <hyperlink ref="B172" r:id="rId424" display="https://www.co.moore.tx.us/page/moore.Elections" xr:uid="{C7E3101E-6C44-2242-B86D-63E5994FAED3}"/>
+    <hyperlink ref="D172" r:id="rId425" display="https://www.co.moore.tx.us/upload/page/4507/2024 Cont/official_results_by_precinct_november_5_2024.pdf" xr:uid="{B6305D68-BF87-1345-B2A6-18C25864B2F9}"/>
+    <hyperlink ref="G172" r:id="rId426" display="https://www.co.moore.tx.us/upload/page/4507/2024/official_totals_precinct_joint_primary_3524.pdf" xr:uid="{672380BC-5EC3-8842-971D-A87DF1756368}"/>
+    <hyperlink ref="B173" r:id="rId427" display="https://www.co.morris.tx.us/page/morris.COUNTY Election Information" xr:uid="{548F1520-2304-FC40-970C-3A426ED9F2B9}"/>
+    <hyperlink ref="B174" r:id="rId428" display="https://www.co.motley.tx.us/page/motley.Elections" xr:uid="{2F863D13-B573-8643-87DA-EF6BC95F782D}"/>
+    <hyperlink ref="D174" r:id="rId429" display="https://www.co.motley.tx.us/upload/page/9607/Precinct Results-11-14-2024.pdf" xr:uid="{A4572B81-6A48-3A4B-B078-D4C030BDB795}"/>
+    <hyperlink ref="F174" r:id="rId430" display="https://www.co.motley.tx.us/upload/page/9607/Republican Official Canvass.pdf" xr:uid="{2E827268-DB6C-0949-BBF9-7B9645DE6416}"/>
+    <hyperlink ref="B175" r:id="rId431" display="https://www.co.nacogdoches.tx.us/ElectionInformation/ElectionResultsArchive.asp" xr:uid="{A6BE7425-F858-6849-806B-46DEDC9CCB54}"/>
+    <hyperlink ref="D175" r:id="rId432" display="https://www.co.nacogdoches.tx.us/ElectionInformation/ElectionsResultsArchive/2024-11-05 - Nacogdoches County - General Election - Precinct Results.pdf?v20241115132128" xr:uid="{58188988-B38A-F149-BA10-79F66694D82A}"/>
+    <hyperlink ref="E175" r:id="rId433" display="https://www.co.nacogdoches.tx.us/ElectionInformation/ElectionsResultsArchive/2024-03-05 - Nacogdoches County Democratic Party - Primary Election - Precinct Results.pdf?v20240504192612" xr:uid="{56E61DC8-484E-BF44-88FA-6A800B079F86}"/>
+    <hyperlink ref="F175" r:id="rId434" display="https://www.co.nacogdoches.tx.us/ElectionInformation/ElectionsResultsArchive/2024-03-05 - Nacogdoches County Republican Party - Primary Election - Precinct Results.pdf?v20240504192630" xr:uid="{A5B9D57D-2CE5-4C4E-8EF5-14F33DC06639}"/>
+    <hyperlink ref="I175" r:id="rId435" display="https://www.co.nacogdoches.tx.us/ElectionInformation/ElectionsResultsArchive/2024-05-28 - Nacogdoches County Republican Party - Primary Runoff - Precinct Results.pdf?v20240603154649" xr:uid="{A035B489-AF2B-7E45-8CE5-44DC0114FED1}"/>
+    <hyperlink ref="B176" r:id="rId436" display="https://www.co.navarro.tx.us/page/navarro.elections" xr:uid="{C9B96562-0DA8-2B4F-ACB2-F4D5853B2D37}"/>
+    <hyperlink ref="B177" r:id="rId437" display="https://www.co.newton.tx.us/page/newton.Elections" xr:uid="{8B01A891-3DB9-6342-AF68-A7ED0FF0727D}"/>
+    <hyperlink ref="G177" r:id="rId438" display="https://www.co.newton.tx.us/upload/page/3518/docs/2024 Primary/2024 Primaries Combined Canvass.pdf" xr:uid="{8A4700F3-734E-8646-854E-E9C3217C5BFD}"/>
+    <hyperlink ref="B178" r:id="rId439" display="https://www.co.nolan.tx.us/page/nolan.Elections" xr:uid="{D5849643-91D0-BC44-A35E-332EBB136DEE}"/>
+    <hyperlink ref="D178" r:id="rId440" display="https://www.co.nolan.tx.us/upload/page/0503/NC Official Precinct Summary Results 11052024.pdf" xr:uid="{93F0BE4B-BA45-4242-B930-14C39671432D}"/>
+    <hyperlink ref="G178" r:id="rId441" display="https://www.co.nolan.tx.us/upload/page/0503/03052024 PRECINCT SUMMARY RESULTS.pdf" xr:uid="{264065C7-0611-154B-A4E4-33E9CE503F9B}"/>
+    <hyperlink ref="B179" r:id="rId442" location="docfold_535_1126_960_126" display="https://www.nuecesco.com/county-services/county-clerk/elections-department/election-history/-folder-126 - docfold_535_1126_960_126" xr:uid="{45654D8A-E0BF-9E4E-A2EF-E6E0D725D2E7}"/>
+    <hyperlink ref="C179" r:id="rId443" display="https://results.enr.clarityelections.com/TX/Nueces/" xr:uid="{46E1A34B-4F83-CE41-8E89-08C055123C4B}"/>
+    <hyperlink ref="D179" r:id="rId444" display="https://www.nuecesco.com/home/showpublisheddocument/32074/638676080353730000" xr:uid="{F15DC417-A1AD-0B42-B962-3DE234674F27}"/>
+    <hyperlink ref="E179" r:id="rId445" display="https://www.nuecesco.com/home/showpublisheddocument/31213/638470726364130000" xr:uid="{12E7156D-9A02-3A4C-88E0-E0F20FB46DC6}"/>
+    <hyperlink ref="F179" r:id="rId446" display="https://www.nuecesco.com/home/showpublisheddocument/31215/638470727049170000" xr:uid="{9460C2ED-99E1-D343-B0EB-A6E61D55305C}"/>
+    <hyperlink ref="H179" r:id="rId447" display="https://www.nuecesco.com/home/showpublisheddocument/31413/638531032029200000" xr:uid="{CA3C93FF-BCE2-8247-BCAD-2ED3DEC55EF7}"/>
+    <hyperlink ref="I179" r:id="rId448" display="https://www.nuecesco.com/home/showpublisheddocument/31415/638531032438530000" xr:uid="{8CF4D0C7-F17C-A148-878C-D14835DD44F4}"/>
+    <hyperlink ref="B180" r:id="rId449" display="https://www.co.ochiltree.tx.us/page/ochiltree.Elections" xr:uid="{E191B187-60A8-6448-9132-D2230D679EA4}"/>
+    <hyperlink ref="D180" r:id="rId450" display="https://www.co.ochiltree.tx.us/upload/page/7514/11.5.24 Updated Unofficial Results plus Provisional count.pdf" xr:uid="{90143E32-523A-904B-8A83-9C523B97F7E4}"/>
+    <hyperlink ref="B181" r:id="rId451" display="https://www.co.oldham.tx.us/page/oldham.ElectionsResults" xr:uid="{5BFDCCAA-A27D-234B-BC69-8D27DA0D14B7}"/>
+    <hyperlink ref="D181" r:id="rId452" display="https://www.co.oldham.tx.us/upload/page/12142/2025/11.05.2024 Oldham County - General Election Totals by Precinct.pdf" xr:uid="{2F9F4CB7-68B8-F24F-8DF2-2F29EF4C00B7}"/>
+    <hyperlink ref="B182" r:id="rId453" display="https://www.co.orange.tx.us/departments/ElectionsAdministration/ElectionResults" xr:uid="{097DBEFC-4960-1442-A25C-77BB3D70EFB5}"/>
+    <hyperlink ref="B183" r:id="rId454" display="https://www.co.palo-pinto.tx.us/page/Elections" xr:uid="{18DFA0DF-28F7-3748-9E0F-3E30388FE20D}"/>
+    <hyperlink ref="B184" r:id="rId455" display="https://www.co.panola.tx.us/page/panola.Elections" xr:uid="{7FA9B4CD-EBAC-8249-A4C7-393896BF19D0}"/>
+    <hyperlink ref="B185" r:id="rId456" display="https://www.parkercountytx.gov/441/Past-Election-Results" xr:uid="{1241AB3C-DF89-844F-8953-7A73C4A4C483}"/>
+    <hyperlink ref="C185" r:id="rId457" display="https://results.enr.clarityelections.com/TX/Parker/" xr:uid="{1F406F09-554A-4245-BD1D-C8C8477DC82C}"/>
+    <hyperlink ref="D185" r:id="rId458" display="https://www.parkercountytx.gov/DocumentCenter/View/11593/Precinct-Results-11-13-2024-02-52-09-PM" xr:uid="{F2236BEF-CF09-E54D-8AF3-41B0F1CE717D}"/>
+    <hyperlink ref="G185" r:id="rId459" display="https://www.parkercountytx.gov/DocumentCenter/View/10806/Precicnt-by-Precicnt-Results-March-2024" xr:uid="{79C2DBCB-8B0F-1B42-9630-8A7F28D09043}"/>
+    <hyperlink ref="J185" r:id="rId460" display="https://www.parkercountytx.gov/DocumentCenter/View/11053/Precinct-Results-6-4-2024-10-19-59-AM-pdf" xr:uid="{4AF2FD7D-460B-1B46-AFA5-EE4F82B9AE52}"/>
+    <hyperlink ref="B186" r:id="rId461" display="https://parmercounty.texas.gov/?page_id=334" xr:uid="{A54579BB-93F2-0942-A94A-1CC99F0249C9}"/>
+    <hyperlink ref="D186" r:id="rId462" display="https://parmercounty.texas.gov/wp-content/uploads/2025/01/11524-General-Election-Official-Results.pdf" xr:uid="{1F8A6B4E-9E76-A548-9BEA-47C30FBBE4E8}"/>
+    <hyperlink ref="B187" r:id="rId463" display="https://www.co.pecos.tx.us/election-information/" xr:uid="{89CEA2B8-AF9F-314D-97D4-D5B72A7D9C83}"/>
+    <hyperlink ref="B188" r:id="rId464" display="https://www.co.polk.tx.us/page/polk.co.clerk.election" xr:uid="{D679FDD4-0EC8-644B-8228-1EF5B7CDA01E}"/>
+    <hyperlink ref="G188" r:id="rId465" display="https://newtools.cira.state.tx.us/upload/page/9241/MAY 2024/MARCH 5TH OFFICIAL RESULTS.pdf" xr:uid="{0CFDE3BC-7B18-E64B-BFB0-02E0EBE5D8F7}"/>
+    <hyperlink ref="B189" r:id="rId466" display="https://www.pottercountytexasvotes.gov/copy-of-website-connections" xr:uid="{2E680B13-836C-B240-B5EC-4C591FE35A1A}"/>
+    <hyperlink ref="D189" r:id="rId467" display="https://www.pottercountytexasvotes.gov/_files/ugd/abcbbe_3e5bc692f87a4a6ba3fc2b8ea841f47e.pdf" xr:uid="{6EAEAF14-4D0B-AD4E-8422-84B1133FD104}"/>
+    <hyperlink ref="E189" r:id="rId468" display="https://www.pottercountytexasvotes.gov/_files/ugd/abcbbe_f73000d8079d4cc9b7df4347be5922f9.pdf" xr:uid="{8FC66A38-1449-6243-8F09-43A7B80F57C3}"/>
+    <hyperlink ref="F189" r:id="rId469" display="https://www.pottercountytexasvotes.gov/_files/ugd/abcbbe_e6281b94f18b439093c69f09f35d6f92.pdf" xr:uid="{B4FD093D-EADA-6144-918D-BA9FF054100B}"/>
+    <hyperlink ref="I189" r:id="rId470" display="https://www.pottercountytexasvotes.gov/_files/ugd/abcbbe_9a21a61b97154b208e9914ebf660511f.pdf" xr:uid="{1391DACB-7D14-794A-8F1B-C7A877964786}"/>
+    <hyperlink ref="B190" r:id="rId471" display="https://www.co.presidio.tx.us/page/presidio.Voting.Elections" xr:uid="{4DF34A9E-C0F3-B948-80B1-C6E50254551B}"/>
+    <hyperlink ref="B191" r:id="rId472" display="https://www.co.rains.tx.us/page/rains.elections" xr:uid="{F5E4C3B4-07BB-8644-BB2C-7FAC9C61FB47}"/>
+    <hyperlink ref="B192" r:id="rId473" display="https://www.randallcounty.gov/183/Election-Results" xr:uid="{65E7BD47-F19A-A648-9798-B50FC65B554F}"/>
+    <hyperlink ref="D192" r:id="rId474" display="https://www.randallcounty.gov/DocumentCenter/View/3711/Official-Canvass-Results" xr:uid="{D4BC9E5C-4852-3D42-AA4E-D93EBB433211}"/>
+    <hyperlink ref="E192" r:id="rId475" display="https://www.randallcounty.gov/DocumentCenter/View/3408/Official-Democratic-Canvass-Results" xr:uid="{572B4E07-B924-4A49-9073-5B95CF77E5A7}"/>
+    <hyperlink ref="F192" r:id="rId476" display="https://www.randallcounty.gov/DocumentCenter/View/3412/Official-Republican-Cumulative-Results" xr:uid="{A18E1579-0318-DD4E-B72B-F07CAB4D75AC}"/>
+    <hyperlink ref="B193" r:id="rId477" display="https://www.co.reagan.tx.us/page/reagan.Elections" xr:uid="{76E5E024-BEB8-F44A-B698-8F42E2C42662}"/>
+    <hyperlink ref="D193" r:id="rId478" display="https://www.co.reagan.tx.us/upload/page/9496/2024/precinct_results11182024_075528_am.pdf" xr:uid="{63937D86-C2CC-9E40-9BCF-C1A1BDD33305}"/>
+    <hyperlink ref="B194" r:id="rId479" display="https://www.co.real.tx.us/page/real.Elections" xr:uid="{2FB362FA-9008-5041-8C4A-13749F629310}"/>
+    <hyperlink ref="B195" r:id="rId480" display="https://www.co.red-river.tx.us/page/redriver.ElectionsCountyClerk" xr:uid="{59A80137-3BF3-644B-8875-59C1F60687F7}"/>
+    <hyperlink ref="E195" r:id="rId481" display="https://www.co.red-river.tx.us/upload/page/10703/Democratic Official Precinct Results Primary Election March 5 2024.pdf" xr:uid="{469BE52E-9C0E-934E-97F2-BB6B0FD48AC5}"/>
+    <hyperlink ref="F195" r:id="rId482" display="https://www.co.red-river.tx.us/upload/page/10703/Republican Official Precinct Results Primary Election March 5 2024.pdf" xr:uid="{1E72191A-6AA0-0C47-9772-CDEC953ADA22}"/>
+    <hyperlink ref="I195" r:id="rId483" display="https://www.co.red-river.tx.us/upload/page/10703/Official Precinct Results for Primary Runoff.pdf" xr:uid="{652FDBFF-F799-1145-A136-71EB80D42752}"/>
+    <hyperlink ref="B196" r:id="rId484" display="https://www.reevescounty.org/departments/elections/election-results-archive" xr:uid="{04243F86-DE67-044C-A468-434813044122}"/>
+    <hyperlink ref="D196" r:id="rId485" display="https://www.reevescounty.org/home/showpublisheddocument/3613/638672595751530000" xr:uid="{50657F89-AB51-2C44-82F8-E72CEB0BC79D}"/>
+    <hyperlink ref="G196" r:id="rId486" display="https://www.reevescounty.org/home/showpublisheddocument/2888/638471384895900000" xr:uid="{0173A76A-1B23-884D-962F-D261B8A6BCFD}"/>
+    <hyperlink ref="J196" r:id="rId487" display="https://www.reevescounty.org/home/showpublisheddocument/3119/638531916491970000" xr:uid="{0C85C840-C837-2E46-8DEA-5C1D78ADA93A}"/>
+    <hyperlink ref="B197" r:id="rId488" display="https://www.co.refugio.tx.us/page/refugio.elections" xr:uid="{ED101072-A3D9-974C-ADF7-06BD3A7C6E60}"/>
+    <hyperlink ref="D197" r:id="rId489" display="https://www.co.refugio.tx.us/upload/page/11597/docs/2024 - NOVEMBER 5/NOTICES/2024 - NOVEMBER 5 - OFFICIAL - PRECINCT RESULTS - TOTAL.pdf" xr:uid="{B0C5A9B7-1F48-BB46-A1EB-13B5D60AA287}"/>
+    <hyperlink ref="E197" r:id="rId490" display="https://www.co.refugio.tx.us/upload/page/11577/docs/2023 - MARCH 5 - PRIMARY/2024 - MARCH 5 - PRECINCT RESULTS - ALL - DEM.pdf" xr:uid="{842833E1-4236-D44E-8753-9B593A3E0B5C}"/>
+    <hyperlink ref="F197" r:id="rId491" display="https://www.co.refugio.tx.us/upload/page/11577/docs/2023 - MARCH 5 - PRIMARY/2024 - MARCH 5 - PRECINCT RESULTS - ALL - REP.pdf" xr:uid="{64117017-5848-3849-B614-78C782306604}"/>
+    <hyperlink ref="B198" r:id="rId492" display="https://www.co.roberts.tx.us/page/roberts.elections" xr:uid="{DFA305A2-75AF-724B-B7A2-0A2C9C81D08F}"/>
+    <hyperlink ref="B199" r:id="rId493" display="https://www.co.robertson.tx.us/page/robertson.Elections" xr:uid="{285E5433-E800-DE4E-8D63-A63D28E03D4E}"/>
+    <hyperlink ref="C199" r:id="rId494" display="https://results.enr.clarityelections.com/TX/Robertson/" xr:uid="{4DFCC38E-47F6-9546-9BBD-5D957F510F63}"/>
+    <hyperlink ref="B200" r:id="rId495" display="https://www.rockwallvotes.com/election-information/election-results-in-progress/" xr:uid="{1FC5053C-5F67-C34C-A144-902EBD5DB520}"/>
+    <hyperlink ref="C200" r:id="rId496" display="https://results.enr.clarityelections.com/TX/Rockwall/" xr:uid="{F1D3A5A2-6CE3-D748-A124-28DECA805FE7}"/>
+    <hyperlink ref="D200" r:id="rId497" display="https://results.enr.clarityelections.com/TX/Rockwall/122491/355310/reports/detailxls.zip" xr:uid="{88299967-795B-C041-ACB6-F28C755CF215}"/>
+    <hyperlink ref="G200" r:id="rId498" display="https://results.enr.clarityelections.com/TX/Rockwall/120244/333319/reports/detailxls.zip" xr:uid="{387FF0E9-590F-4943-B1EA-23E369374551}"/>
+    <hyperlink ref="I200" r:id="rId499" display="https://results.enr.clarityelections.com/TX/Rockwall/121703/341759/reports/detailxls.zip" xr:uid="{4A22B1FE-A230-6C40-8838-E6BF7FCD6672}"/>
+    <hyperlink ref="B201" r:id="rId500" display="https://www.runnelscounty.org/page/runnels.Elections" xr:uid="{65CEEDCB-6ECD-2246-99E3-290F48A438FB}"/>
+    <hyperlink ref="B202" r:id="rId501" display="https://www.ruskcountytx.gov/page/rusk.Elections" xr:uid="{96A3202E-14B9-A346-903F-4382D9871F20}"/>
+    <hyperlink ref="C202" r:id="rId502" display="https://results.enr.clarityelections.com/TX/Rusk/" xr:uid="{05F6BBDC-F5C3-534A-B326-85B5599A9CB7}"/>
+    <hyperlink ref="D202" r:id="rId503" display="https://results.enr.clarityelections.com/TX/Rusk/122760/355999/reports/detailxls.zip" xr:uid="{31F5E703-4654-7F47-97D2-AB3BEC07957F}"/>
+    <hyperlink ref="G202" r:id="rId504" display="https://results.enr.clarityelections.com/TX/Rusk/120252/331977/reports/detailxls.zip" xr:uid="{2CC01EE1-F2D7-A842-A036-215438808A34}"/>
+    <hyperlink ref="B203" r:id="rId505" display="https://www.co.sabine.tx.us/page/sabine.Election Results" xr:uid="{C49BB270-F621-2547-9990-AE0DF91DBBA2}"/>
+    <hyperlink ref="B204" r:id="rId506" display="https://www.co.san-augustine.tx.us/page/sanaugustine.Elections" xr:uid="{FB456E0A-A32B-3D40-A9EE-8C3895D706CC}"/>
+    <hyperlink ref="B205" r:id="rId507" display="https://www.co.san-jacinto.tx.us/page/sanjacinto.Elections" xr:uid="{B5334ABD-924C-D146-9EAA-540F10068753}"/>
+    <hyperlink ref="B206" r:id="rId508" display="https://www.sanpatriciocountytx.gov/page/elections.results.archive.16" xr:uid="{9BFB5C64-B6DB-6D48-81A6-E2370E3FC6B5}"/>
+    <hyperlink ref="D206" r:id="rId509" display="https://www.sanpatriciocountytx.gov/upload/page/0124/docs/2024 Elections Official Results/2024 November Precinct Results.pdf" xr:uid="{64CB6053-FDDE-7447-B780-D382B0AC6A49}"/>
+    <hyperlink ref="E206" r:id="rId510" display="https://www.sanpatriciocountytx.gov/upload/page/0124/docs/2024 Elections Official Results/2024 March Official Precinct Results- Dem.pdf" xr:uid="{FD29E368-123C-6046-A265-D479DD5C8D66}"/>
+    <hyperlink ref="F206" r:id="rId511" display="https://www.sanpatriciocountytx.gov/upload/page/0124/docs/2024 Elections Official Results/2024 March Official Precinct Results- Rep.pdf" xr:uid="{30CDBD42-D82D-A640-8853-DCD56F6B8F27}"/>
+    <hyperlink ref="I206" r:id="rId512" display="https://www.sanpatriciocountytx.gov/upload/page/0124/docs/2024 Elections Official Results/2024 May Runoff Precinct Results.pdf" xr:uid="{FD9FFD8B-2D88-ED4F-A0F0-A538B09C429F}"/>
+    <hyperlink ref="B207" r:id="rId513" display="https://www.co.san-saba.tx.us/page/sansaba.Elections" xr:uid="{2E09C32D-B2DC-B442-AECF-37E5448F1A01}"/>
+    <hyperlink ref="D207" r:id="rId514" display="https://www.co.san-saba.tx.us/upload/page/6028/docs/ElectionResultsbyPrecintUnofficial2024.pdf" xr:uid="{10E8C88E-5D11-5C45-B24A-CF3D72DD705C}"/>
+    <hyperlink ref="B208" r:id="rId515" display="https://www.schleichercounty.gov/page/schleicher.Elections" xr:uid="{0BBDBC58-BBFB-3341-A97F-BC6D3FA4D1BE}"/>
+    <hyperlink ref="B209" r:id="rId516" display="https://www.co.scurry.tx.us/page/elections.previous.elections" xr:uid="{CF456A97-1988-E948-BAF8-1EF5E3391758}"/>
+    <hyperlink ref="B210" r:id="rId517" display="https://www.shackelfordcounty.org/page/shackelford.Elections" xr:uid="{5586E938-15CC-2B42-998F-9CE6B406B7AC}"/>
+    <hyperlink ref="B211" r:id="rId518" display="https://www.co.shelby.tx.us/page/shelby.Elections" xr:uid="{5632DE6B-AAD9-EA45-9BDA-2169360697EB}"/>
+    <hyperlink ref="B212" r:id="rId519" display="https://www.co.sherman.tx.us/page/sherman.Elections" xr:uid="{CCB5AB0C-23D4-FF46-9A2D-05C188DE89C8}"/>
+    <hyperlink ref="B213" r:id="rId520" display="https://www.smith-county.com/government/departments/elections/election-archive/election-archive-results" xr:uid="{7A8AB676-0403-D741-9F07-D5CA5C831642}"/>
+    <hyperlink ref="D213" r:id="rId521" display="https://www.smith-county.com/home/showpublisheddocument/20228/638676299142530000" xr:uid="{FA52DA3C-A2D1-FD45-A068-9857D78A1110}"/>
+    <hyperlink ref="G213" r:id="rId522" display="https://www.smith-county.com/home/showpublisheddocument/19558/638464315859400000" xr:uid="{F5A3B3DE-5D8B-994D-8A90-85EC01C9FF95}"/>
+    <hyperlink ref="J213" r:id="rId523" display="https://www.smith-county.com/home/showpublisheddocument/19826/638537177437970000" xr:uid="{F232EBE4-B1B8-6A47-BAA6-2E5C632BEF34}"/>
+    <hyperlink ref="B214" r:id="rId524" display="https://www.somervell.co/160/Elections" xr:uid="{6F946595-4FD4-B74A-A9C0-B8BE23000680}"/>
+    <hyperlink ref="B215" r:id="rId525" display="https://www.co.starr.tx.us/page/starr.Elections" xr:uid="{7B54F4D5-D73C-E340-8367-D5FCDD6127F4}"/>
+    <hyperlink ref="D215" r:id="rId526" display="https://www.co.starr.tx.us/upload/page/6487/docs/Starr 2024/Starr-OfficialResultsbyPct Nov52024.pdf" xr:uid="{DF61BA0D-47D2-6B4C-B6B6-9D6C76CA3F6B}"/>
+    <hyperlink ref="E215" r:id="rId527" display="https://newtools.cira.state.tx.us/upload/page/6487/docs/March2024/DEM official results by PCT.pdf" xr:uid="{076F930E-8CCE-EE4E-9820-A4A67A39374F}"/>
+    <hyperlink ref="F215" r:id="rId528" display="https://newtools.cira.state.tx.us/upload/page/6487/docs/March2024/REP offial results by PCT.pdf" xr:uid="{6598826F-60C2-C64F-83DC-CD932D2E4AD2}"/>
+    <hyperlink ref="I215" r:id="rId529" display="https://newtools.cira.state.tx.us/upload/page/6487/docs/May2024/Official runoff  Pct report.pdf" xr:uid="{AF0A7D85-CA95-F841-83D4-42EDE1706743}"/>
+    <hyperlink ref="B216" r:id="rId530" display="https://www.co.stephens.tx.us/page/stephens.Elections" xr:uid="{99658AE6-B403-DF45-923D-B7D28DD8D9E8}"/>
+    <hyperlink ref="D216" r:id="rId531" display="https://www.co.stephens.tx.us/upload/page/2592/2024/Precinct Report 11-5-2024 General.pdf" xr:uid="{E0317F78-C787-B544-A066-3019112AEFB2}"/>
+    <hyperlink ref="B217" r:id="rId532" display="https://www.co.sterling.tx.us/page/sterling.Elections" xr:uid="{FFC785E7-B8AB-F34E-A8C5-809AE97C60B1}"/>
+    <hyperlink ref="B218" r:id="rId533" display="https://www.stonewallcounty.org/page/stonewall.Elections" xr:uid="{04935E45-798E-6D44-902B-C54539D6A2F0}"/>
+    <hyperlink ref="B219" r:id="rId534" display="https://www.co.sutton.tx.us/page/sutton.Elections" xr:uid="{8B202A99-4332-2549-B5EA-575D2E5F77DC}"/>
+    <hyperlink ref="B220" r:id="rId535" display="https://www.co.swisher.tx.us/page/swisher.Elections" xr:uid="{7DAA50D5-1B1F-9043-B7ED-10CF82F43A15}"/>
+    <hyperlink ref="D220" r:id="rId536" display="https://www.co.swisher.tx.us/upload/page/7290/2024 November 5 General Election Official Summary and Precinct Combined.pdf" xr:uid="{743B7BD9-98E3-1046-8C3E-7B5D274CECBE}"/>
+    <hyperlink ref="I220" r:id="rId537" display="https://newtools.cira.state.tx.us/upload/page/7290/Official Results 06.03.2024.pdf" xr:uid="{13600240-11CA-2A4D-B5DC-FCB99B21E6D0}"/>
+    <hyperlink ref="B221" r:id="rId538" display="https://www.tarrantcountytx.gov/en/elections/past-election-information.html" xr:uid="{855F3794-F545-B048-B347-0C43B4B96122}"/>
+    <hyperlink ref="C221" r:id="rId539" display="https://results.enr.clarityelections.com/TX/Tarrant/" xr:uid="{4B62E9BE-156B-DE43-9DF3-09BD2B7A17B1}"/>
+    <hyperlink ref="D221" r:id="rId540" display="https://www.tarrantcountytx.gov/content/dam/main/elections/2024/1124/reports/precinct.pdf" xr:uid="{67F3CFF1-F59E-F34D-BEC9-5E88A1CBBF5C}"/>
+    <hyperlink ref="E221" r:id="rId541" display="https://www.tarrantcountytx.gov/content/dam/main/elections/2024/pm24/reports/precinct_dem.pdf" xr:uid="{4338B352-4F02-0847-814F-0ADEB235699A}"/>
+    <hyperlink ref="F221" r:id="rId542" display="https://www.tarrantcountytx.gov/content/dam/main/elections/2024/pm24/reports/precinct_rep.pdf" xr:uid="{D19E8733-580A-F940-910B-2C4A33656A77}"/>
+    <hyperlink ref="G221" r:id="rId543" display="https://results.enr.clarityelections.com/TX/Tarrant/119492/333413/reports/detailxls.zip" xr:uid="{30933034-4721-0349-86BA-51FCF565BAE6}"/>
+    <hyperlink ref="H221" r:id="rId544" display="https://www.tarrantcountytx.gov/content/dam/main/elections/2024/pr24/reports/precinct_dem.pdf" xr:uid="{6423025D-0E08-DC46-8F7E-0E19FC93C200}"/>
+    <hyperlink ref="I221" r:id="rId545" display="https://www.tarrantcountytx.gov/content/dam/main/elections/2024/pr24/reports/precinct_rep.pdf" xr:uid="{2D39DF50-CDE6-5440-AD32-D85A22AED1EF}"/>
+    <hyperlink ref="J221" r:id="rId546" display="https://results.enr.clarityelections.com/TX/Tarrant/121069/341703/reports/detailxls.zip" xr:uid="{7E447E5A-E164-3D4C-A064-6A97BF6BAA1D}"/>
+    <hyperlink ref="B223" r:id="rId547" display="https://www.co.terrell.tx.us/page/terrell.Elections" xr:uid="{37D8CF3D-4262-5340-A2C5-97713630BF2E}"/>
+    <hyperlink ref="B224" r:id="rId548" display="https://www.co.terry.tx.us/page/terry.Elections" xr:uid="{F068305F-1016-5A4C-82F9-76BB52B7D06B}"/>
+    <hyperlink ref="D224" r:id="rId549" display="https://www.co.terry.tx.us/upload/page/12074/docs/Official Totals 11-5-24.pdf" xr:uid="{B2520CAC-488C-AA4B-B01C-DE97F883EFE2}"/>
+    <hyperlink ref="B225" r:id="rId550" display="https://www.throckmortoncounty.org/page/throckmorton.electionsposting" xr:uid="{CFFA817C-CF8B-404E-8723-F904EBE16895}"/>
+    <hyperlink ref="G225" r:id="rId551" display="https://www.throckmortoncounty.org/upload/page/11531/Official Results-2024I.pdf" xr:uid="{BDF874C6-6D48-B94C-95AF-CB881B280075}"/>
+    <hyperlink ref="B226" r:id="rId552" display="https://www.co.titus.tx.us/page/elections.home" xr:uid="{B60CE6C5-61F1-7F42-900E-0937BCAA140B}"/>
+    <hyperlink ref="D226" r:id="rId553" display="https://www.co.titus.tx.us/upload/page/0098/Whole Canvass Report.pdf" xr:uid="{A69CD5C6-8ADD-E447-9537-8FA80305B451}"/>
+    <hyperlink ref="B227" r:id="rId554" display="https://www.tomgreencountytx.gov/page/ele.ElectionsResults" xr:uid="{A7873218-AF36-F046-898E-99E540460538}"/>
+    <hyperlink ref="D227" r:id="rId555" display="https://www.tomgreencountytx.gov/upload/page/0091/docs/2024/20241105/110524FinalOfficPrecResu.pdf" xr:uid="{9EE1B026-5060-FA4B-BE34-F5DE8BFD4CEC}"/>
+    <hyperlink ref="G227" r:id="rId556" display="https://www.tomgreencountytx.gov/upload/page/0091/docs/2024/20240305OPResults.pdf" xr:uid="{95991E88-AF53-1C4F-8B30-200989EFCCEA}"/>
+    <hyperlink ref="B228" r:id="rId557" display="https://results.enr.clarityelections.com/TX/Travis/" xr:uid="{E4A96818-D44F-BC41-AA42-1193D922B132}"/>
+    <hyperlink ref="C228" r:id="rId558" display="https://results.enr.clarityelections.com/TX/Travis/" xr:uid="{8A9F049B-CE6B-D047-9310-51F1B41D5344}"/>
+    <hyperlink ref="D228" r:id="rId559" display="https://results.enr.clarityelections.com/TX/Travis/122432/355984/reports/detailxls.zip" xr:uid="{C6F98ED7-DB1E-DD43-BEFE-0A23DE6CEABE}"/>
+    <hyperlink ref="G228" r:id="rId560" display="https://results.enr.clarityelections.com/TX/Travis/119440/333462/reports/detailxls.zip" xr:uid="{8C494B30-A555-3147-A6CE-6A74CCFC102C}"/>
+    <hyperlink ref="J228" r:id="rId561" display="https://results.enr.clarityelections.com/TX/Travis/121702/340735/reports/detailxls.zip" xr:uid="{B35587B9-BCBF-4D44-B090-126F42D8D3D1}"/>
+    <hyperlink ref="B229" r:id="rId562" display="https://www.co.trinity.tx.us/page/trinity.Elections2" xr:uid="{7E97D45B-AAC0-1F41-B18B-EF378C1B111B}"/>
+    <hyperlink ref="B230" r:id="rId563" display="https://www.co.tyler.tx.us/page/tyler.ElectionInformation" xr:uid="{D58EDC96-02D6-D442-975E-8F20D75120A8}"/>
+    <hyperlink ref="D230" r:id="rId564" display="https://www.co.tyler.tx.us/page/tyler.ElectionInformation" xr:uid="{06145CE7-C4AF-F047-800F-3999932EF144}"/>
+    <hyperlink ref="G230" r:id="rId565" display="https://www.co.tyler.tx.us/upload/page/3316/March 5 2024 Official Election Results0001.pdf" xr:uid="{32ED2C8D-EC9E-2F4A-B31B-6B530D606D16}"/>
+    <hyperlink ref="B231" r:id="rId566" display="https://www.countyofupshur.com/page/elections" xr:uid="{ED7DF8E7-99F0-2D44-9316-210EA87B597A}"/>
+    <hyperlink ref="D231" r:id="rId567" display="https://www.countyofupshur.com/page/open/1355/0/November 5 2024 Precinct Report.pdf" xr:uid="{A4F8FFC9-A794-7645-90C3-63E7EAE5229E}"/>
+    <hyperlink ref="E231" r:id="rId568" display="https://www.countyofupshur.com/page/open/1355/0/March 5 2024 Democratic Primary Precinct by Precinct Report.pdf" xr:uid="{CC1B7C18-0EE1-0C46-AD6E-F8A6F1E52D2F}"/>
+    <hyperlink ref="F231" r:id="rId569" display="https://www.countyofupshur.com/page/open/1355/0/March 5 2024 Republican Primary Precinct by Precinct Report.pdf" xr:uid="{FEE3A6D4-351B-2446-AC23-AFE461DB891C}"/>
+    <hyperlink ref="B232" r:id="rId570" display="https://www.co.upton.tx.us/page/upton.elections" xr:uid="{F26C0CD9-1C97-1F48-9B19-3EE68F540AB5}"/>
+    <hyperlink ref="B233" r:id="rId571" display="https://www.uvaldecountyelections.com/" xr:uid="{371499A8-31A3-8D4B-B611-C7491600556B}"/>
+    <hyperlink ref="G233" r:id="rId572" display="https://drive.google.com/file/d/1OJajAPDZaEkQnpM3rLY00vniOR6Ssmgc/view" xr:uid="{476EBC20-6046-B449-9BC6-4449364FCF02}"/>
+    <hyperlink ref="B234" r:id="rId573" display="https://valverdecounty.texas.gov/270/Elections" xr:uid="{AFC5264E-F345-C144-B57F-BEDBB46A7B51}"/>
+    <hyperlink ref="D234" r:id="rId574" display="https://valverdecounty.texas.gov/DocumentCenter/View/8425/General-Election-2024-Official-Precinct-by-Precinct-" xr:uid="{E5C4C210-816F-2844-B642-D34675D77053}"/>
+    <hyperlink ref="B235" r:id="rId575" display="https://www.vanzandtcounty.org/page/vanzandt.Elections" xr:uid="{24D714E7-9050-A044-A9EA-2BB283F7F512}"/>
+    <hyperlink ref="G235" r:id="rId576" display="https://www.vanzandtcounty.org/upload/page/2707/2024/finalcanvass_results3142024_014516_pm.pdf" xr:uid="{84763EC7-15D3-7249-8F14-526FF34292B2}"/>
+    <hyperlink ref="J235" r:id="rId577" display="https://www.vanzandtcounty.org/upload/page/2707/2024/canvass_results642024_025517_pm.pdf" xr:uid="{D86D7567-1974-454F-94BF-C6388DEF02C6}"/>
+    <hyperlink ref="B236" r:id="rId578" display="https://www.vctx.org/page/elections.results" xr:uid="{196A5341-7FE0-3A42-B395-AB491CBF7C89}"/>
+    <hyperlink ref="C236" r:id="rId579" display="https://results.enr.clarityelections.com/TX/Victoria/" xr:uid="{2D86DEFA-9C93-0148-A679-768CA7D1260F}"/>
+    <hyperlink ref="D236" r:id="rId580" display="https://results.enr.clarityelections.com/TX/Victoria/122848/355288/reports/detailxls.zip" xr:uid="{516FD9B7-C2E6-3F4E-8F35-358B0CC37921}"/>
+    <hyperlink ref="G236" r:id="rId581" display="https://results.enr.clarityelections.com/TX/Victoria/120384/333962/reports/detailxls.zip" xr:uid="{29DAD030-160A-B84E-9423-80A33F598FB1}"/>
+    <hyperlink ref="J236" r:id="rId582" display="https://results.enr.clarityelections.com/TX/Victoria/121796/341555/reports/detailxls.zip" xr:uid="{15B2324A-AFB5-4342-8401-71A75C1F333F}"/>
+    <hyperlink ref="B237" r:id="rId583" display="https://www.co.walker.tx.us/department/division.php?structureid=141" xr:uid="{74C65E5A-B484-F442-9EE9-EDD3B42AD428}"/>
+    <hyperlink ref="B238" r:id="rId584" display="https://www.co.waller.tx.us/page/Elections.current" xr:uid="{FA2AECDB-D42C-6E44-ACD0-37F27663303C}"/>
+    <hyperlink ref="B239" r:id="rId585" display="https://www.co.ward.tx.us/page/ward.Elections" xr:uid="{D0EF1CE0-3C1D-A645-855A-6D7D88A0CD55}"/>
+    <hyperlink ref="B240" r:id="rId586" display="https://www.co.washington.tx.us/page/washington.elections.information" xr:uid="{E4B2F9BC-CDE1-FF45-8CF3-139BF96BCC7F}"/>
+    <hyperlink ref="D240" r:id="rId587" display="https://www.co.washington.tx.us/upload/page/10698/010101a23456 Official Results.pdf" xr:uid="{957130EC-D820-514E-9F6D-9BF54D55D70C}"/>
+    <hyperlink ref="G240" r:id="rId588" display="https://www.co.washington.tx.us/upload/page/10698/1a joint prec by prec report.pdf" xr:uid="{EE616327-C49C-C14C-B502-23A0CA770008}"/>
+    <hyperlink ref="H240" r:id="rId589" display="https://www.co.washington.tx.us/upload/page/10698/DEM PBP.pdf" xr:uid="{B98E0EDB-E893-5D4D-96A7-BDAB7CB5F7E2}"/>
+    <hyperlink ref="I240" r:id="rId590" display="https://www.co.washington.tx.us/upload/page/10698/REP PBP.pdf" xr:uid="{67AFACC2-1A19-B743-955C-5AC5CBBAB3B7}"/>
+    <hyperlink ref="B241" r:id="rId591" display="https://www.webbcountytx.gov/ElectionsAdministration/ArchivedResults/" xr:uid="{1133ED9C-4BCA-4148-A131-85C3727D2D6C}"/>
+    <hyperlink ref="B242" r:id="rId592" display="https://www.co.wharton.tx.us/page/wharton.Elections" xr:uid="{2BDB1D11-E0A5-B141-83F4-5A4F5481976A}"/>
+    <hyperlink ref="D242" r:id="rId593" display="https://www.co.wharton.tx.us/upload/page/7010/docs/Reports/2024 November/11.12.24 PCT-PCT.pdf" xr:uid="{3E52A589-80C8-1F43-AC77-8C3665530ED5}"/>
+    <hyperlink ref="B243" r:id="rId594" display="https://www.wheelercounty.texas.gov/page/wheeler.Elections" xr:uid="{593103FA-315E-9649-A71B-A8F7447189B7}"/>
+    <hyperlink ref="B244" r:id="rId595" display="https://wichitacountytx.com/election_info/election-results-archive/" xr:uid="{5F41934A-5896-CE48-9DD4-5FE2B5EB1AC9}"/>
+    <hyperlink ref="D244" r:id="rId596" display="https://wichitacountytx.com/wp-content/uploads/2023/10/11.5.2024-Precinct-Results.pdf" xr:uid="{1C78B593-D6CE-2A42-92E6-420BDEB7525B}"/>
+    <hyperlink ref="E244" r:id="rId597" display="https://wichitacountytx.com/wp-content/uploads/2023/10/3.5.2024-Democratic-Precinct-Results.pdf" xr:uid="{EDDB953E-7B4C-D146-8979-297B4E87167A}"/>
+    <hyperlink ref="F244" r:id="rId598" display="https://wichitacountytx.com/wp-content/uploads/2023/10/3.5.2024-Republican-Precinct-Results.pdf" xr:uid="{F0FE8896-DE8B-BD4E-AE50-DC1E75912DA9}"/>
+    <hyperlink ref="H244" r:id="rId599" display="https://wichitacountytx.com/wp-content/uploads/2018/10/Democratic-Primary-Runoff-Precinct-Results.pdf" xr:uid="{63BEC4C0-5EE4-6F40-8C9B-CEA0DFD4D0B2}"/>
+    <hyperlink ref="I244" r:id="rId600" display="https://wichitacountytx.com/wp-content/uploads/2023/10/3.5.2024-Republican-Precinct-Results.pdf" xr:uid="{3FCDD7A2-9913-174C-951C-53C3EA8BABB6}"/>
+    <hyperlink ref="B245" r:id="rId601" display="https://www.co.wilbarger.tx.us/page/wilbarger.elections" xr:uid="{EF8F3C66-4680-CF4E-9217-64EF9CE60783}"/>
+    <hyperlink ref="B246" r:id="rId602" display="https://www.co.willacy.tx.us/page/willacy.Elections" xr:uid="{484370C9-879A-A044-B213-F99FE21C0B6E}"/>
+    <hyperlink ref="B247" r:id="rId603" display="https://www.wilcotx.gov/292/Results-Archive" xr:uid="{67EE741E-D02A-5747-A150-139FA2898728}"/>
+    <hyperlink ref="C247" r:id="rId604" display="https://results.enr.clarityelections.com/TX/Williamson/" xr:uid="{38B94C57-AB69-4E4E-8337-6BA70C2061AC}"/>
+    <hyperlink ref="B248" r:id="rId605" display="https://www.co.wilson.tx.us/page/wilson.Elections" xr:uid="{C6B7CB8D-AAEC-0843-A586-B86F3A9228C8}"/>
+    <hyperlink ref="B249" r:id="rId606" display="https://www.co.winkler.tx.us/213/Elections" xr:uid="{F2E817DB-EC3C-BC49-8274-C2DE4C002F39}"/>
+    <hyperlink ref="B250" r:id="rId607" display="https://www.co.wise.tx.us/315/Elections" xr:uid="{ADCA751B-D9BB-0D4E-8B3C-7234BED84FB6}"/>
+    <hyperlink ref="D250" r:id="rId608" display="https://www.co.wise.tx.us/DocumentCenter/View/6011/November-5-2024-General-and-Special-Election---Official-Precinct-Results-Report" xr:uid="{48A172D8-F8C3-874B-8B52-A7A0C8017F3E}"/>
+    <hyperlink ref="B251" r:id="rId609" display="https://elections.mywoodcounty.com/election-information/election-results/" xr:uid="{D524CE59-4A9B-364A-B80D-6E3C65D359EC}"/>
+    <hyperlink ref="C251" r:id="rId610" display="https://results.enr.clarityelections.com/TX/Wood/" xr:uid="{7B04DECC-27D6-0B41-931A-FB72D962F771}"/>
+    <hyperlink ref="D251" r:id="rId611" display="https://results.enr.clarityelections.com/TX/Wood/122311/353543/reports/detailxls.zip" xr:uid="{E697E87A-01A7-7444-B921-8D2493A18135}"/>
+    <hyperlink ref="G251" r:id="rId612" display="https://results.enr.clarityelections.com/TX/Wood/120255/332259/reports/detailxls.zip" xr:uid="{83250DEA-C70A-6543-8407-336AD93C6ACE}"/>
+    <hyperlink ref="J251" r:id="rId613" display="https://results.enr.clarityelections.com/TX/Wood/121704/340133/reports/detailxls.zip" xr:uid="{AE53F45B-859C-AC44-9C53-C450946016F3}"/>
+    <hyperlink ref="B252" r:id="rId614" display="https://www.co.yoakum.tx.us/page/yoakum.Elections" xr:uid="{957F174E-A71A-7C48-857E-96959B5A82C0}"/>
+    <hyperlink ref="B253" r:id="rId615" display="https://www.co.young.tx.us/page/young.Elections" xr:uid="{8410CACA-DB25-F54D-844C-AAE0DA1F8806}"/>
+    <hyperlink ref="B254" r:id="rId616" display="https://www.co.zapata.tx.us/page/zapata.Elections" xr:uid="{4D023147-C6FA-E642-A87F-27BB07CCD935}"/>
+    <hyperlink ref="B255" r:id="rId617" display="https://www.co.zavala.tx.us/page/Elections" xr:uid="{044A9297-DC96-E54E-988C-0F3AA4D657E4}"/>
+    <hyperlink ref="B62" r:id="rId618" location="PastElections" display="https://www.votedenton.gov/election-results-and-maps/election-results/ - PastElections" xr:uid="{EECFA856-6C9D-214C-B6A3-92A7A9A78201}"/>
+    <hyperlink ref="C62" r:id="rId619" display="https://results.enr.clarityelections.com/TX/Denton/" xr:uid="{36BBA1B1-4065-474E-A017-750EBCEE1488}"/>
+    <hyperlink ref="D62" r:id="rId620" display="https://results.enr.clarityelections.com/TX/Denton/122426/355989/reports/detailxls.zip" xr:uid="{54B860FD-8435-B942-91F8-1E79C770165D}"/>
+    <hyperlink ref="E62" r:id="rId621" display="https://results.enr.clarityelections.com/TX/Denton/120183/334619/reports/detailxls.zip" xr:uid="{3BEEF875-5E75-1F41-859C-6D57E49806DA}"/>
+    <hyperlink ref="F62" r:id="rId622" display="https://results.enr.clarityelections.com/TX/Denton/120184/334618/reports/detailxls.zip" xr:uid="{152A52F1-1F09-484C-B9FF-BBD3D50CD26D}"/>
+    <hyperlink ref="H62" r:id="rId623" display="https://assets01.aws.connect.clarityelections.com/Assets/Connect/RootPublish/denton-tx.connect.clarityelections.com/ElectionResults/2024/PR24/Dem/2024_Democratic_Primary_Runoff_Election_Precinct.pdf" xr:uid="{7F53FAB4-2BA3-FA49-B148-E85DAEE4E5E8}"/>
+    <hyperlink ref="I62" r:id="rId624" display="https://assets01.aws.connect.clarityelections.com/Assets/Connect/RootPublish/denton-tx.connect.clarityelections.com/ElectionResults/2024/PR24/Rep/2024_Republican_Primary_Runoff_Election_Precinct.pdf" xr:uid="{7BD9CFEE-9500-744C-84D8-8B2A47CCB5CE}"/>
+    <hyperlink ref="B85" r:id="rId625" display="https://galvestonvotes.org/election-information/historical-elections/" xr:uid="{74114118-7A31-D14A-B772-1E020C702D3C}"/>
+    <hyperlink ref="C85" r:id="rId626" display="https://results.enr.clarityelections.com/TX/Galveston/" xr:uid="{FC2ABAF6-FC64-264A-9564-F3EDE27A4805}"/>
+    <hyperlink ref="D85" r:id="rId627" display="https://galvestonvotes.org/wp-content/uploads/2025/02/2024-November-5th-Election-Canvass-Report-5NOV24.pdf" xr:uid="{4C484461-903F-4D46-87D7-BF81E8B99FAD}"/>
+    <hyperlink ref="G85" r:id="rId628" display="https://galvestonvotes.org/wp-content/uploads/2025/02/2024-Primary-Canvass-Report-5MAR24.pdf" xr:uid="{775ABB15-3B7F-3147-A622-ABF2DB879CC6}"/>
+    <hyperlink ref="J85" r:id="rId629" display="https://galvestonvotes.org/wp-content/uploads/2025/02/2024-Primary-Runoff-Canvass-Report-28May24.pdf" xr:uid="{8E07F343-164D-354E-942B-E46D2EE4EA89}"/>
+    <hyperlink ref="B101" r:id="rId630" display="https://www.co.hardin.tx.us/page/ElectionsDepartment" xr:uid="{B4DF876D-A50B-0543-A54A-E4A6AE7FA939}"/>
+    <hyperlink ref="B109" r:id="rId631" display="https://www.hidalgocounty.us/539/Archived-Election-Results" xr:uid="{0DCF1B5F-BFC2-DF46-940F-5CA7A8A9757D}"/>
+    <hyperlink ref="C109" r:id="rId632" display="https://results.enr.clarityelections.com/TX/Hidalgo/" xr:uid="{AB18E774-AE9E-0641-A16C-2A13A9DE96C6}"/>
+    <hyperlink ref="D109" r:id="rId633" display="https://results.enr.clarityelections.com/TX/Hidalgo/122498/355530/reports/detailxls.zip" xr:uid="{BD25DA5B-1E2C-994E-9655-0D2612A42882}"/>
+    <hyperlink ref="E109" r:id="rId634" display="https://www.hidalgocounty.us/DocumentCenter/View/66704/Precinct-Results-3-13-2024-09-06-07-AM-DEMS" xr:uid="{D7C4ECE6-DB24-F347-8899-682081223D34}"/>
+    <hyperlink ref="F109" r:id="rId635" display="https://www.hidalgocounty.us/DocumentCenter/View/66703/Precinct-Results-3-13-2024-09-04-41-AM-REPS" xr:uid="{FB7DA27E-57F8-1449-B625-5C9D86373587}"/>
+    <hyperlink ref="H109" r:id="rId636" display="https://www.hidalgocounty.us/DocumentCenter/View/67593/Precinct-Results-May-28-2024" xr:uid="{72174645-699F-5D4B-ADEF-22217B7CD9BB}"/>
+    <hyperlink ref="J109" r:id="rId637" display="https://results.enr.clarityelections.com/TX/Hidalgo/121012/341500/reports/detailxls.zip" xr:uid="{A8BD162D-B4C4-464D-81BB-CFAC1DF1B6E4}"/>
+    <hyperlink ref="B117" r:id="rId638" display="https://www.huntcounty.net/page/hunt.election" xr:uid="{B0065A7A-6E78-2341-B85E-971A138864A8}"/>
+    <hyperlink ref="C117" r:id="rId639" display="https://results.enr.clarityelections.com/TX/Hunt/" xr:uid="{2FED8EFD-A3DF-9C4B-AA25-A876896C283D}"/>
+    <hyperlink ref="B164" r:id="rId640" display="https://www.medinacountytexas.org/page/medina.elections" xr:uid="{FBFD7948-C889-814B-AD64-721FE340A9FE}"/>
+    <hyperlink ref="D164" r:id="rId641" display="https://www.medinacountytexas.org/upload/page/6805/2024 November General/Results/Official Pct Results 11.5.24.pdf" xr:uid="{CDE3743F-CBE1-9E4B-91B8-4E862B8DA3FD}"/>
+    <hyperlink ref="G164" r:id="rId642" display="https://www.medinacountytexas.org/upload/page/6805/2024 March Primary Election/Results/Official Precinct Results-3-12-2024 01-22-17 PM.pdf" xr:uid="{18B6FC73-F932-DF43-A120-FB1197543DA1}"/>
+    <hyperlink ref="J164" r:id="rId643" display="https://www.medinacountytexas.org/upload/page/6805/2024 May Primary Runoff Election/Results/5.28.24 Official Pct Results.pdf" xr:uid="{C329617D-99ED-2F46-8C9F-B52CDCF0BECA}"/>
+    <hyperlink ref="B222" r:id="rId644" display="https://www.taylorcounty.texas.gov/212/Elections" xr:uid="{C0172F40-0C11-7D47-9662-3721328F8435}"/>
+    <hyperlink ref="D247" r:id="rId645" display="https://www.wilcotx.gov/DocumentCenter/View/13240/202411NOVEMBER---Final-Unofficial---Precinct-Results-Report" xr:uid="{D53D2A6D-0A6A-764F-BC4C-2EB541BF70A7}"/>
+    <hyperlink ref="J247" r:id="rId646" display="https://www.wilcotx.gov/DocumentCenter/View/10657/May-28-2024-Democratic-and-Republican-Precinct-Results" xr:uid="{7CAE9540-DF52-9C45-BDB0-6671DDFE3109}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId645"/>
+  <legacyDrawing r:id="rId647"/>
 </worksheet>
 </file>
--- a/2024/links.xlsx
+++ b/2024/links.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jadair/dev/other/openelections/openelections-sources-tx/2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABEB691-FFC8-B141-B321-C91EDC8B45CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E27DC7-5B6E-C849-AA54-536FC7B31931}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37100" yWindow="2920" windowWidth="13700" windowHeight="17440" xr2:uid="{0A3A9BE1-0345-1F43-83BB-DD4724CDBC33}"/>
   </bookViews>
@@ -1275,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F4D006-1FEF-0643-93A7-2547EF91B854}">
   <dimension ref="A1:K255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="D182" sqref="D182"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3031,13 +3031,13 @@
       <c r="C58" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3" t="s">
+      <c r="D58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G58" s="1" t="s">
@@ -3049,11 +3049,11 @@
       <c r="I58" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K58" s="4" t="s">
-        <v>270</v>
+      <c r="J58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
@@ -5255,7 +5255,7 @@
       <c r="C131" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="D131" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E131" s="1" t="s">
@@ -5276,8 +5276,8 @@
       <c r="J131" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K131" s="4" t="s">
-        <v>270</v>
+      <c r="K131" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
@@ -8508,7 +8508,7 @@
       </c>
       <c r="C238" s="1"/>
       <c r="D238" s="1" t="s">
-        <v>1</v>
+        <v>268</v>
       </c>
       <c r="E238" s="1" t="s">
         <v>1</v>
@@ -8517,7 +8517,7 @@
         <v>1</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>1</v>
+        <v>268</v>
       </c>
       <c r="H238" s="1" t="s">
         <v>1</v>
@@ -8526,10 +8526,10 @@
         <v>1</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K238" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
+      </c>
+      <c r="K238" s="1" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.2">
@@ -9215,494 +9215,494 @@
     <hyperlink ref="B57" r:id="rId156" display="https://www.dallam.org/vote/" xr:uid="{2DC1A13F-8299-8343-A9C9-3980561E93A8}"/>
     <hyperlink ref="B58" r:id="rId157" display="https://www.dallascountyvotes.org/election-results/historical/" xr:uid="{15416D0F-BC14-8E4F-8A8D-A9181BEF1EFE}"/>
     <hyperlink ref="C58" r:id="rId158" display="https://www.dallascountyvotes.org/election-results/historical/" xr:uid="{88530FD1-2580-E945-B470-221CDAF9F7CC}"/>
-    <hyperlink ref="D58" r:id="rId159" display="https://results.enr.clarityelections.com/TX/Dallas/122494/355193/reports/detailxls.zip" xr:uid="{577AB828-1F01-BF47-8CFF-26DF5094F0EF}"/>
-    <hyperlink ref="E58" r:id="rId160" display="https://results.enr.clarityelections.com/TX/Dallas/120550/332339/reports/detailxls.zip" xr:uid="{FB5039A3-0489-864E-8AF5-C92057C62C8A}"/>
-    <hyperlink ref="F58" r:id="rId161" display="https://results.enr.clarityelections.com/TX/Dallas/120549/332338/reports/detailxls.zip" xr:uid="{9508AB33-EF2E-704C-8B79-4530287ECCA5}"/>
-    <hyperlink ref="J58" r:id="rId162" display="https://results.enr.clarityelections.com/TX/Dallas/121712/340672/reports/detailxls.zip" xr:uid="{22D90699-8E7B-5D4E-9AC4-B875946524D9}"/>
-    <hyperlink ref="B59" r:id="rId163" display="https://www.co.dawson.tx.us/page/dawson.Election.Information" xr:uid="{30B180A8-2478-1449-B027-5068A117CAAC}"/>
-    <hyperlink ref="B60" r:id="rId164" display="https://www.co.deaf-smith.tx.us/page/deafsmith.County.Clerk" xr:uid="{13A14621-B4E7-C843-9693-775EB873AE96}"/>
-    <hyperlink ref="B61" r:id="rId165" display="https://www.deltacountytx.com/elections/page/election-results" xr:uid="{CFB9E99D-FB5F-EF40-9BCE-0FA8B7DBC404}"/>
-    <hyperlink ref="I61" r:id="rId166" display="https://www.deltacountytx.com/media/3051" xr:uid="{9DAA4457-5FFC-2643-B7F3-52A4432DA7BC}"/>
-    <hyperlink ref="B63" r:id="rId167" display="https://www.co.dewitt.tx.us/page/dewitt.Elections" xr:uid="{14D93EE7-49B2-9A4E-BD74-A23570FD53F1}"/>
-    <hyperlink ref="D63" r:id="rId168" display="https://www.co.dewitt.tx.us/upload/page/1634/November 5, 2024 General Election/November 5 2024 General Election Precinct Report.pdf" xr:uid="{03279F42-150D-6143-B761-5E37304F5CDC}"/>
-    <hyperlink ref="E63" r:id="rId169" display="https://www.co.dewitt.tx.us/upload/page/1634/March 5 2024 Primary/Precinct Result Report Democratic 3.5.24.pdf" xr:uid="{4C198867-046B-5347-8C60-3B73E7A2CD16}"/>
-    <hyperlink ref="F63" r:id="rId170" display="https://www.co.dewitt.tx.us/upload/page/1634/March 5 2024 Primary/Precinct Result Report Republican 3.5.24.pdf" xr:uid="{8F83F598-EF81-534A-986A-7EF26F1EEC1C}"/>
-    <hyperlink ref="I63" r:id="rId171" display="https://www.co.dewitt.tx.us/upload/page/1634/May 28 2024 Primary Run off/May 28 2024 Republican Primary Runoff Precinct Report.pdf" xr:uid="{44F7F034-E199-8740-B83C-B5A6F3123998}"/>
-    <hyperlink ref="B64" r:id="rId172" display="https://www.co.dickens.tx.us/page/dickens.Elections" xr:uid="{2903BB19-D9C2-934D-A51F-FBCD87452908}"/>
-    <hyperlink ref="B65" r:id="rId173" display="https://www.dimmitcounty.org/government/departments/elections/index.php" xr:uid="{C4D67318-7BD4-C54E-B0B9-9D0F9F62C187}"/>
-    <hyperlink ref="B66" r:id="rId174" display="https://www.co.donley.tx.us/page/donley.Elections" xr:uid="{E74D8A7B-BFD2-CD4B-92F6-4E316B42A1E4}"/>
-    <hyperlink ref="B67" r:id="rId175" display="https://www.co.duval.tx.us/page/duval.ElectionArchives" xr:uid="{C055840E-A7E9-F849-A45C-345FC34D1EC0}"/>
-    <hyperlink ref="D67" r:id="rId176" display="https://www.co.duval.tx.us/upload/page/11353/Precinct Results-11-6-2024 08-30-08 AM.pdf" xr:uid="{84867572-45C1-0948-8EA9-4402870E54BF}"/>
-    <hyperlink ref="G67" r:id="rId177" display="https://www.co.duval.tx.us/upload/page/11353/20240305_Precinct Results.pdf" xr:uid="{C2197F41-5274-4E4B-8C16-7D428CBE05D1}"/>
-    <hyperlink ref="J67" r:id="rId178" display="https://www.co.duval.tx.us/upload/page/11353/20240528_ElectionResults.pdf" xr:uid="{03D1FD86-801B-7541-B948-314BA3C5BDED}"/>
-    <hyperlink ref="B68" r:id="rId179" display="https://www.eastlandcountytexas.com/page/eastland.Joint.Elections.Administrator" xr:uid="{90ADC578-09F6-E34F-A2F4-456AA883F5CB}"/>
-    <hyperlink ref="B69" r:id="rId180" display="https://www.co.ector.tx.us/page/ector.elections" xr:uid="{0E58110B-DD29-F945-8CD6-94D1764119B6}"/>
-    <hyperlink ref="D69" r:id="rId181" display="https://www.co.ector.tx.us/upload/page/7873/docs/Elections/November 5, 2024 Election/Precinct Results-11-13-2024 01-08-05 PM.pdf" xr:uid="{96217584-5D4E-8C42-967F-5AF996100F24}"/>
-    <hyperlink ref="B70" r:id="rId182" display="https://www.co.edwards.tx.us/page/edwards.electionsnew" xr:uid="{F0E8A48F-89E2-3141-B40A-07671BA30F89}"/>
-    <hyperlink ref="B71" r:id="rId183" display="https://www.co.ellis.tx.us/403/Prior-Election-Results" xr:uid="{654FA57D-503D-F04D-8A69-8F3E04401D56}"/>
-    <hyperlink ref="D71" r:id="rId184" display="https://www.co.ellis.tx.us/DocumentCenter/View/19538/241105-General-Precinct-by-Race-Report-Whole-Precincts" xr:uid="{4E2FBFC9-AEC8-DB46-BB23-CF0F311236C0}"/>
-    <hyperlink ref="E71" r:id="rId185" display="https://www.co.ellis.tx.us/DocumentCenter/View/18461/DEM-Pct-by-Race-Results-Election-Night" xr:uid="{B528702F-9438-1941-AFC4-D2082B315ADD}"/>
-    <hyperlink ref="F71" r:id="rId186" display="https://www.co.ellis.tx.us/DocumentCenter/View/18460/REP-Pct-by-Race-Results-Election-Night" xr:uid="{95C6B782-8DBF-9745-B753-ED74B313D307}"/>
-    <hyperlink ref="I71" r:id="rId187" display="https://www.co.ellis.tx.us/DocumentCenter/View/18989/240528-Pct-by-Race-Totals" xr:uid="{B11D346D-97D8-C14B-B76B-D170BEE26D38}"/>
-    <hyperlink ref="B72" r:id="rId188" display="https://epcountyvotes.com/election-archives" xr:uid="{98FEFBB1-E72D-144A-9B3A-A36F76052AB6}"/>
-    <hyperlink ref="C72" r:id="rId189" display="https://results.enr.clarityelections.com/TX/El_Paso/" xr:uid="{56778833-CDD9-9C4D-B2E3-759495C7058C}"/>
-    <hyperlink ref="D72" r:id="rId190" display="https://results.enr.clarityelections.com/TX/Denton/120184/334618/reports/detailxls.zip" xr:uid="{37BBCD14-6A67-A542-BE9F-20436676D22E}"/>
-    <hyperlink ref="G72" r:id="rId191" display="https://results.enr.clarityelections.com/TX/El_Paso/120338/334441/reports/detailxls.zip" xr:uid="{BF7A7BD9-98C4-544E-86EC-5C06EC8735D6}"/>
-    <hyperlink ref="J72" r:id="rId192" display="https://results.enr.clarityelections.com/TX/El_Paso/121722/344586/reports/detailxls.zip" xr:uid="{5B2DB7FE-6BB4-974C-A8F3-A388BAC8B275}"/>
-    <hyperlink ref="B73" r:id="rId193" display="https://www.co.erath.tx.us/184/Elections-Administration" xr:uid="{196800BB-E5EE-8243-B257-1EFE3AEB6D94}"/>
-    <hyperlink ref="B74" r:id="rId194" display="https://www.co.falls.tx.us/page/falls.Elections" xr:uid="{E3BDBE23-92F7-564E-9115-F3B684C476BF}"/>
-    <hyperlink ref="B75" r:id="rId195" display="https://www.co.fannin.tx.us/page/fannin.Elections" xr:uid="{38C1FA48-B6CA-E441-B97B-A198AF15E463}"/>
-    <hyperlink ref="B76" r:id="rId196" display="https://newtools.cira.state.tx.us/page/fayette.Elections.PastResults" xr:uid="{0C77A2C2-A1BB-B349-9809-800A24684F66}"/>
-    <hyperlink ref="D76" r:id="rId197" display="https://newtools.cira.state.tx.us/upload/page/1737/2024 Elections/pctxpct_report_11052024.pdf" xr:uid="{78F6469B-A244-B84B-A66C-2FEDFCF0CD34}"/>
-    <hyperlink ref="G76" r:id="rId198" display="https://newtools.cira.state.tx.us/upload/page/1737/2024/official_precinct_report_march_5_2024_election_results.pdf" xr:uid="{D0486D12-31CF-8949-8B0D-603BD2DF4481}"/>
-    <hyperlink ref="B77" r:id="rId199" display="https://www.fishercounty.org/page/fisher.ElectionPage" xr:uid="{9025A024-B951-A84E-9EB6-B8D104627FA6}"/>
-    <hyperlink ref="B78" r:id="rId200" display="https://www.co.floyd.tx.us/page/floyd.Elections" xr:uid="{70A5596A-EB93-E548-97A4-BD01CAF25E35}"/>
-    <hyperlink ref="B79" r:id="rId201" display="https://www.foardcounty.texas.gov/page/foard.County.Clerk" xr:uid="{D49C3D8B-A064-934E-9759-36241A675DFD}"/>
-    <hyperlink ref="B80" r:id="rId202" display="https://www.fortbendcountytx.gov/government/departments/elections-voter-registration/2024-election-results" xr:uid="{E181E2AC-34A9-7E4D-92EC-062FF5C0CB8E}"/>
-    <hyperlink ref="D80" r:id="rId203" display="https://www.fortbendcountytx.gov/sites/default/files/document-central/document-central/elections-documents/elections-results/2024/FBC-Precinct-Reports3.pdf" xr:uid="{051080AE-C2A6-6949-B23C-1B6C8E566E6B}"/>
-    <hyperlink ref="G80" r:id="rId204" display="https://www.fortbendcountytx.gov/sites/default/files/document-central/document-central/elections-documents/elections-results/2024/March-5%2C-2024-Precinct-results.pdf" xr:uid="{9D8B58D4-E6D5-7C4D-9765-64DF304ED549}"/>
-    <hyperlink ref="J80" r:id="rId205" display="https://results.enr.clarityelections.com/TX/Fort_Bend/121705/340722/reports/detailxls.zip" xr:uid="{305557E7-0957-CA48-934F-17E1042236FF}"/>
-    <hyperlink ref="B81" r:id="rId206" display="https://www.co.franklin.tx.us/page/franklin.elections" xr:uid="{72E1F410-8253-B040-92C6-8EFF31287391}"/>
-    <hyperlink ref="D81" r:id="rId207" display="https://www.co.franklin.tx.us/upload/page/1844/2024 Elections/nov_2024__official_results.pdf" xr:uid="{13A3CDDD-0343-F040-AE26-7ED2B36FC74A}"/>
-    <hyperlink ref="E81" r:id="rId208" display="https://www.co.franklin.tx.us/upload/page/1844/2024/03052024__democrat_official__precinct_by_precinct.pdf" xr:uid="{2375A97C-0DEF-3145-AD3D-9569B9846A87}"/>
-    <hyperlink ref="F81" r:id="rId209" display="https://www.co.franklin.tx.us/upload/page/1844/2024/03052024__republican_official__precinct_by_precinct.pdf" xr:uid="{C6BDE3B6-CB10-3C48-9EE9-FB0DFDE53FB9}"/>
-    <hyperlink ref="B82" r:id="rId210" display="https://www.co.freestone.tx.us/page/freestone.Elections" xr:uid="{A121C6D2-EA3A-BB42-A5B3-E8FA7B28813D}"/>
-    <hyperlink ref="B83" r:id="rId211" display="https://www.co.frio.tx.us/page/elect.home" xr:uid="{B276F588-DCCB-334F-A8F5-E0DF7D433901}"/>
-    <hyperlink ref="B84" r:id="rId212" display="https://www.co.gaines.tx.us/page/gaines.Elections.Archive" xr:uid="{2F85266D-7283-B94F-90FB-59608FF0B57F}"/>
-    <hyperlink ref="B86" r:id="rId213" display="https://www.garzacounty.net/page/elections" xr:uid="{AC67FEB7-87CF-724F-B777-D3ECE55D731F}"/>
-    <hyperlink ref="B87" r:id="rId214" display="https://www.gillespiecounty.org/page/election_results" xr:uid="{F9C77767-5F77-3948-BD0D-BDB6869F26F4}"/>
-    <hyperlink ref="D87" r:id="rId215" display="https://www.gillespiecounty.org/upload/page/0170/docs/elections/2024-11-15  OFFICIAL Precinct Results Report.pdf" xr:uid="{571B71F0-4682-B647-8808-1B8E537F7F72}"/>
-    <hyperlink ref="E87" r:id="rId216" display="https://www.gillespiecounty.org/upload/page/0170/docs/elections/GILLESPIE COUNTY March 5 2024 DEMOCRAT PRIMARY.pdf" xr:uid="{578D149F-2071-7D48-84C5-0B99BB2B96F0}"/>
-    <hyperlink ref="F87" r:id="rId217" display="https://www.gillespiecounty.org/upload/page/0170/docs/elections/TOTAL-Canvass of March 5 2024 Gillespie County Republican Primary.pdf" xr:uid="{C53F3232-DF2F-EE45-91E2-E2897C7DFAAF}"/>
-    <hyperlink ref="I87" r:id="rId218" display="https://www.gillespiecounty.org/upload/page/0170/docs/elections/Canvass_Official Results of May 28 2024 Gillespie County Republican Primary Runoff.pdf" xr:uid="{9AD3C9E0-9A2E-6042-92E7-2489C4E0B49B}"/>
-    <hyperlink ref="B88" r:id="rId219" display="https://www.co.glasscock.tx.us/page/glasscock.Elections" xr:uid="{6A4A196E-7B86-0844-B531-3E309AE59B37}"/>
-    <hyperlink ref="D88" r:id="rId220" display="https://newtools.cira.state.tx.us/upload/page/0767/2024/TALLY TOTALS for 11-5-24 General Election 1124 24.xlsx" xr:uid="{E4E47465-B0B2-3D43-BD67-659FE2D9D76E}"/>
-    <hyperlink ref="B89" r:id="rId221" display="https://www.co.goliad.tx.us/page/goliad.Elections" xr:uid="{DE3D7928-DA39-F74E-AB39-989ECBC14B9D}"/>
-    <hyperlink ref="B90" r:id="rId222" display="https://www.co.gonzales.tx.us/page/gonzales.Elections.Admin" xr:uid="{182FEF74-7EE9-424B-8485-8BB4F55D2653}"/>
-    <hyperlink ref="D90" r:id="rId223" display="https://www.co.gonzales.tx.us/upload/page/10685/110524 General Election/Pct by Pct Official Results 110524.pdf" xr:uid="{84D6641C-0668-104B-8056-4E3750469277}"/>
-    <hyperlink ref="E90" r:id="rId224" display="https://www.co.gonzales.tx.us/upload/page/10685/030524 Primary/Democratic Official Pct by Pct 030524.pdf" xr:uid="{F76CC579-1630-3D4A-8693-E0445DF0B1FB}"/>
-    <hyperlink ref="F90" r:id="rId225" display="https://www.co.gonzales.tx.us/upload/page/10685/030524 Primary/Republican Official Pct by Pct 030524.pdf" xr:uid="{86B35131-75B4-854F-9C20-9F8B11E48606}"/>
-    <hyperlink ref="I90" r:id="rId226" display="https://www.co.gonzales.tx.us/upload/page/10685/052824 Primary Runoff/Pct by Pct Results 052824.pdf" xr:uid="{E5C5E704-81F7-7146-BA22-FD26AA4CB752}"/>
-    <hyperlink ref="B91" r:id="rId227" display="https://www.co.gray.tx.us/page/gray.Elections" xr:uid="{9A8988BA-15FD-5B4E-A88C-688DC0A4AB1B}"/>
-    <hyperlink ref="B92" r:id="rId228" display="https://www.co.grayson.tx.us/page/elec.history" xr:uid="{4A6B15FC-7075-4047-AB61-E130255899E0}"/>
-    <hyperlink ref="D92" r:id="rId229" display="https://www.co.grayson.tx.us/page/open/3389/0/Official Pct. by Pct. Summary Results General 11.5.24 Election" xr:uid="{CEA5F515-836A-264C-8BDF-DE49F960581D}"/>
-    <hyperlink ref="G92" r:id="rId230" display="https://www.co.grayson.tx.us/page/open/3389/0/March 5 2024 Precinct Results Report" xr:uid="{247E8230-4AA0-4C43-8EBE-7D96AFDE0B8D}"/>
-    <hyperlink ref="J92" r:id="rId231" display="https://www.co.grayson.tx.us/page/open/3389/0/May 28th RunOff Official Precinct By Precinct Report" xr:uid="{F8285D47-603E-7144-9B0C-6CBC00BD7A16}"/>
-    <hyperlink ref="B93" r:id="rId232" display="https://www.greggcountyvotes.com/" xr:uid="{9F40E5DB-DB94-464E-B6B1-E5BEDDDF3FB4}"/>
-    <hyperlink ref="C93" r:id="rId233" display="https://results.enr.clarityelections.com/TX/Gregg/" xr:uid="{4D11C2BB-EDB0-AB4D-ABA1-0448CFF77EC9}"/>
-    <hyperlink ref="D93" r:id="rId234" display="https://results.enr.clarityelections.com/TX/Gregg/122313/355603/reports/detailxls.zip" xr:uid="{E8A00D18-BE92-FE4F-A8F8-0ED793DCAB2A}"/>
-    <hyperlink ref="G93" r:id="rId235" display="https://results.enr.clarityelections.com/TX/Gregg/120010/333176/reports/detailxls.zip" xr:uid="{06CA62DA-2D1D-C04F-A260-E3FDEE9E6ADE}"/>
-    <hyperlink ref="B94" r:id="rId236" display="https://grimescountytexas.gov/index.asp?SEC=%7B916A9ACA-66FE-481D-BE2B-84C6C590431D%7D" xr:uid="{B162D2B5-CAC8-FB46-8113-DC395C936114}"/>
-    <hyperlink ref="D94" r:id="rId237" display="https://grimescountytexas.gov/vertical/sites/%7B958238D0-27E6-4F6C-919E-F1D98542C5FD%7D/uploads/11.05.2024_OFFICIAL_Canvass_Results(1).pdf" xr:uid="{0CA463EE-2152-8A4B-A79D-A9150C5B9AEF}"/>
-    <hyperlink ref="G94" r:id="rId238" display="https://grimescountytexas.gov/vertical/sites/%7B958238D0-27E6-4F6C-919E-F1D98542C5FD%7D/uploads/OFFICIAL_CANVASS_RESULTS(1).pdf" xr:uid="{1762A895-AC82-2D4E-9ED5-E18724FFCDDA}"/>
-    <hyperlink ref="J94" r:id="rId239" display="https://grimescountytexas.gov/vertical/sites/%7B958238D0-27E6-4F6C-919E-F1D98542C5FD%7D/uploads/5.28.2024_PRIMARY_RUNOFF_OFFICIAL_CANVASS_RESULTS(1).pdf" xr:uid="{0C6C0DEB-6598-F341-984E-8ED3FE55B716}"/>
-    <hyperlink ref="B95" r:id="rId240" display="https://www.guadalupetx.gov/page/elections.history" xr:uid="{6BA9A041-C37A-F34D-8641-F0A21E4773FE}"/>
-    <hyperlink ref="C95" r:id="rId241" display="https://results.enr.clarityelections.com/TX/Guadalupe/" xr:uid="{4FA6B1B9-8F11-5E49-9D17-310DACE87CA5}"/>
-    <hyperlink ref="D95" r:id="rId242" display="https://www.guadalupetx.gov/upload/page/0210/docs/2024/11-5-24-GC_General-PrctbyPrct.pdf" xr:uid="{BA069584-02A0-2F44-9DB6-0CAB628047C1}"/>
-    <hyperlink ref="E95" r:id="rId243" display="https://www.guadalupetx.gov/upload/page/0210/Dem_Primary_Official_Results_PrctbyPrct.pdf" xr:uid="{B6821E41-A64E-744E-B931-9BE14A9626BF}"/>
-    <hyperlink ref="F95" r:id="rId244" display="https://www.guadalupetx.gov/upload/page/0210/Rep_Primary_Official_Results_PrctbyPrct.pdf" xr:uid="{0ABDD25F-4675-F447-A991-769D846DA21B}"/>
-    <hyperlink ref="B96" r:id="rId245" display="https://www.halecounty.org/county_offices/election_information.php" xr:uid="{1809D0FD-FD9D-104F-8CC7-6D7A2AED4DDC}"/>
-    <hyperlink ref="D96" r:id="rId246" display="https://cms2.revize.com/revize/halecountynew/Precinct Results-11-13-2024 01-27-08 PM.pdf" xr:uid="{58CBE8A1-800D-9C4B-BA47-171CCBD57938}"/>
-    <hyperlink ref="B97" r:id="rId247" display="https://www.co.hall.tx.us/page/hall.County.Elections" xr:uid="{CE155D1B-7356-B04D-B822-8B1EFF02EF88}"/>
-    <hyperlink ref="B98" r:id="rId248" display="https://www.co.hamilton.tx.us/page/hamilton.elections" xr:uid="{59EB1083-333E-4D45-9BCE-B1DC7E364A1C}"/>
-    <hyperlink ref="D98" r:id="rId249" display="https://www.hamiltoncountytx.gov/upload/page/8825/Official Results Nov 5 General Pct x Pct.pdf" xr:uid="{A3847638-A671-7D4B-9B42-EC155C5DA02E}"/>
-    <hyperlink ref="G98" r:id="rId250" display="https://www.hamiltoncountytx.gov/upload/page/8825/2024 Primary Elections/Unofficial Results for PCT. by PCT.pdf" xr:uid="{33E56BF5-A668-F145-8A44-D5C9434A4E20}"/>
-    <hyperlink ref="H98" r:id="rId251" display="https://www.hamiltoncountytx.gov/upload/page/8825/Democratic Primary Runoff Pct. x Pct. Official Results.pdf" xr:uid="{87FB6553-011C-2049-B112-2C018E4AE0C8}"/>
-    <hyperlink ref="B99" r:id="rId252" display="https://www.co.hansford.tx.us/page/hansford.Elections" xr:uid="{ADDE4774-679E-2C4D-ABD5-34035A5D0124}"/>
-    <hyperlink ref="B100" r:id="rId253" display="https://www.co.hardeman.tx.us/page/hardeman.Elections" xr:uid="{A9EEEACB-413C-B84A-BCBD-6DB4D9CCF909}"/>
-    <hyperlink ref="B102" r:id="rId254" display="https://www.harrisvotes.com/Election-Results/Archives" xr:uid="{B4BF3921-F700-8543-917C-F73469EEF0BD}"/>
-    <hyperlink ref="D102" r:id="rId255" display="https://hctxdnnstg.blob.core.windows.net/harrisvotes/prd/docs/Reports/FINAL Official Canvass Results-11-14-2024 03-12-57 PM.pdf" xr:uid="{48DF9E47-51B7-E441-AF33-CE9FFC029037}"/>
-    <hyperlink ref="E102" r:id="rId256" display="https://hctxdnnstg.blob.core.windows.net/harrisvotes/prd/docs/Official Dem Canvass Results-3-13-2024 11-57-16 AM.pdf" xr:uid="{C267D9A6-F938-7245-8B89-EF4F9F74FFFE}"/>
-    <hyperlink ref="F102" r:id="rId257" display="https://hctxdnnstg.blob.core.windows.net/harrisvotes/prd/docs/Official Rep Canvass Results-3-13-2024 11-50-05 AM.pdf" xr:uid="{FD718572-66F7-4A40-82E5-C75B319D702D}"/>
-    <hyperlink ref="H102" r:id="rId258" display="https://files.harrisvotes.com/harrisvotes/prd/docs/Reports/Official DEM Canvass Results-6-5-2024 11-13-02 AM.pdf" xr:uid="{0DCAEA35-FA57-EC4C-8E2C-1F7536818C6F}"/>
-    <hyperlink ref="I102" r:id="rId259" display="https://files.harrisvotes.com/harrisvotes/prd/docs/Reports/Official REP Canvass Results-6-5-2024 11-12-28 AM.pdf" xr:uid="{594A1E66-1015-8C47-A325-7FB295D6E23E}"/>
-    <hyperlink ref="B103" r:id="rId260" display="https://www.harrisoncountytexas.gov/page/harrison.Elections" xr:uid="{C610C450-D2DA-C94E-9F6B-10E096CE9518}"/>
-    <hyperlink ref="D103" r:id="rId261" display="https://www.harrisoncountytexas.gov/upload/page/12077/NOV 5, 2024/Precinct Results-11-18-2024 01-03-20 PM.pdf" xr:uid="{0CDCD350-A9A4-3E48-B54B-132CCD1285F5}"/>
-    <hyperlink ref="G103" r:id="rId262" display="https://www.harrisoncountytexas.gov/upload/page/12077/MARCH PRIMARY 2024/PrecinctResultsReport.pdf" xr:uid="{3DFF2286-61E2-9B48-8A01-DEA195E626C1}"/>
-    <hyperlink ref="B104" r:id="rId263" display="https://www.co.hartley.tx.us/page/hartley.Voter.Information" xr:uid="{ACE2A9C1-3F12-6C4D-BA9B-EB9584487733}"/>
-    <hyperlink ref="B105" r:id="rId264" display="https://www.haskellcountytx.gov/page/haskell.County.Clerk" xr:uid="{5D9FCC24-F558-5E4C-8EBE-97611F2820B4}"/>
-    <hyperlink ref="B106" r:id="rId265" display="https://www.hayscountytx.gov/election-results" xr:uid="{427643E8-367F-F949-B8D2-182B4B671818}"/>
-    <hyperlink ref="B107" r:id="rId266" display="https://www.co.hemphill.tx.us/page/hemphill.ElectionInformation" xr:uid="{C3DE06C4-11E8-1F40-81A8-0F43692E3270}"/>
-    <hyperlink ref="D107" r:id="rId267" display="https://www.co.hemphill.tx.us/upload/page/7666/nov 2024 general election by precinct report.pdf" xr:uid="{A7CC4BD8-F914-D445-89C0-BA574602BCB8}"/>
-    <hyperlink ref="B108" r:id="rId268" display="https://www.henderson-county.com/departments/elections-voter-registration/election-results" xr:uid="{45103907-82F1-C14E-9AE9-74C068012F4F}"/>
-    <hyperlink ref="D108" r:id="rId269" display="https://www.henderson-county.com/home/showpublisheddocument/23397/638676954817730000" xr:uid="{60DE66F7-5B95-B242-BB6F-FD34C09BDFB7}"/>
-    <hyperlink ref="B110" r:id="rId270" display="https://www.co.hill.tx.us/page/hill.Elections" xr:uid="{AF786827-F399-7D4A-BD55-8710670A31F1}"/>
-    <hyperlink ref="B111" r:id="rId271" display="https://www.co.hockley.tx.us/page/hockley.electionshome" xr:uid="{0D3ED57B-8E06-9943-9B48-D1DF7BBD97A4}"/>
-    <hyperlink ref="B112" r:id="rId272" display="https://hoodcounty.texas.gov/departments/elections_administration/index.php" xr:uid="{B43B87DD-6DAB-DB41-9B8F-D0028A0F101A}"/>
-    <hyperlink ref="C112" r:id="rId273" display="https://results.enr.clarityelections.com/TX/Hood/" xr:uid="{3F8FF554-FDCD-2C45-8D1C-73B3888B654E}"/>
-    <hyperlink ref="D112" r:id="rId274" display="https://results.enr.clarityelections.com/TX/Hood/122858/355543/reports/detailxls.zip" xr:uid="{94F275DF-F906-5D45-BD9D-286F095DD060}"/>
-    <hyperlink ref="G112" r:id="rId275" display="https://results.enr.clarityelections.com/TX/Hood/120386/332333/reports/detailxls.zip" xr:uid="{8E38B469-F491-A84B-8863-30771F5E8354}"/>
-    <hyperlink ref="I112" r:id="rId276" display="https://results.enr.clarityelections.com/TX/Hood/121707/340726/reports/detailxls.zip" xr:uid="{33E44A05-3A64-5B4F-8E21-90A4190C4DB1}"/>
-    <hyperlink ref="B113" r:id="rId277" display="https://www.hopkinscountytx.org/page/hopkins.Elections" xr:uid="{35237D54-7422-D846-8CA4-27A831C16E2F}"/>
-    <hyperlink ref="B114" r:id="rId278" display="https://www.co.houston.tx.us/page/houston.Elections" xr:uid="{E3EEC786-8552-7644-8374-CAFF1BC74F09}"/>
-    <hyperlink ref="D114" r:id="rId279" display="https://www.co.houston.tx.us/upload/page/2956/2024 Nov/Pct X Pct Official Results - 11-5-24.pdf" xr:uid="{EE3454A9-2E25-764F-A14A-8B5E81B98FAC}"/>
-    <hyperlink ref="G114" r:id="rId280" display="https://www.co.houston.tx.us/upload/page/2956/2024 Primary/Official PCT x PCT.pdf" xr:uid="{4B45F481-B3F8-D244-8D3D-606D4C4870EC}"/>
-    <hyperlink ref="B115" r:id="rId281" display="https://www.co.howard.tx.us/page/howard.Election.Information" xr:uid="{3DE00081-0891-6741-8EEE-8FFCFC089DAD}"/>
-    <hyperlink ref="B116" r:id="rId282" display="https://www.co.hudspeth.tx.us/page/hudspeth.Elections" xr:uid="{99D4C890-0B3B-104C-9A13-615768014E8A}"/>
-    <hyperlink ref="G116" r:id="rId283" display="https://www.co.hudspeth.tx.us/upload/page/10211/2024/precinct_results362024_121555_pm.pdf" xr:uid="{5617EF73-C72F-B342-ABF8-8C2D63F425E5}"/>
-    <hyperlink ref="B118" r:id="rId284" display="https://www.co.hutchinson.tx.us/page/hutchinson.ElectionInformation" xr:uid="{B343CE57-1B9D-6B43-86C9-05C665E2FBB0}"/>
-    <hyperlink ref="D118" r:id="rId285" display="https://newtools.cira.state.tx.us/upload/page/10714/docs/2024/2024 General Precinct by Precinct Official Results.pdf" xr:uid="{2691AB42-1F9B-EB47-8ACE-4ED2BAD9506B}"/>
-    <hyperlink ref="E118" r:id="rId286" display="https://newtools.cira.state.tx.us/upload/page/10714/docs/2024/Democratic Official Results.pdf" xr:uid="{96D5E9B0-7D8C-A247-AC08-5B744A6AE4CF}"/>
-    <hyperlink ref="F118" r:id="rId287" display="https://newtools.cira.state.tx.us/upload/page/10714/docs/2024/Republican Official Results.pdf" xr:uid="{2F8906BF-E870-604A-9BBF-75C17ADBFB09}"/>
-    <hyperlink ref="B119" r:id="rId288" display="https://www.co.irion.tx.us/page/irion.cityschoolelection" xr:uid="{FA093231-05B6-5346-B34D-6F372150706F}"/>
-    <hyperlink ref="B120" r:id="rId289" display="https://www.jackcounty.org/pages/elections.html" xr:uid="{FDC531B5-3075-6D43-B04B-F50C37098C38}"/>
-    <hyperlink ref="B121" r:id="rId290" display="https://www.co.jackson.tx.us/page/jackson.VotingElectionInformation" xr:uid="{574C43EA-4D3D-7541-8E53-6B30DC1E423F}"/>
-    <hyperlink ref="B122" r:id="rId291" display="https://www.co.jasper.tx.us/page/jasper.Elections" xr:uid="{1D6A049F-F649-1F4F-A25B-28245E886A22}"/>
-    <hyperlink ref="D122" r:id="rId292" display="https://www.co.jasper.tx.us/upload/page/1130/11-5-24 Official Pct by Pct Results.pdf" xr:uid="{20E1CFE6-C964-2B48-906A-2447192ED2FA}"/>
-    <hyperlink ref="G122" r:id="rId293" display="https://www.co.jasper.tx.us/upload/page/1130/2024 Elections/Official Result Summary 030524.pdf" xr:uid="{49A87D10-11D0-1843-B8B5-334ABD76620D}"/>
-    <hyperlink ref="J122" r:id="rId294" display="https://www.co.jasper.tx.us/upload/page/1130/2024 Elections/Official Pct by Pct 52824 Results.pdf" xr:uid="{00962D2C-91EA-F745-94C0-A6C260AC53C9}"/>
-    <hyperlink ref="B123" r:id="rId295" display="https://www.jeffdaviscounty.texas.gov/page/jeffdavis.Elections" xr:uid="{BAE2CB88-2979-1542-BC4A-FF14471512A1}"/>
-    <hyperlink ref="D123" r:id="rId296" display="https://www.jeffdaviscounty.texas.gov/upload/page/6574/2024/general_election__by_precinct__official.pdf" xr:uid="{A7E2A8B1-C602-6C41-9778-06AB1CE8E0C3}"/>
-    <hyperlink ref="G123" r:id="rId297" display="https://www.jeffdaviscounty.texas.gov/upload/page/6574/2024/summarybyprecinct_ev_abs_ed_1.pdf" xr:uid="{14623B00-48DB-0448-99F8-A7784E128670}"/>
-    <hyperlink ref="I123" r:id="rId298" display="https://www.jeffdaviscounty.texas.gov/upload/page/6574/2024/unofficial_results_by_precinct__early_absentee__election_day.pdf" xr:uid="{CA3352F1-E63D-A247-B03A-733FC1C6F81E}"/>
-    <hyperlink ref="B124" r:id="rId299" location="PastElections" display="https://www.jeffersonelections.com/voter-information/previous-election-results/ - PastElections" xr:uid="{466AE088-D501-C444-B98F-2D135A3262C7}"/>
-    <hyperlink ref="C124" r:id="rId300" location="PastElections" display="https://www.jeffersonelections.com/voter-information/previous-election-results/ - PastElections" xr:uid="{DAA6A4AF-EF3E-454C-A4DD-3FC46E60348F}"/>
-    <hyperlink ref="D124" r:id="rId301" display="https://results.enr.clarityelections.com/TX/Jefferson/122828/355360/reports/detailxls.zip" xr:uid="{B13F8FF2-7E14-BD45-834C-F58C08324292}"/>
-    <hyperlink ref="G124" r:id="rId302" display="https://results.enr.clarityelections.com/TX/Jefferson/120285/333410/reports/detailxls.zip" xr:uid="{7DB7BB57-0388-3A44-A792-7C5F07FA0572}"/>
-    <hyperlink ref="I124" r:id="rId303" display="https://results.enr.clarityelections.com/TX/Jefferson/121079/341343/reports/detailxls.zip" xr:uid="{3EF926BE-A936-A449-9498-069246FB8D97}"/>
-    <hyperlink ref="B125" r:id="rId304" display="https://www.co.jim-hogg.tx.us/page/jim-hogg.Elections" xr:uid="{78EDA14F-6F0D-0042-A8B6-5583A57CCA78}"/>
-    <hyperlink ref="D125" r:id="rId305" display="https://www.co.jim-hogg.tx.us/upload/page/9530/2024/11-5-24 Official Precinct Results.pdf" xr:uid="{DBE986B4-CE52-F643-8532-160BA85EEE2D}"/>
-    <hyperlink ref="G125" r:id="rId306" display="https://www.co.jim-hogg.tx.us/upload/page/9530/2024/Official Precinct Results-3-5-2024.pdf" xr:uid="{2FA61619-EE6E-F544-9B38-682C8D65C4C9}"/>
-    <hyperlink ref="B126" r:id="rId307" display="https://jimwellscountyelections.gov/all-official-notices/" xr:uid="{E5435305-D065-1740-ABC2-6D021315B282}"/>
-    <hyperlink ref="D126" r:id="rId308" display="https://jimwellscountyelections.gov/wp-content/uploads/2024/11/FINAL-OFFICIAL-RESULTS-2024-GENERAL-ELECTION-CUMULATIVE-AND-PCT-BY-PCT.pdf" xr:uid="{BBF0D44A-FBEF-7142-8AFF-C7A220E9ABC8}"/>
-    <hyperlink ref="B127" r:id="rId309" display="https://www.johnsoncountytx.org/departments/elections-office/election-results/elections-archive" xr:uid="{12E4CCCE-7277-454E-965F-CB9F9D19A87D}"/>
-    <hyperlink ref="D127" r:id="rId310" display="https://www.johnsoncountytx.org/home/showpublisheddocument/17697/638717692756030000" xr:uid="{8A526039-A9AD-BB43-AA97-EC09BE10C297}"/>
-    <hyperlink ref="E127" r:id="rId311" display="https://www.johnsoncountytx.org/home/showpublisheddocument/16543/638461081406670000" xr:uid="{C77C391C-3DC3-CD49-AD76-E09E98CD0AF1}"/>
-    <hyperlink ref="F127" r:id="rId312" display="https://www.johnsoncountytx.org/home/showpublisheddocument/16545/638461081415400000" xr:uid="{1E1A129F-11C1-8842-847D-06EEC987B001}"/>
-    <hyperlink ref="I127" r:id="rId313" display="https://www.johnsoncountytx.org/home/showpublisheddocument/16839/638536157872270000" xr:uid="{33CAAD8D-790B-EE47-A0BD-3D5AC423E054}"/>
-    <hyperlink ref="B128" r:id="rId314" display="https://www.co.jones.tx.us/page/jones.Elections" xr:uid="{636BD06B-2370-8A47-BC9F-19E6913722A0}"/>
-    <hyperlink ref="D128" r:id="rId315" display="https://www.co.jones.tx.us/upload/page/1293/2024/Results - Precinct by Precinct - November 5_ 2024 General Election.pdf" xr:uid="{C3A70772-A197-9B40-B04E-F398136D820B}"/>
-    <hyperlink ref="G128" r:id="rId316" display="https://www.co.jones.tx.us/upload/page/1293/2024/Results - Precinct by Precinct - March 5_ 2024 Primary Election.pdf" xr:uid="{FB0D285C-DB85-6D45-AA5B-389C99889EC8}"/>
-    <hyperlink ref="J128" r:id="rId317" display="https://www.co.jones.tx.us/upload/page/1293/2024/Results - Precint by Precint - March 28_ 2024.pdf" xr:uid="{40C91ADA-0359-A94A-AE53-07CF28D81666}"/>
-    <hyperlink ref="B129" r:id="rId318" display="https://www.co.karnes.tx.us/page/karnes.Elections" xr:uid="{D77F53F3-7A00-984A-83F0-37536E89AB39}"/>
-    <hyperlink ref="B130" r:id="rId319" display="https://www.kaufmancounty.net/436/ELECTION-RESULTS" xr:uid="{12936B49-82E7-A24E-AAFA-18261B0FE941}"/>
-    <hyperlink ref="C130" r:id="rId320" display="https://results.enr.clarityelections.com/TX/Kaufman/" xr:uid="{4988722E-3734-F448-8FF8-765A57F7F95D}"/>
-    <hyperlink ref="D130" r:id="rId321" display="https://results.enr.clarityelections.com/TX/Kaufman/122824/355375/reports/detailxls.zip" xr:uid="{2CC4AD56-7C06-6841-8781-0382D4FD2B48}"/>
-    <hyperlink ref="G130" r:id="rId322" display="https://results.enr.clarityelections.com/TX/Kaufman/120253/332318/reports/detailxls.zip" xr:uid="{D498EF18-71E3-7741-A0E6-8F2BF4DB7EF7}"/>
-    <hyperlink ref="I130" r:id="rId323" display="https://results.enr.clarityelections.com/TX/Kaufman/121710/340489/reports/detailxls.zip" xr:uid="{5A2F0740-1EB9-424F-BF2E-642B8A665587}"/>
-    <hyperlink ref="B131" r:id="rId324" display="https://www.kendallcountytx.gov/220/Election-Results-Past-Present" xr:uid="{8F893F1B-CACB-304C-835A-92F3BAC15C2B}"/>
-    <hyperlink ref="C131" r:id="rId325" display="https://results.enr.clarityelections.com/TX/Kendall/" xr:uid="{0696F391-38B5-5B42-BA59-B07E0A12910A}"/>
-    <hyperlink ref="D131" r:id="rId326" display="https://results.enr.clarityelections.com/TX/Kendall/122829/351989/reports/detailxls.zip" xr:uid="{80FC4270-7188-3D44-988C-3AD6E9634304}"/>
-    <hyperlink ref="G131" r:id="rId327" display="https://results.enr.clarityelections.com/TX/Kendall/120248/334534/reports/detailxls.zip" xr:uid="{C6F921A0-27C8-F749-BABA-AF2A27E648F7}"/>
-    <hyperlink ref="I131" r:id="rId328" display="https://results.enr.clarityelections.com/TX/Kendall/121795/342412/reports/detailxls.zip" xr:uid="{6AD575CF-7546-404D-BA05-2F4A8B04C122}"/>
-    <hyperlink ref="B132" r:id="rId329" display="https://kenedycountyelections.com/results/" xr:uid="{2ED14C87-DEEC-7347-BCBF-2CC23CB726F6}"/>
-    <hyperlink ref="D132" r:id="rId330" display="https://kenedycountyelections.com/wp-content/uploads/simple-file-list/Pct_-by-Pct_-Report-11-5-24.pdf" xr:uid="{6EDE9C25-EA52-0F4E-91AF-F0AE605FADC9}"/>
-    <hyperlink ref="B133" r:id="rId331" display="https://www.co.kent.tx.us/page/kent.Elections" xr:uid="{28CC573D-C673-534A-ACDF-D15BD04FA0D2}"/>
-    <hyperlink ref="B134" r:id="rId332" location="gsc.tab=0" display="https://www.kerrcountytx.gov/voting-in-kerr-county/kerr-county-elections - gsc.tab=0" xr:uid="{ABB436CC-727F-6D45-9355-E5743FC77EF7}"/>
-    <hyperlink ref="D134" r:id="rId333" display="https://legacy.co.kerr.tx.us/elections/docs/2024-11-05/Official_General_Election_November_5_2024_ Precinct_Results.pdf" xr:uid="{DB69F3C3-6C73-D14C-BD18-60C8761579D4}"/>
-    <hyperlink ref="E134" r:id="rId334" display="https://legacy.co.kerr.tx.us/elections/results/2024-03-05/Democratic_March_5_2024-Official_Precinct_Results.pdf" xr:uid="{1F8E98D4-9A83-904E-80EF-E15E69D318F5}"/>
-    <hyperlink ref="F134" r:id="rId335" display="https://legacy.co.kerr.tx.us/elections/results/2024-03-05/Republican_March_5_2024-Official_Precinct_Results.pdf" xr:uid="{3752A09D-1A82-6F4A-B04D-E864448E95FB}"/>
-    <hyperlink ref="I134" r:id="rId336" display="https://legacy.co.kerr.tx.us/elections/results/2024-05-28/Official Republican Primary Runoff May 28,2024 Precinct by Precinct  Results-6-4-2024 11-08-13 AM.pdf" xr:uid="{FC64756B-47DA-C94D-840F-5297859A95EC}"/>
-    <hyperlink ref="B135" r:id="rId337" display="https://www.co.kimble.tx.us/page/kimble.Elections" xr:uid="{07954E55-E38F-0748-B3E9-19450554F7C7}"/>
-    <hyperlink ref="B136" r:id="rId338" display="https://www.co.king.tx.us/page/king.County.Clerk" xr:uid="{685A6312-0C99-4447-9688-9BDD347454DA}"/>
-    <hyperlink ref="B137" r:id="rId339" display="https://www.co.kinney.tx.us/page/kinney.Elections" xr:uid="{0799F66C-BE3D-BA4D-A046-2E8E09F9345F}"/>
-    <hyperlink ref="B138" r:id="rId340" display="https://www.co.kleberg.tx.us/page/kleberg.elections" xr:uid="{715C821B-47F6-B444-BFAE-F160F25CBFD3}"/>
-    <hyperlink ref="B139" r:id="rId341" display="https://www.knoxcountytexas.org/page/knox.elections" xr:uid="{F2846DD6-A36D-B34F-805B-6D08C9076381}"/>
-    <hyperlink ref="B140" r:id="rId342" display="https://www.co.lamar.tx.us/page/lamar.elections" xr:uid="{ECCBF35A-C2BE-0B4D-B3C0-D3F83C94FC9A}"/>
-    <hyperlink ref="C140" r:id="rId343" display="https://results.enr.clarityelections.com/TX/Lamar/" xr:uid="{6E9DD0AC-522F-954D-BBFD-D80ECC060EE7}"/>
-    <hyperlink ref="D140" r:id="rId344" display="https://results.enr.clarityelections.com/TX/Lamar/122497/351606/reports/detailxls.zip" xr:uid="{CC836A22-5865-3840-886D-842B225F1276}"/>
-    <hyperlink ref="G140" r:id="rId345" display="https://results.enr.clarityelections.com/TX/Lamar/119865/334231/reports/detailxls.zip" xr:uid="{0A1F0941-49DB-7D40-99B4-12001288EC5A}"/>
-    <hyperlink ref="I140" r:id="rId346" display="https://results.enr.clarityelections.com/TX/Lamar/121669/340131/reports/detailxls.zip" xr:uid="{A69A5950-056F-7144-85AA-B710BCBEDB19}"/>
-    <hyperlink ref="B141" r:id="rId347" display="https://www.co.lamb.tx.us/page/lamb.ElectionsHome" xr:uid="{EFD05BE7-1CD6-754B-8EDF-C9D8887255D1}"/>
-    <hyperlink ref="B142" r:id="rId348" display="https://www.co.lampasas.tx.us/page/lampasas.testpage2" xr:uid="{0B1BE707-A8E7-554F-B278-BBD1755795B0}"/>
-    <hyperlink ref="B143" r:id="rId349" display="https://www.co.la-salle.tx.us/index.php/offices/election-board" xr:uid="{B17C6838-2DA4-2C41-9869-7F300C558494}"/>
-    <hyperlink ref="D143" r:id="rId350" display="https://www.co.la-salle.tx.us/images/pdfs/2024_Elections/Nov2024/OFFICIAL_CANVASS_GENERAL_ELECTION.pdf" xr:uid="{17319B27-BF1D-094B-9597-C2D45094CCFB}"/>
-    <hyperlink ref="B144" r:id="rId351" display="https://www.co.lavaca.tx.us/page/Elections" xr:uid="{F6C95ECE-5E29-FF41-9B43-0D86C6B5F907}"/>
-    <hyperlink ref="G144" r:id="rId352" display="https://www.co.lavaca.tx.us/upload/page/0122/2024 update PRECINCT REPORT UNOFFICAL.pdf" xr:uid="{D00CABB8-DABB-384D-95DF-C9FF80A95D8E}"/>
-    <hyperlink ref="I144" r:id="rId353" display="https://www.co.lavaca.tx.us/upload/page/0122/052824PRECINCT SUMMARY REPORT.pdf" xr:uid="{8C11B06D-1F19-8E4C-8C71-023BD4CAB53A}"/>
-    <hyperlink ref="B145" r:id="rId354" display="https://www.co.lee.tx.us/page/lee.Elections" xr:uid="{0A345A28-10FB-604D-9A37-1F4C68D4ACF9}"/>
-    <hyperlink ref="D145" r:id="rId355" display="https://www.co.lee.tx.us/upload/page/11450/updated pct by pct 110524.pdf" xr:uid="{0227BB02-D6C1-8045-9B3B-363658C6AFAF}"/>
-    <hyperlink ref="J145" r:id="rId356" display="https://www.co.lee.tx.us/upload/page/11450/pct by pct 5-28-24.pdf" xr:uid="{AF64D303-AC13-7243-B169-9DEC2515EEBF}"/>
-    <hyperlink ref="B146" r:id="rId357" display="https://www.co.leon.tx.us/page/leon.elections" xr:uid="{029046E6-0E76-8C4A-96C2-3BC866D6E97F}"/>
-    <hyperlink ref="D146" r:id="rId358" display="https://www.co.leon.tx.us/upload/page/4964/docs/110524 GENERAL/110524 GENERAL OFFICIAL PCT BY PCT.pdf" xr:uid="{F34585FF-9947-AE46-A835-C7CAEAF3647D}"/>
-    <hyperlink ref="G146" r:id="rId359" display="https://www.co.leon.tx.us/upload/page/4964/030524 OFFICIAL PCT BY PCT TO WEB.pdf" xr:uid="{8D21AB5F-74AA-8C49-A6E4-327EB5FF2005}"/>
-    <hyperlink ref="I146" r:id="rId360" display="https://www.co.leon.tx.us/upload/page/4964/052824 OFFICIAL PCT BY PCT.pdf" xr:uid="{0595D265-40C4-A244-80CA-5F8ABEF4446E}"/>
-    <hyperlink ref="B147" r:id="rId361" display="https://www.co.liberty.tx.us/page/liberty.elections.past.historical" xr:uid="{A2063B85-0FDB-874C-841F-DAA0B8D0589B}"/>
-    <hyperlink ref="D147" r:id="rId362" display="https://www.co.liberty.tx.us/upload/page/11966/Precinct Results-11-14-2024 08-18-41 AM.pdf" xr:uid="{F3AF7E3B-D6BC-D646-B547-4A62D1166739}"/>
-    <hyperlink ref="G147" r:id="rId363" display="https://www.co.liberty.tx.us/upload/page/11197/Final Precinct Results-3-8-2024 02-28-35 PM.pdf" xr:uid="{B46ED577-0B8F-DE44-98AD-CD6D41C3188F}"/>
-    <hyperlink ref="B148" r:id="rId364" display="https://www.co.limestone.tx.us/page/limestone.elections" xr:uid="{C8268A0D-8122-F04E-9976-58740B2AC1E9}"/>
-    <hyperlink ref="D148" r:id="rId365" display="https://newtools.cira.state.tx.us/upload/page/5631/241105 Precinct.pdf" xr:uid="{97CD7739-9B17-9C48-BBDB-6C5CFF8A61DB}"/>
-    <hyperlink ref="G148" r:id="rId366" display="https://newtools.cira.state.tx.us/upload/page/5631/240305 Final Unofficial box x box.pdf" xr:uid="{2B97C62B-DD19-904A-B311-55BF1ECE2A15}"/>
-    <hyperlink ref="J148" r:id="rId367" display="https://newtools.cira.state.tx.us/upload/page/5631/240528 Precinct Results.pdf" xr:uid="{C2724A1F-B5B4-D142-A38A-9E2058CCD11D}"/>
-    <hyperlink ref="B149" r:id="rId368" display="https://www.co.lipscomb.tx.us/page/lipscomb.ElectionInformation" xr:uid="{ABE259D6-9DD5-6B47-8ABC-249AA077D3EC}"/>
-    <hyperlink ref="B150" r:id="rId369" display="https://www.co.live-oak.tx.us/page/liveoak.Elections" xr:uid="{45F7CB13-13B6-8249-AE00-68A994A49BBB}"/>
-    <hyperlink ref="G150" r:id="rId370" display="https://www.co.live-oak.tx.us/upload/page/11665/Becca add/Official Precinct Resultsv D   R 3 15 2024.pdf" xr:uid="{BE961500-0D3A-8D49-930B-2564D36BDDB6}"/>
-    <hyperlink ref="B151" r:id="rId371" display="https://www.co.llano.tx.us/page/llano.Archived.Elections" xr:uid="{16284672-7881-404F-AE6A-24326421EA3E}"/>
-    <hyperlink ref="D151" r:id="rId372" display="https://newtools.cira.state.tx.us/upload/page/0979/2024/November 2024/Official Election Results Precinct-11-15-2024 08-15-19 AM.pdf" xr:uid="{1A7DB868-A13F-EC4B-AF15-CC04C741EE34}"/>
-    <hyperlink ref="E151" r:id="rId373" display="https://newtools.cira.state.tx.us/upload/page/0979/2024/Primary/Democratic Precinct Results-3-12-2024 09-48-54 AM.pdf" xr:uid="{6D66EA98-54D5-DB4F-AF03-0F4679712D62}"/>
-    <hyperlink ref="F151" r:id="rId374" display="https://newtools.cira.state.tx.us/upload/page/0979/2024/Primary/Republican Precinct Results-3-12-2024 09-51-18 AM.pdf" xr:uid="{67804772-AB59-5040-9CEF-D76220A75A83}"/>
-    <hyperlink ref="B152" r:id="rId375" display="https://lovingcountyanddistrictclerk.com/elections" xr:uid="{BF942921-44F4-D242-A6FF-A423FFD2B9AA}"/>
-    <hyperlink ref="B153" r:id="rId376" display="https://www.votelubbock.org/election-information/historical-election-results/" xr:uid="{BBA566DE-381D-7943-AC69-1115107F4E34}"/>
-    <hyperlink ref="C153" r:id="rId377" display="https://results.enr.clarityelections.com/TX/Lubbock/" xr:uid="{5748D835-C232-AD46-8AA4-4CA5C17FC2EA}"/>
-    <hyperlink ref="D153" r:id="rId378" display="https://www.votelubbock.org/wp-content/uploads/Verity-Count-Precinct-Results-All-Entities-1.pdf" xr:uid="{C12A2FDC-09C6-7845-B4BB-1680F59C735E}"/>
-    <hyperlink ref="E153" r:id="rId379" display="https://results.enr.clarityelections.com/TX/Lubbock/120383/333400/reports/detailxls.zip" xr:uid="{A3820519-BDF6-2547-99C6-2B2A75538D0E}"/>
-    <hyperlink ref="F153" r:id="rId380" display="https://results.enr.clarityelections.com/TX/Lubbock/120382/333397/reports/detailxls.zip" xr:uid="{26EEBB4F-73C4-C041-8795-F91B77EC2A25}"/>
-    <hyperlink ref="B154" r:id="rId381" display="https://www.co.lynn.tx.us/page/lynn.Elections" xr:uid="{95A0D4D6-D30B-3140-8A55-2EA9C04716BD}"/>
-    <hyperlink ref="B155" r:id="rId382" display="https://www.co.mcculloch.tx.us/page/mcculloch.ElectionInfo" xr:uid="{5A4907DB-9324-2446-A756-3B5A61526E48}"/>
-    <hyperlink ref="B156" r:id="rId383" display="https://www.mclennan.gov/406/Past-Elections-Results" xr:uid="{EA489032-C6B8-6248-84C7-5F149F1FA359}"/>
-    <hyperlink ref="D156" r:id="rId384" display="https://tx-mclennancounty.civicplus.com/DocumentCenter/View/16714/Precinct-Results-11-13-2024-04-07-51-PM" xr:uid="{19F6A6B1-51BB-2240-B458-8CD6DE964E92}"/>
-    <hyperlink ref="E156" r:id="rId385" display="https://tx-mclennancounty.civicplus.com/DocumentCenter/View/15811/Democratic-Primary-Election-Canvass" xr:uid="{E97D786A-CDF8-CF45-97FD-33B3BA63D832}"/>
-    <hyperlink ref="F156" r:id="rId386" display="https://tx-mclennancounty.civicplus.com/DocumentCenter/View/15814/Republican-Primary-Election-Canvass" xr:uid="{99B7EA4C-90DC-B24D-9750-04789E1B80A7}"/>
-    <hyperlink ref="B157" r:id="rId387" display="https://mcmullencounty.org/elections/" xr:uid="{7DF1DF05-02F5-B243-949F-4008FB7ED398}"/>
-    <hyperlink ref="B158" r:id="rId388" display="https://www.co.madison.tx.us/page/madison.elections" xr:uid="{4428996E-C232-F148-8802-F27D47A3D1B0}"/>
-    <hyperlink ref="D158" r:id="rId389" display="https://www.co.madison.tx.us/upload/page/0407/nov 5 2024 precinct by precinct.pdf" xr:uid="{8DBD275F-D4F3-BA4E-96CA-AE3A3825C091}"/>
-    <hyperlink ref="G158" r:id="rId390" display="https://www.co.madison.tx.us/upload/page/0407/March 5 2024 Pct by Pct report.pdf" xr:uid="{D9585F78-F1E8-4A4C-902D-82638D3FA498}"/>
-    <hyperlink ref="B159" r:id="rId391" display="https://marioncountytaxoffice.com/elections/" xr:uid="{93E4050C-E8E0-2C47-A683-3F68EB54528C}"/>
-    <hyperlink ref="B160" r:id="rId392" display="http://www.co.martin.tx.us/158/Elections-Administration-Office/" xr:uid="{3F101964-577A-6F4C-B2B5-FAFD20804F48}"/>
-    <hyperlink ref="D160" r:id="rId393" display="http://www.co.martin.tx.us/DocumentCenter/View/1450/Precinct-to-Precinct-Report" xr:uid="{9C9EEE9E-43DB-4948-B4C5-489C190DAB90}"/>
-    <hyperlink ref="G160" r:id="rId394" display="http://www.co.martin.tx.us/DocumentCenter/View/1324/OFFICIAL-ALL-Precinct-Results-3-14-2024-10-43-34-PM" xr:uid="{D18D8ACA-DC21-FD44-9375-826AEAA683CF}"/>
-    <hyperlink ref="B161" r:id="rId395" display="https://www.co.mason.tx.us/page/mason.Elections" xr:uid="{EA9C1A9A-F28A-9C4F-896A-545381160B00}"/>
-    <hyperlink ref="B162" r:id="rId396" display="https://www.co.matagorda.tx.us/page/matagorda.elections" xr:uid="{EEA562FE-AA99-8E48-AEFD-99F9103AA138}"/>
-    <hyperlink ref="D162" r:id="rId397" display="https://www.co.matagorda.tx.us/upload/page/5686/Precinct Results-11-15-2024 04-33-31 PM.pdf" xr:uid="{FB0FBE6F-43B5-0B40-9A3F-FF188225E08B}"/>
-    <hyperlink ref="G162" r:id="rId398" display="https://www.co.matagorda.tx.us/upload/page/5686/Precinct Results-3-5-2024 09-12-25 PM.pdf" xr:uid="{6FE1FE3C-406D-BC48-95E9-1A66C06B4F25}"/>
-    <hyperlink ref="B163" r:id="rId399" display="https://co.maverick.tx.us/" xr:uid="{405EDAE1-0ACE-D841-88FB-B9B04A404F1B}"/>
-    <hyperlink ref="B165" r:id="rId400" display="https://www.co.menard.tx.us/page/menard.Elections" xr:uid="{11B9150D-E28E-5147-A5B1-81192CA94B01}"/>
-    <hyperlink ref="B166" r:id="rId401" display="https://www.co.midland.tx.us/328/Elections-Office" xr:uid="{F6BEC035-12F3-6B49-9808-39F1F37A5BB3}"/>
-    <hyperlink ref="C166" r:id="rId402" display="https://results.enr.clarityelections.com/TX/Midland/" xr:uid="{374E9CD3-69AC-C942-ADA5-BB66E760BA8C}"/>
-    <hyperlink ref="D166" r:id="rId403" display="https://www.co.midland.tx.us/DocumentCenter/View/8563/Official-Final-Pct-x-Pct-Report" xr:uid="{0B543DBC-02A3-0643-B2A4-D7BEA0B142EA}"/>
-    <hyperlink ref="G166" r:id="rId404" display="https://results.enr.clarityelections.com/TX/Midland/120180/345906/reports/detailxls.zip" xr:uid="{8A2A67F7-5ADB-3042-8489-AB724EC5680D}"/>
-    <hyperlink ref="B167" r:id="rId405" display="https://www.milamcounty.net/page/milam.elections" xr:uid="{3651A43F-115D-CF46-B67A-55413C97216D}"/>
-    <hyperlink ref="D167" r:id="rId406" display="https://www.milamcounty.net/upload/page/8929/11.05.2024 GENERAL.pdf" xr:uid="{AA4E2565-7A9D-2F48-8FD3-D4D7ED0FC307}"/>
-    <hyperlink ref="G167" r:id="rId407" display="https://www.milamcounty.net/upload/page/8929/2024 PRIMARY.pdf" xr:uid="{CCA93639-341C-5949-8E2A-B2E6CB49E4A0}"/>
-    <hyperlink ref="B168" r:id="rId408" display="https://www.millscountytx.gov/page/mills.Elections" xr:uid="{4EF9D192-DB98-C644-A7AC-CDEA5252365F}"/>
-    <hyperlink ref="D168" r:id="rId409" display="https://www.millscountytx.gov/upload/page/5755/Nov Canvas Report.pdf" xr:uid="{22ADF536-CFCE-AA43-96E3-D6C4D7E07C96}"/>
-    <hyperlink ref="E168" r:id="rId410" display="https://newtools.cira.state.tx.us/upload/page/5755/24 Democratic Offical Canvass Results.pdf" xr:uid="{8CA4DA03-D15E-4C47-9387-1AC8F74BF750}"/>
-    <hyperlink ref="F168" r:id="rId411" display="https://newtools.cira.state.tx.us/upload/page/5755/24 Republican Offical Canvass Results.pdf" xr:uid="{58F3E21A-E9C1-4C47-AEA1-7F8373EB0F6E}"/>
-    <hyperlink ref="B169" r:id="rId412" display="https://www.co.mitchell.tx.us/page/mitchell.Elections" xr:uid="{11DEE046-FC91-3F47-AF63-411A77C7CBC8}"/>
-    <hyperlink ref="D169" r:id="rId413" display="https://www.co.mitchell.tx.us/upload/page/9645/docs/20241105/11.5.2024 precinct official results.pdf" xr:uid="{D766F0BA-66B5-2A48-AC75-0E559D536DC8}"/>
-    <hyperlink ref="G169" r:id="rId414" display="https://www.co.mitchell.tx.us/upload/page/9645/docs/20240305/03.05.2024 Joint Primary Pct by Pct.pdf" xr:uid="{B892D1AD-EEE3-B148-8542-2FF6BD9203D0}"/>
-    <hyperlink ref="B170" r:id="rId415" display="https://www.co.montague.tx.us/page/montague.electionresults" xr:uid="{CFCCC797-74CC-4447-A344-657401DE4CFF}"/>
-    <hyperlink ref="C170" r:id="rId416" display="https://results.enr.clarityelections.com/TX/Montague/" xr:uid="{C88D2DC9-6118-0C44-883F-DB172A61B0A2}"/>
-    <hyperlink ref="D170" r:id="rId417" display="https://results.enr.clarityelections.com/TX/Montague/122664/351720/reports/detailxls.zip" xr:uid="{5710DE19-B57F-244E-ACED-49116CC6AE52}"/>
-    <hyperlink ref="G170" r:id="rId418" display="https://results.enr.clarityelections.com/TX/Montague/119864/331281/reports/detailxls.zip" xr:uid="{5A743529-8498-944C-B080-E0FAAA029489}"/>
-    <hyperlink ref="J170" r:id="rId419" display="https://results.enr.clarityelections.com/TX/Montague/121714/340012/reports/detailxls.zip" xr:uid="{C6DC96C2-45AD-F049-AE9A-C39092324FE9}"/>
-    <hyperlink ref="B171" r:id="rId420" display="https://elections.mctx.org/ElectionResults.asp" xr:uid="{BD97799C-D839-D24B-86ED-D1755493480E}"/>
-    <hyperlink ref="D171" r:id="rId421" display="https://elections.mctx.org/results/2024_November_Precinct_Report.pdf" xr:uid="{D738744D-5925-AB4A-8455-D1801F10847E}"/>
-    <hyperlink ref="E171" r:id="rId422" display="https://elections.mctx.org/results/2024_March_Democratic_Precinct_Report.pdf" xr:uid="{B4EAFF5D-9C52-414E-9888-ABB6AE239CF3}"/>
-    <hyperlink ref="F171" r:id="rId423" display="https://elections.mctx.org/results/2024_March_Republican_Precinct_Report.pdf" xr:uid="{7A1DF545-FBCB-2046-B617-A7C86AE8FAC4}"/>
-    <hyperlink ref="B172" r:id="rId424" display="https://www.co.moore.tx.us/page/moore.Elections" xr:uid="{C7E3101E-6C44-2242-B86D-63E5994FAED3}"/>
-    <hyperlink ref="D172" r:id="rId425" display="https://www.co.moore.tx.us/upload/page/4507/2024 Cont/official_results_by_precinct_november_5_2024.pdf" xr:uid="{B6305D68-BF87-1345-B2A6-18C25864B2F9}"/>
-    <hyperlink ref="G172" r:id="rId426" display="https://www.co.moore.tx.us/upload/page/4507/2024/official_totals_precinct_joint_primary_3524.pdf" xr:uid="{672380BC-5EC3-8842-971D-A87DF1756368}"/>
-    <hyperlink ref="B173" r:id="rId427" display="https://www.co.morris.tx.us/page/morris.COUNTY Election Information" xr:uid="{548F1520-2304-FC40-970C-3A426ED9F2B9}"/>
-    <hyperlink ref="B174" r:id="rId428" display="https://www.co.motley.tx.us/page/motley.Elections" xr:uid="{2F863D13-B573-8643-87DA-EF6BC95F782D}"/>
-    <hyperlink ref="D174" r:id="rId429" display="https://www.co.motley.tx.us/upload/page/9607/Precinct Results-11-14-2024.pdf" xr:uid="{A4572B81-6A48-3A4B-B078-D4C030BDB795}"/>
-    <hyperlink ref="F174" r:id="rId430" display="https://www.co.motley.tx.us/upload/page/9607/Republican Official Canvass.pdf" xr:uid="{2E827268-DB6C-0949-BBF9-7B9645DE6416}"/>
-    <hyperlink ref="B175" r:id="rId431" display="https://www.co.nacogdoches.tx.us/ElectionInformation/ElectionResultsArchive.asp" xr:uid="{A6BE7425-F858-6849-806B-46DEDC9CCB54}"/>
-    <hyperlink ref="D175" r:id="rId432" display="https://www.co.nacogdoches.tx.us/ElectionInformation/ElectionsResultsArchive/2024-11-05 - Nacogdoches County - General Election - Precinct Results.pdf?v20241115132128" xr:uid="{58188988-B38A-F149-BA10-79F66694D82A}"/>
-    <hyperlink ref="E175" r:id="rId433" display="https://www.co.nacogdoches.tx.us/ElectionInformation/ElectionsResultsArchive/2024-03-05 - Nacogdoches County Democratic Party - Primary Election - Precinct Results.pdf?v20240504192612" xr:uid="{56E61DC8-484E-BF44-88FA-6A800B079F86}"/>
-    <hyperlink ref="F175" r:id="rId434" display="https://www.co.nacogdoches.tx.us/ElectionInformation/ElectionsResultsArchive/2024-03-05 - Nacogdoches County Republican Party - Primary Election - Precinct Results.pdf?v20240504192630" xr:uid="{A5B9D57D-2CE5-4C4E-8EF5-14F33DC06639}"/>
-    <hyperlink ref="I175" r:id="rId435" display="https://www.co.nacogdoches.tx.us/ElectionInformation/ElectionsResultsArchive/2024-05-28 - Nacogdoches County Republican Party - Primary Runoff - Precinct Results.pdf?v20240603154649" xr:uid="{A035B489-AF2B-7E45-8CE5-44DC0114FED1}"/>
-    <hyperlink ref="B176" r:id="rId436" display="https://www.co.navarro.tx.us/page/navarro.elections" xr:uid="{C9B96562-0DA8-2B4F-ACB2-F4D5853B2D37}"/>
-    <hyperlink ref="B177" r:id="rId437" display="https://www.co.newton.tx.us/page/newton.Elections" xr:uid="{8B01A891-3DB9-6342-AF68-A7ED0FF0727D}"/>
-    <hyperlink ref="G177" r:id="rId438" display="https://www.co.newton.tx.us/upload/page/3518/docs/2024 Primary/2024 Primaries Combined Canvass.pdf" xr:uid="{8A4700F3-734E-8646-854E-E9C3217C5BFD}"/>
-    <hyperlink ref="B178" r:id="rId439" display="https://www.co.nolan.tx.us/page/nolan.Elections" xr:uid="{D5849643-91D0-BC44-A35E-332EBB136DEE}"/>
-    <hyperlink ref="D178" r:id="rId440" display="https://www.co.nolan.tx.us/upload/page/0503/NC Official Precinct Summary Results 11052024.pdf" xr:uid="{93F0BE4B-BA45-4242-B930-14C39671432D}"/>
-    <hyperlink ref="G178" r:id="rId441" display="https://www.co.nolan.tx.us/upload/page/0503/03052024 PRECINCT SUMMARY RESULTS.pdf" xr:uid="{264065C7-0611-154B-A4E4-33E9CE503F9B}"/>
-    <hyperlink ref="B179" r:id="rId442" location="docfold_535_1126_960_126" display="https://www.nuecesco.com/county-services/county-clerk/elections-department/election-history/-folder-126 - docfold_535_1126_960_126" xr:uid="{45654D8A-E0BF-9E4E-A2EF-E6E0D725D2E7}"/>
-    <hyperlink ref="C179" r:id="rId443" display="https://results.enr.clarityelections.com/TX/Nueces/" xr:uid="{46E1A34B-4F83-CE41-8E89-08C055123C4B}"/>
-    <hyperlink ref="D179" r:id="rId444" display="https://www.nuecesco.com/home/showpublisheddocument/32074/638676080353730000" xr:uid="{F15DC417-A1AD-0B42-B962-3DE234674F27}"/>
-    <hyperlink ref="E179" r:id="rId445" display="https://www.nuecesco.com/home/showpublisheddocument/31213/638470726364130000" xr:uid="{12E7156D-9A02-3A4C-88E0-E0F20FB46DC6}"/>
-    <hyperlink ref="F179" r:id="rId446" display="https://www.nuecesco.com/home/showpublisheddocument/31215/638470727049170000" xr:uid="{9460C2ED-99E1-D343-B0EB-A6E61D55305C}"/>
-    <hyperlink ref="H179" r:id="rId447" display="https://www.nuecesco.com/home/showpublisheddocument/31413/638531032029200000" xr:uid="{CA3C93FF-BCE2-8247-BCAD-2ED3DEC55EF7}"/>
-    <hyperlink ref="I179" r:id="rId448" display="https://www.nuecesco.com/home/showpublisheddocument/31415/638531032438530000" xr:uid="{8CF4D0C7-F17C-A148-878C-D14835DD44F4}"/>
-    <hyperlink ref="B180" r:id="rId449" display="https://www.co.ochiltree.tx.us/page/ochiltree.Elections" xr:uid="{E191B187-60A8-6448-9132-D2230D679EA4}"/>
-    <hyperlink ref="D180" r:id="rId450" display="https://www.co.ochiltree.tx.us/upload/page/7514/11.5.24 Updated Unofficial Results plus Provisional count.pdf" xr:uid="{90143E32-523A-904B-8A83-9C523B97F7E4}"/>
-    <hyperlink ref="B181" r:id="rId451" display="https://www.co.oldham.tx.us/page/oldham.ElectionsResults" xr:uid="{5BFDCCAA-A27D-234B-BC69-8D27DA0D14B7}"/>
-    <hyperlink ref="D181" r:id="rId452" display="https://www.co.oldham.tx.us/upload/page/12142/2025/11.05.2024 Oldham County - General Election Totals by Precinct.pdf" xr:uid="{2F9F4CB7-68B8-F24F-8DF2-2F29EF4C00B7}"/>
-    <hyperlink ref="B182" r:id="rId453" display="https://www.co.orange.tx.us/departments/ElectionsAdministration/ElectionResults" xr:uid="{097DBEFC-4960-1442-A25C-77BB3D70EFB5}"/>
-    <hyperlink ref="B183" r:id="rId454" display="https://www.co.palo-pinto.tx.us/page/Elections" xr:uid="{18DFA0DF-28F7-3748-9E0F-3E30388FE20D}"/>
-    <hyperlink ref="B184" r:id="rId455" display="https://www.co.panola.tx.us/page/panola.Elections" xr:uid="{7FA9B4CD-EBAC-8249-A4C7-393896BF19D0}"/>
-    <hyperlink ref="B185" r:id="rId456" display="https://www.parkercountytx.gov/441/Past-Election-Results" xr:uid="{1241AB3C-DF89-844F-8953-7A73C4A4C483}"/>
-    <hyperlink ref="C185" r:id="rId457" display="https://results.enr.clarityelections.com/TX/Parker/" xr:uid="{1F406F09-554A-4245-BD1D-C8C8477DC82C}"/>
-    <hyperlink ref="D185" r:id="rId458" display="https://www.parkercountytx.gov/DocumentCenter/View/11593/Precinct-Results-11-13-2024-02-52-09-PM" xr:uid="{F2236BEF-CF09-E54D-8AF3-41B0F1CE717D}"/>
-    <hyperlink ref="G185" r:id="rId459" display="https://www.parkercountytx.gov/DocumentCenter/View/10806/Precicnt-by-Precicnt-Results-March-2024" xr:uid="{79C2DBCB-8B0F-1B42-9630-8A7F28D09043}"/>
-    <hyperlink ref="J185" r:id="rId460" display="https://www.parkercountytx.gov/DocumentCenter/View/11053/Precinct-Results-6-4-2024-10-19-59-AM-pdf" xr:uid="{4AF2FD7D-460B-1B46-AFA5-EE4F82B9AE52}"/>
-    <hyperlink ref="B186" r:id="rId461" display="https://parmercounty.texas.gov/?page_id=334" xr:uid="{A54579BB-93F2-0942-A94A-1CC99F0249C9}"/>
-    <hyperlink ref="D186" r:id="rId462" display="https://parmercounty.texas.gov/wp-content/uploads/2025/01/11524-General-Election-Official-Results.pdf" xr:uid="{1F8A6B4E-9E76-A548-9BEA-47C30FBBE4E8}"/>
-    <hyperlink ref="B187" r:id="rId463" display="https://www.co.pecos.tx.us/election-information/" xr:uid="{89CEA2B8-AF9F-314D-97D4-D5B72A7D9C83}"/>
-    <hyperlink ref="B188" r:id="rId464" display="https://www.co.polk.tx.us/page/polk.co.clerk.election" xr:uid="{D679FDD4-0EC8-644B-8228-1EF5B7CDA01E}"/>
-    <hyperlink ref="G188" r:id="rId465" display="https://newtools.cira.state.tx.us/upload/page/9241/MAY 2024/MARCH 5TH OFFICIAL RESULTS.pdf" xr:uid="{0CFDE3BC-7B18-E64B-BFB0-02E0EBE5D8F7}"/>
-    <hyperlink ref="B189" r:id="rId466" display="https://www.pottercountytexasvotes.gov/copy-of-website-connections" xr:uid="{2E680B13-836C-B240-B5EC-4C591FE35A1A}"/>
-    <hyperlink ref="D189" r:id="rId467" display="https://www.pottercountytexasvotes.gov/_files/ugd/abcbbe_3e5bc692f87a4a6ba3fc2b8ea841f47e.pdf" xr:uid="{6EAEAF14-4D0B-AD4E-8422-84B1133FD104}"/>
-    <hyperlink ref="E189" r:id="rId468" display="https://www.pottercountytexasvotes.gov/_files/ugd/abcbbe_f73000d8079d4cc9b7df4347be5922f9.pdf" xr:uid="{8FC66A38-1449-6243-8F09-43A7B80F57C3}"/>
-    <hyperlink ref="F189" r:id="rId469" display="https://www.pottercountytexasvotes.gov/_files/ugd/abcbbe_e6281b94f18b439093c69f09f35d6f92.pdf" xr:uid="{B4FD093D-EADA-6144-918D-BA9FF054100B}"/>
-    <hyperlink ref="I189" r:id="rId470" display="https://www.pottercountytexasvotes.gov/_files/ugd/abcbbe_9a21a61b97154b208e9914ebf660511f.pdf" xr:uid="{1391DACB-7D14-794A-8F1B-C7A877964786}"/>
-    <hyperlink ref="B190" r:id="rId471" display="https://www.co.presidio.tx.us/page/presidio.Voting.Elections" xr:uid="{4DF34A9E-C0F3-B948-80B1-C6E50254551B}"/>
-    <hyperlink ref="B191" r:id="rId472" display="https://www.co.rains.tx.us/page/rains.elections" xr:uid="{F5E4C3B4-07BB-8644-BB2C-7FAC9C61FB47}"/>
-    <hyperlink ref="B192" r:id="rId473" display="https://www.randallcounty.gov/183/Election-Results" xr:uid="{65E7BD47-F19A-A648-9798-B50FC65B554F}"/>
-    <hyperlink ref="D192" r:id="rId474" display="https://www.randallcounty.gov/DocumentCenter/View/3711/Official-Canvass-Results" xr:uid="{D4BC9E5C-4852-3D42-AA4E-D93EBB433211}"/>
-    <hyperlink ref="E192" r:id="rId475" display="https://www.randallcounty.gov/DocumentCenter/View/3408/Official-Democratic-Canvass-Results" xr:uid="{572B4E07-B924-4A49-9073-5B95CF77E5A7}"/>
-    <hyperlink ref="F192" r:id="rId476" display="https://www.randallcounty.gov/DocumentCenter/View/3412/Official-Republican-Cumulative-Results" xr:uid="{A18E1579-0318-DD4E-B72B-F07CAB4D75AC}"/>
-    <hyperlink ref="B193" r:id="rId477" display="https://www.co.reagan.tx.us/page/reagan.Elections" xr:uid="{76E5E024-BEB8-F44A-B698-8F42E2C42662}"/>
-    <hyperlink ref="D193" r:id="rId478" display="https://www.co.reagan.tx.us/upload/page/9496/2024/precinct_results11182024_075528_am.pdf" xr:uid="{63937D86-C2CC-9E40-9BCF-C1A1BDD33305}"/>
-    <hyperlink ref="B194" r:id="rId479" display="https://www.co.real.tx.us/page/real.Elections" xr:uid="{2FB362FA-9008-5041-8C4A-13749F629310}"/>
-    <hyperlink ref="B195" r:id="rId480" display="https://www.co.red-river.tx.us/page/redriver.ElectionsCountyClerk" xr:uid="{59A80137-3BF3-644B-8875-59C1F60687F7}"/>
-    <hyperlink ref="E195" r:id="rId481" display="https://www.co.red-river.tx.us/upload/page/10703/Democratic Official Precinct Results Primary Election March 5 2024.pdf" xr:uid="{469BE52E-9C0E-934E-97F2-BB6B0FD48AC5}"/>
-    <hyperlink ref="F195" r:id="rId482" display="https://www.co.red-river.tx.us/upload/page/10703/Republican Official Precinct Results Primary Election March 5 2024.pdf" xr:uid="{1E72191A-6AA0-0C47-9772-CDEC953ADA22}"/>
-    <hyperlink ref="I195" r:id="rId483" display="https://www.co.red-river.tx.us/upload/page/10703/Official Precinct Results for Primary Runoff.pdf" xr:uid="{652FDBFF-F799-1145-A136-71EB80D42752}"/>
-    <hyperlink ref="B196" r:id="rId484" display="https://www.reevescounty.org/departments/elections/election-results-archive" xr:uid="{04243F86-DE67-044C-A468-434813044122}"/>
-    <hyperlink ref="D196" r:id="rId485" display="https://www.reevescounty.org/home/showpublisheddocument/3613/638672595751530000" xr:uid="{50657F89-AB51-2C44-82F8-E72CEB0BC79D}"/>
-    <hyperlink ref="G196" r:id="rId486" display="https://www.reevescounty.org/home/showpublisheddocument/2888/638471384895900000" xr:uid="{0173A76A-1B23-884D-962F-D261B8A6BCFD}"/>
-    <hyperlink ref="J196" r:id="rId487" display="https://www.reevescounty.org/home/showpublisheddocument/3119/638531916491970000" xr:uid="{0C85C840-C837-2E46-8DEA-5C1D78ADA93A}"/>
-    <hyperlink ref="B197" r:id="rId488" display="https://www.co.refugio.tx.us/page/refugio.elections" xr:uid="{ED101072-A3D9-974C-ADF7-06BD3A7C6E60}"/>
-    <hyperlink ref="D197" r:id="rId489" display="https://www.co.refugio.tx.us/upload/page/11597/docs/2024 - NOVEMBER 5/NOTICES/2024 - NOVEMBER 5 - OFFICIAL - PRECINCT RESULTS - TOTAL.pdf" xr:uid="{B0C5A9B7-1F48-BB46-A1EB-13B5D60AA287}"/>
-    <hyperlink ref="E197" r:id="rId490" display="https://www.co.refugio.tx.us/upload/page/11577/docs/2023 - MARCH 5 - PRIMARY/2024 - MARCH 5 - PRECINCT RESULTS - ALL - DEM.pdf" xr:uid="{842833E1-4236-D44E-8753-9B593A3E0B5C}"/>
-    <hyperlink ref="F197" r:id="rId491" display="https://www.co.refugio.tx.us/upload/page/11577/docs/2023 - MARCH 5 - PRIMARY/2024 - MARCH 5 - PRECINCT RESULTS - ALL - REP.pdf" xr:uid="{64117017-5848-3849-B614-78C782306604}"/>
-    <hyperlink ref="B198" r:id="rId492" display="https://www.co.roberts.tx.us/page/roberts.elections" xr:uid="{DFA305A2-75AF-724B-B7A2-0A2C9C81D08F}"/>
-    <hyperlink ref="B199" r:id="rId493" display="https://www.co.robertson.tx.us/page/robertson.Elections" xr:uid="{285E5433-E800-DE4E-8D63-A63D28E03D4E}"/>
-    <hyperlink ref="C199" r:id="rId494" display="https://results.enr.clarityelections.com/TX/Robertson/" xr:uid="{4DFCC38E-47F6-9546-9BBD-5D957F510F63}"/>
-    <hyperlink ref="B200" r:id="rId495" display="https://www.rockwallvotes.com/election-information/election-results-in-progress/" xr:uid="{1FC5053C-5F67-C34C-A144-902EBD5DB520}"/>
-    <hyperlink ref="C200" r:id="rId496" display="https://results.enr.clarityelections.com/TX/Rockwall/" xr:uid="{F1D3A5A2-6CE3-D748-A124-28DECA805FE7}"/>
-    <hyperlink ref="D200" r:id="rId497" display="https://results.enr.clarityelections.com/TX/Rockwall/122491/355310/reports/detailxls.zip" xr:uid="{88299967-795B-C041-ACB6-F28C755CF215}"/>
-    <hyperlink ref="G200" r:id="rId498" display="https://results.enr.clarityelections.com/TX/Rockwall/120244/333319/reports/detailxls.zip" xr:uid="{387FF0E9-590F-4943-B1EA-23E369374551}"/>
-    <hyperlink ref="I200" r:id="rId499" display="https://results.enr.clarityelections.com/TX/Rockwall/121703/341759/reports/detailxls.zip" xr:uid="{4A22B1FE-A230-6C40-8838-E6BF7FCD6672}"/>
-    <hyperlink ref="B201" r:id="rId500" display="https://www.runnelscounty.org/page/runnels.Elections" xr:uid="{65CEEDCB-6ECD-2246-99E3-290F48A438FB}"/>
-    <hyperlink ref="B202" r:id="rId501" display="https://www.ruskcountytx.gov/page/rusk.Elections" xr:uid="{96A3202E-14B9-A346-903F-4382D9871F20}"/>
-    <hyperlink ref="C202" r:id="rId502" display="https://results.enr.clarityelections.com/TX/Rusk/" xr:uid="{05F6BBDC-F5C3-534A-B326-85B5599A9CB7}"/>
-    <hyperlink ref="D202" r:id="rId503" display="https://results.enr.clarityelections.com/TX/Rusk/122760/355999/reports/detailxls.zip" xr:uid="{31F5E703-4654-7F47-97D2-AB3BEC07957F}"/>
-    <hyperlink ref="G202" r:id="rId504" display="https://results.enr.clarityelections.com/TX/Rusk/120252/331977/reports/detailxls.zip" xr:uid="{2CC01EE1-F2D7-A842-A036-215438808A34}"/>
-    <hyperlink ref="B203" r:id="rId505" display="https://www.co.sabine.tx.us/page/sabine.Election Results" xr:uid="{C49BB270-F621-2547-9990-AE0DF91DBBA2}"/>
-    <hyperlink ref="B204" r:id="rId506" display="https://www.co.san-augustine.tx.us/page/sanaugustine.Elections" xr:uid="{FB456E0A-A32B-3D40-A9EE-8C3895D706CC}"/>
-    <hyperlink ref="B205" r:id="rId507" display="https://www.co.san-jacinto.tx.us/page/sanjacinto.Elections" xr:uid="{B5334ABD-924C-D146-9EAA-540F10068753}"/>
-    <hyperlink ref="B206" r:id="rId508" display="https://www.sanpatriciocountytx.gov/page/elections.results.archive.16" xr:uid="{9BFB5C64-B6DB-6D48-81A6-E2370E3FC6B5}"/>
-    <hyperlink ref="D206" r:id="rId509" display="https://www.sanpatriciocountytx.gov/upload/page/0124/docs/2024 Elections Official Results/2024 November Precinct Results.pdf" xr:uid="{64CB6053-FDDE-7447-B780-D382B0AC6A49}"/>
-    <hyperlink ref="E206" r:id="rId510" display="https://www.sanpatriciocountytx.gov/upload/page/0124/docs/2024 Elections Official Results/2024 March Official Precinct Results- Dem.pdf" xr:uid="{FD29E368-123C-6046-A265-D479DD5C8D66}"/>
-    <hyperlink ref="F206" r:id="rId511" display="https://www.sanpatriciocountytx.gov/upload/page/0124/docs/2024 Elections Official Results/2024 March Official Precinct Results- Rep.pdf" xr:uid="{30CDBD42-D82D-A640-8853-DCD56F6B8F27}"/>
-    <hyperlink ref="I206" r:id="rId512" display="https://www.sanpatriciocountytx.gov/upload/page/0124/docs/2024 Elections Official Results/2024 May Runoff Precinct Results.pdf" xr:uid="{FD9FFD8B-2D88-ED4F-A0F0-A538B09C429F}"/>
-    <hyperlink ref="B207" r:id="rId513" display="https://www.co.san-saba.tx.us/page/sansaba.Elections" xr:uid="{2E09C32D-B2DC-B442-AECF-37E5448F1A01}"/>
-    <hyperlink ref="D207" r:id="rId514" display="https://www.co.san-saba.tx.us/upload/page/6028/docs/ElectionResultsbyPrecintUnofficial2024.pdf" xr:uid="{10E8C88E-5D11-5C45-B24A-CF3D72DD705C}"/>
-    <hyperlink ref="B208" r:id="rId515" display="https://www.schleichercounty.gov/page/schleicher.Elections" xr:uid="{0BBDBC58-BBFB-3341-A97F-BC6D3FA4D1BE}"/>
-    <hyperlink ref="B209" r:id="rId516" display="https://www.co.scurry.tx.us/page/elections.previous.elections" xr:uid="{CF456A97-1988-E948-BAF8-1EF5E3391758}"/>
-    <hyperlink ref="B210" r:id="rId517" display="https://www.shackelfordcounty.org/page/shackelford.Elections" xr:uid="{5586E938-15CC-2B42-998F-9CE6B406B7AC}"/>
-    <hyperlink ref="B211" r:id="rId518" display="https://www.co.shelby.tx.us/page/shelby.Elections" xr:uid="{5632DE6B-AAD9-EA45-9BDA-2169360697EB}"/>
-    <hyperlink ref="B212" r:id="rId519" display="https://www.co.sherman.tx.us/page/sherman.Elections" xr:uid="{CCB5AB0C-23D4-FF46-9A2D-05C188DE89C8}"/>
-    <hyperlink ref="B213" r:id="rId520" display="https://www.smith-county.com/government/departments/elections/election-archive/election-archive-results" xr:uid="{7A8AB676-0403-D741-9F07-D5CA5C831642}"/>
-    <hyperlink ref="D213" r:id="rId521" display="https://www.smith-county.com/home/showpublisheddocument/20228/638676299142530000" xr:uid="{FA52DA3C-A2D1-FD45-A068-9857D78A1110}"/>
-    <hyperlink ref="G213" r:id="rId522" display="https://www.smith-county.com/home/showpublisheddocument/19558/638464315859400000" xr:uid="{F5A3B3DE-5D8B-994D-8A90-85EC01C9FF95}"/>
-    <hyperlink ref="J213" r:id="rId523" display="https://www.smith-county.com/home/showpublisheddocument/19826/638537177437970000" xr:uid="{F232EBE4-B1B8-6A47-BAA6-2E5C632BEF34}"/>
-    <hyperlink ref="B214" r:id="rId524" display="https://www.somervell.co/160/Elections" xr:uid="{6F946595-4FD4-B74A-A9C0-B8BE23000680}"/>
-    <hyperlink ref="B215" r:id="rId525" display="https://www.co.starr.tx.us/page/starr.Elections" xr:uid="{7B54F4D5-D73C-E340-8367-D5FCDD6127F4}"/>
-    <hyperlink ref="D215" r:id="rId526" display="https://www.co.starr.tx.us/upload/page/6487/docs/Starr 2024/Starr-OfficialResultsbyPct Nov52024.pdf" xr:uid="{DF61BA0D-47D2-6B4C-B6B6-9D6C76CA3F6B}"/>
-    <hyperlink ref="E215" r:id="rId527" display="https://newtools.cira.state.tx.us/upload/page/6487/docs/March2024/DEM official results by PCT.pdf" xr:uid="{076F930E-8CCE-EE4E-9820-A4A67A39374F}"/>
-    <hyperlink ref="F215" r:id="rId528" display="https://newtools.cira.state.tx.us/upload/page/6487/docs/March2024/REP offial results by PCT.pdf" xr:uid="{6598826F-60C2-C64F-83DC-CD932D2E4AD2}"/>
-    <hyperlink ref="I215" r:id="rId529" display="https://newtools.cira.state.tx.us/upload/page/6487/docs/May2024/Official runoff  Pct report.pdf" xr:uid="{AF0A7D85-CA95-F841-83D4-42EDE1706743}"/>
-    <hyperlink ref="B216" r:id="rId530" display="https://www.co.stephens.tx.us/page/stephens.Elections" xr:uid="{99658AE6-B403-DF45-923D-B7D28DD8D9E8}"/>
-    <hyperlink ref="D216" r:id="rId531" display="https://www.co.stephens.tx.us/upload/page/2592/2024/Precinct Report 11-5-2024 General.pdf" xr:uid="{E0317F78-C787-B544-A066-3019112AEFB2}"/>
-    <hyperlink ref="B217" r:id="rId532" display="https://www.co.sterling.tx.us/page/sterling.Elections" xr:uid="{FFC785E7-B8AB-F34E-A8C5-809AE97C60B1}"/>
-    <hyperlink ref="B218" r:id="rId533" display="https://www.stonewallcounty.org/page/stonewall.Elections" xr:uid="{04935E45-798E-6D44-902B-C54539D6A2F0}"/>
-    <hyperlink ref="B219" r:id="rId534" display="https://www.co.sutton.tx.us/page/sutton.Elections" xr:uid="{8B202A99-4332-2549-B5EA-575D2E5F77DC}"/>
-    <hyperlink ref="B220" r:id="rId535" display="https://www.co.swisher.tx.us/page/swisher.Elections" xr:uid="{7DAA50D5-1B1F-9043-B7ED-10CF82F43A15}"/>
-    <hyperlink ref="D220" r:id="rId536" display="https://www.co.swisher.tx.us/upload/page/7290/2024 November 5 General Election Official Summary and Precinct Combined.pdf" xr:uid="{743B7BD9-98E3-1046-8C3E-7B5D274CECBE}"/>
-    <hyperlink ref="I220" r:id="rId537" display="https://newtools.cira.state.tx.us/upload/page/7290/Official Results 06.03.2024.pdf" xr:uid="{13600240-11CA-2A4D-B5DC-FCB99B21E6D0}"/>
-    <hyperlink ref="B221" r:id="rId538" display="https://www.tarrantcountytx.gov/en/elections/past-election-information.html" xr:uid="{855F3794-F545-B048-B347-0C43B4B96122}"/>
-    <hyperlink ref="C221" r:id="rId539" display="https://results.enr.clarityelections.com/TX/Tarrant/" xr:uid="{4B62E9BE-156B-DE43-9DF3-09BD2B7A17B1}"/>
-    <hyperlink ref="D221" r:id="rId540" display="https://www.tarrantcountytx.gov/content/dam/main/elections/2024/1124/reports/precinct.pdf" xr:uid="{67F3CFF1-F59E-F34D-BEC9-5E88A1CBBF5C}"/>
-    <hyperlink ref="E221" r:id="rId541" display="https://www.tarrantcountytx.gov/content/dam/main/elections/2024/pm24/reports/precinct_dem.pdf" xr:uid="{4338B352-4F02-0847-814F-0ADEB235699A}"/>
-    <hyperlink ref="F221" r:id="rId542" display="https://www.tarrantcountytx.gov/content/dam/main/elections/2024/pm24/reports/precinct_rep.pdf" xr:uid="{D19E8733-580A-F940-910B-2C4A33656A77}"/>
-    <hyperlink ref="G221" r:id="rId543" display="https://results.enr.clarityelections.com/TX/Tarrant/119492/333413/reports/detailxls.zip" xr:uid="{30933034-4721-0349-86BA-51FCF565BAE6}"/>
-    <hyperlink ref="H221" r:id="rId544" display="https://www.tarrantcountytx.gov/content/dam/main/elections/2024/pr24/reports/precinct_dem.pdf" xr:uid="{6423025D-0E08-DC46-8F7E-0E19FC93C200}"/>
-    <hyperlink ref="I221" r:id="rId545" display="https://www.tarrantcountytx.gov/content/dam/main/elections/2024/pr24/reports/precinct_rep.pdf" xr:uid="{2D39DF50-CDE6-5440-AD32-D85A22AED1EF}"/>
-    <hyperlink ref="J221" r:id="rId546" display="https://results.enr.clarityelections.com/TX/Tarrant/121069/341703/reports/detailxls.zip" xr:uid="{7E447E5A-E164-3D4C-A064-6A97BF6BAA1D}"/>
-    <hyperlink ref="B223" r:id="rId547" display="https://www.co.terrell.tx.us/page/terrell.Elections" xr:uid="{37D8CF3D-4262-5340-A2C5-97713630BF2E}"/>
-    <hyperlink ref="B224" r:id="rId548" display="https://www.co.terry.tx.us/page/terry.Elections" xr:uid="{F068305F-1016-5A4C-82F9-76BB52B7D06B}"/>
-    <hyperlink ref="D224" r:id="rId549" display="https://www.co.terry.tx.us/upload/page/12074/docs/Official Totals 11-5-24.pdf" xr:uid="{B2520CAC-488C-AA4B-B01C-DE97F883EFE2}"/>
-    <hyperlink ref="B225" r:id="rId550" display="https://www.throckmortoncounty.org/page/throckmorton.electionsposting" xr:uid="{CFFA817C-CF8B-404E-8723-F904EBE16895}"/>
-    <hyperlink ref="G225" r:id="rId551" display="https://www.throckmortoncounty.org/upload/page/11531/Official Results-2024I.pdf" xr:uid="{BDF874C6-6D48-B94C-95AF-CB881B280075}"/>
-    <hyperlink ref="B226" r:id="rId552" display="https://www.co.titus.tx.us/page/elections.home" xr:uid="{B60CE6C5-61F1-7F42-900E-0937BCAA140B}"/>
-    <hyperlink ref="D226" r:id="rId553" display="https://www.co.titus.tx.us/upload/page/0098/Whole Canvass Report.pdf" xr:uid="{A69CD5C6-8ADD-E447-9537-8FA80305B451}"/>
-    <hyperlink ref="B227" r:id="rId554" display="https://www.tomgreencountytx.gov/page/ele.ElectionsResults" xr:uid="{A7873218-AF36-F046-898E-99E540460538}"/>
-    <hyperlink ref="D227" r:id="rId555" display="https://www.tomgreencountytx.gov/upload/page/0091/docs/2024/20241105/110524FinalOfficPrecResu.pdf" xr:uid="{9EE1B026-5060-FA4B-BE34-F5DE8BFD4CEC}"/>
-    <hyperlink ref="G227" r:id="rId556" display="https://www.tomgreencountytx.gov/upload/page/0091/docs/2024/20240305OPResults.pdf" xr:uid="{95991E88-AF53-1C4F-8B30-200989EFCCEA}"/>
-    <hyperlink ref="B228" r:id="rId557" display="https://results.enr.clarityelections.com/TX/Travis/" xr:uid="{E4A96818-D44F-BC41-AA42-1193D922B132}"/>
-    <hyperlink ref="C228" r:id="rId558" display="https://results.enr.clarityelections.com/TX/Travis/" xr:uid="{8A9F049B-CE6B-D047-9310-51F1B41D5344}"/>
-    <hyperlink ref="D228" r:id="rId559" display="https://results.enr.clarityelections.com/TX/Travis/122432/355984/reports/detailxls.zip" xr:uid="{C6F98ED7-DB1E-DD43-BEFE-0A23DE6CEABE}"/>
-    <hyperlink ref="G228" r:id="rId560" display="https://results.enr.clarityelections.com/TX/Travis/119440/333462/reports/detailxls.zip" xr:uid="{8C494B30-A555-3147-A6CE-6A74CCFC102C}"/>
-    <hyperlink ref="J228" r:id="rId561" display="https://results.enr.clarityelections.com/TX/Travis/121702/340735/reports/detailxls.zip" xr:uid="{B35587B9-BCBF-4D44-B090-126F42D8D3D1}"/>
-    <hyperlink ref="B229" r:id="rId562" display="https://www.co.trinity.tx.us/page/trinity.Elections2" xr:uid="{7E97D45B-AAC0-1F41-B18B-EF378C1B111B}"/>
-    <hyperlink ref="B230" r:id="rId563" display="https://www.co.tyler.tx.us/page/tyler.ElectionInformation" xr:uid="{D58EDC96-02D6-D442-975E-8F20D75120A8}"/>
-    <hyperlink ref="D230" r:id="rId564" display="https://www.co.tyler.tx.us/page/tyler.ElectionInformation" xr:uid="{06145CE7-C4AF-F047-800F-3999932EF144}"/>
-    <hyperlink ref="G230" r:id="rId565" display="https://www.co.tyler.tx.us/upload/page/3316/March 5 2024 Official Election Results0001.pdf" xr:uid="{32ED2C8D-EC9E-2F4A-B31B-6B530D606D16}"/>
-    <hyperlink ref="B231" r:id="rId566" display="https://www.countyofupshur.com/page/elections" xr:uid="{ED7DF8E7-99F0-2D44-9316-210EA87B597A}"/>
-    <hyperlink ref="D231" r:id="rId567" display="https://www.countyofupshur.com/page/open/1355/0/November 5 2024 Precinct Report.pdf" xr:uid="{A4F8FFC9-A794-7645-90C3-63E7EAE5229E}"/>
-    <hyperlink ref="E231" r:id="rId568" display="https://www.countyofupshur.com/page/open/1355/0/March 5 2024 Democratic Primary Precinct by Precinct Report.pdf" xr:uid="{CC1B7C18-0EE1-0C46-AD6E-F8A6F1E52D2F}"/>
-    <hyperlink ref="F231" r:id="rId569" display="https://www.countyofupshur.com/page/open/1355/0/March 5 2024 Republican Primary Precinct by Precinct Report.pdf" xr:uid="{FEE3A6D4-351B-2446-AC23-AFE461DB891C}"/>
-    <hyperlink ref="B232" r:id="rId570" display="https://www.co.upton.tx.us/page/upton.elections" xr:uid="{F26C0CD9-1C97-1F48-9B19-3EE68F540AB5}"/>
-    <hyperlink ref="B233" r:id="rId571" display="https://www.uvaldecountyelections.com/" xr:uid="{371499A8-31A3-8D4B-B611-C7491600556B}"/>
-    <hyperlink ref="G233" r:id="rId572" display="https://drive.google.com/file/d/1OJajAPDZaEkQnpM3rLY00vniOR6Ssmgc/view" xr:uid="{476EBC20-6046-B449-9BC6-4449364FCF02}"/>
-    <hyperlink ref="B234" r:id="rId573" display="https://valverdecounty.texas.gov/270/Elections" xr:uid="{AFC5264E-F345-C144-B57F-BEDBB46A7B51}"/>
-    <hyperlink ref="D234" r:id="rId574" display="https://valverdecounty.texas.gov/DocumentCenter/View/8425/General-Election-2024-Official-Precinct-by-Precinct-" xr:uid="{E5C4C210-816F-2844-B642-D34675D77053}"/>
-    <hyperlink ref="B235" r:id="rId575" display="https://www.vanzandtcounty.org/page/vanzandt.Elections" xr:uid="{24D714E7-9050-A044-A9EA-2BB283F7F512}"/>
-    <hyperlink ref="G235" r:id="rId576" display="https://www.vanzandtcounty.org/upload/page/2707/2024/finalcanvass_results3142024_014516_pm.pdf" xr:uid="{84763EC7-15D3-7249-8F14-526FF34292B2}"/>
-    <hyperlink ref="J235" r:id="rId577" display="https://www.vanzandtcounty.org/upload/page/2707/2024/canvass_results642024_025517_pm.pdf" xr:uid="{D86D7567-1974-454F-94BF-C6388DEF02C6}"/>
-    <hyperlink ref="B236" r:id="rId578" display="https://www.vctx.org/page/elections.results" xr:uid="{196A5341-7FE0-3A42-B395-AB491CBF7C89}"/>
-    <hyperlink ref="C236" r:id="rId579" display="https://results.enr.clarityelections.com/TX/Victoria/" xr:uid="{2D86DEFA-9C93-0148-A679-768CA7D1260F}"/>
-    <hyperlink ref="D236" r:id="rId580" display="https://results.enr.clarityelections.com/TX/Victoria/122848/355288/reports/detailxls.zip" xr:uid="{516FD9B7-C2E6-3F4E-8F35-358B0CC37921}"/>
-    <hyperlink ref="G236" r:id="rId581" display="https://results.enr.clarityelections.com/TX/Victoria/120384/333962/reports/detailxls.zip" xr:uid="{29DAD030-160A-B84E-9423-80A33F598FB1}"/>
-    <hyperlink ref="J236" r:id="rId582" display="https://results.enr.clarityelections.com/TX/Victoria/121796/341555/reports/detailxls.zip" xr:uid="{15B2324A-AFB5-4342-8401-71A75C1F333F}"/>
-    <hyperlink ref="B237" r:id="rId583" display="https://www.co.walker.tx.us/department/division.php?structureid=141" xr:uid="{74C65E5A-B484-F442-9EE9-EDD3B42AD428}"/>
-    <hyperlink ref="B238" r:id="rId584" display="https://www.co.waller.tx.us/page/Elections.current" xr:uid="{FA2AECDB-D42C-6E44-ACD0-37F27663303C}"/>
-    <hyperlink ref="B239" r:id="rId585" display="https://www.co.ward.tx.us/page/ward.Elections" xr:uid="{D0EF1CE0-3C1D-A645-855A-6D7D88A0CD55}"/>
-    <hyperlink ref="B240" r:id="rId586" display="https://www.co.washington.tx.us/page/washington.elections.information" xr:uid="{E4B2F9BC-CDE1-FF45-8CF3-139BF96BCC7F}"/>
-    <hyperlink ref="D240" r:id="rId587" display="https://www.co.washington.tx.us/upload/page/10698/010101a23456 Official Results.pdf" xr:uid="{957130EC-D820-514E-9F6D-9BF54D55D70C}"/>
-    <hyperlink ref="G240" r:id="rId588" display="https://www.co.washington.tx.us/upload/page/10698/1a joint prec by prec report.pdf" xr:uid="{EE616327-C49C-C14C-B502-23A0CA770008}"/>
-    <hyperlink ref="H240" r:id="rId589" display="https://www.co.washington.tx.us/upload/page/10698/DEM PBP.pdf" xr:uid="{B98E0EDB-E893-5D4D-96A7-BDAB7CB5F7E2}"/>
-    <hyperlink ref="I240" r:id="rId590" display="https://www.co.washington.tx.us/upload/page/10698/REP PBP.pdf" xr:uid="{67AFACC2-1A19-B743-955C-5AC5CBBAB3B7}"/>
-    <hyperlink ref="B241" r:id="rId591" display="https://www.webbcountytx.gov/ElectionsAdministration/ArchivedResults/" xr:uid="{1133ED9C-4BCA-4148-A131-85C3727D2D6C}"/>
-    <hyperlink ref="B242" r:id="rId592" display="https://www.co.wharton.tx.us/page/wharton.Elections" xr:uid="{2BDB1D11-E0A5-B141-83F4-5A4F5481976A}"/>
-    <hyperlink ref="D242" r:id="rId593" display="https://www.co.wharton.tx.us/upload/page/7010/docs/Reports/2024 November/11.12.24 PCT-PCT.pdf" xr:uid="{3E52A589-80C8-1F43-AC77-8C3665530ED5}"/>
-    <hyperlink ref="B243" r:id="rId594" display="https://www.wheelercounty.texas.gov/page/wheeler.Elections" xr:uid="{593103FA-315E-9649-A71B-A8F7447189B7}"/>
-    <hyperlink ref="B244" r:id="rId595" display="https://wichitacountytx.com/election_info/election-results-archive/" xr:uid="{5F41934A-5896-CE48-9DD4-5FE2B5EB1AC9}"/>
-    <hyperlink ref="D244" r:id="rId596" display="https://wichitacountytx.com/wp-content/uploads/2023/10/11.5.2024-Precinct-Results.pdf" xr:uid="{1C78B593-D6CE-2A42-92E6-420BDEB7525B}"/>
-    <hyperlink ref="E244" r:id="rId597" display="https://wichitacountytx.com/wp-content/uploads/2023/10/3.5.2024-Democratic-Precinct-Results.pdf" xr:uid="{EDDB953E-7B4C-D146-8979-297B4E87167A}"/>
-    <hyperlink ref="F244" r:id="rId598" display="https://wichitacountytx.com/wp-content/uploads/2023/10/3.5.2024-Republican-Precinct-Results.pdf" xr:uid="{F0FE8896-DE8B-BD4E-AE50-DC1E75912DA9}"/>
-    <hyperlink ref="H244" r:id="rId599" display="https://wichitacountytx.com/wp-content/uploads/2018/10/Democratic-Primary-Runoff-Precinct-Results.pdf" xr:uid="{63BEC4C0-5EE4-6F40-8C9B-CEA0DFD4D0B2}"/>
-    <hyperlink ref="I244" r:id="rId600" display="https://wichitacountytx.com/wp-content/uploads/2023/10/3.5.2024-Republican-Precinct-Results.pdf" xr:uid="{3FCDD7A2-9913-174C-951C-53C3EA8BABB6}"/>
-    <hyperlink ref="B245" r:id="rId601" display="https://www.co.wilbarger.tx.us/page/wilbarger.elections" xr:uid="{EF8F3C66-4680-CF4E-9217-64EF9CE60783}"/>
-    <hyperlink ref="B246" r:id="rId602" display="https://www.co.willacy.tx.us/page/willacy.Elections" xr:uid="{484370C9-879A-A044-B213-F99FE21C0B6E}"/>
-    <hyperlink ref="B247" r:id="rId603" display="https://www.wilcotx.gov/292/Results-Archive" xr:uid="{67EE741E-D02A-5747-A150-139FA2898728}"/>
-    <hyperlink ref="C247" r:id="rId604" display="https://results.enr.clarityelections.com/TX/Williamson/" xr:uid="{38B94C57-AB69-4E4E-8337-6BA70C2061AC}"/>
-    <hyperlink ref="B248" r:id="rId605" display="https://www.co.wilson.tx.us/page/wilson.Elections" xr:uid="{C6B7CB8D-AAEC-0843-A586-B86F3A9228C8}"/>
-    <hyperlink ref="B249" r:id="rId606" display="https://www.co.winkler.tx.us/213/Elections" xr:uid="{F2E817DB-EC3C-BC49-8274-C2DE4C002F39}"/>
-    <hyperlink ref="B250" r:id="rId607" display="https://www.co.wise.tx.us/315/Elections" xr:uid="{ADCA751B-D9BB-0D4E-8B3C-7234BED84FB6}"/>
-    <hyperlink ref="D250" r:id="rId608" display="https://www.co.wise.tx.us/DocumentCenter/View/6011/November-5-2024-General-and-Special-Election---Official-Precinct-Results-Report" xr:uid="{48A172D8-F8C3-874B-8B52-A7A0C8017F3E}"/>
-    <hyperlink ref="B251" r:id="rId609" display="https://elections.mywoodcounty.com/election-information/election-results/" xr:uid="{D524CE59-4A9B-364A-B80D-6E3C65D359EC}"/>
-    <hyperlink ref="C251" r:id="rId610" display="https://results.enr.clarityelections.com/TX/Wood/" xr:uid="{7B04DECC-27D6-0B41-931A-FB72D962F771}"/>
-    <hyperlink ref="D251" r:id="rId611" display="https://results.enr.clarityelections.com/TX/Wood/122311/353543/reports/detailxls.zip" xr:uid="{E697E87A-01A7-7444-B921-8D2493A18135}"/>
-    <hyperlink ref="G251" r:id="rId612" display="https://results.enr.clarityelections.com/TX/Wood/120255/332259/reports/detailxls.zip" xr:uid="{83250DEA-C70A-6543-8407-336AD93C6ACE}"/>
-    <hyperlink ref="J251" r:id="rId613" display="https://results.enr.clarityelections.com/TX/Wood/121704/340133/reports/detailxls.zip" xr:uid="{AE53F45B-859C-AC44-9C53-C450946016F3}"/>
-    <hyperlink ref="B252" r:id="rId614" display="https://www.co.yoakum.tx.us/page/yoakum.Elections" xr:uid="{957F174E-A71A-7C48-857E-96959B5A82C0}"/>
-    <hyperlink ref="B253" r:id="rId615" display="https://www.co.young.tx.us/page/young.Elections" xr:uid="{8410CACA-DB25-F54D-844C-AAE0DA1F8806}"/>
-    <hyperlink ref="B254" r:id="rId616" display="https://www.co.zapata.tx.us/page/zapata.Elections" xr:uid="{4D023147-C6FA-E642-A87F-27BB07CCD935}"/>
-    <hyperlink ref="B255" r:id="rId617" display="https://www.co.zavala.tx.us/page/Elections" xr:uid="{044A9297-DC96-E54E-988C-0F3AA4D657E4}"/>
-    <hyperlink ref="B62" r:id="rId618" location="PastElections" display="https://www.votedenton.gov/election-results-and-maps/election-results/ - PastElections" xr:uid="{EECFA856-6C9D-214C-B6A3-92A7A9A78201}"/>
-    <hyperlink ref="C62" r:id="rId619" display="https://results.enr.clarityelections.com/TX/Denton/" xr:uid="{36BBA1B1-4065-474E-A017-750EBCEE1488}"/>
-    <hyperlink ref="D62" r:id="rId620" display="https://results.enr.clarityelections.com/TX/Denton/122426/355989/reports/detailxls.zip" xr:uid="{54B860FD-8435-B942-91F8-1E79C770165D}"/>
-    <hyperlink ref="E62" r:id="rId621" display="https://results.enr.clarityelections.com/TX/Denton/120183/334619/reports/detailxls.zip" xr:uid="{3BEEF875-5E75-1F41-859C-6D57E49806DA}"/>
-    <hyperlink ref="F62" r:id="rId622" display="https://results.enr.clarityelections.com/TX/Denton/120184/334618/reports/detailxls.zip" xr:uid="{152A52F1-1F09-484C-B9FF-BBD3D50CD26D}"/>
-    <hyperlink ref="H62" r:id="rId623" display="https://assets01.aws.connect.clarityelections.com/Assets/Connect/RootPublish/denton-tx.connect.clarityelections.com/ElectionResults/2024/PR24/Dem/2024_Democratic_Primary_Runoff_Election_Precinct.pdf" xr:uid="{7F53FAB4-2BA3-FA49-B148-E85DAEE4E5E8}"/>
-    <hyperlink ref="I62" r:id="rId624" display="https://assets01.aws.connect.clarityelections.com/Assets/Connect/RootPublish/denton-tx.connect.clarityelections.com/ElectionResults/2024/PR24/Rep/2024_Republican_Primary_Runoff_Election_Precinct.pdf" xr:uid="{7BD9CFEE-9500-744C-84D8-8B2A47CCB5CE}"/>
-    <hyperlink ref="B85" r:id="rId625" display="https://galvestonvotes.org/election-information/historical-elections/" xr:uid="{74114118-7A31-D14A-B772-1E020C702D3C}"/>
-    <hyperlink ref="C85" r:id="rId626" display="https://results.enr.clarityelections.com/TX/Galveston/" xr:uid="{FC2ABAF6-FC64-264A-9564-F3EDE27A4805}"/>
-    <hyperlink ref="D85" r:id="rId627" display="https://galvestonvotes.org/wp-content/uploads/2025/02/2024-November-5th-Election-Canvass-Report-5NOV24.pdf" xr:uid="{4C484461-903F-4D46-87D7-BF81E8B99FAD}"/>
-    <hyperlink ref="G85" r:id="rId628" display="https://galvestonvotes.org/wp-content/uploads/2025/02/2024-Primary-Canvass-Report-5MAR24.pdf" xr:uid="{775ABB15-3B7F-3147-A622-ABF2DB879CC6}"/>
-    <hyperlink ref="J85" r:id="rId629" display="https://galvestonvotes.org/wp-content/uploads/2025/02/2024-Primary-Runoff-Canvass-Report-28May24.pdf" xr:uid="{8E07F343-164D-354E-942B-E46D2EE4EA89}"/>
-    <hyperlink ref="B101" r:id="rId630" display="https://www.co.hardin.tx.us/page/ElectionsDepartment" xr:uid="{B4DF876D-A50B-0543-A54A-E4A6AE7FA939}"/>
-    <hyperlink ref="B109" r:id="rId631" display="https://www.hidalgocounty.us/539/Archived-Election-Results" xr:uid="{0DCF1B5F-BFC2-DF46-940F-5CA7A8A9757D}"/>
-    <hyperlink ref="C109" r:id="rId632" display="https://results.enr.clarityelections.com/TX/Hidalgo/" xr:uid="{AB18E774-AE9E-0641-A16C-2A13A9DE96C6}"/>
-    <hyperlink ref="D109" r:id="rId633" display="https://results.enr.clarityelections.com/TX/Hidalgo/122498/355530/reports/detailxls.zip" xr:uid="{BD25DA5B-1E2C-994E-9655-0D2612A42882}"/>
-    <hyperlink ref="E109" r:id="rId634" display="https://www.hidalgocounty.us/DocumentCenter/View/66704/Precinct-Results-3-13-2024-09-06-07-AM-DEMS" xr:uid="{D7C4ECE6-DB24-F347-8899-682081223D34}"/>
-    <hyperlink ref="F109" r:id="rId635" display="https://www.hidalgocounty.us/DocumentCenter/View/66703/Precinct-Results-3-13-2024-09-04-41-AM-REPS" xr:uid="{FB7DA27E-57F8-1449-B625-5C9D86373587}"/>
-    <hyperlink ref="H109" r:id="rId636" display="https://www.hidalgocounty.us/DocumentCenter/View/67593/Precinct-Results-May-28-2024" xr:uid="{72174645-699F-5D4B-ADEF-22217B7CD9BB}"/>
-    <hyperlink ref="J109" r:id="rId637" display="https://results.enr.clarityelections.com/TX/Hidalgo/121012/341500/reports/detailxls.zip" xr:uid="{A8BD162D-B4C4-464D-81BB-CFAC1DF1B6E4}"/>
-    <hyperlink ref="B117" r:id="rId638" display="https://www.huntcounty.net/page/hunt.election" xr:uid="{B0065A7A-6E78-2341-B85E-971A138864A8}"/>
-    <hyperlink ref="C117" r:id="rId639" display="https://results.enr.clarityelections.com/TX/Hunt/" xr:uid="{2FED8EFD-A3DF-9C4B-AA25-A876896C283D}"/>
-    <hyperlink ref="B164" r:id="rId640" display="https://www.medinacountytexas.org/page/medina.elections" xr:uid="{FBFD7948-C889-814B-AD64-721FE340A9FE}"/>
-    <hyperlink ref="D164" r:id="rId641" display="https://www.medinacountytexas.org/upload/page/6805/2024 November General/Results/Official Pct Results 11.5.24.pdf" xr:uid="{CDE3743F-CBE1-9E4B-91B8-4E862B8DA3FD}"/>
-    <hyperlink ref="G164" r:id="rId642" display="https://www.medinacountytexas.org/upload/page/6805/2024 March Primary Election/Results/Official Precinct Results-3-12-2024 01-22-17 PM.pdf" xr:uid="{18B6FC73-F932-DF43-A120-FB1197543DA1}"/>
-    <hyperlink ref="J164" r:id="rId643" display="https://www.medinacountytexas.org/upload/page/6805/2024 May Primary Runoff Election/Results/5.28.24 Official Pct Results.pdf" xr:uid="{C329617D-99ED-2F46-8C9F-B52CDCF0BECA}"/>
-    <hyperlink ref="B222" r:id="rId644" display="https://www.taylorcounty.texas.gov/212/Elections" xr:uid="{C0172F40-0C11-7D47-9662-3721328F8435}"/>
-    <hyperlink ref="D247" r:id="rId645" display="https://www.wilcotx.gov/DocumentCenter/View/13240/202411NOVEMBER---Final-Unofficial---Precinct-Results-Report" xr:uid="{D53D2A6D-0A6A-764F-BC4C-2EB541BF70A7}"/>
-    <hyperlink ref="J247" r:id="rId646" display="https://www.wilcotx.gov/DocumentCenter/View/10657/May-28-2024-Democratic-and-Republican-Precinct-Results" xr:uid="{7CAE9540-DF52-9C45-BDB0-6671DDFE3109}"/>
+    <hyperlink ref="B59" r:id="rId159" display="https://www.co.dawson.tx.us/page/dawson.Election.Information" xr:uid="{30B180A8-2478-1449-B027-5068A117CAAC}"/>
+    <hyperlink ref="B60" r:id="rId160" display="https://www.co.deaf-smith.tx.us/page/deafsmith.County.Clerk" xr:uid="{13A14621-B4E7-C843-9693-775EB873AE96}"/>
+    <hyperlink ref="B61" r:id="rId161" display="https://www.deltacountytx.com/elections/page/election-results" xr:uid="{CFB9E99D-FB5F-EF40-9BCE-0FA8B7DBC404}"/>
+    <hyperlink ref="I61" r:id="rId162" display="https://www.deltacountytx.com/media/3051" xr:uid="{9DAA4457-5FFC-2643-B7F3-52A4432DA7BC}"/>
+    <hyperlink ref="B63" r:id="rId163" display="https://www.co.dewitt.tx.us/page/dewitt.Elections" xr:uid="{14D93EE7-49B2-9A4E-BD74-A23570FD53F1}"/>
+    <hyperlink ref="D63" r:id="rId164" display="https://www.co.dewitt.tx.us/upload/page/1634/November 5, 2024 General Election/November 5 2024 General Election Precinct Report.pdf" xr:uid="{03279F42-150D-6143-B761-5E37304F5CDC}"/>
+    <hyperlink ref="E63" r:id="rId165" display="https://www.co.dewitt.tx.us/upload/page/1634/March 5 2024 Primary/Precinct Result Report Democratic 3.5.24.pdf" xr:uid="{4C198867-046B-5347-8C60-3B73E7A2CD16}"/>
+    <hyperlink ref="F63" r:id="rId166" display="https://www.co.dewitt.tx.us/upload/page/1634/March 5 2024 Primary/Precinct Result Report Republican 3.5.24.pdf" xr:uid="{8F83F598-EF81-534A-986A-7EF26F1EEC1C}"/>
+    <hyperlink ref="I63" r:id="rId167" display="https://www.co.dewitt.tx.us/upload/page/1634/May 28 2024 Primary Run off/May 28 2024 Republican Primary Runoff Precinct Report.pdf" xr:uid="{44F7F034-E199-8740-B83C-B5A6F3123998}"/>
+    <hyperlink ref="B64" r:id="rId168" display="https://www.co.dickens.tx.us/page/dickens.Elections" xr:uid="{2903BB19-D9C2-934D-A51F-FBCD87452908}"/>
+    <hyperlink ref="B65" r:id="rId169" display="https://www.dimmitcounty.org/government/departments/elections/index.php" xr:uid="{C4D67318-7BD4-C54E-B0B9-9D0F9F62C187}"/>
+    <hyperlink ref="B66" r:id="rId170" display="https://www.co.donley.tx.us/page/donley.Elections" xr:uid="{E74D8A7B-BFD2-CD4B-92F6-4E316B42A1E4}"/>
+    <hyperlink ref="B67" r:id="rId171" display="https://www.co.duval.tx.us/page/duval.ElectionArchives" xr:uid="{C055840E-A7E9-F849-A45C-345FC34D1EC0}"/>
+    <hyperlink ref="D67" r:id="rId172" display="https://www.co.duval.tx.us/upload/page/11353/Precinct Results-11-6-2024 08-30-08 AM.pdf" xr:uid="{84867572-45C1-0948-8EA9-4402870E54BF}"/>
+    <hyperlink ref="G67" r:id="rId173" display="https://www.co.duval.tx.us/upload/page/11353/20240305_Precinct Results.pdf" xr:uid="{C2197F41-5274-4E4B-8C16-7D428CBE05D1}"/>
+    <hyperlink ref="J67" r:id="rId174" display="https://www.co.duval.tx.us/upload/page/11353/20240528_ElectionResults.pdf" xr:uid="{03D1FD86-801B-7541-B948-314BA3C5BDED}"/>
+    <hyperlink ref="B68" r:id="rId175" display="https://www.eastlandcountytexas.com/page/eastland.Joint.Elections.Administrator" xr:uid="{90ADC578-09F6-E34F-A2F4-456AA883F5CB}"/>
+    <hyperlink ref="B69" r:id="rId176" display="https://www.co.ector.tx.us/page/ector.elections" xr:uid="{0E58110B-DD29-F945-8CD6-94D1764119B6}"/>
+    <hyperlink ref="D69" r:id="rId177" display="https://www.co.ector.tx.us/upload/page/7873/docs/Elections/November 5, 2024 Election/Precinct Results-11-13-2024 01-08-05 PM.pdf" xr:uid="{96217584-5D4E-8C42-967F-5AF996100F24}"/>
+    <hyperlink ref="B70" r:id="rId178" display="https://www.co.edwards.tx.us/page/edwards.electionsnew" xr:uid="{F0E8A48F-89E2-3141-B40A-07671BA30F89}"/>
+    <hyperlink ref="B71" r:id="rId179" display="https://www.co.ellis.tx.us/403/Prior-Election-Results" xr:uid="{654FA57D-503D-F04D-8A69-8F3E04401D56}"/>
+    <hyperlink ref="D71" r:id="rId180" display="https://www.co.ellis.tx.us/DocumentCenter/View/19538/241105-General-Precinct-by-Race-Report-Whole-Precincts" xr:uid="{4E2FBFC9-AEC8-DB46-BB23-CF0F311236C0}"/>
+    <hyperlink ref="E71" r:id="rId181" display="https://www.co.ellis.tx.us/DocumentCenter/View/18461/DEM-Pct-by-Race-Results-Election-Night" xr:uid="{B528702F-9438-1941-AFC4-D2082B315ADD}"/>
+    <hyperlink ref="F71" r:id="rId182" display="https://www.co.ellis.tx.us/DocumentCenter/View/18460/REP-Pct-by-Race-Results-Election-Night" xr:uid="{95C6B782-8DBF-9745-B753-ED74B313D307}"/>
+    <hyperlink ref="I71" r:id="rId183" display="https://www.co.ellis.tx.us/DocumentCenter/View/18989/240528-Pct-by-Race-Totals" xr:uid="{B11D346D-97D8-C14B-B76B-D170BEE26D38}"/>
+    <hyperlink ref="B72" r:id="rId184" display="https://epcountyvotes.com/election-archives" xr:uid="{98FEFBB1-E72D-144A-9B3A-A36F76052AB6}"/>
+    <hyperlink ref="C72" r:id="rId185" display="https://results.enr.clarityelections.com/TX/El_Paso/" xr:uid="{56778833-CDD9-9C4D-B2E3-759495C7058C}"/>
+    <hyperlink ref="D72" r:id="rId186" display="https://results.enr.clarityelections.com/TX/Denton/120184/334618/reports/detailxls.zip" xr:uid="{37BBCD14-6A67-A542-BE9F-20436676D22E}"/>
+    <hyperlink ref="G72" r:id="rId187" display="https://results.enr.clarityelections.com/TX/El_Paso/120338/334441/reports/detailxls.zip" xr:uid="{BF7A7BD9-98C4-544E-86EC-5C06EC8735D6}"/>
+    <hyperlink ref="J72" r:id="rId188" display="https://results.enr.clarityelections.com/TX/El_Paso/121722/344586/reports/detailxls.zip" xr:uid="{5B2DB7FE-6BB4-974C-A8F3-A388BAC8B275}"/>
+    <hyperlink ref="B73" r:id="rId189" display="https://www.co.erath.tx.us/184/Elections-Administration" xr:uid="{196800BB-E5EE-8243-B257-1EFE3AEB6D94}"/>
+    <hyperlink ref="B74" r:id="rId190" display="https://www.co.falls.tx.us/page/falls.Elections" xr:uid="{E3BDBE23-92F7-564E-9115-F3B684C476BF}"/>
+    <hyperlink ref="B75" r:id="rId191" display="https://www.co.fannin.tx.us/page/fannin.Elections" xr:uid="{38C1FA48-B6CA-E441-B97B-A198AF15E463}"/>
+    <hyperlink ref="B76" r:id="rId192" display="https://newtools.cira.state.tx.us/page/fayette.Elections.PastResults" xr:uid="{0C77A2C2-A1BB-B349-9809-800A24684F66}"/>
+    <hyperlink ref="D76" r:id="rId193" display="https://newtools.cira.state.tx.us/upload/page/1737/2024 Elections/pctxpct_report_11052024.pdf" xr:uid="{78F6469B-A244-B84B-A66C-2FEDFCF0CD34}"/>
+    <hyperlink ref="G76" r:id="rId194" display="https://newtools.cira.state.tx.us/upload/page/1737/2024/official_precinct_report_march_5_2024_election_results.pdf" xr:uid="{D0486D12-31CF-8949-8B0D-603BD2DF4481}"/>
+    <hyperlink ref="B77" r:id="rId195" display="https://www.fishercounty.org/page/fisher.ElectionPage" xr:uid="{9025A024-B951-A84E-9EB6-B8D104627FA6}"/>
+    <hyperlink ref="B78" r:id="rId196" display="https://www.co.floyd.tx.us/page/floyd.Elections" xr:uid="{70A5596A-EB93-E548-97A4-BD01CAF25E35}"/>
+    <hyperlink ref="B79" r:id="rId197" display="https://www.foardcounty.texas.gov/page/foard.County.Clerk" xr:uid="{D49C3D8B-A064-934E-9759-36241A675DFD}"/>
+    <hyperlink ref="B80" r:id="rId198" display="https://www.fortbendcountytx.gov/government/departments/elections-voter-registration/2024-election-results" xr:uid="{E181E2AC-34A9-7E4D-92EC-062FF5C0CB8E}"/>
+    <hyperlink ref="D80" r:id="rId199" display="https://www.fortbendcountytx.gov/sites/default/files/document-central/document-central/elections-documents/elections-results/2024/FBC-Precinct-Reports3.pdf" xr:uid="{051080AE-C2A6-6949-B23C-1B6C8E566E6B}"/>
+    <hyperlink ref="G80" r:id="rId200" display="https://www.fortbendcountytx.gov/sites/default/files/document-central/document-central/elections-documents/elections-results/2024/March-5%2C-2024-Precinct-results.pdf" xr:uid="{9D8B58D4-E6D5-7C4D-9765-64DF304ED549}"/>
+    <hyperlink ref="J80" r:id="rId201" display="https://results.enr.clarityelections.com/TX/Fort_Bend/121705/340722/reports/detailxls.zip" xr:uid="{305557E7-0957-CA48-934F-17E1042236FF}"/>
+    <hyperlink ref="B81" r:id="rId202" display="https://www.co.franklin.tx.us/page/franklin.elections" xr:uid="{72E1F410-8253-B040-92C6-8EFF31287391}"/>
+    <hyperlink ref="D81" r:id="rId203" display="https://www.co.franklin.tx.us/upload/page/1844/2024 Elections/nov_2024__official_results.pdf" xr:uid="{13A3CDDD-0343-F040-AE26-7ED2B36FC74A}"/>
+    <hyperlink ref="E81" r:id="rId204" display="https://www.co.franklin.tx.us/upload/page/1844/2024/03052024__democrat_official__precinct_by_precinct.pdf" xr:uid="{2375A97C-0DEF-3145-AD3D-9569B9846A87}"/>
+    <hyperlink ref="F81" r:id="rId205" display="https://www.co.franklin.tx.us/upload/page/1844/2024/03052024__republican_official__precinct_by_precinct.pdf" xr:uid="{C6BDE3B6-CB10-3C48-9EE9-FB0DFDE53FB9}"/>
+    <hyperlink ref="B82" r:id="rId206" display="https://www.co.freestone.tx.us/page/freestone.Elections" xr:uid="{A121C6D2-EA3A-BB42-A5B3-E8FA7B28813D}"/>
+    <hyperlink ref="B83" r:id="rId207" display="https://www.co.frio.tx.us/page/elect.home" xr:uid="{B276F588-DCCB-334F-A8F5-E0DF7D433901}"/>
+    <hyperlink ref="B84" r:id="rId208" display="https://www.co.gaines.tx.us/page/gaines.Elections.Archive" xr:uid="{2F85266D-7283-B94F-90FB-59608FF0B57F}"/>
+    <hyperlink ref="B86" r:id="rId209" display="https://www.garzacounty.net/page/elections" xr:uid="{AC67FEB7-87CF-724F-B777-D3ECE55D731F}"/>
+    <hyperlink ref="B87" r:id="rId210" display="https://www.gillespiecounty.org/page/election_results" xr:uid="{F9C77767-5F77-3948-BD0D-BDB6869F26F4}"/>
+    <hyperlink ref="D87" r:id="rId211" display="https://www.gillespiecounty.org/upload/page/0170/docs/elections/2024-11-15  OFFICIAL Precinct Results Report.pdf" xr:uid="{571B71F0-4682-B647-8808-1B8E537F7F72}"/>
+    <hyperlink ref="E87" r:id="rId212" display="https://www.gillespiecounty.org/upload/page/0170/docs/elections/GILLESPIE COUNTY March 5 2024 DEMOCRAT PRIMARY.pdf" xr:uid="{578D149F-2071-7D48-84C5-0B99BB2B96F0}"/>
+    <hyperlink ref="F87" r:id="rId213" display="https://www.gillespiecounty.org/upload/page/0170/docs/elections/TOTAL-Canvass of March 5 2024 Gillespie County Republican Primary.pdf" xr:uid="{C53F3232-DF2F-EE45-91E2-E2897C7DFAAF}"/>
+    <hyperlink ref="I87" r:id="rId214" display="https://www.gillespiecounty.org/upload/page/0170/docs/elections/Canvass_Official Results of May 28 2024 Gillespie County Republican Primary Runoff.pdf" xr:uid="{9AD3C9E0-9A2E-6042-92E7-2489C4E0B49B}"/>
+    <hyperlink ref="B88" r:id="rId215" display="https://www.co.glasscock.tx.us/page/glasscock.Elections" xr:uid="{6A4A196E-7B86-0844-B531-3E309AE59B37}"/>
+    <hyperlink ref="D88" r:id="rId216" display="https://newtools.cira.state.tx.us/upload/page/0767/2024/TALLY TOTALS for 11-5-24 General Election 1124 24.xlsx" xr:uid="{E4E47465-B0B2-3D43-BD67-659FE2D9D76E}"/>
+    <hyperlink ref="B89" r:id="rId217" display="https://www.co.goliad.tx.us/page/goliad.Elections" xr:uid="{DE3D7928-DA39-F74E-AB39-989ECBC14B9D}"/>
+    <hyperlink ref="B90" r:id="rId218" display="https://www.co.gonzales.tx.us/page/gonzales.Elections.Admin" xr:uid="{182FEF74-7EE9-424B-8485-8BB4F55D2653}"/>
+    <hyperlink ref="D90" r:id="rId219" display="https://www.co.gonzales.tx.us/upload/page/10685/110524 General Election/Pct by Pct Official Results 110524.pdf" xr:uid="{84D6641C-0668-104B-8056-4E3750469277}"/>
+    <hyperlink ref="E90" r:id="rId220" display="https://www.co.gonzales.tx.us/upload/page/10685/030524 Primary/Democratic Official Pct by Pct 030524.pdf" xr:uid="{F76CC579-1630-3D4A-8693-E0445DF0B1FB}"/>
+    <hyperlink ref="F90" r:id="rId221" display="https://www.co.gonzales.tx.us/upload/page/10685/030524 Primary/Republican Official Pct by Pct 030524.pdf" xr:uid="{86B35131-75B4-854F-9C20-9F8B11E48606}"/>
+    <hyperlink ref="I90" r:id="rId222" display="https://www.co.gonzales.tx.us/upload/page/10685/052824 Primary Runoff/Pct by Pct Results 052824.pdf" xr:uid="{E5C5E704-81F7-7146-BA22-FD26AA4CB752}"/>
+    <hyperlink ref="B91" r:id="rId223" display="https://www.co.gray.tx.us/page/gray.Elections" xr:uid="{9A8988BA-15FD-5B4E-A88C-688DC0A4AB1B}"/>
+    <hyperlink ref="B92" r:id="rId224" display="https://www.co.grayson.tx.us/page/elec.history" xr:uid="{4A6B15FC-7075-4047-AB61-E130255899E0}"/>
+    <hyperlink ref="D92" r:id="rId225" display="https://www.co.grayson.tx.us/page/open/3389/0/Official Pct. by Pct. Summary Results General 11.5.24 Election" xr:uid="{CEA5F515-836A-264C-8BDF-DE49F960581D}"/>
+    <hyperlink ref="G92" r:id="rId226" display="https://www.co.grayson.tx.us/page/open/3389/0/March 5 2024 Precinct Results Report" xr:uid="{247E8230-4AA0-4C43-8EBE-7D96AFDE0B8D}"/>
+    <hyperlink ref="J92" r:id="rId227" display="https://www.co.grayson.tx.us/page/open/3389/0/May 28th RunOff Official Precinct By Precinct Report" xr:uid="{F8285D47-603E-7144-9B0C-6CBC00BD7A16}"/>
+    <hyperlink ref="B93" r:id="rId228" display="https://www.greggcountyvotes.com/" xr:uid="{9F40E5DB-DB94-464E-B6B1-E5BEDDDF3FB4}"/>
+    <hyperlink ref="C93" r:id="rId229" display="https://results.enr.clarityelections.com/TX/Gregg/" xr:uid="{4D11C2BB-EDB0-AB4D-ABA1-0448CFF77EC9}"/>
+    <hyperlink ref="D93" r:id="rId230" display="https://results.enr.clarityelections.com/TX/Gregg/122313/355603/reports/detailxls.zip" xr:uid="{E8A00D18-BE92-FE4F-A8F8-0ED793DCAB2A}"/>
+    <hyperlink ref="G93" r:id="rId231" display="https://results.enr.clarityelections.com/TX/Gregg/120010/333176/reports/detailxls.zip" xr:uid="{06CA62DA-2D1D-C04F-A260-E3FDEE9E6ADE}"/>
+    <hyperlink ref="B94" r:id="rId232" display="https://grimescountytexas.gov/index.asp?SEC=%7B916A9ACA-66FE-481D-BE2B-84C6C590431D%7D" xr:uid="{B162D2B5-CAC8-FB46-8113-DC395C936114}"/>
+    <hyperlink ref="D94" r:id="rId233" display="https://grimescountytexas.gov/vertical/sites/%7B958238D0-27E6-4F6C-919E-F1D98542C5FD%7D/uploads/11.05.2024_OFFICIAL_Canvass_Results(1).pdf" xr:uid="{0CA463EE-2152-8A4B-A79D-A9150C5B9AEF}"/>
+    <hyperlink ref="G94" r:id="rId234" display="https://grimescountytexas.gov/vertical/sites/%7B958238D0-27E6-4F6C-919E-F1D98542C5FD%7D/uploads/OFFICIAL_CANVASS_RESULTS(1).pdf" xr:uid="{1762A895-AC82-2D4E-9ED5-E18724FFCDDA}"/>
+    <hyperlink ref="J94" r:id="rId235" display="https://grimescountytexas.gov/vertical/sites/%7B958238D0-27E6-4F6C-919E-F1D98542C5FD%7D/uploads/5.28.2024_PRIMARY_RUNOFF_OFFICIAL_CANVASS_RESULTS(1).pdf" xr:uid="{0C6C0DEB-6598-F341-984E-8ED3FE55B716}"/>
+    <hyperlink ref="B95" r:id="rId236" display="https://www.guadalupetx.gov/page/elections.history" xr:uid="{6BA9A041-C37A-F34D-8641-F0A21E4773FE}"/>
+    <hyperlink ref="C95" r:id="rId237" display="https://results.enr.clarityelections.com/TX/Guadalupe/" xr:uid="{4FA6B1B9-8F11-5E49-9D17-310DACE87CA5}"/>
+    <hyperlink ref="D95" r:id="rId238" display="https://www.guadalupetx.gov/upload/page/0210/docs/2024/11-5-24-GC_General-PrctbyPrct.pdf" xr:uid="{BA069584-02A0-2F44-9DB6-0CAB628047C1}"/>
+    <hyperlink ref="E95" r:id="rId239" display="https://www.guadalupetx.gov/upload/page/0210/Dem_Primary_Official_Results_PrctbyPrct.pdf" xr:uid="{B6821E41-A64E-744E-B931-9BE14A9626BF}"/>
+    <hyperlink ref="F95" r:id="rId240" display="https://www.guadalupetx.gov/upload/page/0210/Rep_Primary_Official_Results_PrctbyPrct.pdf" xr:uid="{0ABDD25F-4675-F447-A991-769D846DA21B}"/>
+    <hyperlink ref="B96" r:id="rId241" display="https://www.halecounty.org/county_offices/election_information.php" xr:uid="{1809D0FD-FD9D-104F-8CC7-6D7A2AED4DDC}"/>
+    <hyperlink ref="D96" r:id="rId242" display="https://cms2.revize.com/revize/halecountynew/Precinct Results-11-13-2024 01-27-08 PM.pdf" xr:uid="{58CBE8A1-800D-9C4B-BA47-171CCBD57938}"/>
+    <hyperlink ref="B97" r:id="rId243" display="https://www.co.hall.tx.us/page/hall.County.Elections" xr:uid="{CE155D1B-7356-B04D-B822-8B1EFF02EF88}"/>
+    <hyperlink ref="B98" r:id="rId244" display="https://www.co.hamilton.tx.us/page/hamilton.elections" xr:uid="{59EB1083-333E-4D45-9BCE-B1DC7E364A1C}"/>
+    <hyperlink ref="D98" r:id="rId245" display="https://www.hamiltoncountytx.gov/upload/page/8825/Official Results Nov 5 General Pct x Pct.pdf" xr:uid="{A3847638-A671-7D4B-9B42-EC155C5DA02E}"/>
+    <hyperlink ref="G98" r:id="rId246" display="https://www.hamiltoncountytx.gov/upload/page/8825/2024 Primary Elections/Unofficial Results for PCT. by PCT.pdf" xr:uid="{33E56BF5-A668-F145-8A44-D5C9434A4E20}"/>
+    <hyperlink ref="H98" r:id="rId247" display="https://www.hamiltoncountytx.gov/upload/page/8825/Democratic Primary Runoff Pct. x Pct. Official Results.pdf" xr:uid="{87FB6553-011C-2049-B112-2C018E4AE0C8}"/>
+    <hyperlink ref="B99" r:id="rId248" display="https://www.co.hansford.tx.us/page/hansford.Elections" xr:uid="{ADDE4774-679E-2C4D-ABD5-34035A5D0124}"/>
+    <hyperlink ref="B100" r:id="rId249" display="https://www.co.hardeman.tx.us/page/hardeman.Elections" xr:uid="{A9EEEACB-413C-B84A-BCBD-6DB4D9CCF909}"/>
+    <hyperlink ref="B102" r:id="rId250" display="https://www.harrisvotes.com/Election-Results/Archives" xr:uid="{B4BF3921-F700-8543-917C-F73469EEF0BD}"/>
+    <hyperlink ref="D102" r:id="rId251" display="https://hctxdnnstg.blob.core.windows.net/harrisvotes/prd/docs/Reports/FINAL Official Canvass Results-11-14-2024 03-12-57 PM.pdf" xr:uid="{48DF9E47-51B7-E441-AF33-CE9FFC029037}"/>
+    <hyperlink ref="E102" r:id="rId252" display="https://hctxdnnstg.blob.core.windows.net/harrisvotes/prd/docs/Official Dem Canvass Results-3-13-2024 11-57-16 AM.pdf" xr:uid="{C267D9A6-F938-7245-8B89-EF4F9F74FFFE}"/>
+    <hyperlink ref="F102" r:id="rId253" display="https://hctxdnnstg.blob.core.windows.net/harrisvotes/prd/docs/Official Rep Canvass Results-3-13-2024 11-50-05 AM.pdf" xr:uid="{FD718572-66F7-4A40-82E5-C75B319D702D}"/>
+    <hyperlink ref="H102" r:id="rId254" display="https://files.harrisvotes.com/harrisvotes/prd/docs/Reports/Official DEM Canvass Results-6-5-2024 11-13-02 AM.pdf" xr:uid="{0DCAEA35-FA57-EC4C-8E2C-1F7536818C6F}"/>
+    <hyperlink ref="I102" r:id="rId255" display="https://files.harrisvotes.com/harrisvotes/prd/docs/Reports/Official REP Canvass Results-6-5-2024 11-12-28 AM.pdf" xr:uid="{594A1E66-1015-8C47-A325-7FB295D6E23E}"/>
+    <hyperlink ref="B103" r:id="rId256" display="https://www.harrisoncountytexas.gov/page/harrison.Elections" xr:uid="{C610C450-D2DA-C94E-9F6B-10E096CE9518}"/>
+    <hyperlink ref="D103" r:id="rId257" display="https://www.harrisoncountytexas.gov/upload/page/12077/NOV 5, 2024/Precinct Results-11-18-2024 01-03-20 PM.pdf" xr:uid="{0CDCD350-A9A4-3E48-B54B-132CCD1285F5}"/>
+    <hyperlink ref="G103" r:id="rId258" display="https://www.harrisoncountytexas.gov/upload/page/12077/MARCH PRIMARY 2024/PrecinctResultsReport.pdf" xr:uid="{3DFF2286-61E2-9B48-8A01-DEA195E626C1}"/>
+    <hyperlink ref="B104" r:id="rId259" display="https://www.co.hartley.tx.us/page/hartley.Voter.Information" xr:uid="{ACE2A9C1-3F12-6C4D-BA9B-EB9584487733}"/>
+    <hyperlink ref="B105" r:id="rId260" display="https://www.haskellcountytx.gov/page/haskell.County.Clerk" xr:uid="{5D9FCC24-F558-5E4C-8EBE-97611F2820B4}"/>
+    <hyperlink ref="B106" r:id="rId261" display="https://www.hayscountytx.gov/election-results" xr:uid="{427643E8-367F-F949-B8D2-182B4B671818}"/>
+    <hyperlink ref="B107" r:id="rId262" display="https://www.co.hemphill.tx.us/page/hemphill.ElectionInformation" xr:uid="{C3DE06C4-11E8-1F40-81A8-0F43692E3270}"/>
+    <hyperlink ref="D107" r:id="rId263" display="https://www.co.hemphill.tx.us/upload/page/7666/nov 2024 general election by precinct report.pdf" xr:uid="{A7CC4BD8-F914-D445-89C0-BA574602BCB8}"/>
+    <hyperlink ref="B108" r:id="rId264" display="https://www.henderson-county.com/departments/elections-voter-registration/election-results" xr:uid="{45103907-82F1-C14E-9AE9-74C068012F4F}"/>
+    <hyperlink ref="D108" r:id="rId265" display="https://www.henderson-county.com/home/showpublisheddocument/23397/638676954817730000" xr:uid="{60DE66F7-5B95-B242-BB6F-FD34C09BDFB7}"/>
+    <hyperlink ref="B110" r:id="rId266" display="https://www.co.hill.tx.us/page/hill.Elections" xr:uid="{AF786827-F399-7D4A-BD55-8710670A31F1}"/>
+    <hyperlink ref="B111" r:id="rId267" display="https://www.co.hockley.tx.us/page/hockley.electionshome" xr:uid="{0D3ED57B-8E06-9943-9B48-D1DF7BBD97A4}"/>
+    <hyperlink ref="B112" r:id="rId268" display="https://hoodcounty.texas.gov/departments/elections_administration/index.php" xr:uid="{B43B87DD-6DAB-DB41-9B8F-D0028A0F101A}"/>
+    <hyperlink ref="C112" r:id="rId269" display="https://results.enr.clarityelections.com/TX/Hood/" xr:uid="{3F8FF554-FDCD-2C45-8D1C-73B3888B654E}"/>
+    <hyperlink ref="D112" r:id="rId270" display="https://results.enr.clarityelections.com/TX/Hood/122858/355543/reports/detailxls.zip" xr:uid="{94F275DF-F906-5D45-BD9D-286F095DD060}"/>
+    <hyperlink ref="G112" r:id="rId271" display="https://results.enr.clarityelections.com/TX/Hood/120386/332333/reports/detailxls.zip" xr:uid="{8E38B469-F491-A84B-8863-30771F5E8354}"/>
+    <hyperlink ref="I112" r:id="rId272" display="https://results.enr.clarityelections.com/TX/Hood/121707/340726/reports/detailxls.zip" xr:uid="{33E44A05-3A64-5B4F-8E21-90A4190C4DB1}"/>
+    <hyperlink ref="B113" r:id="rId273" display="https://www.hopkinscountytx.org/page/hopkins.Elections" xr:uid="{35237D54-7422-D846-8CA4-27A831C16E2F}"/>
+    <hyperlink ref="B114" r:id="rId274" display="https://www.co.houston.tx.us/page/houston.Elections" xr:uid="{E3EEC786-8552-7644-8374-CAFF1BC74F09}"/>
+    <hyperlink ref="D114" r:id="rId275" display="https://www.co.houston.tx.us/upload/page/2956/2024 Nov/Pct X Pct Official Results - 11-5-24.pdf" xr:uid="{EE3454A9-2E25-764F-A14A-8B5E81B98FAC}"/>
+    <hyperlink ref="G114" r:id="rId276" display="https://www.co.houston.tx.us/upload/page/2956/2024 Primary/Official PCT x PCT.pdf" xr:uid="{4B45F481-B3F8-D244-8D3D-606D4C4870EC}"/>
+    <hyperlink ref="B115" r:id="rId277" display="https://www.co.howard.tx.us/page/howard.Election.Information" xr:uid="{3DE00081-0891-6741-8EEE-8FFCFC089DAD}"/>
+    <hyperlink ref="B116" r:id="rId278" display="https://www.co.hudspeth.tx.us/page/hudspeth.Elections" xr:uid="{99D4C890-0B3B-104C-9A13-615768014E8A}"/>
+    <hyperlink ref="G116" r:id="rId279" display="https://www.co.hudspeth.tx.us/upload/page/10211/2024/precinct_results362024_121555_pm.pdf" xr:uid="{5617EF73-C72F-B342-ABF8-8C2D63F425E5}"/>
+    <hyperlink ref="B118" r:id="rId280" display="https://www.co.hutchinson.tx.us/page/hutchinson.ElectionInformation" xr:uid="{B343CE57-1B9D-6B43-86C9-05C665E2FBB0}"/>
+    <hyperlink ref="D118" r:id="rId281" display="https://newtools.cira.state.tx.us/upload/page/10714/docs/2024/2024 General Precinct by Precinct Official Results.pdf" xr:uid="{2691AB42-1F9B-EB47-8ACE-4ED2BAD9506B}"/>
+    <hyperlink ref="E118" r:id="rId282" display="https://newtools.cira.state.tx.us/upload/page/10714/docs/2024/Democratic Official Results.pdf" xr:uid="{96D5E9B0-7D8C-A247-AC08-5B744A6AE4CF}"/>
+    <hyperlink ref="F118" r:id="rId283" display="https://newtools.cira.state.tx.us/upload/page/10714/docs/2024/Republican Official Results.pdf" xr:uid="{2F8906BF-E870-604A-9BBF-75C17ADBFB09}"/>
+    <hyperlink ref="B119" r:id="rId284" display="https://www.co.irion.tx.us/page/irion.cityschoolelection" xr:uid="{FA093231-05B6-5346-B34D-6F372150706F}"/>
+    <hyperlink ref="B120" r:id="rId285" display="https://www.jackcounty.org/pages/elections.html" xr:uid="{FDC531B5-3075-6D43-B04B-F50C37098C38}"/>
+    <hyperlink ref="B121" r:id="rId286" display="https://www.co.jackson.tx.us/page/jackson.VotingElectionInformation" xr:uid="{574C43EA-4D3D-7541-8E53-6B30DC1E423F}"/>
+    <hyperlink ref="B122" r:id="rId287" display="https://www.co.jasper.tx.us/page/jasper.Elections" xr:uid="{1D6A049F-F649-1F4F-A25B-28245E886A22}"/>
+    <hyperlink ref="D122" r:id="rId288" display="https://www.co.jasper.tx.us/upload/page/1130/11-5-24 Official Pct by Pct Results.pdf" xr:uid="{20E1CFE6-C964-2B48-906A-2447192ED2FA}"/>
+    <hyperlink ref="G122" r:id="rId289" display="https://www.co.jasper.tx.us/upload/page/1130/2024 Elections/Official Result Summary 030524.pdf" xr:uid="{49A87D10-11D0-1843-B8B5-334ABD76620D}"/>
+    <hyperlink ref="J122" r:id="rId290" display="https://www.co.jasper.tx.us/upload/page/1130/2024 Elections/Official Pct by Pct 52824 Results.pdf" xr:uid="{00962D2C-91EA-F745-94C0-A6C260AC53C9}"/>
+    <hyperlink ref="B123" r:id="rId291" display="https://www.jeffdaviscounty.texas.gov/page/jeffdavis.Elections" xr:uid="{BAE2CB88-2979-1542-BC4A-FF14471512A1}"/>
+    <hyperlink ref="D123" r:id="rId292" display="https://www.jeffdaviscounty.texas.gov/upload/page/6574/2024/general_election__by_precinct__official.pdf" xr:uid="{A7E2A8B1-C602-6C41-9778-06AB1CE8E0C3}"/>
+    <hyperlink ref="G123" r:id="rId293" display="https://www.jeffdaviscounty.texas.gov/upload/page/6574/2024/summarybyprecinct_ev_abs_ed_1.pdf" xr:uid="{14623B00-48DB-0448-99F8-A7784E128670}"/>
+    <hyperlink ref="I123" r:id="rId294" display="https://www.jeffdaviscounty.texas.gov/upload/page/6574/2024/unofficial_results_by_precinct__early_absentee__election_day.pdf" xr:uid="{CA3352F1-E63D-A247-B03A-733FC1C6F81E}"/>
+    <hyperlink ref="B124" r:id="rId295" location="PastElections" display="https://www.jeffersonelections.com/voter-information/previous-election-results/ - PastElections" xr:uid="{466AE088-D501-C444-B98F-2D135A3262C7}"/>
+    <hyperlink ref="C124" r:id="rId296" location="PastElections" display="https://www.jeffersonelections.com/voter-information/previous-election-results/ - PastElections" xr:uid="{DAA6A4AF-EF3E-454C-A4DD-3FC46E60348F}"/>
+    <hyperlink ref="D124" r:id="rId297" display="https://results.enr.clarityelections.com/TX/Jefferson/122828/355360/reports/detailxls.zip" xr:uid="{B13F8FF2-7E14-BD45-834C-F58C08324292}"/>
+    <hyperlink ref="G124" r:id="rId298" display="https://results.enr.clarityelections.com/TX/Jefferson/120285/333410/reports/detailxls.zip" xr:uid="{7DB7BB57-0388-3A44-A792-7C5F07FA0572}"/>
+    <hyperlink ref="I124" r:id="rId299" display="https://results.enr.clarityelections.com/TX/Jefferson/121079/341343/reports/detailxls.zip" xr:uid="{3EF926BE-A936-A449-9498-069246FB8D97}"/>
+    <hyperlink ref="B125" r:id="rId300" display="https://www.co.jim-hogg.tx.us/page/jim-hogg.Elections" xr:uid="{78EDA14F-6F0D-0042-A8B6-5583A57CCA78}"/>
+    <hyperlink ref="D125" r:id="rId301" display="https://www.co.jim-hogg.tx.us/upload/page/9530/2024/11-5-24 Official Precinct Results.pdf" xr:uid="{DBE986B4-CE52-F643-8532-160BA85EEE2D}"/>
+    <hyperlink ref="G125" r:id="rId302" display="https://www.co.jim-hogg.tx.us/upload/page/9530/2024/Official Precinct Results-3-5-2024.pdf" xr:uid="{2FA61619-EE6E-F544-9B38-682C8D65C4C9}"/>
+    <hyperlink ref="B126" r:id="rId303" display="https://jimwellscountyelections.gov/all-official-notices/" xr:uid="{E5435305-D065-1740-ABC2-6D021315B282}"/>
+    <hyperlink ref="D126" r:id="rId304" display="https://jimwellscountyelections.gov/wp-content/uploads/2024/11/FINAL-OFFICIAL-RESULTS-2024-GENERAL-ELECTION-CUMULATIVE-AND-PCT-BY-PCT.pdf" xr:uid="{BBF0D44A-FBEF-7142-8AFF-C7A220E9ABC8}"/>
+    <hyperlink ref="B127" r:id="rId305" display="https://www.johnsoncountytx.org/departments/elections-office/election-results/elections-archive" xr:uid="{12E4CCCE-7277-454E-965F-CB9F9D19A87D}"/>
+    <hyperlink ref="D127" r:id="rId306" display="https://www.johnsoncountytx.org/home/showpublisheddocument/17697/638717692756030000" xr:uid="{8A526039-A9AD-BB43-AA97-EC09BE10C297}"/>
+    <hyperlink ref="E127" r:id="rId307" display="https://www.johnsoncountytx.org/home/showpublisheddocument/16543/638461081406670000" xr:uid="{C77C391C-3DC3-CD49-AD76-E09E98CD0AF1}"/>
+    <hyperlink ref="F127" r:id="rId308" display="https://www.johnsoncountytx.org/home/showpublisheddocument/16545/638461081415400000" xr:uid="{1E1A129F-11C1-8842-847D-06EEC987B001}"/>
+    <hyperlink ref="I127" r:id="rId309" display="https://www.johnsoncountytx.org/home/showpublisheddocument/16839/638536157872270000" xr:uid="{33CAAD8D-790B-EE47-A0BD-3D5AC423E054}"/>
+    <hyperlink ref="B128" r:id="rId310" display="https://www.co.jones.tx.us/page/jones.Elections" xr:uid="{636BD06B-2370-8A47-BC9F-19E6913722A0}"/>
+    <hyperlink ref="D128" r:id="rId311" display="https://www.co.jones.tx.us/upload/page/1293/2024/Results - Precinct by Precinct - November 5_ 2024 General Election.pdf" xr:uid="{C3A70772-A197-9B40-B04E-F398136D820B}"/>
+    <hyperlink ref="G128" r:id="rId312" display="https://www.co.jones.tx.us/upload/page/1293/2024/Results - Precinct by Precinct - March 5_ 2024 Primary Election.pdf" xr:uid="{FB0D285C-DB85-6D45-AA5B-389C99889EC8}"/>
+    <hyperlink ref="J128" r:id="rId313" display="https://www.co.jones.tx.us/upload/page/1293/2024/Results - Precint by Precint - March 28_ 2024.pdf" xr:uid="{40C91ADA-0359-A94A-AE53-07CF28D81666}"/>
+    <hyperlink ref="B129" r:id="rId314" display="https://www.co.karnes.tx.us/page/karnes.Elections" xr:uid="{D77F53F3-7A00-984A-83F0-37536E89AB39}"/>
+    <hyperlink ref="B130" r:id="rId315" display="https://www.kaufmancounty.net/436/ELECTION-RESULTS" xr:uid="{12936B49-82E7-A24E-AAFA-18261B0FE941}"/>
+    <hyperlink ref="C130" r:id="rId316" display="https://results.enr.clarityelections.com/TX/Kaufman/" xr:uid="{4988722E-3734-F448-8FF8-765A57F7F95D}"/>
+    <hyperlink ref="D130" r:id="rId317" display="https://results.enr.clarityelections.com/TX/Kaufman/122824/355375/reports/detailxls.zip" xr:uid="{2CC4AD56-7C06-6841-8781-0382D4FD2B48}"/>
+    <hyperlink ref="G130" r:id="rId318" display="https://results.enr.clarityelections.com/TX/Kaufman/120253/332318/reports/detailxls.zip" xr:uid="{D498EF18-71E3-7741-A0E6-8F2BF4DB7EF7}"/>
+    <hyperlink ref="I130" r:id="rId319" display="https://results.enr.clarityelections.com/TX/Kaufman/121710/340489/reports/detailxls.zip" xr:uid="{5A2F0740-1EB9-424F-BF2E-642B8A665587}"/>
+    <hyperlink ref="B131" r:id="rId320" display="https://www.kendallcountytx.gov/220/Election-Results-Past-Present" xr:uid="{8F893F1B-CACB-304C-835A-92F3BAC15C2B}"/>
+    <hyperlink ref="C131" r:id="rId321" display="https://results.enr.clarityelections.com/TX/Kendall/" xr:uid="{0696F391-38B5-5B42-BA59-B07E0A12910A}"/>
+    <hyperlink ref="B132" r:id="rId322" display="https://kenedycountyelections.com/results/" xr:uid="{2ED14C87-DEEC-7347-BCBF-2CC23CB726F6}"/>
+    <hyperlink ref="D132" r:id="rId323" display="https://kenedycountyelections.com/wp-content/uploads/simple-file-list/Pct_-by-Pct_-Report-11-5-24.pdf" xr:uid="{6EDE9C25-EA52-0F4E-91AF-F0AE605FADC9}"/>
+    <hyperlink ref="B133" r:id="rId324" display="https://www.co.kent.tx.us/page/kent.Elections" xr:uid="{28CC573D-C673-534A-ACDF-D15BD04FA0D2}"/>
+    <hyperlink ref="B134" r:id="rId325" location="gsc.tab=0" display="https://www.kerrcountytx.gov/voting-in-kerr-county/kerr-county-elections - gsc.tab=0" xr:uid="{ABB436CC-727F-6D45-9355-E5743FC77EF7}"/>
+    <hyperlink ref="D134" r:id="rId326" display="https://legacy.co.kerr.tx.us/elections/docs/2024-11-05/Official_General_Election_November_5_2024_ Precinct_Results.pdf" xr:uid="{DB69F3C3-6C73-D14C-BD18-60C8761579D4}"/>
+    <hyperlink ref="E134" r:id="rId327" display="https://legacy.co.kerr.tx.us/elections/results/2024-03-05/Democratic_March_5_2024-Official_Precinct_Results.pdf" xr:uid="{1F8E98D4-9A83-904E-80EF-E15E69D318F5}"/>
+    <hyperlink ref="F134" r:id="rId328" display="https://legacy.co.kerr.tx.us/elections/results/2024-03-05/Republican_March_5_2024-Official_Precinct_Results.pdf" xr:uid="{3752A09D-1A82-6F4A-B04D-E864448E95FB}"/>
+    <hyperlink ref="I134" r:id="rId329" display="https://legacy.co.kerr.tx.us/elections/results/2024-05-28/Official Republican Primary Runoff May 28,2024 Precinct by Precinct  Results-6-4-2024 11-08-13 AM.pdf" xr:uid="{FC64756B-47DA-C94D-840F-5297859A95EC}"/>
+    <hyperlink ref="B135" r:id="rId330" display="https://www.co.kimble.tx.us/page/kimble.Elections" xr:uid="{07954E55-E38F-0748-B3E9-19450554F7C7}"/>
+    <hyperlink ref="B136" r:id="rId331" display="https://www.co.king.tx.us/page/king.County.Clerk" xr:uid="{685A6312-0C99-4447-9688-9BDD347454DA}"/>
+    <hyperlink ref="B137" r:id="rId332" display="https://www.co.kinney.tx.us/page/kinney.Elections" xr:uid="{0799F66C-BE3D-BA4D-A046-2E8E09F9345F}"/>
+    <hyperlink ref="B138" r:id="rId333" display="https://www.co.kleberg.tx.us/page/kleberg.elections" xr:uid="{715C821B-47F6-B444-BFAE-F160F25CBFD3}"/>
+    <hyperlink ref="B139" r:id="rId334" display="https://www.knoxcountytexas.org/page/knox.elections" xr:uid="{F2846DD6-A36D-B34F-805B-6D08C9076381}"/>
+    <hyperlink ref="B140" r:id="rId335" display="https://www.co.lamar.tx.us/page/lamar.elections" xr:uid="{ECCBF35A-C2BE-0B4D-B3C0-D3F83C94FC9A}"/>
+    <hyperlink ref="C140" r:id="rId336" display="https://results.enr.clarityelections.com/TX/Lamar/" xr:uid="{6E9DD0AC-522F-954D-BBFD-D80ECC060EE7}"/>
+    <hyperlink ref="D140" r:id="rId337" display="https://results.enr.clarityelections.com/TX/Lamar/122497/351606/reports/detailxls.zip" xr:uid="{CC836A22-5865-3840-886D-842B225F1276}"/>
+    <hyperlink ref="G140" r:id="rId338" display="https://results.enr.clarityelections.com/TX/Lamar/119865/334231/reports/detailxls.zip" xr:uid="{0A1F0941-49DB-7D40-99B4-12001288EC5A}"/>
+    <hyperlink ref="I140" r:id="rId339" display="https://results.enr.clarityelections.com/TX/Lamar/121669/340131/reports/detailxls.zip" xr:uid="{A69A5950-056F-7144-85AA-B710BCBEDB19}"/>
+    <hyperlink ref="B141" r:id="rId340" display="https://www.co.lamb.tx.us/page/lamb.ElectionsHome" xr:uid="{EFD05BE7-1CD6-754B-8EDF-C9D8887255D1}"/>
+    <hyperlink ref="B142" r:id="rId341" display="https://www.co.lampasas.tx.us/page/lampasas.testpage2" xr:uid="{0B1BE707-A8E7-554F-B278-BBD1755795B0}"/>
+    <hyperlink ref="B143" r:id="rId342" display="https://www.co.la-salle.tx.us/index.php/offices/election-board" xr:uid="{B17C6838-2DA4-2C41-9869-7F300C558494}"/>
+    <hyperlink ref="D143" r:id="rId343" display="https://www.co.la-salle.tx.us/images/pdfs/2024_Elections/Nov2024/OFFICIAL_CANVASS_GENERAL_ELECTION.pdf" xr:uid="{17319B27-BF1D-094B-9597-C2D45094CCFB}"/>
+    <hyperlink ref="B144" r:id="rId344" display="https://www.co.lavaca.tx.us/page/Elections" xr:uid="{F6C95ECE-5E29-FF41-9B43-0D86C6B5F907}"/>
+    <hyperlink ref="G144" r:id="rId345" display="https://www.co.lavaca.tx.us/upload/page/0122/2024 update PRECINCT REPORT UNOFFICAL.pdf" xr:uid="{D00CABB8-DABB-384D-95DF-C9FF80A95D8E}"/>
+    <hyperlink ref="I144" r:id="rId346" display="https://www.co.lavaca.tx.us/upload/page/0122/052824PRECINCT SUMMARY REPORT.pdf" xr:uid="{8C11B06D-1F19-8E4C-8C71-023BD4CAB53A}"/>
+    <hyperlink ref="B145" r:id="rId347" display="https://www.co.lee.tx.us/page/lee.Elections" xr:uid="{0A345A28-10FB-604D-9A37-1F4C68D4ACF9}"/>
+    <hyperlink ref="D145" r:id="rId348" display="https://www.co.lee.tx.us/upload/page/11450/updated pct by pct 110524.pdf" xr:uid="{0227BB02-D6C1-8045-9B3B-363658C6AFAF}"/>
+    <hyperlink ref="J145" r:id="rId349" display="https://www.co.lee.tx.us/upload/page/11450/pct by pct 5-28-24.pdf" xr:uid="{AF64D303-AC13-7243-B169-9DEC2515EEBF}"/>
+    <hyperlink ref="B146" r:id="rId350" display="https://www.co.leon.tx.us/page/leon.elections" xr:uid="{029046E6-0E76-8C4A-96C2-3BC866D6E97F}"/>
+    <hyperlink ref="D146" r:id="rId351" display="https://www.co.leon.tx.us/upload/page/4964/docs/110524 GENERAL/110524 GENERAL OFFICIAL PCT BY PCT.pdf" xr:uid="{F34585FF-9947-AE46-A835-C7CAEAF3647D}"/>
+    <hyperlink ref="G146" r:id="rId352" display="https://www.co.leon.tx.us/upload/page/4964/030524 OFFICIAL PCT BY PCT TO WEB.pdf" xr:uid="{8D21AB5F-74AA-8C49-A6E4-327EB5FF2005}"/>
+    <hyperlink ref="I146" r:id="rId353" display="https://www.co.leon.tx.us/upload/page/4964/052824 OFFICIAL PCT BY PCT.pdf" xr:uid="{0595D265-40C4-A244-80CA-5F8ABEF4446E}"/>
+    <hyperlink ref="B147" r:id="rId354" display="https://www.co.liberty.tx.us/page/liberty.elections.past.historical" xr:uid="{A2063B85-0FDB-874C-841F-DAA0B8D0589B}"/>
+    <hyperlink ref="D147" r:id="rId355" display="https://www.co.liberty.tx.us/upload/page/11966/Precinct Results-11-14-2024 08-18-41 AM.pdf" xr:uid="{F3AF7E3B-D6BC-D646-B547-4A62D1166739}"/>
+    <hyperlink ref="G147" r:id="rId356" display="https://www.co.liberty.tx.us/upload/page/11197/Final Precinct Results-3-8-2024 02-28-35 PM.pdf" xr:uid="{B46ED577-0B8F-DE44-98AD-CD6D41C3188F}"/>
+    <hyperlink ref="B148" r:id="rId357" display="https://www.co.limestone.tx.us/page/limestone.elections" xr:uid="{C8268A0D-8122-F04E-9976-58740B2AC1E9}"/>
+    <hyperlink ref="D148" r:id="rId358" display="https://newtools.cira.state.tx.us/upload/page/5631/241105 Precinct.pdf" xr:uid="{97CD7739-9B17-9C48-BBDB-6C5CFF8A61DB}"/>
+    <hyperlink ref="G148" r:id="rId359" display="https://newtools.cira.state.tx.us/upload/page/5631/240305 Final Unofficial box x box.pdf" xr:uid="{2B97C62B-DD19-904A-B311-55BF1ECE2A15}"/>
+    <hyperlink ref="J148" r:id="rId360" display="https://newtools.cira.state.tx.us/upload/page/5631/240528 Precinct Results.pdf" xr:uid="{C2724A1F-B5B4-D142-A38A-9E2058CCD11D}"/>
+    <hyperlink ref="B149" r:id="rId361" display="https://www.co.lipscomb.tx.us/page/lipscomb.ElectionInformation" xr:uid="{ABE259D6-9DD5-6B47-8ABC-249AA077D3EC}"/>
+    <hyperlink ref="B150" r:id="rId362" display="https://www.co.live-oak.tx.us/page/liveoak.Elections" xr:uid="{45F7CB13-13B6-8249-AE00-68A994A49BBB}"/>
+    <hyperlink ref="G150" r:id="rId363" display="https://www.co.live-oak.tx.us/upload/page/11665/Becca add/Official Precinct Resultsv D   R 3 15 2024.pdf" xr:uid="{BE961500-0D3A-8D49-930B-2564D36BDDB6}"/>
+    <hyperlink ref="B151" r:id="rId364" display="https://www.co.llano.tx.us/page/llano.Archived.Elections" xr:uid="{16284672-7881-404F-AE6A-24326421EA3E}"/>
+    <hyperlink ref="D151" r:id="rId365" display="https://newtools.cira.state.tx.us/upload/page/0979/2024/November 2024/Official Election Results Precinct-11-15-2024 08-15-19 AM.pdf" xr:uid="{1A7DB868-A13F-EC4B-AF15-CC04C741EE34}"/>
+    <hyperlink ref="E151" r:id="rId366" display="https://newtools.cira.state.tx.us/upload/page/0979/2024/Primary/Democratic Precinct Results-3-12-2024 09-48-54 AM.pdf" xr:uid="{6D66EA98-54D5-DB4F-AF03-0F4679712D62}"/>
+    <hyperlink ref="F151" r:id="rId367" display="https://newtools.cira.state.tx.us/upload/page/0979/2024/Primary/Republican Precinct Results-3-12-2024 09-51-18 AM.pdf" xr:uid="{67804772-AB59-5040-9CEF-D76220A75A83}"/>
+    <hyperlink ref="B152" r:id="rId368" display="https://lovingcountyanddistrictclerk.com/elections" xr:uid="{BF942921-44F4-D242-A6FF-A423FFD2B9AA}"/>
+    <hyperlink ref="B153" r:id="rId369" display="https://www.votelubbock.org/election-information/historical-election-results/" xr:uid="{BBA566DE-381D-7943-AC69-1115107F4E34}"/>
+    <hyperlink ref="C153" r:id="rId370" display="https://results.enr.clarityelections.com/TX/Lubbock/" xr:uid="{5748D835-C232-AD46-8AA4-4CA5C17FC2EA}"/>
+    <hyperlink ref="D153" r:id="rId371" display="https://www.votelubbock.org/wp-content/uploads/Verity-Count-Precinct-Results-All-Entities-1.pdf" xr:uid="{C12A2FDC-09C6-7845-B4BB-1680F59C735E}"/>
+    <hyperlink ref="E153" r:id="rId372" display="https://results.enr.clarityelections.com/TX/Lubbock/120383/333400/reports/detailxls.zip" xr:uid="{A3820519-BDF6-2547-99C6-2B2A75538D0E}"/>
+    <hyperlink ref="F153" r:id="rId373" display="https://results.enr.clarityelections.com/TX/Lubbock/120382/333397/reports/detailxls.zip" xr:uid="{26EEBB4F-73C4-C041-8795-F91B77EC2A25}"/>
+    <hyperlink ref="B154" r:id="rId374" display="https://www.co.lynn.tx.us/page/lynn.Elections" xr:uid="{95A0D4D6-D30B-3140-8A55-2EA9C04716BD}"/>
+    <hyperlink ref="B155" r:id="rId375" display="https://www.co.mcculloch.tx.us/page/mcculloch.ElectionInfo" xr:uid="{5A4907DB-9324-2446-A756-3B5A61526E48}"/>
+    <hyperlink ref="B156" r:id="rId376" display="https://www.mclennan.gov/406/Past-Elections-Results" xr:uid="{EA489032-C6B8-6248-84C7-5F149F1FA359}"/>
+    <hyperlink ref="D156" r:id="rId377" display="https://tx-mclennancounty.civicplus.com/DocumentCenter/View/16714/Precinct-Results-11-13-2024-04-07-51-PM" xr:uid="{19F6A6B1-51BB-2240-B458-8CD6DE964E92}"/>
+    <hyperlink ref="E156" r:id="rId378" display="https://tx-mclennancounty.civicplus.com/DocumentCenter/View/15811/Democratic-Primary-Election-Canvass" xr:uid="{E97D786A-CDF8-CF45-97FD-33B3BA63D832}"/>
+    <hyperlink ref="F156" r:id="rId379" display="https://tx-mclennancounty.civicplus.com/DocumentCenter/View/15814/Republican-Primary-Election-Canvass" xr:uid="{99B7EA4C-90DC-B24D-9750-04789E1B80A7}"/>
+    <hyperlink ref="B157" r:id="rId380" display="https://mcmullencounty.org/elections/" xr:uid="{7DF1DF05-02F5-B243-949F-4008FB7ED398}"/>
+    <hyperlink ref="B158" r:id="rId381" display="https://www.co.madison.tx.us/page/madison.elections" xr:uid="{4428996E-C232-F148-8802-F27D47A3D1B0}"/>
+    <hyperlink ref="D158" r:id="rId382" display="https://www.co.madison.tx.us/upload/page/0407/nov 5 2024 precinct by precinct.pdf" xr:uid="{8DBD275F-D4F3-BA4E-96CA-AE3A3825C091}"/>
+    <hyperlink ref="G158" r:id="rId383" display="https://www.co.madison.tx.us/upload/page/0407/March 5 2024 Pct by Pct report.pdf" xr:uid="{D9585F78-F1E8-4A4C-902D-82638D3FA498}"/>
+    <hyperlink ref="B159" r:id="rId384" display="https://marioncountytaxoffice.com/elections/" xr:uid="{93E4050C-E8E0-2C47-A683-3F68EB54528C}"/>
+    <hyperlink ref="B160" r:id="rId385" display="http://www.co.martin.tx.us/158/Elections-Administration-Office/" xr:uid="{3F101964-577A-6F4C-B2B5-FAFD20804F48}"/>
+    <hyperlink ref="D160" r:id="rId386" display="http://www.co.martin.tx.us/DocumentCenter/View/1450/Precinct-to-Precinct-Report" xr:uid="{9C9EEE9E-43DB-4948-B4C5-489C190DAB90}"/>
+    <hyperlink ref="G160" r:id="rId387" display="http://www.co.martin.tx.us/DocumentCenter/View/1324/OFFICIAL-ALL-Precinct-Results-3-14-2024-10-43-34-PM" xr:uid="{D18D8ACA-DC21-FD44-9375-826AEAA683CF}"/>
+    <hyperlink ref="B161" r:id="rId388" display="https://www.co.mason.tx.us/page/mason.Elections" xr:uid="{EA9C1A9A-F28A-9C4F-896A-545381160B00}"/>
+    <hyperlink ref="B162" r:id="rId389" display="https://www.co.matagorda.tx.us/page/matagorda.elections" xr:uid="{EEA562FE-AA99-8E48-AEFD-99F9103AA138}"/>
+    <hyperlink ref="D162" r:id="rId390" display="https://www.co.matagorda.tx.us/upload/page/5686/Precinct Results-11-15-2024 04-33-31 PM.pdf" xr:uid="{FB0FBE6F-43B5-0B40-9A3F-FF188225E08B}"/>
+    <hyperlink ref="G162" r:id="rId391" display="https://www.co.matagorda.tx.us/upload/page/5686/Precinct Results-3-5-2024 09-12-25 PM.pdf" xr:uid="{6FE1FE3C-406D-BC48-95E9-1A66C06B4F25}"/>
+    <hyperlink ref="B163" r:id="rId392" display="https://co.maverick.tx.us/" xr:uid="{405EDAE1-0ACE-D841-88FB-B9B04A404F1B}"/>
+    <hyperlink ref="B165" r:id="rId393" display="https://www.co.menard.tx.us/page/menard.Elections" xr:uid="{11B9150D-E28E-5147-A5B1-81192CA94B01}"/>
+    <hyperlink ref="B166" r:id="rId394" display="https://www.co.midland.tx.us/328/Elections-Office" xr:uid="{F6BEC035-12F3-6B49-9808-39F1F37A5BB3}"/>
+    <hyperlink ref="C166" r:id="rId395" display="https://results.enr.clarityelections.com/TX/Midland/" xr:uid="{374E9CD3-69AC-C942-ADA5-BB66E760BA8C}"/>
+    <hyperlink ref="D166" r:id="rId396" display="https://www.co.midland.tx.us/DocumentCenter/View/8563/Official-Final-Pct-x-Pct-Report" xr:uid="{0B543DBC-02A3-0643-B2A4-D7BEA0B142EA}"/>
+    <hyperlink ref="G166" r:id="rId397" display="https://results.enr.clarityelections.com/TX/Midland/120180/345906/reports/detailxls.zip" xr:uid="{8A2A67F7-5ADB-3042-8489-AB724EC5680D}"/>
+    <hyperlink ref="B167" r:id="rId398" display="https://www.milamcounty.net/page/milam.elections" xr:uid="{3651A43F-115D-CF46-B67A-55413C97216D}"/>
+    <hyperlink ref="D167" r:id="rId399" display="https://www.milamcounty.net/upload/page/8929/11.05.2024 GENERAL.pdf" xr:uid="{AA4E2565-7A9D-2F48-8FD3-D4D7ED0FC307}"/>
+    <hyperlink ref="G167" r:id="rId400" display="https://www.milamcounty.net/upload/page/8929/2024 PRIMARY.pdf" xr:uid="{CCA93639-341C-5949-8E2A-B2E6CB49E4A0}"/>
+    <hyperlink ref="B168" r:id="rId401" display="https://www.millscountytx.gov/page/mills.Elections" xr:uid="{4EF9D192-DB98-C644-A7AC-CDEA5252365F}"/>
+    <hyperlink ref="D168" r:id="rId402" display="https://www.millscountytx.gov/upload/page/5755/Nov Canvas Report.pdf" xr:uid="{22ADF536-CFCE-AA43-96E3-D6C4D7E07C96}"/>
+    <hyperlink ref="E168" r:id="rId403" display="https://newtools.cira.state.tx.us/upload/page/5755/24 Democratic Offical Canvass Results.pdf" xr:uid="{8CA4DA03-D15E-4C47-9387-1AC8F74BF750}"/>
+    <hyperlink ref="F168" r:id="rId404" display="https://newtools.cira.state.tx.us/upload/page/5755/24 Republican Offical Canvass Results.pdf" xr:uid="{58F3E21A-E9C1-4C47-AEA1-7F8373EB0F6E}"/>
+    <hyperlink ref="B169" r:id="rId405" display="https://www.co.mitchell.tx.us/page/mitchell.Elections" xr:uid="{11DEE046-FC91-3F47-AF63-411A77C7CBC8}"/>
+    <hyperlink ref="D169" r:id="rId406" display="https://www.co.mitchell.tx.us/upload/page/9645/docs/20241105/11.5.2024 precinct official results.pdf" xr:uid="{D766F0BA-66B5-2A48-AC75-0E559D536DC8}"/>
+    <hyperlink ref="G169" r:id="rId407" display="https://www.co.mitchell.tx.us/upload/page/9645/docs/20240305/03.05.2024 Joint Primary Pct by Pct.pdf" xr:uid="{B892D1AD-EEE3-B148-8542-2FF6BD9203D0}"/>
+    <hyperlink ref="B170" r:id="rId408" display="https://www.co.montague.tx.us/page/montague.electionresults" xr:uid="{CFCCC797-74CC-4447-A344-657401DE4CFF}"/>
+    <hyperlink ref="C170" r:id="rId409" display="https://results.enr.clarityelections.com/TX/Montague/" xr:uid="{C88D2DC9-6118-0C44-883F-DB172A61B0A2}"/>
+    <hyperlink ref="D170" r:id="rId410" display="https://results.enr.clarityelections.com/TX/Montague/122664/351720/reports/detailxls.zip" xr:uid="{5710DE19-B57F-244E-ACED-49116CC6AE52}"/>
+    <hyperlink ref="G170" r:id="rId411" display="https://results.enr.clarityelections.com/TX/Montague/119864/331281/reports/detailxls.zip" xr:uid="{5A743529-8498-944C-B080-E0FAAA029489}"/>
+    <hyperlink ref="J170" r:id="rId412" display="https://results.enr.clarityelections.com/TX/Montague/121714/340012/reports/detailxls.zip" xr:uid="{C6DC96C2-45AD-F049-AE9A-C39092324FE9}"/>
+    <hyperlink ref="B171" r:id="rId413" display="https://elections.mctx.org/ElectionResults.asp" xr:uid="{BD97799C-D839-D24B-86ED-D1755493480E}"/>
+    <hyperlink ref="D171" r:id="rId414" display="https://elections.mctx.org/results/2024_November_Precinct_Report.pdf" xr:uid="{D738744D-5925-AB4A-8455-D1801F10847E}"/>
+    <hyperlink ref="E171" r:id="rId415" display="https://elections.mctx.org/results/2024_March_Democratic_Precinct_Report.pdf" xr:uid="{B4EAFF5D-9C52-414E-9888-ABB6AE239CF3}"/>
+    <hyperlink ref="F171" r:id="rId416" display="https://elections.mctx.org/results/2024_March_Republican_Precinct_Report.pdf" xr:uid="{7A1DF545-FBCB-2046-B617-A7C86AE8FAC4}"/>
+    <hyperlink ref="B172" r:id="rId417" display="https://www.co.moore.tx.us/page/moore.Elections" xr:uid="{C7E3101E-6C44-2242-B86D-63E5994FAED3}"/>
+    <hyperlink ref="D172" r:id="rId418" display="https://www.co.moore.tx.us/upload/page/4507/2024 Cont/official_results_by_precinct_november_5_2024.pdf" xr:uid="{B6305D68-BF87-1345-B2A6-18C25864B2F9}"/>
+    <hyperlink ref="G172" r:id="rId419" display="https://www.co.moore.tx.us/upload/page/4507/2024/official_totals_precinct_joint_primary_3524.pdf" xr:uid="{672380BC-5EC3-8842-971D-A87DF1756368}"/>
+    <hyperlink ref="B173" r:id="rId420" display="https://www.co.morris.tx.us/page/morris.COUNTY Election Information" xr:uid="{548F1520-2304-FC40-970C-3A426ED9F2B9}"/>
+    <hyperlink ref="B174" r:id="rId421" display="https://www.co.motley.tx.us/page/motley.Elections" xr:uid="{2F863D13-B573-8643-87DA-EF6BC95F782D}"/>
+    <hyperlink ref="D174" r:id="rId422" display="https://www.co.motley.tx.us/upload/page/9607/Precinct Results-11-14-2024.pdf" xr:uid="{A4572B81-6A48-3A4B-B078-D4C030BDB795}"/>
+    <hyperlink ref="F174" r:id="rId423" display="https://www.co.motley.tx.us/upload/page/9607/Republican Official Canvass.pdf" xr:uid="{2E827268-DB6C-0949-BBF9-7B9645DE6416}"/>
+    <hyperlink ref="B175" r:id="rId424" display="https://www.co.nacogdoches.tx.us/ElectionInformation/ElectionResultsArchive.asp" xr:uid="{A6BE7425-F858-6849-806B-46DEDC9CCB54}"/>
+    <hyperlink ref="D175" r:id="rId425" display="https://www.co.nacogdoches.tx.us/ElectionInformation/ElectionsResultsArchive/2024-11-05 - Nacogdoches County - General Election - Precinct Results.pdf?v20241115132128" xr:uid="{58188988-B38A-F149-BA10-79F66694D82A}"/>
+    <hyperlink ref="E175" r:id="rId426" display="https://www.co.nacogdoches.tx.us/ElectionInformation/ElectionsResultsArchive/2024-03-05 - Nacogdoches County Democratic Party - Primary Election - Precinct Results.pdf?v20240504192612" xr:uid="{56E61DC8-484E-BF44-88FA-6A800B079F86}"/>
+    <hyperlink ref="F175" r:id="rId427" display="https://www.co.nacogdoches.tx.us/ElectionInformation/ElectionsResultsArchive/2024-03-05 - Nacogdoches County Republican Party - Primary Election - Precinct Results.pdf?v20240504192630" xr:uid="{A5B9D57D-2CE5-4C4E-8EF5-14F33DC06639}"/>
+    <hyperlink ref="I175" r:id="rId428" display="https://www.co.nacogdoches.tx.us/ElectionInformation/ElectionsResultsArchive/2024-05-28 - Nacogdoches County Republican Party - Primary Runoff - Precinct Results.pdf?v20240603154649" xr:uid="{A035B489-AF2B-7E45-8CE5-44DC0114FED1}"/>
+    <hyperlink ref="B176" r:id="rId429" display="https://www.co.navarro.tx.us/page/navarro.elections" xr:uid="{C9B96562-0DA8-2B4F-ACB2-F4D5853B2D37}"/>
+    <hyperlink ref="B177" r:id="rId430" display="https://www.co.newton.tx.us/page/newton.Elections" xr:uid="{8B01A891-3DB9-6342-AF68-A7ED0FF0727D}"/>
+    <hyperlink ref="G177" r:id="rId431" display="https://www.co.newton.tx.us/upload/page/3518/docs/2024 Primary/2024 Primaries Combined Canvass.pdf" xr:uid="{8A4700F3-734E-8646-854E-E9C3217C5BFD}"/>
+    <hyperlink ref="B178" r:id="rId432" display="https://www.co.nolan.tx.us/page/nolan.Elections" xr:uid="{D5849643-91D0-BC44-A35E-332EBB136DEE}"/>
+    <hyperlink ref="D178" r:id="rId433" display="https://www.co.nolan.tx.us/upload/page/0503/NC Official Precinct Summary Results 11052024.pdf" xr:uid="{93F0BE4B-BA45-4242-B930-14C39671432D}"/>
+    <hyperlink ref="G178" r:id="rId434" display="https://www.co.nolan.tx.us/upload/page/0503/03052024 PRECINCT SUMMARY RESULTS.pdf" xr:uid="{264065C7-0611-154B-A4E4-33E9CE503F9B}"/>
+    <hyperlink ref="B179" r:id="rId435" location="docfold_535_1126_960_126" display="https://www.nuecesco.com/county-services/county-clerk/elections-department/election-history/-folder-126 - docfold_535_1126_960_126" xr:uid="{45654D8A-E0BF-9E4E-A2EF-E6E0D725D2E7}"/>
+    <hyperlink ref="C179" r:id="rId436" display="https://results.enr.clarityelections.com/TX/Nueces/" xr:uid="{46E1A34B-4F83-CE41-8E89-08C055123C4B}"/>
+    <hyperlink ref="D179" r:id="rId437" display="https://www.nuecesco.com/home/showpublisheddocument/32074/638676080353730000" xr:uid="{F15DC417-A1AD-0B42-B962-3DE234674F27}"/>
+    <hyperlink ref="E179" r:id="rId438" display="https://www.nuecesco.com/home/showpublisheddocument/31213/638470726364130000" xr:uid="{12E7156D-9A02-3A4C-88E0-E0F20FB46DC6}"/>
+    <hyperlink ref="F179" r:id="rId439" display="https://www.nuecesco.com/home/showpublisheddocument/31215/638470727049170000" xr:uid="{9460C2ED-99E1-D343-B0EB-A6E61D55305C}"/>
+    <hyperlink ref="H179" r:id="rId440" display="https://www.nuecesco.com/home/showpublisheddocument/31413/638531032029200000" xr:uid="{CA3C93FF-BCE2-8247-BCAD-2ED3DEC55EF7}"/>
+    <hyperlink ref="I179" r:id="rId441" display="https://www.nuecesco.com/home/showpublisheddocument/31415/638531032438530000" xr:uid="{8CF4D0C7-F17C-A148-878C-D14835DD44F4}"/>
+    <hyperlink ref="B180" r:id="rId442" display="https://www.co.ochiltree.tx.us/page/ochiltree.Elections" xr:uid="{E191B187-60A8-6448-9132-D2230D679EA4}"/>
+    <hyperlink ref="D180" r:id="rId443" display="https://www.co.ochiltree.tx.us/upload/page/7514/11.5.24 Updated Unofficial Results plus Provisional count.pdf" xr:uid="{90143E32-523A-904B-8A83-9C523B97F7E4}"/>
+    <hyperlink ref="B181" r:id="rId444" display="https://www.co.oldham.tx.us/page/oldham.ElectionsResults" xr:uid="{5BFDCCAA-A27D-234B-BC69-8D27DA0D14B7}"/>
+    <hyperlink ref="D181" r:id="rId445" display="https://www.co.oldham.tx.us/upload/page/12142/2025/11.05.2024 Oldham County - General Election Totals by Precinct.pdf" xr:uid="{2F9F4CB7-68B8-F24F-8DF2-2F29EF4C00B7}"/>
+    <hyperlink ref="B182" r:id="rId446" display="https://www.co.orange.tx.us/departments/ElectionsAdministration/ElectionResults" xr:uid="{097DBEFC-4960-1442-A25C-77BB3D70EFB5}"/>
+    <hyperlink ref="B183" r:id="rId447" display="https://www.co.palo-pinto.tx.us/page/Elections" xr:uid="{18DFA0DF-28F7-3748-9E0F-3E30388FE20D}"/>
+    <hyperlink ref="B184" r:id="rId448" display="https://www.co.panola.tx.us/page/panola.Elections" xr:uid="{7FA9B4CD-EBAC-8249-A4C7-393896BF19D0}"/>
+    <hyperlink ref="B185" r:id="rId449" display="https://www.parkercountytx.gov/441/Past-Election-Results" xr:uid="{1241AB3C-DF89-844F-8953-7A73C4A4C483}"/>
+    <hyperlink ref="C185" r:id="rId450" display="https://results.enr.clarityelections.com/TX/Parker/" xr:uid="{1F406F09-554A-4245-BD1D-C8C8477DC82C}"/>
+    <hyperlink ref="D185" r:id="rId451" display="https://www.parkercountytx.gov/DocumentCenter/View/11593/Precinct-Results-11-13-2024-02-52-09-PM" xr:uid="{F2236BEF-CF09-E54D-8AF3-41B0F1CE717D}"/>
+    <hyperlink ref="G185" r:id="rId452" display="https://www.parkercountytx.gov/DocumentCenter/View/10806/Precicnt-by-Precicnt-Results-March-2024" xr:uid="{79C2DBCB-8B0F-1B42-9630-8A7F28D09043}"/>
+    <hyperlink ref="J185" r:id="rId453" display="https://www.parkercountytx.gov/DocumentCenter/View/11053/Precinct-Results-6-4-2024-10-19-59-AM-pdf" xr:uid="{4AF2FD7D-460B-1B46-AFA5-EE4F82B9AE52}"/>
+    <hyperlink ref="B186" r:id="rId454" display="https://parmercounty.texas.gov/?page_id=334" xr:uid="{A54579BB-93F2-0942-A94A-1CC99F0249C9}"/>
+    <hyperlink ref="D186" r:id="rId455" display="https://parmercounty.texas.gov/wp-content/uploads/2025/01/11524-General-Election-Official-Results.pdf" xr:uid="{1F8A6B4E-9E76-A548-9BEA-47C30FBBE4E8}"/>
+    <hyperlink ref="B187" r:id="rId456" display="https://www.co.pecos.tx.us/election-information/" xr:uid="{89CEA2B8-AF9F-314D-97D4-D5B72A7D9C83}"/>
+    <hyperlink ref="B188" r:id="rId457" display="https://www.co.polk.tx.us/page/polk.co.clerk.election" xr:uid="{D679FDD4-0EC8-644B-8228-1EF5B7CDA01E}"/>
+    <hyperlink ref="G188" r:id="rId458" display="https://newtools.cira.state.tx.us/upload/page/9241/MAY 2024/MARCH 5TH OFFICIAL RESULTS.pdf" xr:uid="{0CFDE3BC-7B18-E64B-BFB0-02E0EBE5D8F7}"/>
+    <hyperlink ref="B189" r:id="rId459" display="https://www.pottercountytexasvotes.gov/copy-of-website-connections" xr:uid="{2E680B13-836C-B240-B5EC-4C591FE35A1A}"/>
+    <hyperlink ref="D189" r:id="rId460" display="https://www.pottercountytexasvotes.gov/_files/ugd/abcbbe_3e5bc692f87a4a6ba3fc2b8ea841f47e.pdf" xr:uid="{6EAEAF14-4D0B-AD4E-8422-84B1133FD104}"/>
+    <hyperlink ref="E189" r:id="rId461" display="https://www.pottercountytexasvotes.gov/_files/ugd/abcbbe_f73000d8079d4cc9b7df4347be5922f9.pdf" xr:uid="{8FC66A38-1449-6243-8F09-43A7B80F57C3}"/>
+    <hyperlink ref="F189" r:id="rId462" display="https://www.pottercountytexasvotes.gov/_files/ugd/abcbbe_e6281b94f18b439093c69f09f35d6f92.pdf" xr:uid="{B4FD093D-EADA-6144-918D-BA9FF054100B}"/>
+    <hyperlink ref="I189" r:id="rId463" display="https://www.pottercountytexasvotes.gov/_files/ugd/abcbbe_9a21a61b97154b208e9914ebf660511f.pdf" xr:uid="{1391DACB-7D14-794A-8F1B-C7A877964786}"/>
+    <hyperlink ref="B190" r:id="rId464" display="https://www.co.presidio.tx.us/page/presidio.Voting.Elections" xr:uid="{4DF34A9E-C0F3-B948-80B1-C6E50254551B}"/>
+    <hyperlink ref="B191" r:id="rId465" display="https://www.co.rains.tx.us/page/rains.elections" xr:uid="{F5E4C3B4-07BB-8644-BB2C-7FAC9C61FB47}"/>
+    <hyperlink ref="B192" r:id="rId466" display="https://www.randallcounty.gov/183/Election-Results" xr:uid="{65E7BD47-F19A-A648-9798-B50FC65B554F}"/>
+    <hyperlink ref="D192" r:id="rId467" display="https://www.randallcounty.gov/DocumentCenter/View/3711/Official-Canvass-Results" xr:uid="{D4BC9E5C-4852-3D42-AA4E-D93EBB433211}"/>
+    <hyperlink ref="E192" r:id="rId468" display="https://www.randallcounty.gov/DocumentCenter/View/3408/Official-Democratic-Canvass-Results" xr:uid="{572B4E07-B924-4A49-9073-5B95CF77E5A7}"/>
+    <hyperlink ref="F192" r:id="rId469" display="https://www.randallcounty.gov/DocumentCenter/View/3412/Official-Republican-Cumulative-Results" xr:uid="{A18E1579-0318-DD4E-B72B-F07CAB4D75AC}"/>
+    <hyperlink ref="B193" r:id="rId470" display="https://www.co.reagan.tx.us/page/reagan.Elections" xr:uid="{76E5E024-BEB8-F44A-B698-8F42E2C42662}"/>
+    <hyperlink ref="D193" r:id="rId471" display="https://www.co.reagan.tx.us/upload/page/9496/2024/precinct_results11182024_075528_am.pdf" xr:uid="{63937D86-C2CC-9E40-9BCF-C1A1BDD33305}"/>
+    <hyperlink ref="B194" r:id="rId472" display="https://www.co.real.tx.us/page/real.Elections" xr:uid="{2FB362FA-9008-5041-8C4A-13749F629310}"/>
+    <hyperlink ref="B195" r:id="rId473" display="https://www.co.red-river.tx.us/page/redriver.ElectionsCountyClerk" xr:uid="{59A80137-3BF3-644B-8875-59C1F60687F7}"/>
+    <hyperlink ref="E195" r:id="rId474" display="https://www.co.red-river.tx.us/upload/page/10703/Democratic Official Precinct Results Primary Election March 5 2024.pdf" xr:uid="{469BE52E-9C0E-934E-97F2-BB6B0FD48AC5}"/>
+    <hyperlink ref="F195" r:id="rId475" display="https://www.co.red-river.tx.us/upload/page/10703/Republican Official Precinct Results Primary Election March 5 2024.pdf" xr:uid="{1E72191A-6AA0-0C47-9772-CDEC953ADA22}"/>
+    <hyperlink ref="I195" r:id="rId476" display="https://www.co.red-river.tx.us/upload/page/10703/Official Precinct Results for Primary Runoff.pdf" xr:uid="{652FDBFF-F799-1145-A136-71EB80D42752}"/>
+    <hyperlink ref="B196" r:id="rId477" display="https://www.reevescounty.org/departments/elections/election-results-archive" xr:uid="{04243F86-DE67-044C-A468-434813044122}"/>
+    <hyperlink ref="D196" r:id="rId478" display="https://www.reevescounty.org/home/showpublisheddocument/3613/638672595751530000" xr:uid="{50657F89-AB51-2C44-82F8-E72CEB0BC79D}"/>
+    <hyperlink ref="G196" r:id="rId479" display="https://www.reevescounty.org/home/showpublisheddocument/2888/638471384895900000" xr:uid="{0173A76A-1B23-884D-962F-D261B8A6BCFD}"/>
+    <hyperlink ref="J196" r:id="rId480" display="https://www.reevescounty.org/home/showpublisheddocument/3119/638531916491970000" xr:uid="{0C85C840-C837-2E46-8DEA-5C1D78ADA93A}"/>
+    <hyperlink ref="B197" r:id="rId481" display="https://www.co.refugio.tx.us/page/refugio.elections" xr:uid="{ED101072-A3D9-974C-ADF7-06BD3A7C6E60}"/>
+    <hyperlink ref="D197" r:id="rId482" display="https://www.co.refugio.tx.us/upload/page/11597/docs/2024 - NOVEMBER 5/NOTICES/2024 - NOVEMBER 5 - OFFICIAL - PRECINCT RESULTS - TOTAL.pdf" xr:uid="{B0C5A9B7-1F48-BB46-A1EB-13B5D60AA287}"/>
+    <hyperlink ref="E197" r:id="rId483" display="https://www.co.refugio.tx.us/upload/page/11577/docs/2023 - MARCH 5 - PRIMARY/2024 - MARCH 5 - PRECINCT RESULTS - ALL - DEM.pdf" xr:uid="{842833E1-4236-D44E-8753-9B593A3E0B5C}"/>
+    <hyperlink ref="F197" r:id="rId484" display="https://www.co.refugio.tx.us/upload/page/11577/docs/2023 - MARCH 5 - PRIMARY/2024 - MARCH 5 - PRECINCT RESULTS - ALL - REP.pdf" xr:uid="{64117017-5848-3849-B614-78C782306604}"/>
+    <hyperlink ref="B198" r:id="rId485" display="https://www.co.roberts.tx.us/page/roberts.elections" xr:uid="{DFA305A2-75AF-724B-B7A2-0A2C9C81D08F}"/>
+    <hyperlink ref="B199" r:id="rId486" display="https://www.co.robertson.tx.us/page/robertson.Elections" xr:uid="{285E5433-E800-DE4E-8D63-A63D28E03D4E}"/>
+    <hyperlink ref="C199" r:id="rId487" display="https://results.enr.clarityelections.com/TX/Robertson/" xr:uid="{4DFCC38E-47F6-9546-9BBD-5D957F510F63}"/>
+    <hyperlink ref="B200" r:id="rId488" display="https://www.rockwallvotes.com/election-information/election-results-in-progress/" xr:uid="{1FC5053C-5F67-C34C-A144-902EBD5DB520}"/>
+    <hyperlink ref="C200" r:id="rId489" display="https://results.enr.clarityelections.com/TX/Rockwall/" xr:uid="{F1D3A5A2-6CE3-D748-A124-28DECA805FE7}"/>
+    <hyperlink ref="D200" r:id="rId490" display="https://results.enr.clarityelections.com/TX/Rockwall/122491/355310/reports/detailxls.zip" xr:uid="{88299967-795B-C041-ACB6-F28C755CF215}"/>
+    <hyperlink ref="G200" r:id="rId491" display="https://results.enr.clarityelections.com/TX/Rockwall/120244/333319/reports/detailxls.zip" xr:uid="{387FF0E9-590F-4943-B1EA-23E369374551}"/>
+    <hyperlink ref="I200" r:id="rId492" display="https://results.enr.clarityelections.com/TX/Rockwall/121703/341759/reports/detailxls.zip" xr:uid="{4A22B1FE-A230-6C40-8838-E6BF7FCD6672}"/>
+    <hyperlink ref="B201" r:id="rId493" display="https://www.runnelscounty.org/page/runnels.Elections" xr:uid="{65CEEDCB-6ECD-2246-99E3-290F48A438FB}"/>
+    <hyperlink ref="B202" r:id="rId494" display="https://www.ruskcountytx.gov/page/rusk.Elections" xr:uid="{96A3202E-14B9-A346-903F-4382D9871F20}"/>
+    <hyperlink ref="C202" r:id="rId495" display="https://results.enr.clarityelections.com/TX/Rusk/" xr:uid="{05F6BBDC-F5C3-534A-B326-85B5599A9CB7}"/>
+    <hyperlink ref="D202" r:id="rId496" display="https://results.enr.clarityelections.com/TX/Rusk/122760/355999/reports/detailxls.zip" xr:uid="{31F5E703-4654-7F47-97D2-AB3BEC07957F}"/>
+    <hyperlink ref="G202" r:id="rId497" display="https://results.enr.clarityelections.com/TX/Rusk/120252/331977/reports/detailxls.zip" xr:uid="{2CC01EE1-F2D7-A842-A036-215438808A34}"/>
+    <hyperlink ref="B203" r:id="rId498" display="https://www.co.sabine.tx.us/page/sabine.Election Results" xr:uid="{C49BB270-F621-2547-9990-AE0DF91DBBA2}"/>
+    <hyperlink ref="B204" r:id="rId499" display="https://www.co.san-augustine.tx.us/page/sanaugustine.Elections" xr:uid="{FB456E0A-A32B-3D40-A9EE-8C3895D706CC}"/>
+    <hyperlink ref="B205" r:id="rId500" display="https://www.co.san-jacinto.tx.us/page/sanjacinto.Elections" xr:uid="{B5334ABD-924C-D146-9EAA-540F10068753}"/>
+    <hyperlink ref="B206" r:id="rId501" display="https://www.sanpatriciocountytx.gov/page/elections.results.archive.16" xr:uid="{9BFB5C64-B6DB-6D48-81A6-E2370E3FC6B5}"/>
+    <hyperlink ref="D206" r:id="rId502" display="https://www.sanpatriciocountytx.gov/upload/page/0124/docs/2024 Elections Official Results/2024 November Precinct Results.pdf" xr:uid="{64CB6053-FDDE-7447-B780-D382B0AC6A49}"/>
+    <hyperlink ref="E206" r:id="rId503" display="https://www.sanpatriciocountytx.gov/upload/page/0124/docs/2024 Elections Official Results/2024 March Official Precinct Results- Dem.pdf" xr:uid="{FD29E368-123C-6046-A265-D479DD5C8D66}"/>
+    <hyperlink ref="F206" r:id="rId504" display="https://www.sanpatriciocountytx.gov/upload/page/0124/docs/2024 Elections Official Results/2024 March Official Precinct Results- Rep.pdf" xr:uid="{30CDBD42-D82D-A640-8853-DCD56F6B8F27}"/>
+    <hyperlink ref="I206" r:id="rId505" display="https://www.sanpatriciocountytx.gov/upload/page/0124/docs/2024 Elections Official Results/2024 May Runoff Precinct Results.pdf" xr:uid="{FD9FFD8B-2D88-ED4F-A0F0-A538B09C429F}"/>
+    <hyperlink ref="B207" r:id="rId506" display="https://www.co.san-saba.tx.us/page/sansaba.Elections" xr:uid="{2E09C32D-B2DC-B442-AECF-37E5448F1A01}"/>
+    <hyperlink ref="D207" r:id="rId507" display="https://www.co.san-saba.tx.us/upload/page/6028/docs/ElectionResultsbyPrecintUnofficial2024.pdf" xr:uid="{10E8C88E-5D11-5C45-B24A-CF3D72DD705C}"/>
+    <hyperlink ref="B208" r:id="rId508" display="https://www.schleichercounty.gov/page/schleicher.Elections" xr:uid="{0BBDBC58-BBFB-3341-A97F-BC6D3FA4D1BE}"/>
+    <hyperlink ref="B209" r:id="rId509" display="https://www.co.scurry.tx.us/page/elections.previous.elections" xr:uid="{CF456A97-1988-E948-BAF8-1EF5E3391758}"/>
+    <hyperlink ref="B210" r:id="rId510" display="https://www.shackelfordcounty.org/page/shackelford.Elections" xr:uid="{5586E938-15CC-2B42-998F-9CE6B406B7AC}"/>
+    <hyperlink ref="B211" r:id="rId511" display="https://www.co.shelby.tx.us/page/shelby.Elections" xr:uid="{5632DE6B-AAD9-EA45-9BDA-2169360697EB}"/>
+    <hyperlink ref="B212" r:id="rId512" display="https://www.co.sherman.tx.us/page/sherman.Elections" xr:uid="{CCB5AB0C-23D4-FF46-9A2D-05C188DE89C8}"/>
+    <hyperlink ref="B213" r:id="rId513" display="https://www.smith-county.com/government/departments/elections/election-archive/election-archive-results" xr:uid="{7A8AB676-0403-D741-9F07-D5CA5C831642}"/>
+    <hyperlink ref="D213" r:id="rId514" display="https://www.smith-county.com/home/showpublisheddocument/20228/638676299142530000" xr:uid="{FA52DA3C-A2D1-FD45-A068-9857D78A1110}"/>
+    <hyperlink ref="G213" r:id="rId515" display="https://www.smith-county.com/home/showpublisheddocument/19558/638464315859400000" xr:uid="{F5A3B3DE-5D8B-994D-8A90-85EC01C9FF95}"/>
+    <hyperlink ref="J213" r:id="rId516" display="https://www.smith-county.com/home/showpublisheddocument/19826/638537177437970000" xr:uid="{F232EBE4-B1B8-6A47-BAA6-2E5C632BEF34}"/>
+    <hyperlink ref="B214" r:id="rId517" display="https://www.somervell.co/160/Elections" xr:uid="{6F946595-4FD4-B74A-A9C0-B8BE23000680}"/>
+    <hyperlink ref="B215" r:id="rId518" display="https://www.co.starr.tx.us/page/starr.Elections" xr:uid="{7B54F4D5-D73C-E340-8367-D5FCDD6127F4}"/>
+    <hyperlink ref="D215" r:id="rId519" display="https://www.co.starr.tx.us/upload/page/6487/docs/Starr 2024/Starr-OfficialResultsbyPct Nov52024.pdf" xr:uid="{DF61BA0D-47D2-6B4C-B6B6-9D6C76CA3F6B}"/>
+    <hyperlink ref="E215" r:id="rId520" display="https://newtools.cira.state.tx.us/upload/page/6487/docs/March2024/DEM official results by PCT.pdf" xr:uid="{076F930E-8CCE-EE4E-9820-A4A67A39374F}"/>
+    <hyperlink ref="F215" r:id="rId521" display="https://newtools.cira.state.tx.us/upload/page/6487/docs/March2024/REP offial results by PCT.pdf" xr:uid="{6598826F-60C2-C64F-83DC-CD932D2E4AD2}"/>
+    <hyperlink ref="I215" r:id="rId522" display="https://newtools.cira.state.tx.us/upload/page/6487/docs/May2024/Official runoff  Pct report.pdf" xr:uid="{AF0A7D85-CA95-F841-83D4-42EDE1706743}"/>
+    <hyperlink ref="B216" r:id="rId523" display="https://www.co.stephens.tx.us/page/stephens.Elections" xr:uid="{99658AE6-B403-DF45-923D-B7D28DD8D9E8}"/>
+    <hyperlink ref="D216" r:id="rId524" display="https://www.co.stephens.tx.us/upload/page/2592/2024/Precinct Report 11-5-2024 General.pdf" xr:uid="{E0317F78-C787-B544-A066-3019112AEFB2}"/>
+    <hyperlink ref="B217" r:id="rId525" display="https://www.co.sterling.tx.us/page/sterling.Elections" xr:uid="{FFC785E7-B8AB-F34E-A8C5-809AE97C60B1}"/>
+    <hyperlink ref="B218" r:id="rId526" display="https://www.stonewallcounty.org/page/stonewall.Elections" xr:uid="{04935E45-798E-6D44-902B-C54539D6A2F0}"/>
+    <hyperlink ref="B219" r:id="rId527" display="https://www.co.sutton.tx.us/page/sutton.Elections" xr:uid="{8B202A99-4332-2549-B5EA-575D2E5F77DC}"/>
+    <hyperlink ref="B220" r:id="rId528" display="https://www.co.swisher.tx.us/page/swisher.Elections" xr:uid="{7DAA50D5-1B1F-9043-B7ED-10CF82F43A15}"/>
+    <hyperlink ref="D220" r:id="rId529" display="https://www.co.swisher.tx.us/upload/page/7290/2024 November 5 General Election Official Summary and Precinct Combined.pdf" xr:uid="{743B7BD9-98E3-1046-8C3E-7B5D274CECBE}"/>
+    <hyperlink ref="I220" r:id="rId530" display="https://newtools.cira.state.tx.us/upload/page/7290/Official Results 06.03.2024.pdf" xr:uid="{13600240-11CA-2A4D-B5DC-FCB99B21E6D0}"/>
+    <hyperlink ref="B221" r:id="rId531" display="https://www.tarrantcountytx.gov/en/elections/past-election-information.html" xr:uid="{855F3794-F545-B048-B347-0C43B4B96122}"/>
+    <hyperlink ref="C221" r:id="rId532" display="https://results.enr.clarityelections.com/TX/Tarrant/" xr:uid="{4B62E9BE-156B-DE43-9DF3-09BD2B7A17B1}"/>
+    <hyperlink ref="D221" r:id="rId533" display="https://www.tarrantcountytx.gov/content/dam/main/elections/2024/1124/reports/precinct.pdf" xr:uid="{67F3CFF1-F59E-F34D-BEC9-5E88A1CBBF5C}"/>
+    <hyperlink ref="E221" r:id="rId534" display="https://www.tarrantcountytx.gov/content/dam/main/elections/2024/pm24/reports/precinct_dem.pdf" xr:uid="{4338B352-4F02-0847-814F-0ADEB235699A}"/>
+    <hyperlink ref="F221" r:id="rId535" display="https://www.tarrantcountytx.gov/content/dam/main/elections/2024/pm24/reports/precinct_rep.pdf" xr:uid="{D19E8733-580A-F940-910B-2C4A33656A77}"/>
+    <hyperlink ref="G221" r:id="rId536" display="https://results.enr.clarityelections.com/TX/Tarrant/119492/333413/reports/detailxls.zip" xr:uid="{30933034-4721-0349-86BA-51FCF565BAE6}"/>
+    <hyperlink ref="H221" r:id="rId537" display="https://www.tarrantcountytx.gov/content/dam/main/elections/2024/pr24/reports/precinct_dem.pdf" xr:uid="{6423025D-0E08-DC46-8F7E-0E19FC93C200}"/>
+    <hyperlink ref="I221" r:id="rId538" display="https://www.tarrantcountytx.gov/content/dam/main/elections/2024/pr24/reports/precinct_rep.pdf" xr:uid="{2D39DF50-CDE6-5440-AD32-D85A22AED1EF}"/>
+    <hyperlink ref="J221" r:id="rId539" display="https://results.enr.clarityelections.com/TX/Tarrant/121069/341703/reports/detailxls.zip" xr:uid="{7E447E5A-E164-3D4C-A064-6A97BF6BAA1D}"/>
+    <hyperlink ref="B223" r:id="rId540" display="https://www.co.terrell.tx.us/page/terrell.Elections" xr:uid="{37D8CF3D-4262-5340-A2C5-97713630BF2E}"/>
+    <hyperlink ref="B224" r:id="rId541" display="https://www.co.terry.tx.us/page/terry.Elections" xr:uid="{F068305F-1016-5A4C-82F9-76BB52B7D06B}"/>
+    <hyperlink ref="D224" r:id="rId542" display="https://www.co.terry.tx.us/upload/page/12074/docs/Official Totals 11-5-24.pdf" xr:uid="{B2520CAC-488C-AA4B-B01C-DE97F883EFE2}"/>
+    <hyperlink ref="B225" r:id="rId543" display="https://www.throckmortoncounty.org/page/throckmorton.electionsposting" xr:uid="{CFFA817C-CF8B-404E-8723-F904EBE16895}"/>
+    <hyperlink ref="G225" r:id="rId544" display="https://www.throckmortoncounty.org/upload/page/11531/Official Results-2024I.pdf" xr:uid="{BDF874C6-6D48-B94C-95AF-CB881B280075}"/>
+    <hyperlink ref="B226" r:id="rId545" display="https://www.co.titus.tx.us/page/elections.home" xr:uid="{B60CE6C5-61F1-7F42-900E-0937BCAA140B}"/>
+    <hyperlink ref="D226" r:id="rId546" display="https://www.co.titus.tx.us/upload/page/0098/Whole Canvass Report.pdf" xr:uid="{A69CD5C6-8ADD-E447-9537-8FA80305B451}"/>
+    <hyperlink ref="B227" r:id="rId547" display="https://www.tomgreencountytx.gov/page/ele.ElectionsResults" xr:uid="{A7873218-AF36-F046-898E-99E540460538}"/>
+    <hyperlink ref="D227" r:id="rId548" display="https://www.tomgreencountytx.gov/upload/page/0091/docs/2024/20241105/110524FinalOfficPrecResu.pdf" xr:uid="{9EE1B026-5060-FA4B-BE34-F5DE8BFD4CEC}"/>
+    <hyperlink ref="G227" r:id="rId549" display="https://www.tomgreencountytx.gov/upload/page/0091/docs/2024/20240305OPResults.pdf" xr:uid="{95991E88-AF53-1C4F-8B30-200989EFCCEA}"/>
+    <hyperlink ref="B228" r:id="rId550" display="https://results.enr.clarityelections.com/TX/Travis/" xr:uid="{E4A96818-D44F-BC41-AA42-1193D922B132}"/>
+    <hyperlink ref="C228" r:id="rId551" display="https://results.enr.clarityelections.com/TX/Travis/" xr:uid="{8A9F049B-CE6B-D047-9310-51F1B41D5344}"/>
+    <hyperlink ref="D228" r:id="rId552" display="https://results.enr.clarityelections.com/TX/Travis/122432/355984/reports/detailxls.zip" xr:uid="{C6F98ED7-DB1E-DD43-BEFE-0A23DE6CEABE}"/>
+    <hyperlink ref="G228" r:id="rId553" display="https://results.enr.clarityelections.com/TX/Travis/119440/333462/reports/detailxls.zip" xr:uid="{8C494B30-A555-3147-A6CE-6A74CCFC102C}"/>
+    <hyperlink ref="J228" r:id="rId554" display="https://results.enr.clarityelections.com/TX/Travis/121702/340735/reports/detailxls.zip" xr:uid="{B35587B9-BCBF-4D44-B090-126F42D8D3D1}"/>
+    <hyperlink ref="B229" r:id="rId555" display="https://www.co.trinity.tx.us/page/trinity.Elections2" xr:uid="{7E97D45B-AAC0-1F41-B18B-EF378C1B111B}"/>
+    <hyperlink ref="B230" r:id="rId556" display="https://www.co.tyler.tx.us/page/tyler.ElectionInformation" xr:uid="{D58EDC96-02D6-D442-975E-8F20D75120A8}"/>
+    <hyperlink ref="D230" r:id="rId557" display="https://www.co.tyler.tx.us/page/tyler.ElectionInformation" xr:uid="{06145CE7-C4AF-F047-800F-3999932EF144}"/>
+    <hyperlink ref="G230" r:id="rId558" display="https://www.co.tyler.tx.us/upload/page/3316/March 5 2024 Official Election Results0001.pdf" xr:uid="{32ED2C8D-EC9E-2F4A-B31B-6B530D606D16}"/>
+    <hyperlink ref="B231" r:id="rId559" display="https://www.countyofupshur.com/page/elections" xr:uid="{ED7DF8E7-99F0-2D44-9316-210EA87B597A}"/>
+    <hyperlink ref="D231" r:id="rId560" display="https://www.countyofupshur.com/page/open/1355/0/November 5 2024 Precinct Report.pdf" xr:uid="{A4F8FFC9-A794-7645-90C3-63E7EAE5229E}"/>
+    <hyperlink ref="E231" r:id="rId561" display="https://www.countyofupshur.com/page/open/1355/0/March 5 2024 Democratic Primary Precinct by Precinct Report.pdf" xr:uid="{CC1B7C18-0EE1-0C46-AD6E-F8A6F1E52D2F}"/>
+    <hyperlink ref="F231" r:id="rId562" display="https://www.countyofupshur.com/page/open/1355/0/March 5 2024 Republican Primary Precinct by Precinct Report.pdf" xr:uid="{FEE3A6D4-351B-2446-AC23-AFE461DB891C}"/>
+    <hyperlink ref="B232" r:id="rId563" display="https://www.co.upton.tx.us/page/upton.elections" xr:uid="{F26C0CD9-1C97-1F48-9B19-3EE68F540AB5}"/>
+    <hyperlink ref="B233" r:id="rId564" display="https://www.uvaldecountyelections.com/" xr:uid="{371499A8-31A3-8D4B-B611-C7491600556B}"/>
+    <hyperlink ref="G233" r:id="rId565" display="https://drive.google.com/file/d/1OJajAPDZaEkQnpM3rLY00vniOR6Ssmgc/view" xr:uid="{476EBC20-6046-B449-9BC6-4449364FCF02}"/>
+    <hyperlink ref="B234" r:id="rId566" display="https://valverdecounty.texas.gov/270/Elections" xr:uid="{AFC5264E-F345-C144-B57F-BEDBB46A7B51}"/>
+    <hyperlink ref="D234" r:id="rId567" display="https://valverdecounty.texas.gov/DocumentCenter/View/8425/General-Election-2024-Official-Precinct-by-Precinct-" xr:uid="{E5C4C210-816F-2844-B642-D34675D77053}"/>
+    <hyperlink ref="B235" r:id="rId568" display="https://www.vanzandtcounty.org/page/vanzandt.Elections" xr:uid="{24D714E7-9050-A044-A9EA-2BB283F7F512}"/>
+    <hyperlink ref="G235" r:id="rId569" display="https://www.vanzandtcounty.org/upload/page/2707/2024/finalcanvass_results3142024_014516_pm.pdf" xr:uid="{84763EC7-15D3-7249-8F14-526FF34292B2}"/>
+    <hyperlink ref="J235" r:id="rId570" display="https://www.vanzandtcounty.org/upload/page/2707/2024/canvass_results642024_025517_pm.pdf" xr:uid="{D86D7567-1974-454F-94BF-C6388DEF02C6}"/>
+    <hyperlink ref="B236" r:id="rId571" display="https://www.vctx.org/page/elections.results" xr:uid="{196A5341-7FE0-3A42-B395-AB491CBF7C89}"/>
+    <hyperlink ref="C236" r:id="rId572" display="https://results.enr.clarityelections.com/TX/Victoria/" xr:uid="{2D86DEFA-9C93-0148-A679-768CA7D1260F}"/>
+    <hyperlink ref="D236" r:id="rId573" display="https://results.enr.clarityelections.com/TX/Victoria/122848/355288/reports/detailxls.zip" xr:uid="{516FD9B7-C2E6-3F4E-8F35-358B0CC37921}"/>
+    <hyperlink ref="G236" r:id="rId574" display="https://results.enr.clarityelections.com/TX/Victoria/120384/333962/reports/detailxls.zip" xr:uid="{29DAD030-160A-B84E-9423-80A33F598FB1}"/>
+    <hyperlink ref="J236" r:id="rId575" display="https://results.enr.clarityelections.com/TX/Victoria/121796/341555/reports/detailxls.zip" xr:uid="{15B2324A-AFB5-4342-8401-71A75C1F333F}"/>
+    <hyperlink ref="B237" r:id="rId576" display="https://www.co.walker.tx.us/department/division.php?structureid=141" xr:uid="{74C65E5A-B484-F442-9EE9-EDD3B42AD428}"/>
+    <hyperlink ref="B238" r:id="rId577" display="https://www.co.waller.tx.us/page/Elections.current" xr:uid="{FA2AECDB-D42C-6E44-ACD0-37F27663303C}"/>
+    <hyperlink ref="B239" r:id="rId578" display="https://www.co.ward.tx.us/page/ward.Elections" xr:uid="{D0EF1CE0-3C1D-A645-855A-6D7D88A0CD55}"/>
+    <hyperlink ref="B240" r:id="rId579" display="https://www.co.washington.tx.us/page/washington.elections.information" xr:uid="{E4B2F9BC-CDE1-FF45-8CF3-139BF96BCC7F}"/>
+    <hyperlink ref="D240" r:id="rId580" display="https://www.co.washington.tx.us/upload/page/10698/010101a23456 Official Results.pdf" xr:uid="{957130EC-D820-514E-9F6D-9BF54D55D70C}"/>
+    <hyperlink ref="G240" r:id="rId581" display="https://www.co.washington.tx.us/upload/page/10698/1a joint prec by prec report.pdf" xr:uid="{EE616327-C49C-C14C-B502-23A0CA770008}"/>
+    <hyperlink ref="H240" r:id="rId582" display="https://www.co.washington.tx.us/upload/page/10698/DEM PBP.pdf" xr:uid="{B98E0EDB-E893-5D4D-96A7-BDAB7CB5F7E2}"/>
+    <hyperlink ref="I240" r:id="rId583" display="https://www.co.washington.tx.us/upload/page/10698/REP PBP.pdf" xr:uid="{67AFACC2-1A19-B743-955C-5AC5CBBAB3B7}"/>
+    <hyperlink ref="B241" r:id="rId584" display="https://www.webbcountytx.gov/ElectionsAdministration/ArchivedResults/" xr:uid="{1133ED9C-4BCA-4148-A131-85C3727D2D6C}"/>
+    <hyperlink ref="B242" r:id="rId585" display="https://www.co.wharton.tx.us/page/wharton.Elections" xr:uid="{2BDB1D11-E0A5-B141-83F4-5A4F5481976A}"/>
+    <hyperlink ref="D242" r:id="rId586" display="https://www.co.wharton.tx.us/upload/page/7010/docs/Reports/2024 November/11.12.24 PCT-PCT.pdf" xr:uid="{3E52A589-80C8-1F43-AC77-8C3665530ED5}"/>
+    <hyperlink ref="B243" r:id="rId587" display="https://www.wheelercounty.texas.gov/page/wheeler.Elections" xr:uid="{593103FA-315E-9649-A71B-A8F7447189B7}"/>
+    <hyperlink ref="B244" r:id="rId588" display="https://wichitacountytx.com/election_info/election-results-archive/" xr:uid="{5F41934A-5896-CE48-9DD4-5FE2B5EB1AC9}"/>
+    <hyperlink ref="D244" r:id="rId589" display="https://wichitacountytx.com/wp-content/uploads/2023/10/11.5.2024-Precinct-Results.pdf" xr:uid="{1C78B593-D6CE-2A42-92E6-420BDEB7525B}"/>
+    <hyperlink ref="E244" r:id="rId590" display="https://wichitacountytx.com/wp-content/uploads/2023/10/3.5.2024-Democratic-Precinct-Results.pdf" xr:uid="{EDDB953E-7B4C-D146-8979-297B4E87167A}"/>
+    <hyperlink ref="F244" r:id="rId591" display="https://wichitacountytx.com/wp-content/uploads/2023/10/3.5.2024-Republican-Precinct-Results.pdf" xr:uid="{F0FE8896-DE8B-BD4E-AE50-DC1E75912DA9}"/>
+    <hyperlink ref="H244" r:id="rId592" display="https://wichitacountytx.com/wp-content/uploads/2018/10/Democratic-Primary-Runoff-Precinct-Results.pdf" xr:uid="{63BEC4C0-5EE4-6F40-8C9B-CEA0DFD4D0B2}"/>
+    <hyperlink ref="I244" r:id="rId593" display="https://wichitacountytx.com/wp-content/uploads/2023/10/3.5.2024-Republican-Precinct-Results.pdf" xr:uid="{3FCDD7A2-9913-174C-951C-53C3EA8BABB6}"/>
+    <hyperlink ref="B245" r:id="rId594" display="https://www.co.wilbarger.tx.us/page/wilbarger.elections" xr:uid="{EF8F3C66-4680-CF4E-9217-64EF9CE60783}"/>
+    <hyperlink ref="B246" r:id="rId595" display="https://www.co.willacy.tx.us/page/willacy.Elections" xr:uid="{484370C9-879A-A044-B213-F99FE21C0B6E}"/>
+    <hyperlink ref="B247" r:id="rId596" display="https://www.wilcotx.gov/292/Results-Archive" xr:uid="{67EE741E-D02A-5747-A150-139FA2898728}"/>
+    <hyperlink ref="C247" r:id="rId597" display="https://results.enr.clarityelections.com/TX/Williamson/" xr:uid="{38B94C57-AB69-4E4E-8337-6BA70C2061AC}"/>
+    <hyperlink ref="B248" r:id="rId598" display="https://www.co.wilson.tx.us/page/wilson.Elections" xr:uid="{C6B7CB8D-AAEC-0843-A586-B86F3A9228C8}"/>
+    <hyperlink ref="B249" r:id="rId599" display="https://www.co.winkler.tx.us/213/Elections" xr:uid="{F2E817DB-EC3C-BC49-8274-C2DE4C002F39}"/>
+    <hyperlink ref="B250" r:id="rId600" display="https://www.co.wise.tx.us/315/Elections" xr:uid="{ADCA751B-D9BB-0D4E-8B3C-7234BED84FB6}"/>
+    <hyperlink ref="D250" r:id="rId601" display="https://www.co.wise.tx.us/DocumentCenter/View/6011/November-5-2024-General-and-Special-Election---Official-Precinct-Results-Report" xr:uid="{48A172D8-F8C3-874B-8B52-A7A0C8017F3E}"/>
+    <hyperlink ref="B251" r:id="rId602" display="https://elections.mywoodcounty.com/election-information/election-results/" xr:uid="{D524CE59-4A9B-364A-B80D-6E3C65D359EC}"/>
+    <hyperlink ref="C251" r:id="rId603" display="https://results.enr.clarityelections.com/TX/Wood/" xr:uid="{7B04DECC-27D6-0B41-931A-FB72D962F771}"/>
+    <hyperlink ref="D251" r:id="rId604" display="https://results.enr.clarityelections.com/TX/Wood/122311/353543/reports/detailxls.zip" xr:uid="{E697E87A-01A7-7444-B921-8D2493A18135}"/>
+    <hyperlink ref="G251" r:id="rId605" display="https://results.enr.clarityelections.com/TX/Wood/120255/332259/reports/detailxls.zip" xr:uid="{83250DEA-C70A-6543-8407-336AD93C6ACE}"/>
+    <hyperlink ref="J251" r:id="rId606" display="https://results.enr.clarityelections.com/TX/Wood/121704/340133/reports/detailxls.zip" xr:uid="{AE53F45B-859C-AC44-9C53-C450946016F3}"/>
+    <hyperlink ref="B252" r:id="rId607" display="https://www.co.yoakum.tx.us/page/yoakum.Elections" xr:uid="{957F174E-A71A-7C48-857E-96959B5A82C0}"/>
+    <hyperlink ref="B253" r:id="rId608" display="https://www.co.young.tx.us/page/young.Elections" xr:uid="{8410CACA-DB25-F54D-844C-AAE0DA1F8806}"/>
+    <hyperlink ref="B254" r:id="rId609" display="https://www.co.zapata.tx.us/page/zapata.Elections" xr:uid="{4D023147-C6FA-E642-A87F-27BB07CCD935}"/>
+    <hyperlink ref="B255" r:id="rId610" display="https://www.co.zavala.tx.us/page/Elections" xr:uid="{044A9297-DC96-E54E-988C-0F3AA4D657E4}"/>
+    <hyperlink ref="B62" r:id="rId611" location="PastElections" display="https://www.votedenton.gov/election-results-and-maps/election-results/ - PastElections" xr:uid="{EECFA856-6C9D-214C-B6A3-92A7A9A78201}"/>
+    <hyperlink ref="C62" r:id="rId612" display="https://results.enr.clarityelections.com/TX/Denton/" xr:uid="{36BBA1B1-4065-474E-A017-750EBCEE1488}"/>
+    <hyperlink ref="D62" r:id="rId613" display="https://results.enr.clarityelections.com/TX/Denton/122426/355989/reports/detailxls.zip" xr:uid="{54B860FD-8435-B942-91F8-1E79C770165D}"/>
+    <hyperlink ref="E62" r:id="rId614" display="https://results.enr.clarityelections.com/TX/Denton/120183/334619/reports/detailxls.zip" xr:uid="{3BEEF875-5E75-1F41-859C-6D57E49806DA}"/>
+    <hyperlink ref="F62" r:id="rId615" display="https://results.enr.clarityelections.com/TX/Denton/120184/334618/reports/detailxls.zip" xr:uid="{152A52F1-1F09-484C-B9FF-BBD3D50CD26D}"/>
+    <hyperlink ref="H62" r:id="rId616" display="https://assets01.aws.connect.clarityelections.com/Assets/Connect/RootPublish/denton-tx.connect.clarityelections.com/ElectionResults/2024/PR24/Dem/2024_Democratic_Primary_Runoff_Election_Precinct.pdf" xr:uid="{7F53FAB4-2BA3-FA49-B148-E85DAEE4E5E8}"/>
+    <hyperlink ref="I62" r:id="rId617" display="https://assets01.aws.connect.clarityelections.com/Assets/Connect/RootPublish/denton-tx.connect.clarityelections.com/ElectionResults/2024/PR24/Rep/2024_Republican_Primary_Runoff_Election_Precinct.pdf" xr:uid="{7BD9CFEE-9500-744C-84D8-8B2A47CCB5CE}"/>
+    <hyperlink ref="B85" r:id="rId618" display="https://galvestonvotes.org/election-information/historical-elections/" xr:uid="{74114118-7A31-D14A-B772-1E020C702D3C}"/>
+    <hyperlink ref="C85" r:id="rId619" display="https://results.enr.clarityelections.com/TX/Galveston/" xr:uid="{FC2ABAF6-FC64-264A-9564-F3EDE27A4805}"/>
+    <hyperlink ref="D85" r:id="rId620" display="https://galvestonvotes.org/wp-content/uploads/2025/02/2024-November-5th-Election-Canvass-Report-5NOV24.pdf" xr:uid="{4C484461-903F-4D46-87D7-BF81E8B99FAD}"/>
+    <hyperlink ref="G85" r:id="rId621" display="https://galvestonvotes.org/wp-content/uploads/2025/02/2024-Primary-Canvass-Report-5MAR24.pdf" xr:uid="{775ABB15-3B7F-3147-A622-ABF2DB879CC6}"/>
+    <hyperlink ref="J85" r:id="rId622" display="https://galvestonvotes.org/wp-content/uploads/2025/02/2024-Primary-Runoff-Canvass-Report-28May24.pdf" xr:uid="{8E07F343-164D-354E-942B-E46D2EE4EA89}"/>
+    <hyperlink ref="B101" r:id="rId623" display="https://www.co.hardin.tx.us/page/ElectionsDepartment" xr:uid="{B4DF876D-A50B-0543-A54A-E4A6AE7FA939}"/>
+    <hyperlink ref="B109" r:id="rId624" display="https://www.hidalgocounty.us/539/Archived-Election-Results" xr:uid="{0DCF1B5F-BFC2-DF46-940F-5CA7A8A9757D}"/>
+    <hyperlink ref="C109" r:id="rId625" display="https://results.enr.clarityelections.com/TX/Hidalgo/" xr:uid="{AB18E774-AE9E-0641-A16C-2A13A9DE96C6}"/>
+    <hyperlink ref="D109" r:id="rId626" display="https://results.enr.clarityelections.com/TX/Hidalgo/122498/355530/reports/detailxls.zip" xr:uid="{BD25DA5B-1E2C-994E-9655-0D2612A42882}"/>
+    <hyperlink ref="E109" r:id="rId627" display="https://www.hidalgocounty.us/DocumentCenter/View/66704/Precinct-Results-3-13-2024-09-06-07-AM-DEMS" xr:uid="{D7C4ECE6-DB24-F347-8899-682081223D34}"/>
+    <hyperlink ref="F109" r:id="rId628" display="https://www.hidalgocounty.us/DocumentCenter/View/66703/Precinct-Results-3-13-2024-09-04-41-AM-REPS" xr:uid="{FB7DA27E-57F8-1449-B625-5C9D86373587}"/>
+    <hyperlink ref="H109" r:id="rId629" display="https://www.hidalgocounty.us/DocumentCenter/View/67593/Precinct-Results-May-28-2024" xr:uid="{72174645-699F-5D4B-ADEF-22217B7CD9BB}"/>
+    <hyperlink ref="J109" r:id="rId630" display="https://results.enr.clarityelections.com/TX/Hidalgo/121012/341500/reports/detailxls.zip" xr:uid="{A8BD162D-B4C4-464D-81BB-CFAC1DF1B6E4}"/>
+    <hyperlink ref="B117" r:id="rId631" display="https://www.huntcounty.net/page/hunt.election" xr:uid="{B0065A7A-6E78-2341-B85E-971A138864A8}"/>
+    <hyperlink ref="C117" r:id="rId632" display="https://results.enr.clarityelections.com/TX/Hunt/" xr:uid="{2FED8EFD-A3DF-9C4B-AA25-A876896C283D}"/>
+    <hyperlink ref="B164" r:id="rId633" display="https://www.medinacountytexas.org/page/medina.elections" xr:uid="{FBFD7948-C889-814B-AD64-721FE340A9FE}"/>
+    <hyperlink ref="D164" r:id="rId634" display="https://www.medinacountytexas.org/upload/page/6805/2024 November General/Results/Official Pct Results 11.5.24.pdf" xr:uid="{CDE3743F-CBE1-9E4B-91B8-4E862B8DA3FD}"/>
+    <hyperlink ref="G164" r:id="rId635" display="https://www.medinacountytexas.org/upload/page/6805/2024 March Primary Election/Results/Official Precinct Results-3-12-2024 01-22-17 PM.pdf" xr:uid="{18B6FC73-F932-DF43-A120-FB1197543DA1}"/>
+    <hyperlink ref="J164" r:id="rId636" display="https://www.medinacountytexas.org/upload/page/6805/2024 May Primary Runoff Election/Results/5.28.24 Official Pct Results.pdf" xr:uid="{C329617D-99ED-2F46-8C9F-B52CDCF0BECA}"/>
+    <hyperlink ref="B222" r:id="rId637" display="https://www.taylorcounty.texas.gov/212/Elections" xr:uid="{C0172F40-0C11-7D47-9662-3721328F8435}"/>
+    <hyperlink ref="D247" r:id="rId638" display="https://www.wilcotx.gov/DocumentCenter/View/13240/202411NOVEMBER---Final-Unofficial---Precinct-Results-Report" xr:uid="{D53D2A6D-0A6A-764F-BC4C-2EB541BF70A7}"/>
+    <hyperlink ref="J247" r:id="rId639" display="https://www.wilcotx.gov/DocumentCenter/View/10657/May-28-2024-Democratic-and-Republican-Precinct-Results" xr:uid="{7CAE9540-DF52-9C45-BDB0-6671DDFE3109}"/>
+    <hyperlink ref="D131" r:id="rId640" display="https://results.enr.clarityelections.com/TX/Kendall/122829/358274/reports/detailxls.zip" xr:uid="{F1EE47C5-3E1A-214F-AD9B-62DF30CFF339}"/>
+    <hyperlink ref="G131" r:id="rId641" display="https://results.enr.clarityelections.com/TX/Kendall/120248/334534/reports/detailxls.zip" xr:uid="{0B4F1D4E-76DF-B042-9B56-816DAF015B5E}"/>
+    <hyperlink ref="I131" r:id="rId642" display="https://results.enr.clarityelections.com/TX/Kendall/121795/342412/reports/detailxls.zip" xr:uid="{928D3CA7-35F1-1542-B579-D92F75B8F07A}"/>
+    <hyperlink ref="D58" r:id="rId643" display="https://results.enr.clarityelections.com/TX/Dallas/122494/355193/reports/detailxls.zip" xr:uid="{F1044305-A469-1240-B5FE-172716EDFF83}"/>
+    <hyperlink ref="E58" r:id="rId644" display="https://results.enr.clarityelections.com/TX/Dallas/120550/332339/reports/detailxls.zip" xr:uid="{10F140C2-0923-D244-90D1-CC5032FAF827}"/>
+    <hyperlink ref="F58" r:id="rId645" display="https://results.enr.clarityelections.com/TX/Dallas/120549/332338/reports/detailxls.zip" xr:uid="{18E85C64-9FAD-A34D-8FEC-D6F3E3A6D60F}"/>
+    <hyperlink ref="J58" r:id="rId646" display="https://results.enr.clarityelections.com/TX/Dallas/121712/340672/reports/detailxls.zip" xr:uid="{823C963D-7355-EE43-BAFE-74A964AA4823}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId647"/>
